--- a/python/Pi3.xlsx
+++ b/python/Pi3.xlsx
@@ -354,13 +354,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:ALM2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:1001">
       <c r="A1" s="1">
         <v>2</v>
       </c>
@@ -406,52 +406,5968 @@
       <c r="O1" s="1">
         <v>15.972</v>
       </c>
+      <c r="P1" s="1">
+        <v>16.97</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>17.968</v>
+      </c>
+      <c r="R1" s="1">
+        <v>18.966</v>
+      </c>
+      <c r="S1" s="1">
+        <v>19.964</v>
+      </c>
+      <c r="T1" s="1">
+        <v>20.962</v>
+      </c>
+      <c r="U1" s="1">
+        <v>21.96</v>
+      </c>
+      <c r="V1" s="1">
+        <v>22.958</v>
+      </c>
+      <c r="W1" s="1">
+        <v>23.956</v>
+      </c>
+      <c r="X1" s="1">
+        <v>24.954</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>25.952</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>26.95</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>27.948</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>28.946</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>29.944</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>30.942</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>31.94</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>32.938</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>33.936</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>34.934</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>35.932</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>36.93</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>37.928</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>38.926</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>39.924</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>40.922</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>41.92</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>42.918</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>43.916</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>44.914</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>45.912</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>46.91</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>47.908</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>48.906</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>49.904</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>50.902</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>51.9</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>52.898</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>53.896</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>54.894</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>55.892</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>56.89</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>57.888</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>58.886</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>59.884</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>60.882</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>61.88</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>62.878</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>63.876</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>64.874</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>65.872</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>66.87</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>67.86799999999999</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>68.866</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>69.864</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>70.86199999999999</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>71.86</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>72.858</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>73.85599999999999</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>74.854</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>75.852</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>76.84999999999999</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>77.848</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>78.846</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>79.84399999999999</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>80.842</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>81.84</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>82.83799999999999</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>83.836</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>84.834</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>85.83199999999999</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>86.83</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>87.828</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>88.82599999999999</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>89.824</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>90.822</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>91.81999999999999</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>92.818</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>93.816</v>
+      </c>
+      <c r="CP1" s="1">
+        <v>94.81399999999999</v>
+      </c>
+      <c r="CQ1" s="1">
+        <v>95.812</v>
+      </c>
+      <c r="CR1" s="1">
+        <v>96.81</v>
+      </c>
+      <c r="CS1" s="1">
+        <v>97.80800000000001</v>
+      </c>
+      <c r="CT1" s="1">
+        <v>98.806</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>99.804</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>100.802</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>101.8</v>
+      </c>
+      <c r="CX1" s="1">
+        <v>102.798</v>
+      </c>
+      <c r="CY1" s="1">
+        <v>103.796</v>
+      </c>
+      <c r="CZ1" s="1">
+        <v>104.794</v>
+      </c>
+      <c r="DA1" s="1">
+        <v>105.792</v>
+      </c>
+      <c r="DB1" s="1">
+        <v>106.79</v>
+      </c>
+      <c r="DC1" s="1">
+        <v>107.788</v>
+      </c>
+      <c r="DD1" s="1">
+        <v>108.786</v>
+      </c>
+      <c r="DE1" s="1">
+        <v>109.784</v>
+      </c>
+      <c r="DF1" s="1">
+        <v>110.782</v>
+      </c>
+      <c r="DG1" s="1">
+        <v>111.78</v>
+      </c>
+      <c r="DH1" s="1">
+        <v>112.778</v>
+      </c>
+      <c r="DI1" s="1">
+        <v>113.776</v>
+      </c>
+      <c r="DJ1" s="1">
+        <v>114.774</v>
+      </c>
+      <c r="DK1" s="1">
+        <v>115.772</v>
+      </c>
+      <c r="DL1" s="1">
+        <v>116.77</v>
+      </c>
+      <c r="DM1" s="1">
+        <v>117.768</v>
+      </c>
+      <c r="DN1" s="1">
+        <v>118.766</v>
+      </c>
+      <c r="DO1" s="1">
+        <v>119.764</v>
+      </c>
+      <c r="DP1" s="1">
+        <v>120.762</v>
+      </c>
+      <c r="DQ1" s="1">
+        <v>121.76</v>
+      </c>
+      <c r="DR1" s="1">
+        <v>122.758</v>
+      </c>
+      <c r="DS1" s="1">
+        <v>123.756</v>
+      </c>
+      <c r="DT1" s="1">
+        <v>124.754</v>
+      </c>
+      <c r="DU1" s="1">
+        <v>125.752</v>
+      </c>
+      <c r="DV1" s="1">
+        <v>126.75</v>
+      </c>
+      <c r="DW1" s="1">
+        <v>127.748</v>
+      </c>
+      <c r="DX1" s="1">
+        <v>128.746</v>
+      </c>
+      <c r="DY1" s="1">
+        <v>129.744</v>
+      </c>
+      <c r="DZ1" s="1">
+        <v>130.742</v>
+      </c>
+      <c r="EA1" s="1">
+        <v>131.74</v>
+      </c>
+      <c r="EB1" s="1">
+        <v>132.738</v>
+      </c>
+      <c r="EC1" s="1">
+        <v>133.736</v>
+      </c>
+      <c r="ED1" s="1">
+        <v>134.734</v>
+      </c>
+      <c r="EE1" s="1">
+        <v>135.732</v>
+      </c>
+      <c r="EF1" s="1">
+        <v>136.73</v>
+      </c>
+      <c r="EG1" s="1">
+        <v>137.728</v>
+      </c>
+      <c r="EH1" s="1">
+        <v>138.726</v>
+      </c>
+      <c r="EI1" s="1">
+        <v>139.724</v>
+      </c>
+      <c r="EJ1" s="1">
+        <v>140.722</v>
+      </c>
+      <c r="EK1" s="1">
+        <v>141.72</v>
+      </c>
+      <c r="EL1" s="1">
+        <v>142.718</v>
+      </c>
+      <c r="EM1" s="1">
+        <v>143.716</v>
+      </c>
+      <c r="EN1" s="1">
+        <v>144.714</v>
+      </c>
+      <c r="EO1" s="1">
+        <v>145.712</v>
+      </c>
+      <c r="EP1" s="1">
+        <v>146.71</v>
+      </c>
+      <c r="EQ1" s="1">
+        <v>147.708</v>
+      </c>
+      <c r="ER1" s="1">
+        <v>148.706</v>
+      </c>
+      <c r="ES1" s="1">
+        <v>149.704</v>
+      </c>
+      <c r="ET1" s="1">
+        <v>150.702</v>
+      </c>
+      <c r="EU1" s="1">
+        <v>151.7</v>
+      </c>
+      <c r="EV1" s="1">
+        <v>152.698</v>
+      </c>
+      <c r="EW1" s="1">
+        <v>153.696</v>
+      </c>
+      <c r="EX1" s="1">
+        <v>154.694</v>
+      </c>
+      <c r="EY1" s="1">
+        <v>155.692</v>
+      </c>
+      <c r="EZ1" s="1">
+        <v>156.69</v>
+      </c>
+      <c r="FA1" s="1">
+        <v>157.688</v>
+      </c>
+      <c r="FB1" s="1">
+        <v>158.686</v>
+      </c>
+      <c r="FC1" s="1">
+        <v>159.684</v>
+      </c>
+      <c r="FD1" s="1">
+        <v>160.682</v>
+      </c>
+      <c r="FE1" s="1">
+        <v>161.68</v>
+      </c>
+      <c r="FF1" s="1">
+        <v>162.678</v>
+      </c>
+      <c r="FG1" s="1">
+        <v>163.676</v>
+      </c>
+      <c r="FH1" s="1">
+        <v>164.674</v>
+      </c>
+      <c r="FI1" s="1">
+        <v>165.672</v>
+      </c>
+      <c r="FJ1" s="1">
+        <v>166.67</v>
+      </c>
+      <c r="FK1" s="1">
+        <v>167.668</v>
+      </c>
+      <c r="FL1" s="1">
+        <v>168.666</v>
+      </c>
+      <c r="FM1" s="1">
+        <v>169.664</v>
+      </c>
+      <c r="FN1" s="1">
+        <v>170.662</v>
+      </c>
+      <c r="FO1" s="1">
+        <v>171.66</v>
+      </c>
+      <c r="FP1" s="1">
+        <v>172.658</v>
+      </c>
+      <c r="FQ1" s="1">
+        <v>173.656</v>
+      </c>
+      <c r="FR1" s="1">
+        <v>174.654</v>
+      </c>
+      <c r="FS1" s="1">
+        <v>175.652</v>
+      </c>
+      <c r="FT1" s="1">
+        <v>176.65</v>
+      </c>
+      <c r="FU1" s="1">
+        <v>177.648</v>
+      </c>
+      <c r="FV1" s="1">
+        <v>178.646</v>
+      </c>
+      <c r="FW1" s="1">
+        <v>179.644</v>
+      </c>
+      <c r="FX1" s="1">
+        <v>180.642</v>
+      </c>
+      <c r="FY1" s="1">
+        <v>181.64</v>
+      </c>
+      <c r="FZ1" s="1">
+        <v>182.638</v>
+      </c>
+      <c r="GA1" s="1">
+        <v>183.636</v>
+      </c>
+      <c r="GB1" s="1">
+        <v>184.634</v>
+      </c>
+      <c r="GC1" s="1">
+        <v>185.632</v>
+      </c>
+      <c r="GD1" s="1">
+        <v>186.63</v>
+      </c>
+      <c r="GE1" s="1">
+        <v>187.628</v>
+      </c>
+      <c r="GF1" s="1">
+        <v>188.626</v>
+      </c>
+      <c r="GG1" s="1">
+        <v>189.624</v>
+      </c>
+      <c r="GH1" s="1">
+        <v>190.622</v>
+      </c>
+      <c r="GI1" s="1">
+        <v>191.62</v>
+      </c>
+      <c r="GJ1" s="1">
+        <v>192.618</v>
+      </c>
+      <c r="GK1" s="1">
+        <v>193.616</v>
+      </c>
+      <c r="GL1" s="1">
+        <v>194.614</v>
+      </c>
+      <c r="GM1" s="1">
+        <v>195.612</v>
+      </c>
+      <c r="GN1" s="1">
+        <v>196.61</v>
+      </c>
+      <c r="GO1" s="1">
+        <v>197.608</v>
+      </c>
+      <c r="GP1" s="1">
+        <v>198.606</v>
+      </c>
+      <c r="GQ1" s="1">
+        <v>199.604</v>
+      </c>
+      <c r="GR1" s="1">
+        <v>200.602</v>
+      </c>
+      <c r="GS1" s="1">
+        <v>201.6</v>
+      </c>
+      <c r="GT1" s="1">
+        <v>202.598</v>
+      </c>
+      <c r="GU1" s="1">
+        <v>203.596</v>
+      </c>
+      <c r="GV1" s="1">
+        <v>204.594</v>
+      </c>
+      <c r="GW1" s="1">
+        <v>205.592</v>
+      </c>
+      <c r="GX1" s="1">
+        <v>206.59</v>
+      </c>
+      <c r="GY1" s="1">
+        <v>207.588</v>
+      </c>
+      <c r="GZ1" s="1">
+        <v>208.586</v>
+      </c>
+      <c r="HA1" s="1">
+        <v>209.584</v>
+      </c>
+      <c r="HB1" s="1">
+        <v>210.582</v>
+      </c>
+      <c r="HC1" s="1">
+        <v>211.58</v>
+      </c>
+      <c r="HD1" s="1">
+        <v>212.578</v>
+      </c>
+      <c r="HE1" s="1">
+        <v>213.576</v>
+      </c>
+      <c r="HF1" s="1">
+        <v>214.574</v>
+      </c>
+      <c r="HG1" s="1">
+        <v>215.572</v>
+      </c>
+      <c r="HH1" s="1">
+        <v>216.57</v>
+      </c>
+      <c r="HI1" s="1">
+        <v>217.568</v>
+      </c>
+      <c r="HJ1" s="1">
+        <v>218.566</v>
+      </c>
+      <c r="HK1" s="1">
+        <v>219.564</v>
+      </c>
+      <c r="HL1" s="1">
+        <v>220.562</v>
+      </c>
+      <c r="HM1" s="1">
+        <v>221.56</v>
+      </c>
+      <c r="HN1" s="1">
+        <v>222.558</v>
+      </c>
+      <c r="HO1" s="1">
+        <v>223.556</v>
+      </c>
+      <c r="HP1" s="1">
+        <v>224.554</v>
+      </c>
+      <c r="HQ1" s="1">
+        <v>225.552</v>
+      </c>
+      <c r="HR1" s="1">
+        <v>226.55</v>
+      </c>
+      <c r="HS1" s="1">
+        <v>227.548</v>
+      </c>
+      <c r="HT1" s="1">
+        <v>228.546</v>
+      </c>
+      <c r="HU1" s="1">
+        <v>229.544</v>
+      </c>
+      <c r="HV1" s="1">
+        <v>230.542</v>
+      </c>
+      <c r="HW1" s="1">
+        <v>231.54</v>
+      </c>
+      <c r="HX1" s="1">
+        <v>232.538</v>
+      </c>
+      <c r="HY1" s="1">
+        <v>233.536</v>
+      </c>
+      <c r="HZ1" s="1">
+        <v>234.534</v>
+      </c>
+      <c r="IA1" s="1">
+        <v>235.532</v>
+      </c>
+      <c r="IB1" s="1">
+        <v>236.53</v>
+      </c>
+      <c r="IC1" s="1">
+        <v>237.528</v>
+      </c>
+      <c r="ID1" s="1">
+        <v>238.526</v>
+      </c>
+      <c r="IE1" s="1">
+        <v>239.524</v>
+      </c>
+      <c r="IF1" s="1">
+        <v>240.522</v>
+      </c>
+      <c r="IG1" s="1">
+        <v>241.52</v>
+      </c>
+      <c r="IH1" s="1">
+        <v>242.518</v>
+      </c>
+      <c r="II1" s="1">
+        <v>243.516</v>
+      </c>
+      <c r="IJ1" s="1">
+        <v>244.514</v>
+      </c>
+      <c r="IK1" s="1">
+        <v>245.512</v>
+      </c>
+      <c r="IL1" s="1">
+        <v>246.51</v>
+      </c>
+      <c r="IM1" s="1">
+        <v>247.508</v>
+      </c>
+      <c r="IN1" s="1">
+        <v>248.506</v>
+      </c>
+      <c r="IO1" s="1">
+        <v>249.504</v>
+      </c>
+      <c r="IP1" s="1">
+        <v>250.502</v>
+      </c>
+      <c r="IQ1" s="1">
+        <v>251.5</v>
+      </c>
+      <c r="IR1" s="1">
+        <v>252.498</v>
+      </c>
+      <c r="IS1" s="1">
+        <v>253.496</v>
+      </c>
+      <c r="IT1" s="1">
+        <v>254.494</v>
+      </c>
+      <c r="IU1" s="1">
+        <v>255.492</v>
+      </c>
+      <c r="IV1" s="1">
+        <v>256.49</v>
+      </c>
+      <c r="IW1" s="1">
+        <v>257.488</v>
+      </c>
+      <c r="IX1" s="1">
+        <v>258.486</v>
+      </c>
+      <c r="IY1" s="1">
+        <v>259.484</v>
+      </c>
+      <c r="IZ1" s="1">
+        <v>260.482</v>
+      </c>
+      <c r="JA1" s="1">
+        <v>261.48</v>
+      </c>
+      <c r="JB1" s="1">
+        <v>262.478</v>
+      </c>
+      <c r="JC1" s="1">
+        <v>263.476</v>
+      </c>
+      <c r="JD1" s="1">
+        <v>264.474</v>
+      </c>
+      <c r="JE1" s="1">
+        <v>265.472</v>
+      </c>
+      <c r="JF1" s="1">
+        <v>266.47</v>
+      </c>
+      <c r="JG1" s="1">
+        <v>267.468</v>
+      </c>
+      <c r="JH1" s="1">
+        <v>268.466</v>
+      </c>
+      <c r="JI1" s="1">
+        <v>269.464</v>
+      </c>
+      <c r="JJ1" s="1">
+        <v>270.462</v>
+      </c>
+      <c r="JK1" s="1">
+        <v>271.46</v>
+      </c>
+      <c r="JL1" s="1">
+        <v>272.458</v>
+      </c>
+      <c r="JM1" s="1">
+        <v>273.456</v>
+      </c>
+      <c r="JN1" s="1">
+        <v>274.454</v>
+      </c>
+      <c r="JO1" s="1">
+        <v>275.452</v>
+      </c>
+      <c r="JP1" s="1">
+        <v>276.45</v>
+      </c>
+      <c r="JQ1" s="1">
+        <v>277.448</v>
+      </c>
+      <c r="JR1" s="1">
+        <v>278.446</v>
+      </c>
+      <c r="JS1" s="1">
+        <v>279.444</v>
+      </c>
+      <c r="JT1" s="1">
+        <v>280.442</v>
+      </c>
+      <c r="JU1" s="1">
+        <v>281.44</v>
+      </c>
+      <c r="JV1" s="1">
+        <v>282.438</v>
+      </c>
+      <c r="JW1" s="1">
+        <v>283.436</v>
+      </c>
+      <c r="JX1" s="1">
+        <v>284.434</v>
+      </c>
+      <c r="JY1" s="1">
+        <v>285.432</v>
+      </c>
+      <c r="JZ1" s="1">
+        <v>286.43</v>
+      </c>
+      <c r="KA1" s="1">
+        <v>287.428</v>
+      </c>
+      <c r="KB1" s="1">
+        <v>288.426</v>
+      </c>
+      <c r="KC1" s="1">
+        <v>289.424</v>
+      </c>
+      <c r="KD1" s="1">
+        <v>290.422</v>
+      </c>
+      <c r="KE1" s="1">
+        <v>291.42</v>
+      </c>
+      <c r="KF1" s="1">
+        <v>292.418</v>
+      </c>
+      <c r="KG1" s="1">
+        <v>293.416</v>
+      </c>
+      <c r="KH1" s="1">
+        <v>294.414</v>
+      </c>
+      <c r="KI1" s="1">
+        <v>295.412</v>
+      </c>
+      <c r="KJ1" s="1">
+        <v>296.41</v>
+      </c>
+      <c r="KK1" s="1">
+        <v>297.408</v>
+      </c>
+      <c r="KL1" s="1">
+        <v>298.406</v>
+      </c>
+      <c r="KM1" s="1">
+        <v>299.404</v>
+      </c>
+      <c r="KN1" s="1">
+        <v>300.402</v>
+      </c>
+      <c r="KO1" s="1">
+        <v>301.4</v>
+      </c>
+      <c r="KP1" s="1">
+        <v>302.398</v>
+      </c>
+      <c r="KQ1" s="1">
+        <v>303.396</v>
+      </c>
+      <c r="KR1" s="1">
+        <v>304.394</v>
+      </c>
+      <c r="KS1" s="1">
+        <v>305.392</v>
+      </c>
+      <c r="KT1" s="1">
+        <v>306.39</v>
+      </c>
+      <c r="KU1" s="1">
+        <v>307.388</v>
+      </c>
+      <c r="KV1" s="1">
+        <v>308.386</v>
+      </c>
+      <c r="KW1" s="1">
+        <v>309.384</v>
+      </c>
+      <c r="KX1" s="1">
+        <v>310.382</v>
+      </c>
+      <c r="KY1" s="1">
+        <v>311.38</v>
+      </c>
+      <c r="KZ1" s="1">
+        <v>312.378</v>
+      </c>
+      <c r="LA1" s="1">
+        <v>313.376</v>
+      </c>
+      <c r="LB1" s="1">
+        <v>314.374</v>
+      </c>
+      <c r="LC1" s="1">
+        <v>315.372</v>
+      </c>
+      <c r="LD1" s="1">
+        <v>316.37</v>
+      </c>
+      <c r="LE1" s="1">
+        <v>317.368</v>
+      </c>
+      <c r="LF1" s="1">
+        <v>318.366</v>
+      </c>
+      <c r="LG1" s="1">
+        <v>319.364</v>
+      </c>
+      <c r="LH1" s="1">
+        <v>320.362</v>
+      </c>
+      <c r="LI1" s="1">
+        <v>321.36</v>
+      </c>
+      <c r="LJ1" s="1">
+        <v>322.358</v>
+      </c>
+      <c r="LK1" s="1">
+        <v>323.356</v>
+      </c>
+      <c r="LL1" s="1">
+        <v>324.354</v>
+      </c>
+      <c r="LM1" s="1">
+        <v>325.352</v>
+      </c>
+      <c r="LN1" s="1">
+        <v>326.35</v>
+      </c>
+      <c r="LO1" s="1">
+        <v>327.348</v>
+      </c>
+      <c r="LP1" s="1">
+        <v>328.346</v>
+      </c>
+      <c r="LQ1" s="1">
+        <v>329.344</v>
+      </c>
+      <c r="LR1" s="1">
+        <v>330.342</v>
+      </c>
+      <c r="LS1" s="1">
+        <v>331.34</v>
+      </c>
+      <c r="LT1" s="1">
+        <v>332.338</v>
+      </c>
+      <c r="LU1" s="1">
+        <v>333.336</v>
+      </c>
+      <c r="LV1" s="1">
+        <v>334.334</v>
+      </c>
+      <c r="LW1" s="1">
+        <v>335.332</v>
+      </c>
+      <c r="LX1" s="1">
+        <v>336.33</v>
+      </c>
+      <c r="LY1" s="1">
+        <v>337.328</v>
+      </c>
+      <c r="LZ1" s="1">
+        <v>338.326</v>
+      </c>
+      <c r="MA1" s="1">
+        <v>339.324</v>
+      </c>
+      <c r="MB1" s="1">
+        <v>340.322</v>
+      </c>
+      <c r="MC1" s="1">
+        <v>341.32</v>
+      </c>
+      <c r="MD1" s="1">
+        <v>342.318</v>
+      </c>
+      <c r="ME1" s="1">
+        <v>343.316</v>
+      </c>
+      <c r="MF1" s="1">
+        <v>344.314</v>
+      </c>
+      <c r="MG1" s="1">
+        <v>345.312</v>
+      </c>
+      <c r="MH1" s="1">
+        <v>346.31</v>
+      </c>
+      <c r="MI1" s="1">
+        <v>347.308</v>
+      </c>
+      <c r="MJ1" s="1">
+        <v>348.306</v>
+      </c>
+      <c r="MK1" s="1">
+        <v>349.304</v>
+      </c>
+      <c r="ML1" s="1">
+        <v>350.302</v>
+      </c>
+      <c r="MM1" s="1">
+        <v>351.3</v>
+      </c>
+      <c r="MN1" s="1">
+        <v>352.298</v>
+      </c>
+      <c r="MO1" s="1">
+        <v>353.296</v>
+      </c>
+      <c r="MP1" s="1">
+        <v>354.294</v>
+      </c>
+      <c r="MQ1" s="1">
+        <v>355.292</v>
+      </c>
+      <c r="MR1" s="1">
+        <v>356.29</v>
+      </c>
+      <c r="MS1" s="1">
+        <v>357.288</v>
+      </c>
+      <c r="MT1" s="1">
+        <v>358.286</v>
+      </c>
+      <c r="MU1" s="1">
+        <v>359.284</v>
+      </c>
+      <c r="MV1" s="1">
+        <v>360.282</v>
+      </c>
+      <c r="MW1" s="1">
+        <v>361.28</v>
+      </c>
+      <c r="MX1" s="1">
+        <v>362.278</v>
+      </c>
+      <c r="MY1" s="1">
+        <v>363.276</v>
+      </c>
+      <c r="MZ1" s="1">
+        <v>364.274</v>
+      </c>
+      <c r="NA1" s="1">
+        <v>365.272</v>
+      </c>
+      <c r="NB1" s="1">
+        <v>366.27</v>
+      </c>
+      <c r="NC1" s="1">
+        <v>367.268</v>
+      </c>
+      <c r="ND1" s="1">
+        <v>368.266</v>
+      </c>
+      <c r="NE1" s="1">
+        <v>369.264</v>
+      </c>
+      <c r="NF1" s="1">
+        <v>370.262</v>
+      </c>
+      <c r="NG1" s="1">
+        <v>371.26</v>
+      </c>
+      <c r="NH1" s="1">
+        <v>372.258</v>
+      </c>
+      <c r="NI1" s="1">
+        <v>373.256</v>
+      </c>
+      <c r="NJ1" s="1">
+        <v>374.254</v>
+      </c>
+      <c r="NK1" s="1">
+        <v>375.252</v>
+      </c>
+      <c r="NL1" s="1">
+        <v>376.25</v>
+      </c>
+      <c r="NM1" s="1">
+        <v>377.248</v>
+      </c>
+      <c r="NN1" s="1">
+        <v>378.246</v>
+      </c>
+      <c r="NO1" s="1">
+        <v>379.244</v>
+      </c>
+      <c r="NP1" s="1">
+        <v>380.242</v>
+      </c>
+      <c r="NQ1" s="1">
+        <v>381.24</v>
+      </c>
+      <c r="NR1" s="1">
+        <v>382.238</v>
+      </c>
+      <c r="NS1" s="1">
+        <v>383.236</v>
+      </c>
+      <c r="NT1" s="1">
+        <v>384.234</v>
+      </c>
+      <c r="NU1" s="1">
+        <v>385.232</v>
+      </c>
+      <c r="NV1" s="1">
+        <v>386.23</v>
+      </c>
+      <c r="NW1" s="1">
+        <v>387.228</v>
+      </c>
+      <c r="NX1" s="1">
+        <v>388.226</v>
+      </c>
+      <c r="NY1" s="1">
+        <v>389.224</v>
+      </c>
+      <c r="NZ1" s="1">
+        <v>390.222</v>
+      </c>
+      <c r="OA1" s="1">
+        <v>391.22</v>
+      </c>
+      <c r="OB1" s="1">
+        <v>392.218</v>
+      </c>
+      <c r="OC1" s="1">
+        <v>393.216</v>
+      </c>
+      <c r="OD1" s="1">
+        <v>394.214</v>
+      </c>
+      <c r="OE1" s="1">
+        <v>395.212</v>
+      </c>
+      <c r="OF1" s="1">
+        <v>396.21</v>
+      </c>
+      <c r="OG1" s="1">
+        <v>397.208</v>
+      </c>
+      <c r="OH1" s="1">
+        <v>398.206</v>
+      </c>
+      <c r="OI1" s="1">
+        <v>399.204</v>
+      </c>
+      <c r="OJ1" s="1">
+        <v>400.202</v>
+      </c>
+      <c r="OK1" s="1">
+        <v>401.2</v>
+      </c>
+      <c r="OL1" s="1">
+        <v>402.198</v>
+      </c>
+      <c r="OM1" s="1">
+        <v>403.196</v>
+      </c>
+      <c r="ON1" s="1">
+        <v>404.194</v>
+      </c>
+      <c r="OO1" s="1">
+        <v>405.192</v>
+      </c>
+      <c r="OP1" s="1">
+        <v>406.19</v>
+      </c>
+      <c r="OQ1" s="1">
+        <v>407.188</v>
+      </c>
+      <c r="OR1" s="1">
+        <v>408.186</v>
+      </c>
+      <c r="OS1" s="1">
+        <v>409.184</v>
+      </c>
+      <c r="OT1" s="1">
+        <v>410.182</v>
+      </c>
+      <c r="OU1" s="1">
+        <v>411.18</v>
+      </c>
+      <c r="OV1" s="1">
+        <v>412.178</v>
+      </c>
+      <c r="OW1" s="1">
+        <v>413.176</v>
+      </c>
+      <c r="OX1" s="1">
+        <v>414.174</v>
+      </c>
+      <c r="OY1" s="1">
+        <v>415.172</v>
+      </c>
+      <c r="OZ1" s="1">
+        <v>416.17</v>
+      </c>
+      <c r="PA1" s="1">
+        <v>417.168</v>
+      </c>
+      <c r="PB1" s="1">
+        <v>418.166</v>
+      </c>
+      <c r="PC1" s="1">
+        <v>419.164</v>
+      </c>
+      <c r="PD1" s="1">
+        <v>420.162</v>
+      </c>
+      <c r="PE1" s="1">
+        <v>421.16</v>
+      </c>
+      <c r="PF1" s="1">
+        <v>422.158</v>
+      </c>
+      <c r="PG1" s="1">
+        <v>423.156</v>
+      </c>
+      <c r="PH1" s="1">
+        <v>424.154</v>
+      </c>
+      <c r="PI1" s="1">
+        <v>425.152</v>
+      </c>
+      <c r="PJ1" s="1">
+        <v>426.15</v>
+      </c>
+      <c r="PK1" s="1">
+        <v>427.148</v>
+      </c>
+      <c r="PL1" s="1">
+        <v>428.146</v>
+      </c>
+      <c r="PM1" s="1">
+        <v>429.144</v>
+      </c>
+      <c r="PN1" s="1">
+        <v>430.142</v>
+      </c>
+      <c r="PO1" s="1">
+        <v>431.14</v>
+      </c>
+      <c r="PP1" s="1">
+        <v>432.138</v>
+      </c>
+      <c r="PQ1" s="1">
+        <v>433.136</v>
+      </c>
+      <c r="PR1" s="1">
+        <v>434.134</v>
+      </c>
+      <c r="PS1" s="1">
+        <v>435.132</v>
+      </c>
+      <c r="PT1" s="1">
+        <v>436.13</v>
+      </c>
+      <c r="PU1" s="1">
+        <v>437.128</v>
+      </c>
+      <c r="PV1" s="1">
+        <v>438.126</v>
+      </c>
+      <c r="PW1" s="1">
+        <v>439.124</v>
+      </c>
+      <c r="PX1" s="1">
+        <v>440.122</v>
+      </c>
+      <c r="PY1" s="1">
+        <v>441.12</v>
+      </c>
+      <c r="PZ1" s="1">
+        <v>442.118</v>
+      </c>
+      <c r="QA1" s="1">
+        <v>443.116</v>
+      </c>
+      <c r="QB1" s="1">
+        <v>444.114</v>
+      </c>
+      <c r="QC1" s="1">
+        <v>445.112</v>
+      </c>
+      <c r="QD1" s="1">
+        <v>446.11</v>
+      </c>
+      <c r="QE1" s="1">
+        <v>447.108</v>
+      </c>
+      <c r="QF1" s="1">
+        <v>448.106</v>
+      </c>
+      <c r="QG1" s="1">
+        <v>449.104</v>
+      </c>
+      <c r="QH1" s="1">
+        <v>450.102</v>
+      </c>
+      <c r="QI1" s="1">
+        <v>451.1</v>
+      </c>
+      <c r="QJ1" s="1">
+        <v>452.098</v>
+      </c>
+      <c r="QK1" s="1">
+        <v>453.096</v>
+      </c>
+      <c r="QL1" s="1">
+        <v>454.094</v>
+      </c>
+      <c r="QM1" s="1">
+        <v>455.092</v>
+      </c>
+      <c r="QN1" s="1">
+        <v>456.09</v>
+      </c>
+      <c r="QO1" s="1">
+        <v>457.088</v>
+      </c>
+      <c r="QP1" s="1">
+        <v>458.086</v>
+      </c>
+      <c r="QQ1" s="1">
+        <v>459.084</v>
+      </c>
+      <c r="QR1" s="1">
+        <v>460.082</v>
+      </c>
+      <c r="QS1" s="1">
+        <v>461.08</v>
+      </c>
+      <c r="QT1" s="1">
+        <v>462.078</v>
+      </c>
+      <c r="QU1" s="1">
+        <v>463.076</v>
+      </c>
+      <c r="QV1" s="1">
+        <v>464.074</v>
+      </c>
+      <c r="QW1" s="1">
+        <v>465.072</v>
+      </c>
+      <c r="QX1" s="1">
+        <v>466.07</v>
+      </c>
+      <c r="QY1" s="1">
+        <v>467.068</v>
+      </c>
+      <c r="QZ1" s="1">
+        <v>468.066</v>
+      </c>
+      <c r="RA1" s="1">
+        <v>469.064</v>
+      </c>
+      <c r="RB1" s="1">
+        <v>470.062</v>
+      </c>
+      <c r="RC1" s="1">
+        <v>471.06</v>
+      </c>
+      <c r="RD1" s="1">
+        <v>472.058</v>
+      </c>
+      <c r="RE1" s="1">
+        <v>473.056</v>
+      </c>
+      <c r="RF1" s="1">
+        <v>474.054</v>
+      </c>
+      <c r="RG1" s="1">
+        <v>475.052</v>
+      </c>
+      <c r="RH1" s="1">
+        <v>476.05</v>
+      </c>
+      <c r="RI1" s="1">
+        <v>477.048</v>
+      </c>
+      <c r="RJ1" s="1">
+        <v>478.046</v>
+      </c>
+      <c r="RK1" s="1">
+        <v>479.044</v>
+      </c>
+      <c r="RL1" s="1">
+        <v>480.042</v>
+      </c>
+      <c r="RM1" s="1">
+        <v>481.04</v>
+      </c>
+      <c r="RN1" s="1">
+        <v>482.038</v>
+      </c>
+      <c r="RO1" s="1">
+        <v>483.036</v>
+      </c>
+      <c r="RP1" s="1">
+        <v>484.034</v>
+      </c>
+      <c r="RQ1" s="1">
+        <v>485.032</v>
+      </c>
+      <c r="RR1" s="1">
+        <v>486.03</v>
+      </c>
+      <c r="RS1" s="1">
+        <v>487.028</v>
+      </c>
+      <c r="RT1" s="1">
+        <v>488.026</v>
+      </c>
+      <c r="RU1" s="1">
+        <v>489.024</v>
+      </c>
+      <c r="RV1" s="1">
+        <v>490.022</v>
+      </c>
+      <c r="RW1" s="1">
+        <v>491.02</v>
+      </c>
+      <c r="RX1" s="1">
+        <v>492.018</v>
+      </c>
+      <c r="RY1" s="1">
+        <v>493.016</v>
+      </c>
+      <c r="RZ1" s="1">
+        <v>494.014</v>
+      </c>
+      <c r="SA1" s="1">
+        <v>495.012</v>
+      </c>
+      <c r="SB1" s="1">
+        <v>496.01</v>
+      </c>
+      <c r="SC1" s="1">
+        <v>497.008</v>
+      </c>
+      <c r="SD1" s="1">
+        <v>498.006</v>
+      </c>
+      <c r="SE1" s="1">
+        <v>499.004</v>
+      </c>
+      <c r="SF1" s="1">
+        <v>500.002</v>
+      </c>
+      <c r="SG1" s="1">
+        <v>501</v>
+      </c>
+      <c r="SH1" s="1">
+        <v>501.998</v>
+      </c>
+      <c r="SI1" s="1">
+        <v>502.996</v>
+      </c>
+      <c r="SJ1" s="1">
+        <v>503.994</v>
+      </c>
+      <c r="SK1" s="1">
+        <v>504.992</v>
+      </c>
+      <c r="SL1" s="1">
+        <v>505.99</v>
+      </c>
+      <c r="SM1" s="1">
+        <v>506.988</v>
+      </c>
+      <c r="SN1" s="1">
+        <v>507.986</v>
+      </c>
+      <c r="SO1" s="1">
+        <v>508.984</v>
+      </c>
+      <c r="SP1" s="1">
+        <v>509.982</v>
+      </c>
+      <c r="SQ1" s="1">
+        <v>510.98</v>
+      </c>
+      <c r="SR1" s="1">
+        <v>511.978</v>
+      </c>
+      <c r="SS1" s="1">
+        <v>512.976</v>
+      </c>
+      <c r="ST1" s="1">
+        <v>513.974</v>
+      </c>
+      <c r="SU1" s="1">
+        <v>514.972</v>
+      </c>
+      <c r="SV1" s="1">
+        <v>515.97</v>
+      </c>
+      <c r="SW1" s="1">
+        <v>516.968</v>
+      </c>
+      <c r="SX1" s="1">
+        <v>517.966</v>
+      </c>
+      <c r="SY1" s="1">
+        <v>518.9640000000001</v>
+      </c>
+      <c r="SZ1" s="1">
+        <v>519.962</v>
+      </c>
+      <c r="TA1" s="1">
+        <v>520.96</v>
+      </c>
+      <c r="TB1" s="1">
+        <v>521.958</v>
+      </c>
+      <c r="TC1" s="1">
+        <v>522.956</v>
+      </c>
+      <c r="TD1" s="1">
+        <v>523.954</v>
+      </c>
+      <c r="TE1" s="1">
+        <v>524.952</v>
+      </c>
+      <c r="TF1" s="1">
+        <v>525.95</v>
+      </c>
+      <c r="TG1" s="1">
+        <v>526.948</v>
+      </c>
+      <c r="TH1" s="1">
+        <v>527.946</v>
+      </c>
+      <c r="TI1" s="1">
+        <v>528.944</v>
+      </c>
+      <c r="TJ1" s="1">
+        <v>529.942</v>
+      </c>
+      <c r="TK1" s="1">
+        <v>530.9400000000001</v>
+      </c>
+      <c r="TL1" s="1">
+        <v>531.938</v>
+      </c>
+      <c r="TM1" s="1">
+        <v>532.936</v>
+      </c>
+      <c r="TN1" s="1">
+        <v>533.934</v>
+      </c>
+      <c r="TO1" s="1">
+        <v>534.932</v>
+      </c>
+      <c r="TP1" s="1">
+        <v>535.9299999999999</v>
+      </c>
+      <c r="TQ1" s="1">
+        <v>536.928</v>
+      </c>
+      <c r="TR1" s="1">
+        <v>537.926</v>
+      </c>
+      <c r="TS1" s="1">
+        <v>538.924</v>
+      </c>
+      <c r="TT1" s="1">
+        <v>539.922</v>
+      </c>
+      <c r="TU1" s="1">
+        <v>540.92</v>
+      </c>
+      <c r="TV1" s="1">
+        <v>541.918</v>
+      </c>
+      <c r="TW1" s="1">
+        <v>542.9160000000001</v>
+      </c>
+      <c r="TX1" s="1">
+        <v>543.914</v>
+      </c>
+      <c r="TY1" s="1">
+        <v>544.912</v>
+      </c>
+      <c r="TZ1" s="1">
+        <v>545.91</v>
+      </c>
+      <c r="UA1" s="1">
+        <v>546.908</v>
+      </c>
+      <c r="UB1" s="1">
+        <v>547.9059999999999</v>
+      </c>
+      <c r="UC1" s="1">
+        <v>548.904</v>
+      </c>
+      <c r="UD1" s="1">
+        <v>549.902</v>
+      </c>
+      <c r="UE1" s="1">
+        <v>550.9</v>
+      </c>
+      <c r="UF1" s="1">
+        <v>551.898</v>
+      </c>
+      <c r="UG1" s="1">
+        <v>552.896</v>
+      </c>
+      <c r="UH1" s="1">
+        <v>553.894</v>
+      </c>
+      <c r="UI1" s="1">
+        <v>554.8920000000001</v>
+      </c>
+      <c r="UJ1" s="1">
+        <v>555.89</v>
+      </c>
+      <c r="UK1" s="1">
+        <v>556.888</v>
+      </c>
+      <c r="UL1" s="1">
+        <v>557.886</v>
+      </c>
+      <c r="UM1" s="1">
+        <v>558.884</v>
+      </c>
+      <c r="UN1" s="1">
+        <v>559.8819999999999</v>
+      </c>
+      <c r="UO1" s="1">
+        <v>560.88</v>
+      </c>
+      <c r="UP1" s="1">
+        <v>561.878</v>
+      </c>
+      <c r="UQ1" s="1">
+        <v>562.876</v>
+      </c>
+      <c r="UR1" s="1">
+        <v>563.874</v>
+      </c>
+      <c r="US1" s="1">
+        <v>564.872</v>
+      </c>
+      <c r="UT1" s="1">
+        <v>565.87</v>
+      </c>
+      <c r="UU1" s="1">
+        <v>566.8680000000001</v>
+      </c>
+      <c r="UV1" s="1">
+        <v>567.866</v>
+      </c>
+      <c r="UW1" s="1">
+        <v>568.864</v>
+      </c>
+      <c r="UX1" s="1">
+        <v>569.862</v>
+      </c>
+      <c r="UY1" s="1">
+        <v>570.86</v>
+      </c>
+      <c r="UZ1" s="1">
+        <v>571.8579999999999</v>
+      </c>
+      <c r="VA1" s="1">
+        <v>572.856</v>
+      </c>
+      <c r="VB1" s="1">
+        <v>573.854</v>
+      </c>
+      <c r="VC1" s="1">
+        <v>574.852</v>
+      </c>
+      <c r="VD1" s="1">
+        <v>575.85</v>
+      </c>
+      <c r="VE1" s="1">
+        <v>576.848</v>
+      </c>
+      <c r="VF1" s="1">
+        <v>577.846</v>
+      </c>
+      <c r="VG1" s="1">
+        <v>578.8440000000001</v>
+      </c>
+      <c r="VH1" s="1">
+        <v>579.842</v>
+      </c>
+      <c r="VI1" s="1">
+        <v>580.84</v>
+      </c>
+      <c r="VJ1" s="1">
+        <v>581.838</v>
+      </c>
+      <c r="VK1" s="1">
+        <v>582.836</v>
+      </c>
+      <c r="VL1" s="1">
+        <v>583.8339999999999</v>
+      </c>
+      <c r="VM1" s="1">
+        <v>584.832</v>
+      </c>
+      <c r="VN1" s="1">
+        <v>585.83</v>
+      </c>
+      <c r="VO1" s="1">
+        <v>586.828</v>
+      </c>
+      <c r="VP1" s="1">
+        <v>587.826</v>
+      </c>
+      <c r="VQ1" s="1">
+        <v>588.824</v>
+      </c>
+      <c r="VR1" s="1">
+        <v>589.822</v>
+      </c>
+      <c r="VS1" s="1">
+        <v>590.8200000000001</v>
+      </c>
+      <c r="VT1" s="1">
+        <v>591.818</v>
+      </c>
+      <c r="VU1" s="1">
+        <v>592.816</v>
+      </c>
+      <c r="VV1" s="1">
+        <v>593.814</v>
+      </c>
+      <c r="VW1" s="1">
+        <v>594.812</v>
+      </c>
+      <c r="VX1" s="1">
+        <v>595.8099999999999</v>
+      </c>
+      <c r="VY1" s="1">
+        <v>596.808</v>
+      </c>
+      <c r="VZ1" s="1">
+        <v>597.806</v>
+      </c>
+      <c r="WA1" s="1">
+        <v>598.804</v>
+      </c>
+      <c r="WB1" s="1">
+        <v>599.802</v>
+      </c>
+      <c r="WC1" s="1">
+        <v>600.8</v>
+      </c>
+      <c r="WD1" s="1">
+        <v>601.798</v>
+      </c>
+      <c r="WE1" s="1">
+        <v>602.796</v>
+      </c>
+      <c r="WF1" s="1">
+        <v>603.794</v>
+      </c>
+      <c r="WG1" s="1">
+        <v>604.792</v>
+      </c>
+      <c r="WH1" s="1">
+        <v>605.79</v>
+      </c>
+      <c r="WI1" s="1">
+        <v>606.788</v>
+      </c>
+      <c r="WJ1" s="1">
+        <v>607.7859999999999</v>
+      </c>
+      <c r="WK1" s="1">
+        <v>608.784</v>
+      </c>
+      <c r="WL1" s="1">
+        <v>609.782</v>
+      </c>
+      <c r="WM1" s="1">
+        <v>610.78</v>
+      </c>
+      <c r="WN1" s="1">
+        <v>611.778</v>
+      </c>
+      <c r="WO1" s="1">
+        <v>612.776</v>
+      </c>
+      <c r="WP1" s="1">
+        <v>613.774</v>
+      </c>
+      <c r="WQ1" s="1">
+        <v>614.772</v>
+      </c>
+      <c r="WR1" s="1">
+        <v>615.77</v>
+      </c>
+      <c r="WS1" s="1">
+        <v>616.768</v>
+      </c>
+      <c r="WT1" s="1">
+        <v>617.766</v>
+      </c>
+      <c r="WU1" s="1">
+        <v>618.764</v>
+      </c>
+      <c r="WV1" s="1">
+        <v>619.7619999999999</v>
+      </c>
+      <c r="WW1" s="1">
+        <v>620.76</v>
+      </c>
+      <c r="WX1" s="1">
+        <v>621.758</v>
+      </c>
+      <c r="WY1" s="1">
+        <v>622.756</v>
+      </c>
+      <c r="WZ1" s="1">
+        <v>623.754</v>
+      </c>
+      <c r="XA1" s="1">
+        <v>624.752</v>
+      </c>
+      <c r="XB1" s="1">
+        <v>625.75</v>
+      </c>
+      <c r="XC1" s="1">
+        <v>626.748</v>
+      </c>
+      <c r="XD1" s="1">
+        <v>627.746</v>
+      </c>
+      <c r="XE1" s="1">
+        <v>628.744</v>
+      </c>
+      <c r="XF1" s="1">
+        <v>629.742</v>
+      </c>
+      <c r="XG1" s="1">
+        <v>630.74</v>
+      </c>
+      <c r="XH1" s="1">
+        <v>631.7380000000001</v>
+      </c>
+      <c r="XI1" s="1">
+        <v>632.736</v>
+      </c>
+      <c r="XJ1" s="1">
+        <v>633.734</v>
+      </c>
+      <c r="XK1" s="1">
+        <v>634.732</v>
+      </c>
+      <c r="XL1" s="1">
+        <v>635.73</v>
+      </c>
+      <c r="XM1" s="1">
+        <v>636.728</v>
+      </c>
+      <c r="XN1" s="1">
+        <v>637.726</v>
+      </c>
+      <c r="XO1" s="1">
+        <v>638.724</v>
+      </c>
+      <c r="XP1" s="1">
+        <v>639.722</v>
+      </c>
+      <c r="XQ1" s="1">
+        <v>640.72</v>
+      </c>
+      <c r="XR1" s="1">
+        <v>641.718</v>
+      </c>
+      <c r="XS1" s="1">
+        <v>642.716</v>
+      </c>
+      <c r="XT1" s="1">
+        <v>643.7140000000001</v>
+      </c>
+      <c r="XU1" s="1">
+        <v>644.712</v>
+      </c>
+      <c r="XV1" s="1">
+        <v>645.71</v>
+      </c>
+      <c r="XW1" s="1">
+        <v>646.708</v>
+      </c>
+      <c r="XX1" s="1">
+        <v>647.706</v>
+      </c>
+      <c r="XY1" s="1">
+        <v>648.704</v>
+      </c>
+      <c r="XZ1" s="1">
+        <v>649.702</v>
+      </c>
+      <c r="YA1" s="1">
+        <v>650.7</v>
+      </c>
+      <c r="YB1" s="1">
+        <v>651.698</v>
+      </c>
+      <c r="YC1" s="1">
+        <v>652.696</v>
+      </c>
+      <c r="YD1" s="1">
+        <v>653.694</v>
+      </c>
+      <c r="YE1" s="1">
+        <v>654.692</v>
+      </c>
+      <c r="YF1" s="1">
+        <v>655.6900000000001</v>
+      </c>
+      <c r="YG1" s="1">
+        <v>656.688</v>
+      </c>
+      <c r="YH1" s="1">
+        <v>657.686</v>
+      </c>
+      <c r="YI1" s="1">
+        <v>658.684</v>
+      </c>
+      <c r="YJ1" s="1">
+        <v>659.682</v>
+      </c>
+      <c r="YK1" s="1">
+        <v>660.6799999999999</v>
+      </c>
+      <c r="YL1" s="1">
+        <v>661.678</v>
+      </c>
+      <c r="YM1" s="1">
+        <v>662.676</v>
+      </c>
+      <c r="YN1" s="1">
+        <v>663.674</v>
+      </c>
+      <c r="YO1" s="1">
+        <v>664.672</v>
+      </c>
+      <c r="YP1" s="1">
+        <v>665.67</v>
+      </c>
+      <c r="YQ1" s="1">
+        <v>666.668</v>
+      </c>
+      <c r="YR1" s="1">
+        <v>667.6660000000001</v>
+      </c>
+      <c r="YS1" s="1">
+        <v>668.664</v>
+      </c>
+      <c r="YT1" s="1">
+        <v>669.662</v>
+      </c>
+      <c r="YU1" s="1">
+        <v>670.66</v>
+      </c>
+      <c r="YV1" s="1">
+        <v>671.658</v>
+      </c>
+      <c r="YW1" s="1">
+        <v>672.6559999999999</v>
+      </c>
+      <c r="YX1" s="1">
+        <v>673.654</v>
+      </c>
+      <c r="YY1" s="1">
+        <v>674.652</v>
+      </c>
+      <c r="YZ1" s="1">
+        <v>675.65</v>
+      </c>
+      <c r="ZA1" s="1">
+        <v>676.648</v>
+      </c>
+      <c r="ZB1" s="1">
+        <v>677.646</v>
+      </c>
+      <c r="ZC1" s="1">
+        <v>678.644</v>
+      </c>
+      <c r="ZD1" s="1">
+        <v>679.6420000000001</v>
+      </c>
+      <c r="ZE1" s="1">
+        <v>680.64</v>
+      </c>
+      <c r="ZF1" s="1">
+        <v>681.638</v>
+      </c>
+      <c r="ZG1" s="1">
+        <v>682.636</v>
+      </c>
+      <c r="ZH1" s="1">
+        <v>683.634</v>
+      </c>
+      <c r="ZI1" s="1">
+        <v>684.6319999999999</v>
+      </c>
+      <c r="ZJ1" s="1">
+        <v>685.63</v>
+      </c>
+      <c r="ZK1" s="1">
+        <v>686.628</v>
+      </c>
+      <c r="ZL1" s="1">
+        <v>687.626</v>
+      </c>
+      <c r="ZM1" s="1">
+        <v>688.624</v>
+      </c>
+      <c r="ZN1" s="1">
+        <v>689.622</v>
+      </c>
+      <c r="ZO1" s="1">
+        <v>690.62</v>
+      </c>
+      <c r="ZP1" s="1">
+        <v>691.6180000000001</v>
+      </c>
+      <c r="ZQ1" s="1">
+        <v>692.616</v>
+      </c>
+      <c r="ZR1" s="1">
+        <v>693.614</v>
+      </c>
+      <c r="ZS1" s="1">
+        <v>694.612</v>
+      </c>
+      <c r="ZT1" s="1">
+        <v>695.61</v>
+      </c>
+      <c r="ZU1" s="1">
+        <v>696.6079999999999</v>
+      </c>
+      <c r="ZV1" s="1">
+        <v>697.606</v>
+      </c>
+      <c r="ZW1" s="1">
+        <v>698.604</v>
+      </c>
+      <c r="ZX1" s="1">
+        <v>699.602</v>
+      </c>
+      <c r="ZY1" s="1">
+        <v>700.6</v>
+      </c>
+      <c r="ZZ1" s="1">
+        <v>701.598</v>
+      </c>
+      <c r="AAA1" s="1">
+        <v>702.596</v>
+      </c>
+      <c r="AAB1" s="1">
+        <v>703.5940000000001</v>
+      </c>
+      <c r="AAC1" s="1">
+        <v>704.592</v>
+      </c>
+      <c r="AAD1" s="1">
+        <v>705.59</v>
+      </c>
+      <c r="AAE1" s="1">
+        <v>706.588</v>
+      </c>
+      <c r="AAF1" s="1">
+        <v>707.586</v>
+      </c>
+      <c r="AAG1" s="1">
+        <v>708.5839999999999</v>
+      </c>
+      <c r="AAH1" s="1">
+        <v>709.582</v>
+      </c>
+      <c r="AAI1" s="1">
+        <v>710.58</v>
+      </c>
+      <c r="AAJ1" s="1">
+        <v>711.578</v>
+      </c>
+      <c r="AAK1" s="1">
+        <v>712.576</v>
+      </c>
+      <c r="AAL1" s="1">
+        <v>713.574</v>
+      </c>
+      <c r="AAM1" s="1">
+        <v>714.572</v>
+      </c>
+      <c r="AAN1" s="1">
+        <v>715.5700000000001</v>
+      </c>
+      <c r="AAO1" s="1">
+        <v>716.568</v>
+      </c>
+      <c r="AAP1" s="1">
+        <v>717.566</v>
+      </c>
+      <c r="AAQ1" s="1">
+        <v>718.564</v>
+      </c>
+      <c r="AAR1" s="1">
+        <v>719.562</v>
+      </c>
+      <c r="AAS1" s="1">
+        <v>720.5599999999999</v>
+      </c>
+      <c r="AAT1" s="1">
+        <v>721.558</v>
+      </c>
+      <c r="AAU1" s="1">
+        <v>722.556</v>
+      </c>
+      <c r="AAV1" s="1">
+        <v>723.554</v>
+      </c>
+      <c r="AAW1" s="1">
+        <v>724.552</v>
+      </c>
+      <c r="AAX1" s="1">
+        <v>725.55</v>
+      </c>
+      <c r="AAY1" s="1">
+        <v>726.548</v>
+      </c>
+      <c r="AAZ1" s="1">
+        <v>727.546</v>
+      </c>
+      <c r="ABA1" s="1">
+        <v>728.544</v>
+      </c>
+      <c r="ABB1" s="1">
+        <v>729.542</v>
+      </c>
+      <c r="ABC1" s="1">
+        <v>730.54</v>
+      </c>
+      <c r="ABD1" s="1">
+        <v>731.538</v>
+      </c>
+      <c r="ABE1" s="1">
+        <v>732.5359999999999</v>
+      </c>
+      <c r="ABF1" s="1">
+        <v>733.534</v>
+      </c>
+      <c r="ABG1" s="1">
+        <v>734.532</v>
+      </c>
+      <c r="ABH1" s="1">
+        <v>735.53</v>
+      </c>
+      <c r="ABI1" s="1">
+        <v>736.528</v>
+      </c>
+      <c r="ABJ1" s="1">
+        <v>737.526</v>
+      </c>
+      <c r="ABK1" s="1">
+        <v>738.524</v>
+      </c>
+      <c r="ABL1" s="1">
+        <v>739.522</v>
+      </c>
+      <c r="ABM1" s="1">
+        <v>740.52</v>
+      </c>
+      <c r="ABN1" s="1">
+        <v>741.518</v>
+      </c>
+      <c r="ABO1" s="1">
+        <v>742.516</v>
+      </c>
+      <c r="ABP1" s="1">
+        <v>743.514</v>
+      </c>
+      <c r="ABQ1" s="1">
+        <v>744.5119999999999</v>
+      </c>
+      <c r="ABR1" s="1">
+        <v>745.51</v>
+      </c>
+      <c r="ABS1" s="1">
+        <v>746.508</v>
+      </c>
+      <c r="ABT1" s="1">
+        <v>747.506</v>
+      </c>
+      <c r="ABU1" s="1">
+        <v>748.504</v>
+      </c>
+      <c r="ABV1" s="1">
+        <v>749.502</v>
+      </c>
+      <c r="ABW1" s="1">
+        <v>750.5</v>
+      </c>
+      <c r="ABX1" s="1">
+        <v>751.498</v>
+      </c>
+      <c r="ABY1" s="1">
+        <v>752.496</v>
+      </c>
+      <c r="ABZ1" s="1">
+        <v>753.494</v>
+      </c>
+      <c r="ACA1" s="1">
+        <v>754.492</v>
+      </c>
+      <c r="ACB1" s="1">
+        <v>755.49</v>
+      </c>
+      <c r="ACC1" s="1">
+        <v>756.4880000000001</v>
+      </c>
+      <c r="ACD1" s="1">
+        <v>757.486</v>
+      </c>
+      <c r="ACE1" s="1">
+        <v>758.484</v>
+      </c>
+      <c r="ACF1" s="1">
+        <v>759.482</v>
+      </c>
+      <c r="ACG1" s="1">
+        <v>760.48</v>
+      </c>
+      <c r="ACH1" s="1">
+        <v>761.478</v>
+      </c>
+      <c r="ACI1" s="1">
+        <v>762.476</v>
+      </c>
+      <c r="ACJ1" s="1">
+        <v>763.474</v>
+      </c>
+      <c r="ACK1" s="1">
+        <v>764.472</v>
+      </c>
+      <c r="ACL1" s="1">
+        <v>765.47</v>
+      </c>
+      <c r="ACM1" s="1">
+        <v>766.468</v>
+      </c>
+      <c r="ACN1" s="1">
+        <v>767.466</v>
+      </c>
+      <c r="ACO1" s="1">
+        <v>768.4640000000001</v>
+      </c>
+      <c r="ACP1" s="1">
+        <v>769.462</v>
+      </c>
+      <c r="ACQ1" s="1">
+        <v>770.46</v>
+      </c>
+      <c r="ACR1" s="1">
+        <v>771.458</v>
+      </c>
+      <c r="ACS1" s="1">
+        <v>772.456</v>
+      </c>
+      <c r="ACT1" s="1">
+        <v>773.454</v>
+      </c>
+      <c r="ACU1" s="1">
+        <v>774.452</v>
+      </c>
+      <c r="ACV1" s="1">
+        <v>775.45</v>
+      </c>
+      <c r="ACW1" s="1">
+        <v>776.448</v>
+      </c>
+      <c r="ACX1" s="1">
+        <v>777.446</v>
+      </c>
+      <c r="ACY1" s="1">
+        <v>778.444</v>
+      </c>
+      <c r="ACZ1" s="1">
+        <v>779.442</v>
+      </c>
+      <c r="ADA1" s="1">
+        <v>780.4400000000001</v>
+      </c>
+      <c r="ADB1" s="1">
+        <v>781.438</v>
+      </c>
+      <c r="ADC1" s="1">
+        <v>782.436</v>
+      </c>
+      <c r="ADD1" s="1">
+        <v>783.434</v>
+      </c>
+      <c r="ADE1" s="1">
+        <v>784.432</v>
+      </c>
+      <c r="ADF1" s="1">
+        <v>785.4299999999999</v>
+      </c>
+      <c r="ADG1" s="1">
+        <v>786.428</v>
+      </c>
+      <c r="ADH1" s="1">
+        <v>787.426</v>
+      </c>
+      <c r="ADI1" s="1">
+        <v>788.424</v>
+      </c>
+      <c r="ADJ1" s="1">
+        <v>789.422</v>
+      </c>
+      <c r="ADK1" s="1">
+        <v>790.42</v>
+      </c>
+      <c r="ADL1" s="1">
+        <v>791.418</v>
+      </c>
+      <c r="ADM1" s="1">
+        <v>792.4160000000001</v>
+      </c>
+      <c r="ADN1" s="1">
+        <v>793.414</v>
+      </c>
+      <c r="ADO1" s="1">
+        <v>794.412</v>
+      </c>
+      <c r="ADP1" s="1">
+        <v>795.41</v>
+      </c>
+      <c r="ADQ1" s="1">
+        <v>796.408</v>
+      </c>
+      <c r="ADR1" s="1">
+        <v>797.4059999999999</v>
+      </c>
+      <c r="ADS1" s="1">
+        <v>798.404</v>
+      </c>
+      <c r="ADT1" s="1">
+        <v>799.402</v>
+      </c>
+      <c r="ADU1" s="1">
+        <v>800.4</v>
+      </c>
+      <c r="ADV1" s="1">
+        <v>801.398</v>
+      </c>
+      <c r="ADW1" s="1">
+        <v>802.396</v>
+      </c>
+      <c r="ADX1" s="1">
+        <v>803.394</v>
+      </c>
+      <c r="ADY1" s="1">
+        <v>804.3920000000001</v>
+      </c>
+      <c r="ADZ1" s="1">
+        <v>805.39</v>
+      </c>
+      <c r="AEA1" s="1">
+        <v>806.388</v>
+      </c>
+      <c r="AEB1" s="1">
+        <v>807.386</v>
+      </c>
+      <c r="AEC1" s="1">
+        <v>808.384</v>
+      </c>
+      <c r="AED1" s="1">
+        <v>809.3819999999999</v>
+      </c>
+      <c r="AEE1" s="1">
+        <v>810.38</v>
+      </c>
+      <c r="AEF1" s="1">
+        <v>811.378</v>
+      </c>
+      <c r="AEG1" s="1">
+        <v>812.376</v>
+      </c>
+      <c r="AEH1" s="1">
+        <v>813.374</v>
+      </c>
+      <c r="AEI1" s="1">
+        <v>814.372</v>
+      </c>
+      <c r="AEJ1" s="1">
+        <v>815.37</v>
+      </c>
+      <c r="AEK1" s="1">
+        <v>816.3680000000001</v>
+      </c>
+      <c r="AEL1" s="1">
+        <v>817.366</v>
+      </c>
+      <c r="AEM1" s="1">
+        <v>818.364</v>
+      </c>
+      <c r="AEN1" s="1">
+        <v>819.362</v>
+      </c>
+      <c r="AEO1" s="1">
+        <v>820.36</v>
+      </c>
+      <c r="AEP1" s="1">
+        <v>821.3579999999999</v>
+      </c>
+      <c r="AEQ1" s="1">
+        <v>822.356</v>
+      </c>
+      <c r="AER1" s="1">
+        <v>823.354</v>
+      </c>
+      <c r="AES1" s="1">
+        <v>824.352</v>
+      </c>
+      <c r="AET1" s="1">
+        <v>825.35</v>
+      </c>
+      <c r="AEU1" s="1">
+        <v>826.348</v>
+      </c>
+      <c r="AEV1" s="1">
+        <v>827.346</v>
+      </c>
+      <c r="AEW1" s="1">
+        <v>828.3440000000001</v>
+      </c>
+      <c r="AEX1" s="1">
+        <v>829.342</v>
+      </c>
+      <c r="AEY1" s="1">
+        <v>830.34</v>
+      </c>
+      <c r="AEZ1" s="1">
+        <v>831.338</v>
+      </c>
+      <c r="AFA1" s="1">
+        <v>832.336</v>
+      </c>
+      <c r="AFB1" s="1">
+        <v>833.3339999999999</v>
+      </c>
+      <c r="AFC1" s="1">
+        <v>834.332</v>
+      </c>
+      <c r="AFD1" s="1">
+        <v>835.33</v>
+      </c>
+      <c r="AFE1" s="1">
+        <v>836.328</v>
+      </c>
+      <c r="AFF1" s="1">
+        <v>837.326</v>
+      </c>
+      <c r="AFG1" s="1">
+        <v>838.324</v>
+      </c>
+      <c r="AFH1" s="1">
+        <v>839.322</v>
+      </c>
+      <c r="AFI1" s="1">
+        <v>840.3200000000001</v>
+      </c>
+      <c r="AFJ1" s="1">
+        <v>841.318</v>
+      </c>
+      <c r="AFK1" s="1">
+        <v>842.316</v>
+      </c>
+      <c r="AFL1" s="1">
+        <v>843.314</v>
+      </c>
+      <c r="AFM1" s="1">
+        <v>844.312</v>
+      </c>
+      <c r="AFN1" s="1">
+        <v>845.3099999999999</v>
+      </c>
+      <c r="AFO1" s="1">
+        <v>846.308</v>
+      </c>
+      <c r="AFP1" s="1">
+        <v>847.306</v>
+      </c>
+      <c r="AFQ1" s="1">
+        <v>848.304</v>
+      </c>
+      <c r="AFR1" s="1">
+        <v>849.302</v>
+      </c>
+      <c r="AFS1" s="1">
+        <v>850.3</v>
+      </c>
+      <c r="AFT1" s="1">
+        <v>851.298</v>
+      </c>
+      <c r="AFU1" s="1">
+        <v>852.296</v>
+      </c>
+      <c r="AFV1" s="1">
+        <v>853.294</v>
+      </c>
+      <c r="AFW1" s="1">
+        <v>854.292</v>
+      </c>
+      <c r="AFX1" s="1">
+        <v>855.29</v>
+      </c>
+      <c r="AFY1" s="1">
+        <v>856.288</v>
+      </c>
+      <c r="AFZ1" s="1">
+        <v>857.2859999999999</v>
+      </c>
+      <c r="AGA1" s="1">
+        <v>858.284</v>
+      </c>
+      <c r="AGB1" s="1">
+        <v>859.282</v>
+      </c>
+      <c r="AGC1" s="1">
+        <v>860.28</v>
+      </c>
+      <c r="AGD1" s="1">
+        <v>861.278</v>
+      </c>
+      <c r="AGE1" s="1">
+        <v>862.276</v>
+      </c>
+      <c r="AGF1" s="1">
+        <v>863.274</v>
+      </c>
+      <c r="AGG1" s="1">
+        <v>864.272</v>
+      </c>
+      <c r="AGH1" s="1">
+        <v>865.27</v>
+      </c>
+      <c r="AGI1" s="1">
+        <v>866.268</v>
+      </c>
+      <c r="AGJ1" s="1">
+        <v>867.266</v>
+      </c>
+      <c r="AGK1" s="1">
+        <v>868.264</v>
+      </c>
+      <c r="AGL1" s="1">
+        <v>869.2619999999999</v>
+      </c>
+      <c r="AGM1" s="1">
+        <v>870.26</v>
+      </c>
+      <c r="AGN1" s="1">
+        <v>871.258</v>
+      </c>
+      <c r="AGO1" s="1">
+        <v>872.256</v>
+      </c>
+      <c r="AGP1" s="1">
+        <v>873.254</v>
+      </c>
+      <c r="AGQ1" s="1">
+        <v>874.252</v>
+      </c>
+      <c r="AGR1" s="1">
+        <v>875.25</v>
+      </c>
+      <c r="AGS1" s="1">
+        <v>876.248</v>
+      </c>
+      <c r="AGT1" s="1">
+        <v>877.246</v>
+      </c>
+      <c r="AGU1" s="1">
+        <v>878.244</v>
+      </c>
+      <c r="AGV1" s="1">
+        <v>879.242</v>
+      </c>
+      <c r="AGW1" s="1">
+        <v>880.24</v>
+      </c>
+      <c r="AGX1" s="1">
+        <v>881.2380000000001</v>
+      </c>
+      <c r="AGY1" s="1">
+        <v>882.236</v>
+      </c>
+      <c r="AGZ1" s="1">
+        <v>883.234</v>
+      </c>
+      <c r="AHA1" s="1">
+        <v>884.232</v>
+      </c>
+      <c r="AHB1" s="1">
+        <v>885.23</v>
+      </c>
+      <c r="AHC1" s="1">
+        <v>886.228</v>
+      </c>
+      <c r="AHD1" s="1">
+        <v>887.226</v>
+      </c>
+      <c r="AHE1" s="1">
+        <v>888.224</v>
+      </c>
+      <c r="AHF1" s="1">
+        <v>889.222</v>
+      </c>
+      <c r="AHG1" s="1">
+        <v>890.22</v>
+      </c>
+      <c r="AHH1" s="1">
+        <v>891.218</v>
+      </c>
+      <c r="AHI1" s="1">
+        <v>892.216</v>
+      </c>
+      <c r="AHJ1" s="1">
+        <v>893.2140000000001</v>
+      </c>
+      <c r="AHK1" s="1">
+        <v>894.212</v>
+      </c>
+      <c r="AHL1" s="1">
+        <v>895.21</v>
+      </c>
+      <c r="AHM1" s="1">
+        <v>896.208</v>
+      </c>
+      <c r="AHN1" s="1">
+        <v>897.206</v>
+      </c>
+      <c r="AHO1" s="1">
+        <v>898.204</v>
+      </c>
+      <c r="AHP1" s="1">
+        <v>899.202</v>
+      </c>
+      <c r="AHQ1" s="1">
+        <v>900.2</v>
+      </c>
+      <c r="AHR1" s="1">
+        <v>901.198</v>
+      </c>
+      <c r="AHS1" s="1">
+        <v>902.196</v>
+      </c>
+      <c r="AHT1" s="1">
+        <v>903.194</v>
+      </c>
+      <c r="AHU1" s="1">
+        <v>904.192</v>
+      </c>
+      <c r="AHV1" s="1">
+        <v>905.1900000000001</v>
+      </c>
+      <c r="AHW1" s="1">
+        <v>906.188</v>
+      </c>
+      <c r="AHX1" s="1">
+        <v>907.186</v>
+      </c>
+      <c r="AHY1" s="1">
+        <v>908.184</v>
+      </c>
+      <c r="AHZ1" s="1">
+        <v>909.182</v>
+      </c>
+      <c r="AIA1" s="1">
+        <v>910.1799999999999</v>
+      </c>
+      <c r="AIB1" s="1">
+        <v>911.178</v>
+      </c>
+      <c r="AIC1" s="1">
+        <v>912.176</v>
+      </c>
+      <c r="AID1" s="1">
+        <v>913.174</v>
+      </c>
+      <c r="AIE1" s="1">
+        <v>914.172</v>
+      </c>
+      <c r="AIF1" s="1">
+        <v>915.17</v>
+      </c>
+      <c r="AIG1" s="1">
+        <v>916.168</v>
+      </c>
+      <c r="AIH1" s="1">
+        <v>917.1660000000001</v>
+      </c>
+      <c r="AII1" s="1">
+        <v>918.164</v>
+      </c>
+      <c r="AIJ1" s="1">
+        <v>919.162</v>
+      </c>
+      <c r="AIK1" s="1">
+        <v>920.16</v>
+      </c>
+      <c r="AIL1" s="1">
+        <v>921.158</v>
+      </c>
+      <c r="AIM1" s="1">
+        <v>922.1559999999999</v>
+      </c>
+      <c r="AIN1" s="1">
+        <v>923.154</v>
+      </c>
+      <c r="AIO1" s="1">
+        <v>924.152</v>
+      </c>
+      <c r="AIP1" s="1">
+        <v>925.15</v>
+      </c>
+      <c r="AIQ1" s="1">
+        <v>926.148</v>
+      </c>
+      <c r="AIR1" s="1">
+        <v>927.146</v>
+      </c>
+      <c r="AIS1" s="1">
+        <v>928.144</v>
+      </c>
+      <c r="AIT1" s="1">
+        <v>929.1420000000001</v>
+      </c>
+      <c r="AIU1" s="1">
+        <v>930.14</v>
+      </c>
+      <c r="AIV1" s="1">
+        <v>931.138</v>
+      </c>
+      <c r="AIW1" s="1">
+        <v>932.136</v>
+      </c>
+      <c r="AIX1" s="1">
+        <v>933.134</v>
+      </c>
+      <c r="AIY1" s="1">
+        <v>934.1319999999999</v>
+      </c>
+      <c r="AIZ1" s="1">
+        <v>935.13</v>
+      </c>
+      <c r="AJA1" s="1">
+        <v>936.128</v>
+      </c>
+      <c r="AJB1" s="1">
+        <v>937.126</v>
+      </c>
+      <c r="AJC1" s="1">
+        <v>938.124</v>
+      </c>
+      <c r="AJD1" s="1">
+        <v>939.122</v>
+      </c>
+      <c r="AJE1" s="1">
+        <v>940.12</v>
+      </c>
+      <c r="AJF1" s="1">
+        <v>941.1180000000001</v>
+      </c>
+      <c r="AJG1" s="1">
+        <v>942.116</v>
+      </c>
+      <c r="AJH1" s="1">
+        <v>943.114</v>
+      </c>
+      <c r="AJI1" s="1">
+        <v>944.112</v>
+      </c>
+      <c r="AJJ1" s="1">
+        <v>945.11</v>
+      </c>
+      <c r="AJK1" s="1">
+        <v>946.1079999999999</v>
+      </c>
+      <c r="AJL1" s="1">
+        <v>947.106</v>
+      </c>
+      <c r="AJM1" s="1">
+        <v>948.104</v>
+      </c>
+      <c r="AJN1" s="1">
+        <v>949.102</v>
+      </c>
+      <c r="AJO1" s="1">
+        <v>950.1</v>
+      </c>
+      <c r="AJP1" s="1">
+        <v>951.098</v>
+      </c>
+      <c r="AJQ1" s="1">
+        <v>952.096</v>
+      </c>
+      <c r="AJR1" s="1">
+        <v>953.0940000000001</v>
+      </c>
+      <c r="AJS1" s="1">
+        <v>954.092</v>
+      </c>
+      <c r="AJT1" s="1">
+        <v>955.09</v>
+      </c>
+      <c r="AJU1" s="1">
+        <v>956.088</v>
+      </c>
+      <c r="AJV1" s="1">
+        <v>957.086</v>
+      </c>
+      <c r="AJW1" s="1">
+        <v>958.0839999999999</v>
+      </c>
+      <c r="AJX1" s="1">
+        <v>959.082</v>
+      </c>
+      <c r="AJY1" s="1">
+        <v>960.08</v>
+      </c>
+      <c r="AJZ1" s="1">
+        <v>961.078</v>
+      </c>
+      <c r="AKA1" s="1">
+        <v>962.076</v>
+      </c>
+      <c r="AKB1" s="1">
+        <v>963.074</v>
+      </c>
+      <c r="AKC1" s="1">
+        <v>964.072</v>
+      </c>
+      <c r="AKD1" s="1">
+        <v>965.0700000000001</v>
+      </c>
+      <c r="AKE1" s="1">
+        <v>966.068</v>
+      </c>
+      <c r="AKF1" s="1">
+        <v>967.066</v>
+      </c>
+      <c r="AKG1" s="1">
+        <v>968.064</v>
+      </c>
+      <c r="AKH1" s="1">
+        <v>969.062</v>
+      </c>
+      <c r="AKI1" s="1">
+        <v>970.0599999999999</v>
+      </c>
+      <c r="AKJ1" s="1">
+        <v>971.058</v>
+      </c>
+      <c r="AKK1" s="1">
+        <v>972.056</v>
+      </c>
+      <c r="AKL1" s="1">
+        <v>973.054</v>
+      </c>
+      <c r="AKM1" s="1">
+        <v>974.052</v>
+      </c>
+      <c r="AKN1" s="1">
+        <v>975.05</v>
+      </c>
+      <c r="AKO1" s="1">
+        <v>976.048</v>
+      </c>
+      <c r="AKP1" s="1">
+        <v>977.046</v>
+      </c>
+      <c r="AKQ1" s="1">
+        <v>978.044</v>
+      </c>
+      <c r="AKR1" s="1">
+        <v>979.042</v>
+      </c>
+      <c r="AKS1" s="1">
+        <v>980.04</v>
+      </c>
+      <c r="AKT1" s="1">
+        <v>981.038</v>
+      </c>
+      <c r="AKU1" s="1">
+        <v>982.0359999999999</v>
+      </c>
+      <c r="AKV1" s="1">
+        <v>983.034</v>
+      </c>
+      <c r="AKW1" s="1">
+        <v>984.032</v>
+      </c>
+      <c r="AKX1" s="1">
+        <v>985.03</v>
+      </c>
+      <c r="AKY1" s="1">
+        <v>986.028</v>
+      </c>
+      <c r="AKZ1" s="1">
+        <v>987.026</v>
+      </c>
+      <c r="ALA1" s="1">
+        <v>988.024</v>
+      </c>
+      <c r="ALB1" s="1">
+        <v>989.022</v>
+      </c>
+      <c r="ALC1" s="1">
+        <v>990.02</v>
+      </c>
+      <c r="ALD1" s="1">
+        <v>991.018</v>
+      </c>
+      <c r="ALE1" s="1">
+        <v>992.016</v>
+      </c>
+      <c r="ALF1" s="1">
+        <v>993.014</v>
+      </c>
+      <c r="ALG1" s="1">
+        <v>994.0119999999999</v>
+      </c>
+      <c r="ALH1" s="1">
+        <v>995.01</v>
+      </c>
+      <c r="ALI1" s="1">
+        <v>996.008</v>
+      </c>
+      <c r="ALJ1" s="1">
+        <v>997.006</v>
+      </c>
+      <c r="ALK1" s="1">
+        <v>998.004</v>
+      </c>
+      <c r="ALL1" s="1">
+        <v>999.002</v>
+      </c>
+      <c r="ALM1" s="1">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:1001">
       <c r="A2" s="2">
-        <v>-2.17641368640834</v>
+        <v>-4.11004574767033</v>
       </c>
       <c r="B2" s="2">
-        <v>-2.80897410561851</v>
+        <v>-8.47172558595854</v>
       </c>
       <c r="C2" s="2">
-        <v>-2.81539781902261</v>
+        <v>-16.2058186451278</v>
       </c>
       <c r="D2" s="2">
-        <v>-2.81257927991902</v>
+        <v>-10.7577588963205</v>
       </c>
       <c r="E2" s="2">
-        <v>-2.82915217241298</v>
+        <v>-6.37387881772585</v>
       </c>
       <c r="F2" s="2">
-        <v>-2.82789038372421</v>
+        <v>-4.44688414721636</v>
       </c>
       <c r="G2" s="2">
-        <v>-2.83093765861587</v>
+        <v>-3.72357001416963</v>
       </c>
       <c r="H2" s="2">
-        <v>-2.82588086048765</v>
+        <v>-3.57914781664449</v>
       </c>
       <c r="I2" s="2">
-        <v>-2.82332191661965</v>
+        <v>-3.81905804764829</v>
       </c>
       <c r="J2" s="2">
-        <v>-2.8540236899681</v>
+        <v>-4.34197046852577</v>
       </c>
       <c r="K2" s="2">
-        <v>-2.9249786700427</v>
+        <v>-5.08916856887296</v>
       </c>
       <c r="L2" s="2">
-        <v>-2.97746217478478</v>
+        <v>-5.94826675749942</v>
       </c>
       <c r="M2" s="2">
-        <v>-3.05662932409349</v>
+        <v>-6.71649606860859</v>
       </c>
       <c r="N2" s="2">
-        <v>-3.21596528408126</v>
+        <v>-7.0172687897192</v>
       </c>
       <c r="O2" s="2">
-        <v>-3.48111062568795</v>
+        <v>-6.77274749956904</v>
+      </c>
+      <c r="P2" s="2">
+        <v>-6.23184718600802</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>-5.67536860756927</v>
+      </c>
+      <c r="R2" s="2">
+        <v>-5.28615519921948</v>
+      </c>
+      <c r="S2" s="2">
+        <v>-5.06514055562439</v>
+      </c>
+      <c r="T2" s="2">
+        <v>-5.0367303850067</v>
+      </c>
+      <c r="U2" s="2">
+        <v>-5.17928434269949</v>
+      </c>
+      <c r="V2" s="2">
+        <v>-5.40867226247408</v>
+      </c>
+      <c r="W2" s="2">
+        <v>-5.72254347702324</v>
+      </c>
+      <c r="X2" s="2">
+        <v>-6.08302006601085</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>-6.4584967184711</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>-6.77019368841619</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>-7.04692516991128</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>-7.29883022511726</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>-7.54424594943229</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>-7.83208633828905</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>-8.142113318701769</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>-8.59933082424307</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>-9.115709960888591</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>-9.713979979045741</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>-10.320165412569</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>-10.9527421123624</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>-11.3873796119778</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>-11.5793326043972</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>-11.4379240286345</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>-10.9851230020349</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>-10.3838760673489</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>-9.67971806088773</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>-9.0180120173926</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>-8.38841470327896</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>-7.81662543103702</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>-7.30549872783201</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>-6.93847538501835</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>-6.55087483590523</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>-6.24564892985617</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>-6.02520405977633</v>
+      </c>
+      <c r="AY2" s="2">
+        <v>-5.79904538479893</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>-5.61824396239482</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>-5.47783475621143</v>
+      </c>
+      <c r="BB2" s="2">
+        <v>-5.34284113853878</v>
+      </c>
+      <c r="BC2" s="2">
+        <v>-5.21798563844702</v>
+      </c>
+      <c r="BD2" s="2">
+        <v>-5.12445168492033</v>
+      </c>
+      <c r="BE2" s="2">
+        <v>-5.01675669634528</v>
+      </c>
+      <c r="BF2" s="2">
+        <v>-4.95112595503711</v>
+      </c>
+      <c r="BG2" s="2">
+        <v>-4.90998319573436</v>
+      </c>
+      <c r="BH2" s="2">
+        <v>-4.82375264562919</v>
+      </c>
+      <c r="BI2" s="2">
+        <v>-4.78963534649537</v>
+      </c>
+      <c r="BJ2" s="2">
+        <v>-4.71616579095832</v>
+      </c>
+      <c r="BK2" s="2">
+        <v>-4.67932715850932</v>
+      </c>
+      <c r="BL2" s="2">
+        <v>-4.63674977463136</v>
+      </c>
+      <c r="BM2" s="2">
+        <v>-4.61873549268927</v>
+      </c>
+      <c r="BN2" s="2">
+        <v>-4.58123336296366</v>
+      </c>
+      <c r="BO2" s="2">
+        <v>-4.5216826941722</v>
+      </c>
+      <c r="BP2" s="2">
+        <v>-4.49049364662457</v>
+      </c>
+      <c r="BQ2" s="2">
+        <v>-4.4537209113777</v>
+      </c>
+      <c r="BR2" s="2">
+        <v>-4.41308475876981</v>
+      </c>
+      <c r="BS2" s="2">
+        <v>-4.38813118596617</v>
+      </c>
+      <c r="BT2" s="2">
+        <v>-4.37863507202094</v>
+      </c>
+      <c r="BU2" s="2">
+        <v>-4.3329421512926</v>
+      </c>
+      <c r="BV2" s="2">
+        <v>-4.30984367133919</v>
+      </c>
+      <c r="BW2" s="2">
+        <v>-4.27356866200421</v>
+      </c>
+      <c r="BX2" s="2">
+        <v>-4.27840790357898</v>
+      </c>
+      <c r="BY2" s="2">
+        <v>-4.22592577762478</v>
+      </c>
+      <c r="BZ2" s="2">
+        <v>-4.1987666924552</v>
+      </c>
+      <c r="CA2" s="2">
+        <v>-4.18614464097674</v>
+      </c>
+      <c r="CB2" s="2">
+        <v>-4.14915182017153</v>
+      </c>
+      <c r="CC2" s="2">
+        <v>-4.14045429180402</v>
+      </c>
+      <c r="CD2" s="2">
+        <v>-4.11479419304239</v>
+      </c>
+      <c r="CE2" s="2">
+        <v>-4.08758845963665</v>
+      </c>
+      <c r="CF2" s="2">
+        <v>-4.07034113522652</v>
+      </c>
+      <c r="CG2" s="2">
+        <v>-4.04121055210977</v>
+      </c>
+      <c r="CH2" s="2">
+        <v>-4.02198121697324</v>
+      </c>
+      <c r="CI2" s="2">
+        <v>-3.98079477298958</v>
+      </c>
+      <c r="CJ2" s="2">
+        <v>-3.98832823214652</v>
+      </c>
+      <c r="CK2" s="2">
+        <v>-3.95003801577435</v>
+      </c>
+      <c r="CL2" s="2">
+        <v>-3.9436857681935</v>
+      </c>
+      <c r="CM2" s="2">
+        <v>-3.89901770698527</v>
+      </c>
+      <c r="CN2" s="2">
+        <v>-3.88686559856571</v>
+      </c>
+      <c r="CO2" s="2">
+        <v>-3.8475531101642</v>
+      </c>
+      <c r="CP2" s="2">
+        <v>-3.83873722372013</v>
+      </c>
+      <c r="CQ2" s="2">
+        <v>-3.80778596151807</v>
+      </c>
+      <c r="CR2" s="2">
+        <v>-3.79027077607085</v>
+      </c>
+      <c r="CS2" s="2">
+        <v>-3.80071840456256</v>
+      </c>
+      <c r="CT2" s="2">
+        <v>-3.75888919500617</v>
+      </c>
+      <c r="CU2" s="2">
+        <v>-3.73871845726457</v>
+      </c>
+      <c r="CV2" s="2">
+        <v>-3.71548702204946</v>
+      </c>
+      <c r="CW2" s="2">
+        <v>-3.70123184631084</v>
+      </c>
+      <c r="CX2" s="2">
+        <v>-3.68590689402906</v>
+      </c>
+      <c r="CY2" s="2">
+        <v>-3.69052756476362</v>
+      </c>
+      <c r="CZ2" s="2">
+        <v>-3.64227761246237</v>
+      </c>
+      <c r="DA2" s="2">
+        <v>-3.6441627706256</v>
+      </c>
+      <c r="DB2" s="2">
+        <v>-3.61925690511294</v>
+      </c>
+      <c r="DC2" s="2">
+        <v>-3.60565925522822</v>
+      </c>
+      <c r="DD2" s="2">
+        <v>-3.58619166614252</v>
+      </c>
+      <c r="DE2" s="2">
+        <v>-3.59301213791952</v>
+      </c>
+      <c r="DF2" s="2">
+        <v>-3.55850795640999</v>
+      </c>
+      <c r="DG2" s="2">
+        <v>-3.54192336558491</v>
+      </c>
+      <c r="DH2" s="2">
+        <v>-3.5068661658247</v>
+      </c>
+      <c r="DI2" s="2">
+        <v>-3.51009621063171</v>
+      </c>
+      <c r="DJ2" s="2">
+        <v>-3.4727341358201</v>
+      </c>
+      <c r="DK2" s="2">
+        <v>-3.465697392603</v>
+      </c>
+      <c r="DL2" s="2">
+        <v>-3.45586018357484</v>
+      </c>
+      <c r="DM2" s="2">
+        <v>-3.44743430841794</v>
+      </c>
+      <c r="DN2" s="2">
+        <v>-3.44722114672985</v>
+      </c>
+      <c r="DO2" s="2">
+        <v>-3.40744193128155</v>
+      </c>
+      <c r="DP2" s="2">
+        <v>-3.37612857780073</v>
+      </c>
+      <c r="DQ2" s="2">
+        <v>-3.38896029921494</v>
+      </c>
+      <c r="DR2" s="2">
+        <v>-3.33415458748758</v>
+      </c>
+      <c r="DS2" s="2">
+        <v>-3.34608938605962</v>
+      </c>
+      <c r="DT2" s="2">
+        <v>-3.35001646528437</v>
+      </c>
+      <c r="DU2" s="2">
+        <v>-3.3093503087052</v>
+      </c>
+      <c r="DV2" s="2">
+        <v>-3.30211620640677</v>
+      </c>
+      <c r="DW2" s="2">
+        <v>-3.29320198863312</v>
+      </c>
+      <c r="DX2" s="2">
+        <v>-3.28239191993286</v>
+      </c>
+      <c r="DY2" s="2">
+        <v>-3.30372016381665</v>
+      </c>
+      <c r="DZ2" s="2">
+        <v>-3.28651459166371</v>
+      </c>
+      <c r="EA2" s="2">
+        <v>-3.29790521115645</v>
+      </c>
+      <c r="EB2" s="2">
+        <v>-3.27994007659486</v>
+      </c>
+      <c r="EC2" s="2">
+        <v>-3.28776683439866</v>
+      </c>
+      <c r="ED2" s="2">
+        <v>-3.2929317550043</v>
+      </c>
+      <c r="EE2" s="2">
+        <v>-3.27850347598914</v>
+      </c>
+      <c r="EF2" s="2">
+        <v>-3.31111568964051</v>
+      </c>
+      <c r="EG2" s="2">
+        <v>-3.31044990456854</v>
+      </c>
+      <c r="EH2" s="2">
+        <v>-3.32842243220981</v>
+      </c>
+      <c r="EI2" s="2">
+        <v>-3.34461982465315</v>
+      </c>
+      <c r="EJ2" s="2">
+        <v>-3.36496843884556</v>
+      </c>
+      <c r="EK2" s="2">
+        <v>-3.37866086790973</v>
+      </c>
+      <c r="EL2" s="2">
+        <v>-3.39271282524742</v>
+      </c>
+      <c r="EM2" s="2">
+        <v>-3.43165231368774</v>
+      </c>
+      <c r="EN2" s="2">
+        <v>-3.46985830288439</v>
+      </c>
+      <c r="EO2" s="2">
+        <v>-3.48470632034203</v>
+      </c>
+      <c r="EP2" s="2">
+        <v>-3.49042778965209</v>
+      </c>
+      <c r="EQ2" s="2">
+        <v>-3.54968527439938</v>
+      </c>
+      <c r="ER2" s="2">
+        <v>-3.58000695005469</v>
+      </c>
+      <c r="ES2" s="2">
+        <v>-3.61272629995322</v>
+      </c>
+      <c r="ET2" s="2">
+        <v>-3.64463771512325</v>
+      </c>
+      <c r="EU2" s="2">
+        <v>-3.67472611611767</v>
+      </c>
+      <c r="EV2" s="2">
+        <v>-3.72825182947341</v>
+      </c>
+      <c r="EW2" s="2">
+        <v>-3.76098529060956</v>
+      </c>
+      <c r="EX2" s="2">
+        <v>-3.78001682183075</v>
+      </c>
+      <c r="EY2" s="2">
+        <v>-3.82617203541266</v>
+      </c>
+      <c r="EZ2" s="2">
+        <v>-3.85040105622856</v>
+      </c>
+      <c r="FA2" s="2">
+        <v>-3.90336210615457</v>
+      </c>
+      <c r="FB2" s="2">
+        <v>-3.91643096242554</v>
+      </c>
+      <c r="FC2" s="2">
+        <v>-3.97871079002968</v>
+      </c>
+      <c r="FD2" s="2">
+        <v>-3.99195252533062</v>
+      </c>
+      <c r="FE2" s="2">
+        <v>-4.01749208083294</v>
+      </c>
+      <c r="FF2" s="2">
+        <v>-4.06543077467446</v>
+      </c>
+      <c r="FG2" s="2">
+        <v>-4.0749632379385</v>
+      </c>
+      <c r="FH2" s="2">
+        <v>-4.11217055962738</v>
+      </c>
+      <c r="FI2" s="2">
+        <v>-4.14549947749969</v>
+      </c>
+      <c r="FJ2" s="2">
+        <v>-4.16026037384736</v>
+      </c>
+      <c r="FK2" s="2">
+        <v>-4.15983787361925</v>
+      </c>
+      <c r="FL2" s="2">
+        <v>-4.18188971560364</v>
+      </c>
+      <c r="FM2" s="2">
+        <v>-4.18259599298304</v>
+      </c>
+      <c r="FN2" s="2">
+        <v>-4.18972296223</v>
+      </c>
+      <c r="FO2" s="2">
+        <v>-4.21872651966983</v>
+      </c>
+      <c r="FP2" s="2">
+        <v>-4.20503279280916</v>
+      </c>
+      <c r="FQ2" s="2">
+        <v>-4.22488073494277</v>
+      </c>
+      <c r="FR2" s="2">
+        <v>-4.20777999697299</v>
+      </c>
+      <c r="FS2" s="2">
+        <v>-4.23738602431473</v>
+      </c>
+      <c r="FT2" s="2">
+        <v>-4.25184775945085</v>
+      </c>
+      <c r="FU2" s="2">
+        <v>-4.25166210107103</v>
+      </c>
+      <c r="FV2" s="2">
+        <v>-4.2553587351646</v>
+      </c>
+      <c r="FW2" s="2">
+        <v>-4.2457451758759</v>
+      </c>
+      <c r="FX2" s="2">
+        <v>-4.25630584536804</v>
+      </c>
+      <c r="FY2" s="2">
+        <v>-4.20757396851532</v>
+      </c>
+      <c r="FZ2" s="2">
+        <v>-4.21403297581426</v>
+      </c>
+      <c r="GA2" s="2">
+        <v>-4.2231000813261</v>
+      </c>
+      <c r="GB2" s="2">
+        <v>-4.20933454622108</v>
+      </c>
+      <c r="GC2" s="2">
+        <v>-4.21795077900867</v>
+      </c>
+      <c r="GD2" s="2">
+        <v>-4.20819635630058</v>
+      </c>
+      <c r="GE2" s="2">
+        <v>-4.19376107437866</v>
+      </c>
+      <c r="GF2" s="2">
+        <v>-4.1475315906602</v>
+      </c>
+      <c r="GG2" s="2">
+        <v>-4.17462236996482</v>
+      </c>
+      <c r="GH2" s="2">
+        <v>-4.1584873870618</v>
+      </c>
+      <c r="GI2" s="2">
+        <v>-4.15673297777239</v>
+      </c>
+      <c r="GJ2" s="2">
+        <v>-4.1317453658177</v>
+      </c>
+      <c r="GK2" s="2">
+        <v>-4.11681575705364</v>
+      </c>
+      <c r="GL2" s="2">
+        <v>-4.06662001947781</v>
+      </c>
+      <c r="GM2" s="2">
+        <v>-4.07947770087631</v>
+      </c>
+      <c r="GN2" s="2">
+        <v>-4.07723870086025</v>
+      </c>
+      <c r="GO2" s="2">
+        <v>-4.03575126930723</v>
+      </c>
+      <c r="GP2" s="2">
+        <v>-4.0167985343275</v>
+      </c>
+      <c r="GQ2" s="2">
+        <v>-3.98139712567989</v>
+      </c>
+      <c r="GR2" s="2">
+        <v>-4.00363783661854</v>
+      </c>
+      <c r="GS2" s="2">
+        <v>-3.97338179238237</v>
+      </c>
+      <c r="GT2" s="2">
+        <v>-3.94236017359385</v>
+      </c>
+      <c r="GU2" s="2">
+        <v>-3.90956311213025</v>
+      </c>
+      <c r="GV2" s="2">
+        <v>-3.89860412158217</v>
+      </c>
+      <c r="GW2" s="2">
+        <v>-3.88183663523967</v>
+      </c>
+      <c r="GX2" s="2">
+        <v>-3.84408298876933</v>
+      </c>
+      <c r="GY2" s="2">
+        <v>-3.8433616074389</v>
+      </c>
+      <c r="GZ2" s="2">
+        <v>-3.82545994930169</v>
+      </c>
+      <c r="HA2" s="2">
+        <v>-3.79756331321405</v>
+      </c>
+      <c r="HB2" s="2">
+        <v>-3.77944137751402</v>
+      </c>
+      <c r="HC2" s="2">
+        <v>-3.7746135503327</v>
+      </c>
+      <c r="HD2" s="2">
+        <v>-3.72983949614484</v>
+      </c>
+      <c r="HE2" s="2">
+        <v>-3.72246390189352</v>
+      </c>
+      <c r="HF2" s="2">
+        <v>-3.70063846295517</v>
+      </c>
+      <c r="HG2" s="2">
+        <v>-3.68351317440506</v>
+      </c>
+      <c r="HH2" s="2">
+        <v>-3.67301983975548</v>
+      </c>
+      <c r="HI2" s="2">
+        <v>-3.64195943745338</v>
+      </c>
+      <c r="HJ2" s="2">
+        <v>-3.65033743876711</v>
+      </c>
+      <c r="HK2" s="2">
+        <v>-3.62568369665014</v>
+      </c>
+      <c r="HL2" s="2">
+        <v>-3.60001142034825</v>
+      </c>
+      <c r="HM2" s="2">
+        <v>-3.60114295995635</v>
+      </c>
+      <c r="HN2" s="2">
+        <v>-3.5985760001933</v>
+      </c>
+      <c r="HO2" s="2">
+        <v>-3.57026105398473</v>
+      </c>
+      <c r="HP2" s="2">
+        <v>-3.54373115252319</v>
+      </c>
+      <c r="HQ2" s="2">
+        <v>-3.55371120124267</v>
+      </c>
+      <c r="HR2" s="2">
+        <v>-3.53831394307306</v>
+      </c>
+      <c r="HS2" s="2">
+        <v>-3.53498773120716</v>
+      </c>
+      <c r="HT2" s="2">
+        <v>-3.54418136044374</v>
+      </c>
+      <c r="HU2" s="2">
+        <v>-3.4956698495524</v>
+      </c>
+      <c r="HV2" s="2">
+        <v>-3.50675703578798</v>
+      </c>
+      <c r="HW2" s="2">
+        <v>-3.53171514542173</v>
+      </c>
+      <c r="HX2" s="2">
+        <v>-3.50768673851644</v>
+      </c>
+      <c r="HY2" s="2">
+        <v>-3.48740336949292</v>
+      </c>
+      <c r="HZ2" s="2">
+        <v>-3.46758959803824</v>
+      </c>
+      <c r="IA2" s="2">
+        <v>-3.47986175454965</v>
+      </c>
+      <c r="IB2" s="2">
+        <v>-3.46117961113536</v>
+      </c>
+      <c r="IC2" s="2">
+        <v>-3.46150271294014</v>
+      </c>
+      <c r="ID2" s="2">
+        <v>-3.44925584901746</v>
+      </c>
+      <c r="IE2" s="2">
+        <v>-3.45977313934623</v>
+      </c>
+      <c r="IF2" s="2">
+        <v>-3.4446713423022</v>
+      </c>
+      <c r="IG2" s="2">
+        <v>-3.43522625195805</v>
+      </c>
+      <c r="IH2" s="2">
+        <v>-3.45556060175425</v>
+      </c>
+      <c r="II2" s="2">
+        <v>-3.45714739827054</v>
+      </c>
+      <c r="IJ2" s="2">
+        <v>-3.44831822993637</v>
+      </c>
+      <c r="IK2" s="2">
+        <v>-3.44164998634324</v>
+      </c>
+      <c r="IL2" s="2">
+        <v>-3.44440915967796</v>
+      </c>
+      <c r="IM2" s="2">
+        <v>-3.44618260574162</v>
+      </c>
+      <c r="IN2" s="2">
+        <v>-3.43772925019549</v>
+      </c>
+      <c r="IO2" s="2">
+        <v>-3.43414378894074</v>
+      </c>
+      <c r="IP2" s="2">
+        <v>-3.43074918052149</v>
+      </c>
+      <c r="IQ2" s="2">
+        <v>-3.43176574190707</v>
+      </c>
+      <c r="IR2" s="2">
+        <v>-3.43764132885147</v>
+      </c>
+      <c r="IS2" s="2">
+        <v>-3.43131848665102</v>
+      </c>
+      <c r="IT2" s="2">
+        <v>-3.45172288246361</v>
+      </c>
+      <c r="IU2" s="2">
+        <v>-3.42480738143928</v>
+      </c>
+      <c r="IV2" s="2">
+        <v>-3.44719377218628</v>
+      </c>
+      <c r="IW2" s="2">
+        <v>-3.41479412377827</v>
+      </c>
+      <c r="IX2" s="2">
+        <v>-3.45581529266618</v>
+      </c>
+      <c r="IY2" s="2">
+        <v>-3.44352971450084</v>
+      </c>
+      <c r="IZ2" s="2">
+        <v>-3.44096554226843</v>
+      </c>
+      <c r="JA2" s="2">
+        <v>-3.45669728379203</v>
+      </c>
+      <c r="JB2" s="2">
+        <v>-3.43450022917769</v>
+      </c>
+      <c r="JC2" s="2">
+        <v>-3.44705268565666</v>
+      </c>
+      <c r="JD2" s="2">
+        <v>-3.44608333589658</v>
+      </c>
+      <c r="JE2" s="2">
+        <v>-3.44823029894229</v>
+      </c>
+      <c r="JF2" s="2">
+        <v>-3.43753443453309</v>
+      </c>
+      <c r="JG2" s="2">
+        <v>-3.45083987426397</v>
+      </c>
+      <c r="JH2" s="2">
+        <v>-3.47314819157933</v>
+      </c>
+      <c r="JI2" s="2">
+        <v>-3.44303869014242</v>
+      </c>
+      <c r="JJ2" s="2">
+        <v>-3.46367745822471</v>
+      </c>
+      <c r="JK2" s="2">
+        <v>-3.45471160926768</v>
+      </c>
+      <c r="JL2" s="2">
+        <v>-3.45219182758507</v>
+      </c>
+      <c r="JM2" s="2">
+        <v>-3.44369477950033</v>
+      </c>
+      <c r="JN2" s="2">
+        <v>-3.44726460804248</v>
+      </c>
+      <c r="JO2" s="2">
+        <v>-3.44784737736729</v>
+      </c>
+      <c r="JP2" s="2">
+        <v>-3.43185642618095</v>
+      </c>
+      <c r="JQ2" s="2">
+        <v>-3.43442462058452</v>
+      </c>
+      <c r="JR2" s="2">
+        <v>-3.46848239793292</v>
+      </c>
+      <c r="JS2" s="2">
+        <v>-3.46046403904542</v>
+      </c>
+      <c r="JT2" s="2">
+        <v>-3.42100442675316</v>
+      </c>
+      <c r="JU2" s="2">
+        <v>-3.43884028678906</v>
+      </c>
+      <c r="JV2" s="2">
+        <v>-3.44522769795515</v>
+      </c>
+      <c r="JW2" s="2">
+        <v>-3.43685250870108</v>
+      </c>
+      <c r="JX2" s="2">
+        <v>-3.42492622060116</v>
+      </c>
+      <c r="JY2" s="2">
+        <v>-3.42036889305596</v>
+      </c>
+      <c r="JZ2" s="2">
+        <v>-3.44916348042187</v>
+      </c>
+      <c r="KA2" s="2">
+        <v>-3.44733075895659</v>
+      </c>
+      <c r="KB2" s="2">
+        <v>-3.40446320568297</v>
+      </c>
+      <c r="KC2" s="2">
+        <v>-3.41738429887637</v>
+      </c>
+      <c r="KD2" s="2">
+        <v>-3.43462725748477</v>
+      </c>
+      <c r="KE2" s="2">
+        <v>-3.44320737206617</v>
+      </c>
+      <c r="KF2" s="2">
+        <v>-3.43611627943681</v>
+      </c>
+      <c r="KG2" s="2">
+        <v>-3.4123838307061</v>
+      </c>
+      <c r="KH2" s="2">
+        <v>-3.41201392929671</v>
+      </c>
+      <c r="KI2" s="2">
+        <v>-3.43092580749975</v>
+      </c>
+      <c r="KJ2" s="2">
+        <v>-3.45422879499449</v>
+      </c>
+      <c r="KK2" s="2">
+        <v>-3.40749892194336</v>
+      </c>
+      <c r="KL2" s="2">
+        <v>-3.435313191961</v>
+      </c>
+      <c r="KM2" s="2">
+        <v>-3.43860878202611</v>
+      </c>
+      <c r="KN2" s="2">
+        <v>-3.41125131775243</v>
+      </c>
+      <c r="KO2" s="2">
+        <v>-3.40262475132014</v>
+      </c>
+      <c r="KP2" s="2">
+        <v>-3.42673247616253</v>
+      </c>
+      <c r="KQ2" s="2">
+        <v>-3.40613010119697</v>
+      </c>
+      <c r="KR2" s="2">
+        <v>-3.42086924176366</v>
+      </c>
+      <c r="KS2" s="2">
+        <v>-3.43639394630311</v>
+      </c>
+      <c r="KT2" s="2">
+        <v>-3.40177719088493</v>
+      </c>
+      <c r="KU2" s="2">
+        <v>-3.42594891641149</v>
+      </c>
+      <c r="KV2" s="2">
+        <v>-3.41939655938902</v>
+      </c>
+      <c r="KW2" s="2">
+        <v>-3.40118067579792</v>
+      </c>
+      <c r="KX2" s="2">
+        <v>-3.40518552331655</v>
+      </c>
+      <c r="KY2" s="2">
+        <v>-3.42971286462147</v>
+      </c>
+      <c r="KZ2" s="2">
+        <v>-3.4378811392987</v>
+      </c>
+      <c r="LA2" s="2">
+        <v>-3.42707021038897</v>
+      </c>
+      <c r="LB2" s="2">
+        <v>-3.43740359007552</v>
+      </c>
+      <c r="LC2" s="2">
+        <v>-3.45639672315902</v>
+      </c>
+      <c r="LD2" s="2">
+        <v>-3.45722857159794</v>
+      </c>
+      <c r="LE2" s="2">
+        <v>-3.47319038219361</v>
+      </c>
+      <c r="LF2" s="2">
+        <v>-3.46103181681424</v>
+      </c>
+      <c r="LG2" s="2">
+        <v>-3.46582749703056</v>
+      </c>
+      <c r="LH2" s="2">
+        <v>-3.47566308981224</v>
+      </c>
+      <c r="LI2" s="2">
+        <v>-3.4568654251812</v>
+      </c>
+      <c r="LJ2" s="2">
+        <v>-3.48817265042579</v>
+      </c>
+      <c r="LK2" s="2">
+        <v>-3.49792090492554</v>
+      </c>
+      <c r="LL2" s="2">
+        <v>-3.49366196092008</v>
+      </c>
+      <c r="LM2" s="2">
+        <v>-3.50040787958708</v>
+      </c>
+      <c r="LN2" s="2">
+        <v>-3.4911399380981</v>
+      </c>
+      <c r="LO2" s="2">
+        <v>-3.51115055163461</v>
+      </c>
+      <c r="LP2" s="2">
+        <v>-3.55308949380163</v>
+      </c>
+      <c r="LQ2" s="2">
+        <v>-3.52484567201098</v>
+      </c>
+      <c r="LR2" s="2">
+        <v>-3.55549408631548</v>
+      </c>
+      <c r="LS2" s="2">
+        <v>-3.5679588306396</v>
+      </c>
+      <c r="LT2" s="2">
+        <v>-3.58479678519951</v>
+      </c>
+      <c r="LU2" s="2">
+        <v>-3.60336334422729</v>
+      </c>
+      <c r="LV2" s="2">
+        <v>-3.58298494200888</v>
+      </c>
+      <c r="LW2" s="2">
+        <v>-3.58780335844752</v>
+      </c>
+      <c r="LX2" s="2">
+        <v>-3.60704517439824</v>
+      </c>
+      <c r="LY2" s="2">
+        <v>-3.62935020744163</v>
+      </c>
+      <c r="LZ2" s="2">
+        <v>-3.65287322725157</v>
+      </c>
+      <c r="MA2" s="2">
+        <v>-3.66534798803812</v>
+      </c>
+      <c r="MB2" s="2">
+        <v>-3.66452230303375</v>
+      </c>
+      <c r="MC2" s="2">
+        <v>-3.64191848386225</v>
+      </c>
+      <c r="MD2" s="2">
+        <v>-3.67099887234035</v>
+      </c>
+      <c r="ME2" s="2">
+        <v>-3.68721729217166</v>
+      </c>
+      <c r="MF2" s="2">
+        <v>-3.67948906525148</v>
+      </c>
+      <c r="MG2" s="2">
+        <v>-3.69696268794142</v>
+      </c>
+      <c r="MH2" s="2">
+        <v>-3.69765707301702</v>
+      </c>
+      <c r="MI2" s="2">
+        <v>-3.69042959234746</v>
+      </c>
+      <c r="MJ2" s="2">
+        <v>-3.71726117849416</v>
+      </c>
+      <c r="MK2" s="2">
+        <v>-3.74528878777047</v>
+      </c>
+      <c r="ML2" s="2">
+        <v>-3.73352834411961</v>
+      </c>
+      <c r="MM2" s="2">
+        <v>-3.75149706318893</v>
+      </c>
+      <c r="MN2" s="2">
+        <v>-3.73886146608305</v>
+      </c>
+      <c r="MO2" s="2">
+        <v>-3.76182581795172</v>
+      </c>
+      <c r="MP2" s="2">
+        <v>-3.77399515287409</v>
+      </c>
+      <c r="MQ2" s="2">
+        <v>-3.75339438974239</v>
+      </c>
+      <c r="MR2" s="2">
+        <v>-3.77869909661134</v>
+      </c>
+      <c r="MS2" s="2">
+        <v>-3.76291908614956</v>
+      </c>
+      <c r="MT2" s="2">
+        <v>-3.78293773679495</v>
+      </c>
+      <c r="MU2" s="2">
+        <v>-3.76371292928904</v>
+      </c>
+      <c r="MV2" s="2">
+        <v>-3.76226190773666</v>
+      </c>
+      <c r="MW2" s="2">
+        <v>-3.76316506249909</v>
+      </c>
+      <c r="MX2" s="2">
+        <v>-3.78420606470765</v>
+      </c>
+      <c r="MY2" s="2">
+        <v>-3.77385132990864</v>
+      </c>
+      <c r="MZ2" s="2">
+        <v>-3.78014986212237</v>
+      </c>
+      <c r="NA2" s="2">
+        <v>-3.77594455124168</v>
+      </c>
+      <c r="NB2" s="2">
+        <v>-3.78011591928506</v>
+      </c>
+      <c r="NC2" s="2">
+        <v>-3.78769365238475</v>
+      </c>
+      <c r="ND2" s="2">
+        <v>-3.79489548082784</v>
+      </c>
+      <c r="NE2" s="2">
+        <v>-3.74422303165731</v>
+      </c>
+      <c r="NF2" s="2">
+        <v>-3.75360738700273</v>
+      </c>
+      <c r="NG2" s="2">
+        <v>-3.75090859232256</v>
+      </c>
+      <c r="NH2" s="2">
+        <v>-3.75001020196365</v>
+      </c>
+      <c r="NI2" s="2">
+        <v>-3.75096649627336</v>
+      </c>
+      <c r="NJ2" s="2">
+        <v>-3.73907340471787</v>
+      </c>
+      <c r="NK2" s="2">
+        <v>-3.74716625953872</v>
+      </c>
+      <c r="NL2" s="2">
+        <v>-3.73000223575979</v>
+      </c>
+      <c r="NM2" s="2">
+        <v>-3.72494756849659</v>
+      </c>
+      <c r="NN2" s="2">
+        <v>-3.70237050029334</v>
+      </c>
+      <c r="NO2" s="2">
+        <v>-3.6987762106031</v>
+      </c>
+      <c r="NP2" s="2">
+        <v>-3.67040311852574</v>
+      </c>
+      <c r="NQ2" s="2">
+        <v>-3.68241846329165</v>
+      </c>
+      <c r="NR2" s="2">
+        <v>-3.67106751174413</v>
+      </c>
+      <c r="NS2" s="2">
+        <v>-3.66064258275296</v>
+      </c>
+      <c r="NT2" s="2">
+        <v>-3.62826474569087</v>
+      </c>
+      <c r="NU2" s="2">
+        <v>-3.65646342355761</v>
+      </c>
+      <c r="NV2" s="2">
+        <v>-3.65793457200932</v>
+      </c>
+      <c r="NW2" s="2">
+        <v>-3.63418296818615</v>
+      </c>
+      <c r="NX2" s="2">
+        <v>-3.61788552568133</v>
+      </c>
+      <c r="NY2" s="2">
+        <v>-3.60498110481167</v>
+      </c>
+      <c r="NZ2" s="2">
+        <v>-3.58908774928099</v>
+      </c>
+      <c r="OA2" s="2">
+        <v>-3.60764543692476</v>
+      </c>
+      <c r="OB2" s="2">
+        <v>-3.57962950872642</v>
+      </c>
+      <c r="OC2" s="2">
+        <v>-3.58513674982191</v>
+      </c>
+      <c r="OD2" s="2">
+        <v>-3.56031739450955</v>
+      </c>
+      <c r="OE2" s="2">
+        <v>-3.56648761263439</v>
+      </c>
+      <c r="OF2" s="2">
+        <v>-3.55277259407584</v>
+      </c>
+      <c r="OG2" s="2">
+        <v>-3.54904541531132</v>
+      </c>
+      <c r="OH2" s="2">
+        <v>-3.53529817534106</v>
+      </c>
+      <c r="OI2" s="2">
+        <v>-3.52119231628837</v>
+      </c>
+      <c r="OJ2" s="2">
+        <v>-3.54543402378444</v>
+      </c>
+      <c r="OK2" s="2">
+        <v>-3.4938301651396</v>
+      </c>
+      <c r="OL2" s="2">
+        <v>-3.47028616490522</v>
+      </c>
+      <c r="OM2" s="2">
+        <v>-3.49508394187169</v>
+      </c>
+      <c r="ON2" s="2">
+        <v>-3.46338040888777</v>
+      </c>
+      <c r="OO2" s="2">
+        <v>-3.45831903705585</v>
+      </c>
+      <c r="OP2" s="2">
+        <v>-3.45406347013395</v>
+      </c>
+      <c r="OQ2" s="2">
+        <v>-3.46447912181403</v>
+      </c>
+      <c r="OR2" s="2">
+        <v>-3.44440780464968</v>
+      </c>
+      <c r="OS2" s="2">
+        <v>-3.42017826045437</v>
+      </c>
+      <c r="OT2" s="2">
+        <v>-3.45257867174731</v>
+      </c>
+      <c r="OU2" s="2">
+        <v>-3.42812904431597</v>
+      </c>
+      <c r="OV2" s="2">
+        <v>-3.40855386638638</v>
+      </c>
+      <c r="OW2" s="2">
+        <v>-3.38593736036164</v>
+      </c>
+      <c r="OX2" s="2">
+        <v>-3.40738930532733</v>
+      </c>
+      <c r="OY2" s="2">
+        <v>-3.36103655771388</v>
+      </c>
+      <c r="OZ2" s="2">
+        <v>-3.35622097532839</v>
+      </c>
+      <c r="PA2" s="2">
+        <v>-3.3500496949217</v>
+      </c>
+      <c r="PB2" s="2">
+        <v>-3.32760528964824</v>
+      </c>
+      <c r="PC2" s="2">
+        <v>-3.32218809617654</v>
+      </c>
+      <c r="PD2" s="2">
+        <v>-3.31316157576492</v>
+      </c>
+      <c r="PE2" s="2">
+        <v>-3.31770126174695</v>
+      </c>
+      <c r="PF2" s="2">
+        <v>-3.30734143387074</v>
+      </c>
+      <c r="PG2" s="2">
+        <v>-3.30179514705875</v>
+      </c>
+      <c r="PH2" s="2">
+        <v>-3.26740147975136</v>
+      </c>
+      <c r="PI2" s="2">
+        <v>-3.24843772591017</v>
+      </c>
+      <c r="PJ2" s="2">
+        <v>-3.25218382571305</v>
+      </c>
+      <c r="PK2" s="2">
+        <v>-3.22266805010189</v>
+      </c>
+      <c r="PL2" s="2">
+        <v>-3.22799951405141</v>
+      </c>
+      <c r="PM2" s="2">
+        <v>-3.20970908699817</v>
+      </c>
+      <c r="PN2" s="2">
+        <v>-3.20456551131845</v>
+      </c>
+      <c r="PO2" s="2">
+        <v>-3.17946988091394</v>
+      </c>
+      <c r="PP2" s="2">
+        <v>-3.19238002078583</v>
+      </c>
+      <c r="PQ2" s="2">
+        <v>-3.17495992785801</v>
+      </c>
+      <c r="PR2" s="2">
+        <v>-3.16495895095116</v>
+      </c>
+      <c r="PS2" s="2">
+        <v>-3.15040492806268</v>
+      </c>
+      <c r="PT2" s="2">
+        <v>-3.15116983639905</v>
+      </c>
+      <c r="PU2" s="2">
+        <v>-3.1302012803992</v>
+      </c>
+      <c r="PV2" s="2">
+        <v>-3.12966459992315</v>
+      </c>
+      <c r="PW2" s="2">
+        <v>-3.12758724131101</v>
+      </c>
+      <c r="PX2" s="2">
+        <v>-3.07617371298771</v>
+      </c>
+      <c r="PY2" s="2">
+        <v>-3.10468911121223</v>
+      </c>
+      <c r="PZ2" s="2">
+        <v>-3.08397970573642</v>
+      </c>
+      <c r="QA2" s="2">
+        <v>-3.08617486633668</v>
+      </c>
+      <c r="QB2" s="2">
+        <v>-3.05234593669046</v>
+      </c>
+      <c r="QC2" s="2">
+        <v>-3.06290444184754</v>
+      </c>
+      <c r="QD2" s="2">
+        <v>-3.04542669548383</v>
+      </c>
+      <c r="QE2" s="2">
+        <v>-3.04819975946817</v>
+      </c>
+      <c r="QF2" s="2">
+        <v>-3.02092721536133</v>
+      </c>
+      <c r="QG2" s="2">
+        <v>-3.04981149570615</v>
+      </c>
+      <c r="QH2" s="2">
+        <v>-3.02194943369766</v>
+      </c>
+      <c r="QI2" s="2">
+        <v>-3.02162118887303</v>
+      </c>
+      <c r="QJ2" s="2">
+        <v>-3.00239094535891</v>
+      </c>
+      <c r="QK2" s="2">
+        <v>-2.99106927555342</v>
+      </c>
+      <c r="QL2" s="2">
+        <v>-3.02031058410235</v>
+      </c>
+      <c r="QM2" s="2">
+        <v>-2.9881810866173</v>
+      </c>
+      <c r="QN2" s="2">
+        <v>-2.97461215275048</v>
+      </c>
+      <c r="QO2" s="2">
+        <v>-2.99467179999343</v>
+      </c>
+      <c r="QP2" s="2">
+        <v>-2.98948879227563</v>
+      </c>
+      <c r="QQ2" s="2">
+        <v>-2.96381928786799</v>
+      </c>
+      <c r="QR2" s="2">
+        <v>-2.98521517979744</v>
+      </c>
+      <c r="QS2" s="2">
+        <v>-2.97602981801201</v>
+      </c>
+      <c r="QT2" s="2">
+        <v>-2.99265634592254</v>
+      </c>
+      <c r="QU2" s="2">
+        <v>-2.97791138139719</v>
+      </c>
+      <c r="QV2" s="2">
+        <v>-2.99822270443862</v>
+      </c>
+      <c r="QW2" s="2">
+        <v>-2.96673233654888</v>
+      </c>
+      <c r="QX2" s="2">
+        <v>-2.97923384209908</v>
+      </c>
+      <c r="QY2" s="2">
+        <v>-2.9741277666939</v>
+      </c>
+      <c r="QZ2" s="2">
+        <v>-2.99452130958658</v>
+      </c>
+      <c r="RA2" s="2">
+        <v>-2.99735258272408</v>
+      </c>
+      <c r="RB2" s="2">
+        <v>-2.99180098918307</v>
+      </c>
+      <c r="RC2" s="2">
+        <v>-2.98526367726027</v>
+      </c>
+      <c r="RD2" s="2">
+        <v>-3.00284282003081</v>
+      </c>
+      <c r="RE2" s="2">
+        <v>-3.00431646793487</v>
+      </c>
+      <c r="RF2" s="2">
+        <v>-3.01013118582301</v>
+      </c>
+      <c r="RG2" s="2">
+        <v>-2.98236029397513</v>
+      </c>
+      <c r="RH2" s="2">
+        <v>-3.03206180338174</v>
+      </c>
+      <c r="RI2" s="2">
+        <v>-3.02181824339297</v>
+      </c>
+      <c r="RJ2" s="2">
+        <v>-3.03924401655396</v>
+      </c>
+      <c r="RK2" s="2">
+        <v>-3.05691085563156</v>
+      </c>
+      <c r="RL2" s="2">
+        <v>-3.02933735818263</v>
+      </c>
+      <c r="RM2" s="2">
+        <v>-3.04434091980878</v>
+      </c>
+      <c r="RN2" s="2">
+        <v>-3.05713746371868</v>
+      </c>
+      <c r="RO2" s="2">
+        <v>-3.0643798581816</v>
+      </c>
+      <c r="RP2" s="2">
+        <v>-3.05534570623354</v>
+      </c>
+      <c r="RQ2" s="2">
+        <v>-3.08745290211093</v>
+      </c>
+      <c r="RR2" s="2">
+        <v>-3.0624096593241</v>
+      </c>
+      <c r="RS2" s="2">
+        <v>-3.09077706151444</v>
+      </c>
+      <c r="RT2" s="2">
+        <v>-3.06816591178583</v>
+      </c>
+      <c r="RU2" s="2">
+        <v>-3.09914377847491</v>
+      </c>
+      <c r="RV2" s="2">
+        <v>-3.11584483230629</v>
+      </c>
+      <c r="RW2" s="2">
+        <v>-3.11483170449054</v>
+      </c>
+      <c r="RX2" s="2">
+        <v>-3.11046327845343</v>
+      </c>
+      <c r="RY2" s="2">
+        <v>-3.12051076227291</v>
+      </c>
+      <c r="RZ2" s="2">
+        <v>-3.1133094232384</v>
+      </c>
+      <c r="SA2" s="2">
+        <v>-3.10958341081129</v>
+      </c>
+      <c r="SB2" s="2">
+        <v>-3.09206393433865</v>
+      </c>
+      <c r="SC2" s="2">
+        <v>-3.10142749241291</v>
+      </c>
+      <c r="SD2" s="2">
+        <v>-3.10139674393267</v>
+      </c>
+      <c r="SE2" s="2">
+        <v>-3.08727199262854</v>
+      </c>
+      <c r="SF2" s="2">
+        <v>-3.07151250706694</v>
+      </c>
+      <c r="SG2" s="2">
+        <v>-3.09549706711564</v>
+      </c>
+      <c r="SH2" s="2">
+        <v>-3.05566505984514</v>
+      </c>
+      <c r="SI2" s="2">
+        <v>-3.04777411879127</v>
+      </c>
+      <c r="SJ2" s="2">
+        <v>-3.06145945444692</v>
+      </c>
+      <c r="SK2" s="2">
+        <v>-3.02931504129401</v>
+      </c>
+      <c r="SL2" s="2">
+        <v>-3.03228301589984</v>
+      </c>
+      <c r="SM2" s="2">
+        <v>-3.00977666579575</v>
+      </c>
+      <c r="SN2" s="2">
+        <v>-3.01433445094536</v>
+      </c>
+      <c r="SO2" s="2">
+        <v>-2.97474173020394</v>
+      </c>
+      <c r="SP2" s="2">
+        <v>-2.99193218061374</v>
+      </c>
+      <c r="SQ2" s="2">
+        <v>-2.95488376054052</v>
+      </c>
+      <c r="SR2" s="2">
+        <v>-2.95775065757701</v>
+      </c>
+      <c r="SS2" s="2">
+        <v>-2.93117242828009</v>
+      </c>
+      <c r="ST2" s="2">
+        <v>-2.92046651687301</v>
+      </c>
+      <c r="SU2" s="2">
+        <v>-2.89406630003285</v>
+      </c>
+      <c r="SV2" s="2">
+        <v>-2.88272227083141</v>
+      </c>
+      <c r="SW2" s="2">
+        <v>-2.84996370899527</v>
+      </c>
+      <c r="SX2" s="2">
+        <v>-2.85806274196814</v>
+      </c>
+      <c r="SY2" s="2">
+        <v>-2.82160179238192</v>
+      </c>
+      <c r="SZ2" s="2">
+        <v>-2.80637813361501</v>
+      </c>
+      <c r="TA2" s="2">
+        <v>-2.76853763157351</v>
+      </c>
+      <c r="TB2" s="2">
+        <v>-2.76390658460862</v>
+      </c>
+      <c r="TC2" s="2">
+        <v>-2.77043525951841</v>
+      </c>
+      <c r="TD2" s="2">
+        <v>-2.76502942568859</v>
+      </c>
+      <c r="TE2" s="2">
+        <v>-2.71825568247937</v>
+      </c>
+      <c r="TF2" s="2">
+        <v>-2.68564612349212</v>
+      </c>
+      <c r="TG2" s="2">
+        <v>-2.70094214223722</v>
+      </c>
+      <c r="TH2" s="2">
+        <v>-2.69660732201157</v>
+      </c>
+      <c r="TI2" s="2">
+        <v>-2.64999657878352</v>
+      </c>
+      <c r="TJ2" s="2">
+        <v>-2.65078740036355</v>
+      </c>
+      <c r="TK2" s="2">
+        <v>-2.65058282921136</v>
+      </c>
+      <c r="TL2" s="2">
+        <v>-2.61456679007497</v>
+      </c>
+      <c r="TM2" s="2">
+        <v>-2.60675346824996</v>
+      </c>
+      <c r="TN2" s="2">
+        <v>-2.6036481687538</v>
+      </c>
+      <c r="TO2" s="2">
+        <v>-2.59083484389524</v>
+      </c>
+      <c r="TP2" s="2">
+        <v>-2.54935002644867</v>
+      </c>
+      <c r="TQ2" s="2">
+        <v>-2.54983697747414</v>
+      </c>
+      <c r="TR2" s="2">
+        <v>-2.54255927971128</v>
+      </c>
+      <c r="TS2" s="2">
+        <v>-2.53439860561444</v>
+      </c>
+      <c r="TT2" s="2">
+        <v>-2.54926541049505</v>
+      </c>
+      <c r="TU2" s="2">
+        <v>-2.51594337654168</v>
+      </c>
+      <c r="TV2" s="2">
+        <v>-2.49422026309356</v>
+      </c>
+      <c r="TW2" s="2">
+        <v>-2.50374688889256</v>
+      </c>
+      <c r="TX2" s="2">
+        <v>-2.51598034086342</v>
+      </c>
+      <c r="TY2" s="2">
+        <v>-2.50193064911841</v>
+      </c>
+      <c r="TZ2" s="2">
+        <v>-2.49992656047116</v>
+      </c>
+      <c r="UA2" s="2">
+        <v>-2.48169378510394</v>
+      </c>
+      <c r="UB2" s="2">
+        <v>-2.4760541791584</v>
+      </c>
+      <c r="UC2" s="2">
+        <v>-2.46105677036339</v>
+      </c>
+      <c r="UD2" s="2">
+        <v>-2.45896762632261</v>
+      </c>
+      <c r="UE2" s="2">
+        <v>-2.45941911758216</v>
+      </c>
+      <c r="UF2" s="2">
+        <v>-2.46499203152223</v>
+      </c>
+      <c r="UG2" s="2">
+        <v>-2.46161403481017</v>
+      </c>
+      <c r="UH2" s="2">
+        <v>-2.43868377826947</v>
+      </c>
+      <c r="UI2" s="2">
+        <v>-2.43908417325751</v>
+      </c>
+      <c r="UJ2" s="2">
+        <v>-2.43342000795004</v>
+      </c>
+      <c r="UK2" s="2">
+        <v>-2.44698440560691</v>
+      </c>
+      <c r="UL2" s="2">
+        <v>-2.44543633405676</v>
+      </c>
+      <c r="UM2" s="2">
+        <v>-2.43406247511989</v>
+      </c>
+      <c r="UN2" s="2">
+        <v>-2.42462428274575</v>
+      </c>
+      <c r="UO2" s="2">
+        <v>-2.43786403191114</v>
+      </c>
+      <c r="UP2" s="2">
+        <v>-2.45536144905738</v>
+      </c>
+      <c r="UQ2" s="2">
+        <v>-2.43210595545544</v>
+      </c>
+      <c r="UR2" s="2">
+        <v>-2.40800307966299</v>
+      </c>
+      <c r="US2" s="2">
+        <v>-2.40804195919708</v>
+      </c>
+      <c r="UT2" s="2">
+        <v>-2.42970973369756</v>
+      </c>
+      <c r="UU2" s="2">
+        <v>-2.44636578894723</v>
+      </c>
+      <c r="UV2" s="2">
+        <v>-2.43474402279267</v>
+      </c>
+      <c r="UW2" s="2">
+        <v>-2.45238116178142</v>
+      </c>
+      <c r="UX2" s="2">
+        <v>-2.44234272258591</v>
+      </c>
+      <c r="UY2" s="2">
+        <v>-2.44875827385525</v>
+      </c>
+      <c r="UZ2" s="2">
+        <v>-2.44569783612116</v>
+      </c>
+      <c r="VA2" s="2">
+        <v>-2.44892956818406</v>
+      </c>
+      <c r="VB2" s="2">
+        <v>-2.45084661569132</v>
+      </c>
+      <c r="VC2" s="2">
+        <v>-2.48975514991914</v>
+      </c>
+      <c r="VD2" s="2">
+        <v>-2.45392473484571</v>
+      </c>
+      <c r="VE2" s="2">
+        <v>-2.46671786991705</v>
+      </c>
+      <c r="VF2" s="2">
+        <v>-2.46975511922019</v>
+      </c>
+      <c r="VG2" s="2">
+        <v>-2.48188519306271</v>
+      </c>
+      <c r="VH2" s="2">
+        <v>-2.48666822667622</v>
+      </c>
+      <c r="VI2" s="2">
+        <v>-2.51755521847673</v>
+      </c>
+      <c r="VJ2" s="2">
+        <v>-2.50315445437131</v>
+      </c>
+      <c r="VK2" s="2">
+        <v>-2.48769082134859</v>
+      </c>
+      <c r="VL2" s="2">
+        <v>-2.49689727747139</v>
+      </c>
+      <c r="VM2" s="2">
+        <v>-2.49434375326609</v>
+      </c>
+      <c r="VN2" s="2">
+        <v>-2.53483264163429</v>
+      </c>
+      <c r="VO2" s="2">
+        <v>-2.52787219268224</v>
+      </c>
+      <c r="VP2" s="2">
+        <v>-2.53554962364768</v>
+      </c>
+      <c r="VQ2" s="2">
+        <v>-2.5242037280624</v>
+      </c>
+      <c r="VR2" s="2">
+        <v>-2.51551038805316</v>
+      </c>
+      <c r="VS2" s="2">
+        <v>-2.54582631315557</v>
+      </c>
+      <c r="VT2" s="2">
+        <v>-2.56349901035588</v>
+      </c>
+      <c r="VU2" s="2">
+        <v>-2.59056320363519</v>
+      </c>
+      <c r="VV2" s="2">
+        <v>-2.60458397450821</v>
+      </c>
+      <c r="VW2" s="2">
+        <v>-2.60689956909622</v>
+      </c>
+      <c r="VX2" s="2">
+        <v>-2.60896669222881</v>
+      </c>
+      <c r="VY2" s="2">
+        <v>-2.6240333349815</v>
+      </c>
+      <c r="VZ2" s="2">
+        <v>-2.63047465724457</v>
+      </c>
+      <c r="WA2" s="2">
+        <v>-2.64961467069881</v>
+      </c>
+      <c r="WB2" s="2">
+        <v>-2.67579489414277</v>
+      </c>
+      <c r="WC2" s="2">
+        <v>-2.66106298084386</v>
+      </c>
+      <c r="WD2" s="2">
+        <v>-2.68249697717406</v>
+      </c>
+      <c r="WE2" s="2">
+        <v>-2.70439432144856</v>
+      </c>
+      <c r="WF2" s="2">
+        <v>-2.71024198588367</v>
+      </c>
+      <c r="WG2" s="2">
+        <v>-2.69670334468682</v>
+      </c>
+      <c r="WH2" s="2">
+        <v>-2.72146085849942</v>
+      </c>
+      <c r="WI2" s="2">
+        <v>-2.72285980053094</v>
+      </c>
+      <c r="WJ2" s="2">
+        <v>-2.75814819825744</v>
+      </c>
+      <c r="WK2" s="2">
+        <v>-2.7766780871117</v>
+      </c>
+      <c r="WL2" s="2">
+        <v>-2.76789679013459</v>
+      </c>
+      <c r="WM2" s="2">
+        <v>-2.77792728684386</v>
+      </c>
+      <c r="WN2" s="2">
+        <v>-2.81494831808556</v>
+      </c>
+      <c r="WO2" s="2">
+        <v>-2.79948058664202</v>
+      </c>
+      <c r="WP2" s="2">
+        <v>-2.82116276573855</v>
+      </c>
+      <c r="WQ2" s="2">
+        <v>-2.82240872655517</v>
+      </c>
+      <c r="WR2" s="2">
+        <v>-2.8793951166571</v>
+      </c>
+      <c r="WS2" s="2">
+        <v>-2.8691494972277</v>
+      </c>
+      <c r="WT2" s="2">
+        <v>-2.89239487851693</v>
+      </c>
+      <c r="WU2" s="2">
+        <v>-2.90800194930253</v>
+      </c>
+      <c r="WV2" s="2">
+        <v>-2.92077802439317</v>
+      </c>
+      <c r="WW2" s="2">
+        <v>-2.93499858629697</v>
+      </c>
+      <c r="WX2" s="2">
+        <v>-2.94048624719021</v>
+      </c>
+      <c r="WY2" s="2">
+        <v>-2.96761229737904</v>
+      </c>
+      <c r="WZ2" s="2">
+        <v>-2.96519987320234</v>
+      </c>
+      <c r="XA2" s="2">
+        <v>-2.98215135749726</v>
+      </c>
+      <c r="XB2" s="2">
+        <v>-3.00149788539065</v>
+      </c>
+      <c r="XC2" s="2">
+        <v>-2.9916762639154</v>
+      </c>
+      <c r="XD2" s="2">
+        <v>-3.01925963183598</v>
+      </c>
+      <c r="XE2" s="2">
+        <v>-3.00357998906064</v>
+      </c>
+      <c r="XF2" s="2">
+        <v>-3.01708998255368</v>
+      </c>
+      <c r="XG2" s="2">
+        <v>-3.04835808543291</v>
+      </c>
+      <c r="XH2" s="2">
+        <v>-3.06960829569607</v>
+      </c>
+      <c r="XI2" s="2">
+        <v>-3.07637231225429</v>
+      </c>
+      <c r="XJ2" s="2">
+        <v>-3.0590962144259</v>
+      </c>
+      <c r="XK2" s="2">
+        <v>-3.05939674501704</v>
+      </c>
+      <c r="XL2" s="2">
+        <v>-3.07892863591205</v>
+      </c>
+      <c r="XM2" s="2">
+        <v>-3.06723661092746</v>
+      </c>
+      <c r="XN2" s="2">
+        <v>-3.06366381395328</v>
+      </c>
+      <c r="XO2" s="2">
+        <v>-3.07715608904783</v>
+      </c>
+      <c r="XP2" s="2">
+        <v>-3.06244172244172</v>
+      </c>
+      <c r="XQ2" s="2">
+        <v>-3.07473148202397</v>
+      </c>
+      <c r="XR2" s="2">
+        <v>-3.05788390616651</v>
+      </c>
+      <c r="XS2" s="2">
+        <v>-3.0560105852891</v>
+      </c>
+      <c r="XT2" s="2">
+        <v>-3.08206960575492</v>
+      </c>
+      <c r="XU2" s="2">
+        <v>-3.05347505110964</v>
+      </c>
+      <c r="XV2" s="2">
+        <v>-3.06687291326717</v>
+      </c>
+      <c r="XW2" s="2">
+        <v>-3.02055987837271</v>
+      </c>
+      <c r="XX2" s="2">
+        <v>-3.02450248302202</v>
+      </c>
+      <c r="XY2" s="2">
+        <v>-3.01165167071694</v>
+      </c>
+      <c r="XZ2" s="2">
+        <v>-3.02997590390114</v>
+      </c>
+      <c r="YA2" s="2">
+        <v>-3.01386962499766</v>
+      </c>
+      <c r="YB2" s="2">
+        <v>-2.98028984684859</v>
+      </c>
+      <c r="YC2" s="2">
+        <v>-2.98084014398148</v>
+      </c>
+      <c r="YD2" s="2">
+        <v>-2.9962975610711</v>
+      </c>
+      <c r="YE2" s="2">
+        <v>-2.96777844922746</v>
+      </c>
+      <c r="YF2" s="2">
+        <v>-2.96218928330267</v>
+      </c>
+      <c r="YG2" s="2">
+        <v>-2.95810756816197</v>
+      </c>
+      <c r="YH2" s="2">
+        <v>-2.92273931682</v>
+      </c>
+      <c r="YI2" s="2">
+        <v>-2.92843077670522</v>
+      </c>
+      <c r="YJ2" s="2">
+        <v>-2.91140906902375</v>
+      </c>
+      <c r="YK2" s="2">
+        <v>-2.88902997327458</v>
+      </c>
+      <c r="YL2" s="2">
+        <v>-2.8882846313981</v>
+      </c>
+      <c r="YM2" s="2">
+        <v>-2.86675755095041</v>
+      </c>
+      <c r="YN2" s="2">
+        <v>-2.84469679478211</v>
+      </c>
+      <c r="YO2" s="2">
+        <v>-2.86839995969117</v>
+      </c>
+      <c r="YP2" s="2">
+        <v>-2.84041652690474</v>
+      </c>
+      <c r="YQ2" s="2">
+        <v>-2.80356558024485</v>
+      </c>
+      <c r="YR2" s="2">
+        <v>-2.81194214866516</v>
+      </c>
+      <c r="YS2" s="2">
+        <v>-2.83451259390544</v>
+      </c>
+      <c r="YT2" s="2">
+        <v>-2.78879138155771</v>
+      </c>
+      <c r="YU2" s="2">
+        <v>-2.78746551129775</v>
+      </c>
+      <c r="YV2" s="2">
+        <v>-2.78134677616661</v>
+      </c>
+      <c r="YW2" s="2">
+        <v>-2.75289927050742</v>
+      </c>
+      <c r="YX2" s="2">
+        <v>-2.77937239395484</v>
+      </c>
+      <c r="YY2" s="2">
+        <v>-2.71258495607275</v>
+      </c>
+      <c r="YZ2" s="2">
+        <v>-2.74063828336588</v>
+      </c>
+      <c r="ZA2" s="2">
+        <v>-2.72963285221059</v>
+      </c>
+      <c r="ZB2" s="2">
+        <v>-2.74123046220316</v>
+      </c>
+      <c r="ZC2" s="2">
+        <v>-2.72578228829545</v>
+      </c>
+      <c r="ZD2" s="2">
+        <v>-2.69888851236871</v>
+      </c>
+      <c r="ZE2" s="2">
+        <v>-2.70217713160725</v>
+      </c>
+      <c r="ZF2" s="2">
+        <v>-2.71363313300854</v>
+      </c>
+      <c r="ZG2" s="2">
+        <v>-2.68231979493525</v>
+      </c>
+      <c r="ZH2" s="2">
+        <v>-2.70377375648074</v>
+      </c>
+      <c r="ZI2" s="2">
+        <v>-2.67993375712001</v>
+      </c>
+      <c r="ZJ2" s="2">
+        <v>-2.69673995522755</v>
+      </c>
+      <c r="ZK2" s="2">
+        <v>-2.67649872427049</v>
+      </c>
+      <c r="ZL2" s="2">
+        <v>-2.66017384850215</v>
+      </c>
+      <c r="ZM2" s="2">
+        <v>-2.67236720009969</v>
+      </c>
+      <c r="ZN2" s="2">
+        <v>-2.65407831479526</v>
+      </c>
+      <c r="ZO2" s="2">
+        <v>-2.64398665541094</v>
+      </c>
+      <c r="ZP2" s="2">
+        <v>-2.63965899902794</v>
+      </c>
+      <c r="ZQ2" s="2">
+        <v>-2.63566918593209</v>
+      </c>
+      <c r="ZR2" s="2">
+        <v>-2.6370545285505</v>
+      </c>
+      <c r="ZS2" s="2">
+        <v>-2.62708388923895</v>
+      </c>
+      <c r="ZT2" s="2">
+        <v>-2.6195711764065</v>
+      </c>
+      <c r="ZU2" s="2">
+        <v>-2.65041929777415</v>
+      </c>
+      <c r="ZV2" s="2">
+        <v>-2.63351480577025</v>
+      </c>
+      <c r="ZW2" s="2">
+        <v>-2.63861126107674</v>
+      </c>
+      <c r="ZX2" s="2">
+        <v>-2.64283710225574</v>
+      </c>
+      <c r="ZY2" s="2">
+        <v>-2.6218464683183</v>
+      </c>
+      <c r="ZZ2" s="2">
+        <v>-2.61604765687121</v>
+      </c>
+      <c r="AAA2" s="2">
+        <v>-2.6076823378279</v>
+      </c>
+      <c r="AAB2" s="2">
+        <v>-2.60772377272338</v>
+      </c>
+      <c r="AAC2" s="2">
+        <v>-2.60106147130617</v>
+      </c>
+      <c r="AAD2" s="2">
+        <v>-2.58451999502472</v>
+      </c>
+      <c r="AAE2" s="2">
+        <v>-2.57986417142018</v>
+      </c>
+      <c r="AAF2" s="2">
+        <v>-2.58566390017</v>
+      </c>
+      <c r="AAG2" s="2">
+        <v>-2.58237588382427</v>
+      </c>
+      <c r="AAH2" s="2">
+        <v>-2.56265116946009</v>
+      </c>
+      <c r="AAI2" s="2">
+        <v>-2.55625271951042</v>
+      </c>
+      <c r="AAJ2" s="2">
+        <v>-2.57671732292292</v>
+      </c>
+      <c r="AAK2" s="2">
+        <v>-2.55696785336729</v>
+      </c>
+      <c r="AAL2" s="2">
+        <v>-2.55901708508734</v>
+      </c>
+      <c r="AAM2" s="2">
+        <v>-2.57376888450084</v>
+      </c>
+      <c r="AAN2" s="2">
+        <v>-2.55044370683903</v>
+      </c>
+      <c r="AAO2" s="2">
+        <v>-2.5466575372824</v>
+      </c>
+      <c r="AAP2" s="2">
+        <v>-2.55866083170728</v>
+      </c>
+      <c r="AAQ2" s="2">
+        <v>-2.54039743115856</v>
+      </c>
+      <c r="AAR2" s="2">
+        <v>-2.54283521192114</v>
+      </c>
+      <c r="AAS2" s="2">
+        <v>-2.53930330637576</v>
+      </c>
+      <c r="AAT2" s="2">
+        <v>-2.5386280115899</v>
+      </c>
+      <c r="AAU2" s="2">
+        <v>-2.55151808850573</v>
+      </c>
+      <c r="AAV2" s="2">
+        <v>-2.52016024102691</v>
+      </c>
+      <c r="AAW2" s="2">
+        <v>-2.51227494282588</v>
+      </c>
+      <c r="AAX2" s="2">
+        <v>-2.54343678869257</v>
+      </c>
+      <c r="AAY2" s="2">
+        <v>-2.50579200163902</v>
+      </c>
+      <c r="AAZ2" s="2">
+        <v>-2.50333237676009</v>
+      </c>
+      <c r="ABA2" s="2">
+        <v>-2.50597402728205</v>
+      </c>
+      <c r="ABB2" s="2">
+        <v>-2.51168694550626</v>
+      </c>
+      <c r="ABC2" s="2">
+        <v>-2.5031507612253</v>
+      </c>
+      <c r="ABD2" s="2">
+        <v>-2.49823255841343</v>
+      </c>
+      <c r="ABE2" s="2">
+        <v>-2.49890599123443</v>
+      </c>
+      <c r="ABF2" s="2">
+        <v>-2.49273608066106</v>
+      </c>
+      <c r="ABG2" s="2">
+        <v>-2.49547665628099</v>
+      </c>
+      <c r="ABH2" s="2">
+        <v>-2.47654745864934</v>
+      </c>
+      <c r="ABI2" s="2">
+        <v>-2.4923366792253</v>
+      </c>
+      <c r="ABJ2" s="2">
+        <v>-2.48733248982798</v>
+      </c>
+      <c r="ABK2" s="2">
+        <v>-2.4745472524196</v>
+      </c>
+      <c r="ABL2" s="2">
+        <v>-2.46482364756226</v>
+      </c>
+      <c r="ABM2" s="2">
+        <v>-2.47956271051101</v>
+      </c>
+      <c r="ABN2" s="2">
+        <v>-2.4552638662278</v>
+      </c>
+      <c r="ABO2" s="2">
+        <v>-2.44827556170393</v>
+      </c>
+      <c r="ABP2" s="2">
+        <v>-2.46306342393584</v>
+      </c>
+      <c r="ABQ2" s="2">
+        <v>-2.44077442852384</v>
+      </c>
+      <c r="ABR2" s="2">
+        <v>-2.43907030218842</v>
+      </c>
+      <c r="ABS2" s="2">
+        <v>-2.44864742539976</v>
+      </c>
+      <c r="ABT2" s="2">
+        <v>-2.42744017621709</v>
+      </c>
+      <c r="ABU2" s="2">
+        <v>-2.44481090850566</v>
+      </c>
+      <c r="ABV2" s="2">
+        <v>-2.42840151644358</v>
+      </c>
+      <c r="ABW2" s="2">
+        <v>-2.42899906352022</v>
+      </c>
+      <c r="ABX2" s="2">
+        <v>-2.45310071925113</v>
+      </c>
+      <c r="ABY2" s="2">
+        <v>-2.4360831264103</v>
+      </c>
+      <c r="ABZ2" s="2">
+        <v>-2.44895832937752</v>
+      </c>
+      <c r="ACA2" s="2">
+        <v>-2.42968699660259</v>
+      </c>
+      <c r="ACB2" s="2">
+        <v>-2.44832449986606</v>
+      </c>
+      <c r="ACC2" s="2">
+        <v>-2.44282042823185</v>
+      </c>
+      <c r="ACD2" s="2">
+        <v>-2.43398681612506</v>
+      </c>
+      <c r="ACE2" s="2">
+        <v>-2.45416126350687</v>
+      </c>
+      <c r="ACF2" s="2">
+        <v>-2.44343430101184</v>
+      </c>
+      <c r="ACG2" s="2">
+        <v>-2.44743985258599</v>
+      </c>
+      <c r="ACH2" s="2">
+        <v>-2.44589218563213</v>
+      </c>
+      <c r="ACI2" s="2">
+        <v>-2.42906052212859</v>
+      </c>
+      <c r="ACJ2" s="2">
+        <v>-2.43726266707277</v>
+      </c>
+      <c r="ACK2" s="2">
+        <v>-2.41951816858827</v>
+      </c>
+      <c r="ACL2" s="2">
+        <v>-2.4453837845605</v>
+      </c>
+      <c r="ACM2" s="2">
+        <v>-2.4527349355564</v>
+      </c>
+      <c r="ACN2" s="2">
+        <v>-2.44661622385708</v>
+      </c>
+      <c r="ACO2" s="2">
+        <v>-2.43108107686481</v>
+      </c>
+      <c r="ACP2" s="2">
+        <v>-2.41872727189387</v>
+      </c>
+      <c r="ACQ2" s="2">
+        <v>-2.43077292613732</v>
+      </c>
+      <c r="ACR2" s="2">
+        <v>-2.43218367875592</v>
+      </c>
+      <c r="ACS2" s="2">
+        <v>-2.43762468746784</v>
+      </c>
+      <c r="ACT2" s="2">
+        <v>-2.44957499791018</v>
+      </c>
+      <c r="ACU2" s="2">
+        <v>-2.4592315552452</v>
+      </c>
+      <c r="ACV2" s="2">
+        <v>-2.40705365457857</v>
+      </c>
+      <c r="ACW2" s="2">
+        <v>-2.41697971230351</v>
+      </c>
+      <c r="ACX2" s="2">
+        <v>-2.44936221552493</v>
+      </c>
+      <c r="ACY2" s="2">
+        <v>-2.42567618842431</v>
+      </c>
+      <c r="ACZ2" s="2">
+        <v>-2.41508381249226</v>
+      </c>
+      <c r="ADA2" s="2">
+        <v>-2.4400209220411</v>
+      </c>
+      <c r="ADB2" s="2">
+        <v>-2.45136510454647</v>
+      </c>
+      <c r="ADC2" s="2">
+        <v>-2.46894385747387</v>
+      </c>
+      <c r="ADD2" s="2">
+        <v>-2.43362678291311</v>
+      </c>
+      <c r="ADE2" s="2">
+        <v>-2.44564176584425</v>
+      </c>
+      <c r="ADF2" s="2">
+        <v>-2.43791274244441</v>
+      </c>
+      <c r="ADG2" s="2">
+        <v>-2.43810703996133</v>
+      </c>
+      <c r="ADH2" s="2">
+        <v>-2.45210556465579</v>
+      </c>
+      <c r="ADI2" s="2">
+        <v>-2.44002611498145</v>
+      </c>
+      <c r="ADJ2" s="2">
+        <v>-2.44268627463931</v>
+      </c>
+      <c r="ADK2" s="2">
+        <v>-2.45963492048096</v>
+      </c>
+      <c r="ADL2" s="2">
+        <v>-2.41748688403295</v>
+      </c>
+      <c r="ADM2" s="2">
+        <v>-2.45203484415652</v>
+      </c>
+      <c r="ADN2" s="2">
+        <v>-2.46985072050329</v>
+      </c>
+      <c r="ADO2" s="2">
+        <v>-2.43309261901586</v>
+      </c>
+      <c r="ADP2" s="2">
+        <v>-2.44044869101754</v>
+      </c>
+      <c r="ADQ2" s="2">
+        <v>-2.43324789896665</v>
+      </c>
+      <c r="ADR2" s="2">
+        <v>-2.43514363999394</v>
+      </c>
+      <c r="ADS2" s="2">
+        <v>-2.44958180659559</v>
+      </c>
+      <c r="ADT2" s="2">
+        <v>-2.44141770081115</v>
+      </c>
+      <c r="ADU2" s="2">
+        <v>-2.43512296567998</v>
+      </c>
+      <c r="ADV2" s="2">
+        <v>-2.44865138782785</v>
+      </c>
+      <c r="ADW2" s="2">
+        <v>-2.4408680390933</v>
+      </c>
+      <c r="ADX2" s="2">
+        <v>-2.43688438677075</v>
+      </c>
+      <c r="ADY2" s="2">
+        <v>-2.42142585232401</v>
+      </c>
+      <c r="ADZ2" s="2">
+        <v>-2.44274971640769</v>
+      </c>
+      <c r="AEA2" s="2">
+        <v>-2.42853118409506</v>
+      </c>
+      <c r="AEB2" s="2">
+        <v>-2.42506395421612</v>
+      </c>
+      <c r="AEC2" s="2">
+        <v>-2.4008867589142</v>
+      </c>
+      <c r="AED2" s="2">
+        <v>-2.41979161891284</v>
+      </c>
+      <c r="AEE2" s="2">
+        <v>-2.39674196617754</v>
+      </c>
+      <c r="AEF2" s="2">
+        <v>-2.40569794458775</v>
+      </c>
+      <c r="AEG2" s="2">
+        <v>-2.42067338471095</v>
+      </c>
+      <c r="AEH2" s="2">
+        <v>-2.40751824380122</v>
+      </c>
+      <c r="AEI2" s="2">
+        <v>-2.38653664699232</v>
+      </c>
+      <c r="AEJ2" s="2">
+        <v>-2.39778473485656</v>
+      </c>
+      <c r="AEK2" s="2">
+        <v>-2.38306810277818</v>
+      </c>
+      <c r="AEL2" s="2">
+        <v>-2.37495827963943</v>
+      </c>
+      <c r="AEM2" s="2">
+        <v>-2.36809781857955</v>
+      </c>
+      <c r="AEN2" s="2">
+        <v>-2.35373217836259</v>
+      </c>
+      <c r="AEO2" s="2">
+        <v>-2.36638157821801</v>
+      </c>
+      <c r="AEP2" s="2">
+        <v>-2.34309932249012</v>
+      </c>
+      <c r="AEQ2" s="2">
+        <v>-2.33150627433259</v>
+      </c>
+      <c r="AER2" s="2">
+        <v>-2.36316279258569</v>
+      </c>
+      <c r="AES2" s="2">
+        <v>-2.36133571242262</v>
+      </c>
+      <c r="AET2" s="2">
+        <v>-2.34906877625858</v>
+      </c>
+      <c r="AEU2" s="2">
+        <v>-2.34533488308214</v>
+      </c>
+      <c r="AEV2" s="2">
+        <v>-2.32949833381403</v>
+      </c>
+      <c r="AEW2" s="2">
+        <v>-2.32523183524086</v>
+      </c>
+      <c r="AEX2" s="2">
+        <v>-2.31041716770099</v>
+      </c>
+      <c r="AEY2" s="2">
+        <v>-2.33233514921126</v>
+      </c>
+      <c r="AEZ2" s="2">
+        <v>-2.32194546876924</v>
+      </c>
+      <c r="AFA2" s="2">
+        <v>-2.31205937946153</v>
+      </c>
+      <c r="AFB2" s="2">
+        <v>-2.32254866815497</v>
+      </c>
+      <c r="AFC2" s="2">
+        <v>-2.29509640717733</v>
+      </c>
+      <c r="AFD2" s="2">
+        <v>-2.28600182219584</v>
+      </c>
+      <c r="AFE2" s="2">
+        <v>-2.2724804993302</v>
+      </c>
+      <c r="AFF2" s="2">
+        <v>-2.26406041600745</v>
+      </c>
+      <c r="AFG2" s="2">
+        <v>-2.26535030366546</v>
+      </c>
+      <c r="AFH2" s="2">
+        <v>-2.26886817317512</v>
+      </c>
+      <c r="AFI2" s="2">
+        <v>-2.25394428885397</v>
+      </c>
+      <c r="AFJ2" s="2">
+        <v>-2.27888183930438</v>
+      </c>
+      <c r="AFK2" s="2">
+        <v>-2.25453862066361</v>
+      </c>
+      <c r="AFL2" s="2">
+        <v>-2.23513669474069</v>
+      </c>
+      <c r="AFM2" s="2">
+        <v>-2.24312025577801</v>
+      </c>
+      <c r="AFN2" s="2">
+        <v>-2.23383627881315</v>
+      </c>
+      <c r="AFO2" s="2">
+        <v>-2.23016683865519</v>
+      </c>
+      <c r="AFP2" s="2">
+        <v>-2.23569958478006</v>
+      </c>
+      <c r="AFQ2" s="2">
+        <v>-2.22190860045407</v>
+      </c>
+      <c r="AFR2" s="2">
+        <v>-2.22648128081974</v>
+      </c>
+      <c r="AFS2" s="2">
+        <v>-2.2023394415289</v>
+      </c>
+      <c r="AFT2" s="2">
+        <v>-2.21866072791381</v>
+      </c>
+      <c r="AFU2" s="2">
+        <v>-2.21477941081241</v>
+      </c>
+      <c r="AFV2" s="2">
+        <v>-2.20875828822215</v>
+      </c>
+      <c r="AFW2" s="2">
+        <v>-2.20776396945479</v>
+      </c>
+      <c r="AFX2" s="2">
+        <v>-2.21288675022432</v>
+      </c>
+      <c r="AFY2" s="2">
+        <v>-2.19314360516019</v>
+      </c>
+      <c r="AFZ2" s="2">
+        <v>-2.19179882645009</v>
+      </c>
+      <c r="AGA2" s="2">
+        <v>-2.21144650878343</v>
+      </c>
+      <c r="AGB2" s="2">
+        <v>-2.19181038185353</v>
+      </c>
+      <c r="AGC2" s="2">
+        <v>-2.18427710480412</v>
+      </c>
+      <c r="AGD2" s="2">
+        <v>-2.19126546681283</v>
+      </c>
+      <c r="AGE2" s="2">
+        <v>-2.16235327461832</v>
+      </c>
+      <c r="AGF2" s="2">
+        <v>-2.17465791322891</v>
+      </c>
+      <c r="AGG2" s="2">
+        <v>-2.17769559950427</v>
+      </c>
+      <c r="AGH2" s="2">
+        <v>-2.17480887723966</v>
+      </c>
+      <c r="AGI2" s="2">
+        <v>-2.1560483481603</v>
+      </c>
+      <c r="AGJ2" s="2">
+        <v>-2.15260774508074</v>
+      </c>
+      <c r="AGK2" s="2">
+        <v>-2.14318339744327</v>
+      </c>
+      <c r="AGL2" s="2">
+        <v>-2.14670672991447</v>
+      </c>
+      <c r="AGM2" s="2">
+        <v>-2.13741465239094</v>
+      </c>
+      <c r="AGN2" s="2">
+        <v>-2.13538198425319</v>
+      </c>
+      <c r="AGO2" s="2">
+        <v>-2.12553456497996</v>
+      </c>
+      <c r="AGP2" s="2">
+        <v>-2.16475949538991</v>
+      </c>
+      <c r="AGQ2" s="2">
+        <v>-2.1389602795233</v>
+      </c>
+      <c r="AGR2" s="2">
+        <v>-2.14727437489917</v>
+      </c>
+      <c r="AGS2" s="2">
+        <v>-2.12830295959673</v>
+      </c>
+      <c r="AGT2" s="2">
+        <v>-2.11911432534574</v>
+      </c>
+      <c r="AGU2" s="2">
+        <v>-2.1350206774674</v>
+      </c>
+      <c r="AGV2" s="2">
+        <v>-2.15070031504984</v>
+      </c>
+      <c r="AGW2" s="2">
+        <v>-2.1485946852417</v>
+      </c>
+      <c r="AGX2" s="2">
+        <v>-2.14131829777989</v>
+      </c>
+      <c r="AGY2" s="2">
+        <v>-2.13840243049731</v>
+      </c>
+      <c r="AGZ2" s="2">
+        <v>-2.14815799819976</v>
+      </c>
+      <c r="AHA2" s="2">
+        <v>-2.13709608969616</v>
+      </c>
+      <c r="AHB2" s="2">
+        <v>-2.14816186157512</v>
+      </c>
+      <c r="AHC2" s="2">
+        <v>-2.10224374367916</v>
+      </c>
+      <c r="AHD2" s="2">
+        <v>-2.12791597144928</v>
+      </c>
+      <c r="AHE2" s="2">
+        <v>-2.12961956492779</v>
+      </c>
+      <c r="AHF2" s="2">
+        <v>-2.14124896813015</v>
+      </c>
+      <c r="AHG2" s="2">
+        <v>-2.12192589236045</v>
+      </c>
+      <c r="AHH2" s="2">
+        <v>-2.15167897688022</v>
+      </c>
+      <c r="AHI2" s="2">
+        <v>-2.15284369091583</v>
+      </c>
+      <c r="AHJ2" s="2">
+        <v>-2.14053715805245</v>
+      </c>
+      <c r="AHK2" s="2">
+        <v>-2.14384393147142</v>
+      </c>
+      <c r="AHL2" s="2">
+        <v>-2.16152275397008</v>
+      </c>
+      <c r="AHM2" s="2">
+        <v>-2.17849178959659</v>
+      </c>
+      <c r="AHN2" s="2">
+        <v>-2.14964681963033</v>
+      </c>
+      <c r="AHO2" s="2">
+        <v>-2.15499073968542</v>
+      </c>
+      <c r="AHP2" s="2">
+        <v>-2.15289360541708</v>
+      </c>
+      <c r="AHQ2" s="2">
+        <v>-2.16638355297674</v>
+      </c>
+      <c r="AHR2" s="2">
+        <v>-2.1612228632565</v>
+      </c>
+      <c r="AHS2" s="2">
+        <v>-2.17422078779959</v>
+      </c>
+      <c r="AHT2" s="2">
+        <v>-2.17125235702635</v>
+      </c>
+      <c r="AHU2" s="2">
+        <v>-2.16729191173438</v>
+      </c>
+      <c r="AHV2" s="2">
+        <v>-2.17701607937973</v>
+      </c>
+      <c r="AHW2" s="2">
+        <v>-2.1788603597557</v>
+      </c>
+      <c r="AHX2" s="2">
+        <v>-2.20346061795894</v>
+      </c>
+      <c r="AHY2" s="2">
+        <v>-2.1971412258533</v>
+      </c>
+      <c r="AHZ2" s="2">
+        <v>-2.2068171835755</v>
+      </c>
+      <c r="AIA2" s="2">
+        <v>-2.20447176962795</v>
+      </c>
+      <c r="AIB2" s="2">
+        <v>-2.24860578156256</v>
+      </c>
+      <c r="AIC2" s="2">
+        <v>-2.22273748614317</v>
+      </c>
+      <c r="AID2" s="2">
+        <v>-2.24654795513799</v>
+      </c>
+      <c r="AIE2" s="2">
+        <v>-2.24967006563881</v>
+      </c>
+      <c r="AIF2" s="2">
+        <v>-2.24501158814589</v>
+      </c>
+      <c r="AIG2" s="2">
+        <v>-2.28028798668984</v>
+      </c>
+      <c r="AIH2" s="2">
+        <v>-2.25540551609004</v>
+      </c>
+      <c r="AII2" s="2">
+        <v>-2.27423060781079</v>
+      </c>
+      <c r="AIJ2" s="2">
+        <v>-2.29876572146082</v>
+      </c>
+      <c r="AIK2" s="2">
+        <v>-2.29912782812566</v>
+      </c>
+      <c r="AIL2" s="2">
+        <v>-2.2945062530366</v>
+      </c>
+      <c r="AIM2" s="2">
+        <v>-2.31190515152234</v>
+      </c>
+      <c r="AIN2" s="2">
+        <v>-2.31927298081342</v>
+      </c>
+      <c r="AIO2" s="2">
+        <v>-2.31094591418692</v>
+      </c>
+      <c r="AIP2" s="2">
+        <v>-2.34118481636946</v>
+      </c>
+      <c r="AIQ2" s="2">
+        <v>-2.33283539323494</v>
+      </c>
+      <c r="AIR2" s="2">
+        <v>-2.34839841895862</v>
+      </c>
+      <c r="AIS2" s="2">
+        <v>-2.35452423601968</v>
+      </c>
+      <c r="AIT2" s="2">
+        <v>-2.34589430350103</v>
+      </c>
+      <c r="AIU2" s="2">
+        <v>-2.36718847437983</v>
+      </c>
+      <c r="AIV2" s="2">
+        <v>-2.38072373655529</v>
+      </c>
+      <c r="AIW2" s="2">
+        <v>-2.399330657063</v>
+      </c>
+      <c r="AIX2" s="2">
+        <v>-2.41363396371997</v>
+      </c>
+      <c r="AIY2" s="2">
+        <v>-2.37547747257115</v>
+      </c>
+      <c r="AIZ2" s="2">
+        <v>-2.40131475658032</v>
+      </c>
+      <c r="AJA2" s="2">
+        <v>-2.43201913730121</v>
+      </c>
+      <c r="AJB2" s="2">
+        <v>-2.42240211955809</v>
+      </c>
+      <c r="AJC2" s="2">
+        <v>-2.43063334329704</v>
+      </c>
+      <c r="AJD2" s="2">
+        <v>-2.44834918882582</v>
+      </c>
+      <c r="AJE2" s="2">
+        <v>-2.4560521816289</v>
+      </c>
+      <c r="AJF2" s="2">
+        <v>-2.44200332522457</v>
+      </c>
+      <c r="AJG2" s="2">
+        <v>-2.46549374838384</v>
+      </c>
+      <c r="AJH2" s="2">
+        <v>-2.46230592173878</v>
+      </c>
+      <c r="AJI2" s="2">
+        <v>-2.48993839503444</v>
+      </c>
+      <c r="AJJ2" s="2">
+        <v>-2.50265952858285</v>
+      </c>
+      <c r="AJK2" s="2">
+        <v>-2.46636081485208</v>
+      </c>
+      <c r="AJL2" s="2">
+        <v>-2.50280195958315</v>
+      </c>
+      <c r="AJM2" s="2">
+        <v>-2.53232398235932</v>
+      </c>
+      <c r="AJN2" s="2">
+        <v>-2.49873997104052</v>
+      </c>
+      <c r="AJO2" s="2">
+        <v>-2.51387172037384</v>
+      </c>
+      <c r="AJP2" s="2">
+        <v>-2.51585860982552</v>
+      </c>
+      <c r="AJQ2" s="2">
+        <v>-2.50731767717866</v>
+      </c>
+      <c r="AJR2" s="2">
+        <v>-2.53341102266352</v>
+      </c>
+      <c r="AJS2" s="2">
+        <v>-2.51732722457735</v>
+      </c>
+      <c r="AJT2" s="2">
+        <v>-2.52412136834434</v>
+      </c>
+      <c r="AJU2" s="2">
+        <v>-2.52994634259042</v>
+      </c>
+      <c r="AJV2" s="2">
+        <v>-2.51430266221217</v>
+      </c>
+      <c r="AJW2" s="2">
+        <v>-2.51261537211405</v>
+      </c>
+      <c r="AJX2" s="2">
+        <v>-2.5390703305478</v>
+      </c>
+      <c r="AJY2" s="2">
+        <v>-2.51560531742421</v>
+      </c>
+      <c r="AJZ2" s="2">
+        <v>-2.51574950457268</v>
+      </c>
+      <c r="AKA2" s="2">
+        <v>-2.54819200304279</v>
+      </c>
+      <c r="AKB2" s="2">
+        <v>-2.50084030542056</v>
+      </c>
+      <c r="AKC2" s="2">
+        <v>-2.54473841880871</v>
+      </c>
+      <c r="AKD2" s="2">
+        <v>-2.50794575170639</v>
+      </c>
+      <c r="AKE2" s="2">
+        <v>-2.52765861012069</v>
+      </c>
+      <c r="AKF2" s="2">
+        <v>-2.52618442535711</v>
+      </c>
+      <c r="AKG2" s="2">
+        <v>-2.53115557354785</v>
+      </c>
+      <c r="AKH2" s="2">
+        <v>-2.51999686009999</v>
+      </c>
+      <c r="AKI2" s="2">
+        <v>-2.53011088683607</v>
+      </c>
+      <c r="AKJ2" s="2">
+        <v>-2.50380586141917</v>
+      </c>
+      <c r="AKK2" s="2">
+        <v>-2.52417904802103</v>
+      </c>
+      <c r="AKL2" s="2">
+        <v>-2.5193963900085</v>
+      </c>
+      <c r="AKM2" s="2">
+        <v>-2.50264521348632</v>
+      </c>
+      <c r="AKN2" s="2">
+        <v>-2.48820884589096</v>
+      </c>
+      <c r="AKO2" s="2">
+        <v>-2.4660216797139</v>
+      </c>
+      <c r="AKP2" s="2">
+        <v>-2.48676927441043</v>
+      </c>
+      <c r="AKQ2" s="2">
+        <v>-2.47793982545577</v>
+      </c>
+      <c r="AKR2" s="2">
+        <v>-2.46647686194127</v>
+      </c>
+      <c r="AKS2" s="2">
+        <v>-2.47104206305277</v>
+      </c>
+      <c r="AKT2" s="2">
+        <v>-2.47290278113119</v>
+      </c>
+      <c r="AKU2" s="2">
+        <v>-2.49051735181757</v>
+      </c>
+      <c r="AKV2" s="2">
+        <v>-2.46768004724044</v>
+      </c>
+      <c r="AKW2" s="2">
+        <v>-2.45432715778593</v>
+      </c>
+      <c r="AKX2" s="2">
+        <v>-2.43946232517135</v>
+      </c>
+      <c r="AKY2" s="2">
+        <v>-2.45337684077155</v>
+      </c>
+      <c r="AKZ2" s="2">
+        <v>-2.44433108146957</v>
+      </c>
+      <c r="ALA2" s="2">
+        <v>-2.42233003816566</v>
+      </c>
+      <c r="ALB2" s="2">
+        <v>-2.42041627309395</v>
+      </c>
+      <c r="ALC2" s="2">
+        <v>-2.41841138549596</v>
+      </c>
+      <c r="ALD2" s="2">
+        <v>-2.40672284192178</v>
+      </c>
+      <c r="ALE2" s="2">
+        <v>-2.38376121604851</v>
+      </c>
+      <c r="ALF2" s="2">
+        <v>-2.39602228625381</v>
+      </c>
+      <c r="ALG2" s="2">
+        <v>-2.38300236371489</v>
+      </c>
+      <c r="ALH2" s="2">
+        <v>-2.37498395376592</v>
+      </c>
+      <c r="ALI2" s="2">
+        <v>-2.35530521481395</v>
+      </c>
+      <c r="ALJ2" s="2">
+        <v>-2.34788293061803</v>
+      </c>
+      <c r="ALK2" s="2">
+        <v>-2.36403471387264</v>
+      </c>
+      <c r="ALL2" s="2">
+        <v>-2.34739593026172</v>
+      </c>
+      <c r="ALM2" s="2">
+        <v>-2.33227118775917</v>
       </c>
     </row>
   </sheetData>

--- a/python/Pi3.xlsx
+++ b/python/Pi3.xlsx
@@ -3367,3007 +3367,3007 @@
     </row>
     <row r="2" spans="1:1001">
       <c r="A2" s="2">
-        <v>-4.11004574767033</v>
+        <v>0.144621418148883</v>
       </c>
       <c r="B2" s="2">
-        <v>-8.47172558595854</v>
+        <v>0.0237456409036631</v>
       </c>
       <c r="C2" s="2">
-        <v>-16.2058186451278</v>
+        <v>0.0273939121130273</v>
       </c>
       <c r="D2" s="2">
-        <v>-10.7577588963205</v>
+        <v>0.00720560501370612</v>
       </c>
       <c r="E2" s="2">
-        <v>-6.37387881772585</v>
+        <v>0.0202322537269126</v>
       </c>
       <c r="F2" s="2">
-        <v>-4.44688414721636</v>
+        <v>0.0141445193974288</v>
       </c>
       <c r="G2" s="2">
-        <v>-3.72357001416963</v>
+        <v>0.009635137027188351</v>
       </c>
       <c r="H2" s="2">
-        <v>-3.57914781664449</v>
+        <v>0.0184194708601831</v>
       </c>
       <c r="I2" s="2">
-        <v>-3.81905804764829</v>
+        <v>-0.00279249408101821</v>
       </c>
       <c r="J2" s="2">
-        <v>-4.34197046852577</v>
+        <v>0.0187642990661126</v>
       </c>
       <c r="K2" s="2">
-        <v>-5.08916856887296</v>
+        <v>0.0180195116887053</v>
       </c>
       <c r="L2" s="2">
-        <v>-5.94826675749942</v>
+        <v>0.0197539087284023</v>
       </c>
       <c r="M2" s="2">
-        <v>-6.71649606860859</v>
+        <v>0.00689041891309065</v>
       </c>
       <c r="N2" s="2">
-        <v>-7.0172687897192</v>
+        <v>0.0036213237906126</v>
       </c>
       <c r="O2" s="2">
-        <v>-6.77274749956904</v>
+        <v>0.00498761638845485</v>
       </c>
       <c r="P2" s="2">
-        <v>-6.23184718600802</v>
+        <v>-0.00212894027274381</v>
       </c>
       <c r="Q2" s="2">
-        <v>-5.67536860756927</v>
+        <v>-0.009832539176124561</v>
       </c>
       <c r="R2" s="2">
-        <v>-5.28615519921948</v>
+        <v>-0.00469113931755826</v>
       </c>
       <c r="S2" s="2">
-        <v>-5.06514055562439</v>
+        <v>-0.00366338512742842</v>
       </c>
       <c r="T2" s="2">
-        <v>-5.0367303850067</v>
+        <v>-0.0156840101515934</v>
       </c>
       <c r="U2" s="2">
-        <v>-5.17928434269949</v>
+        <v>-0.0073647616744321</v>
       </c>
       <c r="V2" s="2">
-        <v>-5.40867226247408</v>
+        <v>-0.00698095069352759</v>
       </c>
       <c r="W2" s="2">
-        <v>-5.72254347702324</v>
+        <v>-0.020194568856213</v>
       </c>
       <c r="X2" s="2">
-        <v>-6.08302006601085</v>
+        <v>-0.0238497231282359</v>
       </c>
       <c r="Y2" s="2">
-        <v>-6.4584967184711</v>
+        <v>-0.0429062331843937</v>
       </c>
       <c r="Z2" s="2">
-        <v>-6.77019368841619</v>
+        <v>-0.0524677887684383</v>
       </c>
       <c r="AA2" s="2">
-        <v>-7.04692516991128</v>
+        <v>-0.0626797205710751</v>
       </c>
       <c r="AB2" s="2">
-        <v>-7.29883022511726</v>
+        <v>-0.0543760027978186</v>
       </c>
       <c r="AC2" s="2">
-        <v>-7.54424594943229</v>
+        <v>-0.0501919202314506</v>
       </c>
       <c r="AD2" s="2">
-        <v>-7.83208633828905</v>
+        <v>-0.0615412481732304</v>
       </c>
       <c r="AE2" s="2">
-        <v>-8.142113318701769</v>
+        <v>-0.058150342211395</v>
       </c>
       <c r="AF2" s="2">
-        <v>-8.59933082424307</v>
+        <v>-0.0887951491375665</v>
       </c>
       <c r="AG2" s="2">
-        <v>-9.115709960888591</v>
+        <v>-0.0964051705017511</v>
       </c>
       <c r="AH2" s="2">
-        <v>-9.713979979045741</v>
+        <v>-0.0857847120209263</v>
       </c>
       <c r="AI2" s="2">
-        <v>-10.320165412569</v>
+        <v>-0.0954784306177523</v>
       </c>
       <c r="AJ2" s="2">
-        <v>-10.9527421123624</v>
+        <v>-0.109253804476457</v>
       </c>
       <c r="AK2" s="2">
-        <v>-11.3873796119778</v>
+        <v>-0.116581030307543</v>
       </c>
       <c r="AL2" s="2">
-        <v>-11.5793326043972</v>
+        <v>-0.118743225026547</v>
       </c>
       <c r="AM2" s="2">
-        <v>-11.4379240286345</v>
+        <v>-0.1385666337628</v>
       </c>
       <c r="AN2" s="2">
-        <v>-10.9851230020349</v>
+        <v>-0.133018789138609</v>
       </c>
       <c r="AO2" s="2">
-        <v>-10.3838760673489</v>
+        <v>-0.156364631703057</v>
       </c>
       <c r="AP2" s="2">
-        <v>-9.67971806088773</v>
+        <v>-0.152156200823975</v>
       </c>
       <c r="AQ2" s="2">
-        <v>-9.0180120173926</v>
+        <v>-0.159266835461804</v>
       </c>
       <c r="AR2" s="2">
-        <v>-8.38841470327896</v>
+        <v>-0.167094535864488</v>
       </c>
       <c r="AS2" s="2">
-        <v>-7.81662543103702</v>
+        <v>-0.171262833893581</v>
       </c>
       <c r="AT2" s="2">
-        <v>-7.30549872783201</v>
+        <v>-0.176773524854699</v>
       </c>
       <c r="AU2" s="2">
-        <v>-6.93847538501835</v>
+        <v>-0.183665796999744</v>
       </c>
       <c r="AV2" s="2">
-        <v>-6.55087483590523</v>
+        <v>-0.194774910660088</v>
       </c>
       <c r="AW2" s="2">
-        <v>-6.24564892985617</v>
+        <v>-0.187230241918026</v>
       </c>
       <c r="AX2" s="2">
-        <v>-6.02520405977633</v>
+        <v>-0.211882796189779</v>
       </c>
       <c r="AY2" s="2">
-        <v>-5.79904538479893</v>
+        <v>-0.21089765137603</v>
       </c>
       <c r="AZ2" s="2">
-        <v>-5.61824396239482</v>
+        <v>-0.22348668509744</v>
       </c>
       <c r="BA2" s="2">
-        <v>-5.47783475621143</v>
+        <v>-0.22517536621066</v>
       </c>
       <c r="BB2" s="2">
-        <v>-5.34284113853878</v>
+        <v>-0.238410663096467</v>
       </c>
       <c r="BC2" s="2">
-        <v>-5.21798563844702</v>
+        <v>-0.241168549178381</v>
       </c>
       <c r="BD2" s="2">
-        <v>-5.12445168492033</v>
+        <v>-0.246377515613104</v>
       </c>
       <c r="BE2" s="2">
-        <v>-5.01675669634528</v>
+        <v>-0.260245817983047</v>
       </c>
       <c r="BF2" s="2">
-        <v>-4.95112595503711</v>
+        <v>-0.259895957014572</v>
       </c>
       <c r="BG2" s="2">
-        <v>-4.90998319573436</v>
+        <v>-0.262040197088596</v>
       </c>
       <c r="BH2" s="2">
-        <v>-4.82375264562919</v>
+        <v>-0.271379300382173</v>
       </c>
       <c r="BI2" s="2">
-        <v>-4.78963534649537</v>
+        <v>-0.275086426204327</v>
       </c>
       <c r="BJ2" s="2">
-        <v>-4.71616579095832</v>
+        <v>-0.263622163372944</v>
       </c>
       <c r="BK2" s="2">
-        <v>-4.67932715850932</v>
+        <v>-0.258915470581386</v>
       </c>
       <c r="BL2" s="2">
-        <v>-4.63674977463136</v>
+        <v>-0.272738535062119</v>
       </c>
       <c r="BM2" s="2">
-        <v>-4.61873549268927</v>
+        <v>-0.276803331913677</v>
       </c>
       <c r="BN2" s="2">
-        <v>-4.58123336296366</v>
+        <v>-0.285954250640708</v>
       </c>
       <c r="BO2" s="2">
-        <v>-4.5216826941722</v>
+        <v>-0.292261951580233</v>
       </c>
       <c r="BP2" s="2">
-        <v>-4.49049364662457</v>
+        <v>-0.286911176424767</v>
       </c>
       <c r="BQ2" s="2">
-        <v>-4.4537209113777</v>
+        <v>-0.296643786024544</v>
       </c>
       <c r="BR2" s="2">
-        <v>-4.41308475876981</v>
+        <v>-0.279915287678614</v>
       </c>
       <c r="BS2" s="2">
-        <v>-4.38813118596617</v>
+        <v>-0.29213559752894</v>
       </c>
       <c r="BT2" s="2">
-        <v>-4.37863507202094</v>
+        <v>-0.281145674870214</v>
       </c>
       <c r="BU2" s="2">
-        <v>-4.3329421512926</v>
+        <v>-0.288664697602724</v>
       </c>
       <c r="BV2" s="2">
-        <v>-4.30984367133919</v>
+        <v>-0.292179848515031</v>
       </c>
       <c r="BW2" s="2">
-        <v>-4.27356866200421</v>
+        <v>-0.294408005277241</v>
       </c>
       <c r="BX2" s="2">
-        <v>-4.27840790357898</v>
+        <v>-0.280483826966522</v>
       </c>
       <c r="BY2" s="2">
-        <v>-4.22592577762478</v>
+        <v>-0.296589088897108</v>
       </c>
       <c r="BZ2" s="2">
-        <v>-4.1987666924552</v>
+        <v>-0.296233879174958</v>
       </c>
       <c r="CA2" s="2">
-        <v>-4.18614464097674</v>
+        <v>-0.290306045170514</v>
       </c>
       <c r="CB2" s="2">
-        <v>-4.14915182017153</v>
+        <v>-0.292251722931251</v>
       </c>
       <c r="CC2" s="2">
-        <v>-4.14045429180402</v>
+        <v>-0.292258116534338</v>
       </c>
       <c r="CD2" s="2">
-        <v>-4.11479419304239</v>
+        <v>-0.287541160194297</v>
       </c>
       <c r="CE2" s="2">
-        <v>-4.08758845963665</v>
+        <v>-0.265845766282809</v>
       </c>
       <c r="CF2" s="2">
-        <v>-4.07034113522652</v>
+        <v>-0.280995225658601</v>
       </c>
       <c r="CG2" s="2">
-        <v>-4.04121055210977</v>
+        <v>-0.290206146169243</v>
       </c>
       <c r="CH2" s="2">
-        <v>-4.02198121697324</v>
+        <v>-0.284567161095953</v>
       </c>
       <c r="CI2" s="2">
-        <v>-3.98079477298958</v>
+        <v>-0.271255356029069</v>
       </c>
       <c r="CJ2" s="2">
-        <v>-3.98832823214652</v>
+        <v>-0.264089236527305</v>
       </c>
       <c r="CK2" s="2">
-        <v>-3.95003801577435</v>
+        <v>-0.283037141506964</v>
       </c>
       <c r="CL2" s="2">
-        <v>-3.9436857681935</v>
+        <v>-0.266919250502618</v>
       </c>
       <c r="CM2" s="2">
-        <v>-3.89901770698527</v>
+        <v>-0.254525171709393</v>
       </c>
       <c r="CN2" s="2">
-        <v>-3.88686559856571</v>
+        <v>-0.256763458303035</v>
       </c>
       <c r="CO2" s="2">
-        <v>-3.8475531101642</v>
+        <v>-0.257992151186931</v>
       </c>
       <c r="CP2" s="2">
-        <v>-3.83873722372013</v>
+        <v>-0.253847860186904</v>
       </c>
       <c r="CQ2" s="2">
-        <v>-3.80778596151807</v>
+        <v>-0.262263421167569</v>
       </c>
       <c r="CR2" s="2">
-        <v>-3.79027077607085</v>
+        <v>-0.256648843273363</v>
       </c>
       <c r="CS2" s="2">
-        <v>-3.80071840456256</v>
+        <v>-0.248392183218496</v>
       </c>
       <c r="CT2" s="2">
-        <v>-3.75888919500617</v>
+        <v>-0.253978927813843</v>
       </c>
       <c r="CU2" s="2">
-        <v>-3.73871845726457</v>
+        <v>-0.225710768701974</v>
       </c>
       <c r="CV2" s="2">
-        <v>-3.71548702204946</v>
+        <v>-0.248069988250794</v>
       </c>
       <c r="CW2" s="2">
-        <v>-3.70123184631084</v>
+        <v>-0.228947418451859</v>
       </c>
       <c r="CX2" s="2">
-        <v>-3.68590689402906</v>
+        <v>-0.227877468951426</v>
       </c>
       <c r="CY2" s="2">
-        <v>-3.69052756476362</v>
+        <v>-0.219125241545873</v>
       </c>
       <c r="CZ2" s="2">
-        <v>-3.64227761246237</v>
+        <v>-0.235997785903815</v>
       </c>
       <c r="DA2" s="2">
-        <v>-3.6441627706256</v>
+        <v>-0.223417855768096</v>
       </c>
       <c r="DB2" s="2">
-        <v>-3.61925690511294</v>
+        <v>-0.219255660656086</v>
       </c>
       <c r="DC2" s="2">
-        <v>-3.60565925522822</v>
+        <v>-0.217799207960333</v>
       </c>
       <c r="DD2" s="2">
-        <v>-3.58619166614252</v>
+        <v>-0.219785764851235</v>
       </c>
       <c r="DE2" s="2">
-        <v>-3.59301213791952</v>
+        <v>-0.228463562888154</v>
       </c>
       <c r="DF2" s="2">
-        <v>-3.55850795640999</v>
+        <v>-0.211164147845922</v>
       </c>
       <c r="DG2" s="2">
-        <v>-3.54192336558491</v>
+        <v>-0.211794537715398</v>
       </c>
       <c r="DH2" s="2">
-        <v>-3.5068661658247</v>
+        <v>-0.225850828018577</v>
       </c>
       <c r="DI2" s="2">
-        <v>-3.51009621063171</v>
+        <v>-0.207792958994429</v>
       </c>
       <c r="DJ2" s="2">
-        <v>-3.4727341358201</v>
+        <v>-0.20747949922456</v>
       </c>
       <c r="DK2" s="2">
-        <v>-3.465697392603</v>
+        <v>-0.206602443275405</v>
       </c>
       <c r="DL2" s="2">
-        <v>-3.45586018357484</v>
+        <v>-0.22179172471098</v>
       </c>
       <c r="DM2" s="2">
-        <v>-3.44743430841794</v>
+        <v>-0.198541770841903</v>
       </c>
       <c r="DN2" s="2">
-        <v>-3.44722114672985</v>
+        <v>-0.204551983538567</v>
       </c>
       <c r="DO2" s="2">
-        <v>-3.40744193128155</v>
+        <v>-0.222941030270514</v>
       </c>
       <c r="DP2" s="2">
-        <v>-3.37612857780073</v>
+        <v>-0.219407845762511</v>
       </c>
       <c r="DQ2" s="2">
-        <v>-3.38896029921494</v>
+        <v>-0.198094069255437</v>
       </c>
       <c r="DR2" s="2">
-        <v>-3.33415458748758</v>
+        <v>-0.221364960301068</v>
       </c>
       <c r="DS2" s="2">
-        <v>-3.34608938605962</v>
+        <v>-0.217270460672678</v>
       </c>
       <c r="DT2" s="2">
-        <v>-3.35001646528437</v>
+        <v>-0.213579072046925</v>
       </c>
       <c r="DU2" s="2">
-        <v>-3.3093503087052</v>
+        <v>-0.219036165720448</v>
       </c>
       <c r="DV2" s="2">
-        <v>-3.30211620640677</v>
+        <v>-0.218021557803913</v>
       </c>
       <c r="DW2" s="2">
-        <v>-3.29320198863312</v>
+        <v>-0.226988607713908</v>
       </c>
       <c r="DX2" s="2">
-        <v>-3.28239191993286</v>
+        <v>-0.226481325963172</v>
       </c>
       <c r="DY2" s="2">
-        <v>-3.30372016381665</v>
+        <v>-0.227008347934022</v>
       </c>
       <c r="DZ2" s="2">
-        <v>-3.28651459166371</v>
+        <v>-0.230138428058072</v>
       </c>
       <c r="EA2" s="2">
-        <v>-3.29790521115645</v>
+        <v>-0.240445565645797</v>
       </c>
       <c r="EB2" s="2">
-        <v>-3.27994007659486</v>
+        <v>-0.234854932129184</v>
       </c>
       <c r="EC2" s="2">
-        <v>-3.28776683439866</v>
+        <v>-0.256884457263026</v>
       </c>
       <c r="ED2" s="2">
-        <v>-3.2929317550043</v>
+        <v>-0.26016360609477</v>
       </c>
       <c r="EE2" s="2">
-        <v>-3.27850347598914</v>
+        <v>-0.238831261781197</v>
       </c>
       <c r="EF2" s="2">
-        <v>-3.31111568964051</v>
+        <v>-0.248100159469831</v>
       </c>
       <c r="EG2" s="2">
-        <v>-3.31044990456854</v>
+        <v>-0.258396370605281</v>
       </c>
       <c r="EH2" s="2">
-        <v>-3.32842243220981</v>
+        <v>-0.267132538625511</v>
       </c>
       <c r="EI2" s="2">
-        <v>-3.34461982465315</v>
+        <v>-0.276140057467708</v>
       </c>
       <c r="EJ2" s="2">
-        <v>-3.36496843884556</v>
+        <v>-0.277839481981447</v>
       </c>
       <c r="EK2" s="2">
-        <v>-3.37866086790973</v>
+        <v>-0.283946322484168</v>
       </c>
       <c r="EL2" s="2">
-        <v>-3.39271282524742</v>
+        <v>-0.289395867875498</v>
       </c>
       <c r="EM2" s="2">
-        <v>-3.43165231368774</v>
+        <v>-0.298241583665402</v>
       </c>
       <c r="EN2" s="2">
-        <v>-3.46985830288439</v>
+        <v>-0.294587524493587</v>
       </c>
       <c r="EO2" s="2">
-        <v>-3.48470632034203</v>
+        <v>-0.311046181314983</v>
       </c>
       <c r="EP2" s="2">
-        <v>-3.49042778965209</v>
+        <v>-0.321267615869709</v>
       </c>
       <c r="EQ2" s="2">
-        <v>-3.54968527439938</v>
+        <v>-0.315569773920197</v>
       </c>
       <c r="ER2" s="2">
-        <v>-3.58000695005469</v>
+        <v>-0.341896759337643</v>
       </c>
       <c r="ES2" s="2">
-        <v>-3.61272629995322</v>
+        <v>-0.334941172546743</v>
       </c>
       <c r="ET2" s="2">
-        <v>-3.64463771512325</v>
+        <v>-0.346752926732839</v>
       </c>
       <c r="EU2" s="2">
-        <v>-3.67472611611767</v>
+        <v>-0.337485171704834</v>
       </c>
       <c r="EV2" s="2">
-        <v>-3.72825182947341</v>
+        <v>-0.359342060585201</v>
       </c>
       <c r="EW2" s="2">
-        <v>-3.76098529060956</v>
+        <v>-0.373933715318734</v>
       </c>
       <c r="EX2" s="2">
-        <v>-3.78001682183075</v>
+        <v>-0.364892657856736</v>
       </c>
       <c r="EY2" s="2">
-        <v>-3.82617203541266</v>
+        <v>-0.383386321151941</v>
       </c>
       <c r="EZ2" s="2">
-        <v>-3.85040105622856</v>
+        <v>-0.368132544062053</v>
       </c>
       <c r="FA2" s="2">
-        <v>-3.90336210615457</v>
+        <v>-0.38616704394769</v>
       </c>
       <c r="FB2" s="2">
-        <v>-3.91643096242554</v>
+        <v>-0.386169484015159</v>
       </c>
       <c r="FC2" s="2">
-        <v>-3.97871079002968</v>
+        <v>-0.406114539897656</v>
       </c>
       <c r="FD2" s="2">
-        <v>-3.99195252533062</v>
+        <v>-0.403178182711292</v>
       </c>
       <c r="FE2" s="2">
-        <v>-4.01749208083294</v>
+        <v>-0.400469708906099</v>
       </c>
       <c r="FF2" s="2">
-        <v>-4.06543077467446</v>
+        <v>-0.411831250428528</v>
       </c>
       <c r="FG2" s="2">
-        <v>-4.0749632379385</v>
+        <v>-0.421747179561071</v>
       </c>
       <c r="FH2" s="2">
-        <v>-4.11217055962738</v>
+        <v>-0.416979042007833</v>
       </c>
       <c r="FI2" s="2">
-        <v>-4.14549947749969</v>
+        <v>-0.446694928903876</v>
       </c>
       <c r="FJ2" s="2">
-        <v>-4.16026037384736</v>
+        <v>-0.436749416563921</v>
       </c>
       <c r="FK2" s="2">
-        <v>-4.15983787361925</v>
+        <v>-0.428269071231483</v>
       </c>
       <c r="FL2" s="2">
-        <v>-4.18188971560364</v>
+        <v>-0.439012975543622</v>
       </c>
       <c r="FM2" s="2">
-        <v>-4.18259599298304</v>
+        <v>-0.433655261358561</v>
       </c>
       <c r="FN2" s="2">
-        <v>-4.18972296223</v>
+        <v>-0.443145110498479</v>
       </c>
       <c r="FO2" s="2">
-        <v>-4.21872651966983</v>
+        <v>-0.450753363117321</v>
       </c>
       <c r="FP2" s="2">
-        <v>-4.20503279280916</v>
+        <v>-0.459593505158476</v>
       </c>
       <c r="FQ2" s="2">
-        <v>-4.22488073494277</v>
+        <v>-0.456565901976532</v>
       </c>
       <c r="FR2" s="2">
-        <v>-4.20777999697299</v>
+        <v>-0.453767227483261</v>
       </c>
       <c r="FS2" s="2">
-        <v>-4.23738602431473</v>
+        <v>-0.460468184400665</v>
       </c>
       <c r="FT2" s="2">
-        <v>-4.25184775945085</v>
+        <v>-0.458487662801889</v>
       </c>
       <c r="FU2" s="2">
-        <v>-4.25166210107103</v>
+        <v>-0.456047794012523</v>
       </c>
       <c r="FV2" s="2">
-        <v>-4.2553587351646</v>
+        <v>-0.476733141572022</v>
       </c>
       <c r="FW2" s="2">
-        <v>-4.2457451758759</v>
+        <v>-0.45370450289056</v>
       </c>
       <c r="FX2" s="2">
-        <v>-4.25630584536804</v>
+        <v>-0.462610293423219</v>
       </c>
       <c r="FY2" s="2">
-        <v>-4.20757396851532</v>
+        <v>-0.479454705528852</v>
       </c>
       <c r="FZ2" s="2">
-        <v>-4.21403297581426</v>
+        <v>-0.479270414649653</v>
       </c>
       <c r="GA2" s="2">
-        <v>-4.2231000813261</v>
+        <v>-0.437495780843422</v>
       </c>
       <c r="GB2" s="2">
-        <v>-4.20933454622108</v>
+        <v>-0.472485705643521</v>
       </c>
       <c r="GC2" s="2">
-        <v>-4.21795077900867</v>
+        <v>-0.464527915981179</v>
       </c>
       <c r="GD2" s="2">
-        <v>-4.20819635630058</v>
+        <v>-0.472074768728905</v>
       </c>
       <c r="GE2" s="2">
-        <v>-4.19376107437866</v>
+        <v>-0.471565962842758</v>
       </c>
       <c r="GF2" s="2">
-        <v>-4.1475315906602</v>
+        <v>-0.456583536992718</v>
       </c>
       <c r="GG2" s="2">
-        <v>-4.17462236996482</v>
+        <v>-0.463967430497854</v>
       </c>
       <c r="GH2" s="2">
-        <v>-4.1584873870618</v>
+        <v>-0.467799018145504</v>
       </c>
       <c r="GI2" s="2">
-        <v>-4.15673297777239</v>
+        <v>-0.454271350177446</v>
       </c>
       <c r="GJ2" s="2">
-        <v>-4.1317453658177</v>
+        <v>-0.465359424737065</v>
       </c>
       <c r="GK2" s="2">
-        <v>-4.11681575705364</v>
+        <v>-0.455459399890726</v>
       </c>
       <c r="GL2" s="2">
-        <v>-4.06662001947781</v>
+        <v>-0.454271408930197</v>
       </c>
       <c r="GM2" s="2">
-        <v>-4.07947770087631</v>
+        <v>-0.462507562940436</v>
       </c>
       <c r="GN2" s="2">
-        <v>-4.07723870086025</v>
+        <v>-0.44283642657564</v>
       </c>
       <c r="GO2" s="2">
-        <v>-4.03575126930723</v>
+        <v>-0.442770738459066</v>
       </c>
       <c r="GP2" s="2">
-        <v>-4.0167985343275</v>
+        <v>-0.441388761096757</v>
       </c>
       <c r="GQ2" s="2">
-        <v>-3.98139712567989</v>
+        <v>-0.435413789299222</v>
       </c>
       <c r="GR2" s="2">
-        <v>-4.00363783661854</v>
+        <v>-0.436485876464279</v>
       </c>
       <c r="GS2" s="2">
-        <v>-3.97338179238237</v>
+        <v>-0.42842406856038</v>
       </c>
       <c r="GT2" s="2">
-        <v>-3.94236017359385</v>
+        <v>-0.43081614290203</v>
       </c>
       <c r="GU2" s="2">
-        <v>-3.90956311213025</v>
+        <v>-0.408564898855366</v>
       </c>
       <c r="GV2" s="2">
-        <v>-3.89860412158217</v>
+        <v>-0.41008280526015</v>
       </c>
       <c r="GW2" s="2">
-        <v>-3.88183663523967</v>
+        <v>-0.394434418308348</v>
       </c>
       <c r="GX2" s="2">
-        <v>-3.84408298876933</v>
+        <v>-0.406125972528447</v>
       </c>
       <c r="GY2" s="2">
-        <v>-3.8433616074389</v>
+        <v>-0.409394201578633</v>
       </c>
       <c r="GZ2" s="2">
-        <v>-3.82545994930169</v>
+        <v>-0.408252839285313</v>
       </c>
       <c r="HA2" s="2">
-        <v>-3.79756331321405</v>
+        <v>-0.398151075684799</v>
       </c>
       <c r="HB2" s="2">
-        <v>-3.77944137751402</v>
+        <v>-0.39076315980864</v>
       </c>
       <c r="HC2" s="2">
-        <v>-3.7746135503327</v>
+        <v>-0.376837329204111</v>
       </c>
       <c r="HD2" s="2">
-        <v>-3.72983949614484</v>
+        <v>-0.387322582982674</v>
       </c>
       <c r="HE2" s="2">
-        <v>-3.72246390189352</v>
+        <v>-0.400076043150291</v>
       </c>
       <c r="HF2" s="2">
-        <v>-3.70063846295517</v>
+        <v>-0.375210841983888</v>
       </c>
       <c r="HG2" s="2">
-        <v>-3.68351317440506</v>
+        <v>-0.37396563630319</v>
       </c>
       <c r="HH2" s="2">
-        <v>-3.67301983975548</v>
+        <v>-0.376390389822713</v>
       </c>
       <c r="HI2" s="2">
-        <v>-3.64195943745338</v>
+        <v>-0.361416818735663</v>
       </c>
       <c r="HJ2" s="2">
-        <v>-3.65033743876711</v>
+        <v>-0.37126561629911</v>
       </c>
       <c r="HK2" s="2">
-        <v>-3.62568369665014</v>
+        <v>-0.364191251750466</v>
       </c>
       <c r="HL2" s="2">
-        <v>-3.60001142034825</v>
+        <v>-0.358686741649095</v>
       </c>
       <c r="HM2" s="2">
-        <v>-3.60114295995635</v>
+        <v>-0.369262316872101</v>
       </c>
       <c r="HN2" s="2">
-        <v>-3.5985760001933</v>
+        <v>-0.365633293747655</v>
       </c>
       <c r="HO2" s="2">
-        <v>-3.57026105398473</v>
+        <v>-0.361302413892686</v>
       </c>
       <c r="HP2" s="2">
-        <v>-3.54373115252319</v>
+        <v>-0.359244848492157</v>
       </c>
       <c r="HQ2" s="2">
-        <v>-3.55371120124267</v>
+        <v>-0.356404956098231</v>
       </c>
       <c r="HR2" s="2">
-        <v>-3.53831394307306</v>
+        <v>-0.35193187973482</v>
       </c>
       <c r="HS2" s="2">
-        <v>-3.53498773120716</v>
+        <v>-0.35009218607914</v>
       </c>
       <c r="HT2" s="2">
-        <v>-3.54418136044374</v>
+        <v>-0.35414287052284</v>
       </c>
       <c r="HU2" s="2">
-        <v>-3.4956698495524</v>
+        <v>-0.353212449479696</v>
       </c>
       <c r="HV2" s="2">
-        <v>-3.50675703578798</v>
+        <v>-0.354436900030611</v>
       </c>
       <c r="HW2" s="2">
-        <v>-3.53171514542173</v>
+        <v>-0.365749871123911</v>
       </c>
       <c r="HX2" s="2">
-        <v>-3.50768673851644</v>
+        <v>-0.359789709367661</v>
       </c>
       <c r="HY2" s="2">
-        <v>-3.48740336949292</v>
+        <v>-0.358835855096759</v>
       </c>
       <c r="HZ2" s="2">
-        <v>-3.46758959803824</v>
+        <v>-0.364579269082457</v>
       </c>
       <c r="IA2" s="2">
-        <v>-3.47986175454965</v>
+        <v>-0.348695512644617</v>
       </c>
       <c r="IB2" s="2">
-        <v>-3.46117961113536</v>
+        <v>-0.355816001529702</v>
       </c>
       <c r="IC2" s="2">
-        <v>-3.46150271294014</v>
+        <v>-0.352313025593549</v>
       </c>
       <c r="ID2" s="2">
-        <v>-3.44925584901746</v>
+        <v>-0.356043935509361</v>
       </c>
       <c r="IE2" s="2">
-        <v>-3.45977313934623</v>
+        <v>-0.384251447489117</v>
       </c>
       <c r="IF2" s="2">
-        <v>-3.4446713423022</v>
+        <v>-0.374723886969811</v>
       </c>
       <c r="IG2" s="2">
-        <v>-3.43522625195805</v>
+        <v>-0.380499418573727</v>
       </c>
       <c r="IH2" s="2">
-        <v>-3.45556060175425</v>
+        <v>-0.371081963215396</v>
       </c>
       <c r="II2" s="2">
-        <v>-3.45714739827054</v>
+        <v>-0.385953493383628</v>
       </c>
       <c r="IJ2" s="2">
-        <v>-3.44831822993637</v>
+        <v>-0.379845867477406</v>
       </c>
       <c r="IK2" s="2">
-        <v>-3.44164998634324</v>
+        <v>-0.372175714398231</v>
       </c>
       <c r="IL2" s="2">
-        <v>-3.44440915967796</v>
+        <v>-0.398349742829136</v>
       </c>
       <c r="IM2" s="2">
-        <v>-3.44618260574162</v>
+        <v>-0.408402140178292</v>
       </c>
       <c r="IN2" s="2">
-        <v>-3.43772925019549</v>
+        <v>-0.39661282182912</v>
       </c>
       <c r="IO2" s="2">
-        <v>-3.43414378894074</v>
+        <v>-0.420547530294522</v>
       </c>
       <c r="IP2" s="2">
-        <v>-3.43074918052149</v>
+        <v>-0.413803189172053</v>
       </c>
       <c r="IQ2" s="2">
-        <v>-3.43176574190707</v>
+        <v>-0.419245460005205</v>
       </c>
       <c r="IR2" s="2">
-        <v>-3.43764132885147</v>
+        <v>-0.430042774836526</v>
       </c>
       <c r="IS2" s="2">
-        <v>-3.43131848665102</v>
+        <v>-0.426953203743818</v>
       </c>
       <c r="IT2" s="2">
-        <v>-3.45172288246361</v>
+        <v>-0.447870859430497</v>
       </c>
       <c r="IU2" s="2">
-        <v>-3.42480738143928</v>
+        <v>-0.443404242608966</v>
       </c>
       <c r="IV2" s="2">
-        <v>-3.44719377218628</v>
+        <v>-0.458372452223565</v>
       </c>
       <c r="IW2" s="2">
-        <v>-3.41479412377827</v>
+        <v>-0.479724300150424</v>
       </c>
       <c r="IX2" s="2">
-        <v>-3.45581529266618</v>
+        <v>-0.47418859098789</v>
       </c>
       <c r="IY2" s="2">
-        <v>-3.44352971450084</v>
+        <v>-0.48364363114648</v>
       </c>
       <c r="IZ2" s="2">
-        <v>-3.44096554226843</v>
+        <v>-0.492966943480279</v>
       </c>
       <c r="JA2" s="2">
-        <v>-3.45669728379203</v>
+        <v>-0.493174065455225</v>
       </c>
       <c r="JB2" s="2">
-        <v>-3.43450022917769</v>
+        <v>-0.489273564774872</v>
       </c>
       <c r="JC2" s="2">
-        <v>-3.44705268565666</v>
+        <v>-0.5059547549775359</v>
       </c>
       <c r="JD2" s="2">
-        <v>-3.44608333589658</v>
+        <v>-0.519871604046021</v>
       </c>
       <c r="JE2" s="2">
-        <v>-3.44823029894229</v>
+        <v>-0.510464077121243</v>
       </c>
       <c r="JF2" s="2">
-        <v>-3.43753443453309</v>
+        <v>-0.53029553289396</v>
       </c>
       <c r="JG2" s="2">
-        <v>-3.45083987426397</v>
+        <v>-0.542309202230065</v>
       </c>
       <c r="JH2" s="2">
-        <v>-3.47314819157933</v>
+        <v>-0.548554603248585</v>
       </c>
       <c r="JI2" s="2">
-        <v>-3.44303869014242</v>
+        <v>-0.558791181223352</v>
       </c>
       <c r="JJ2" s="2">
-        <v>-3.46367745822471</v>
+        <v>-0.547718784081208</v>
       </c>
       <c r="JK2" s="2">
-        <v>-3.45471160926768</v>
+        <v>-0.561080131437148</v>
       </c>
       <c r="JL2" s="2">
-        <v>-3.45219182758507</v>
+        <v>-0.558692636007769</v>
       </c>
       <c r="JM2" s="2">
-        <v>-3.44369477950033</v>
+        <v>-0.578836199374981</v>
       </c>
       <c r="JN2" s="2">
-        <v>-3.44726460804248</v>
+        <v>-0.577495429506769</v>
       </c>
       <c r="JO2" s="2">
-        <v>-3.44784737736729</v>
+        <v>-0.585973975995341</v>
       </c>
       <c r="JP2" s="2">
-        <v>-3.43185642618095</v>
+        <v>-0.595682695548779</v>
       </c>
       <c r="JQ2" s="2">
-        <v>-3.43442462058452</v>
+        <v>-0.597654629202141</v>
       </c>
       <c r="JR2" s="2">
-        <v>-3.46848239793292</v>
+        <v>-0.602657365311538</v>
       </c>
       <c r="JS2" s="2">
-        <v>-3.46046403904542</v>
+        <v>-0.605032493183321</v>
       </c>
       <c r="JT2" s="2">
-        <v>-3.42100442675316</v>
+        <v>-0.613919962229063</v>
       </c>
       <c r="JU2" s="2">
-        <v>-3.43884028678906</v>
+        <v>-0.622220232394647</v>
       </c>
       <c r="JV2" s="2">
-        <v>-3.44522769795515</v>
+        <v>-0.62138516657273</v>
       </c>
       <c r="JW2" s="2">
-        <v>-3.43685250870108</v>
+        <v>-0.62018559953481</v>
       </c>
       <c r="JX2" s="2">
-        <v>-3.42492622060116</v>
+        <v>-0.63011852195727</v>
       </c>
       <c r="JY2" s="2">
-        <v>-3.42036889305596</v>
+        <v>-0.622385096866256</v>
       </c>
       <c r="JZ2" s="2">
-        <v>-3.44916348042187</v>
+        <v>-0.617774360566832</v>
       </c>
       <c r="KA2" s="2">
-        <v>-3.44733075895659</v>
+        <v>-0.62277521877177</v>
       </c>
       <c r="KB2" s="2">
-        <v>-3.40446320568297</v>
+        <v>-0.63626427862132</v>
       </c>
       <c r="KC2" s="2">
-        <v>-3.41738429887637</v>
+        <v>-0.627409057749056</v>
       </c>
       <c r="KD2" s="2">
-        <v>-3.43462725748477</v>
+        <v>-0.624708299022823</v>
       </c>
       <c r="KE2" s="2">
-        <v>-3.44320737206617</v>
+        <v>-0.6217102453964229</v>
       </c>
       <c r="KF2" s="2">
-        <v>-3.43611627943681</v>
+        <v>-0.6527865488436591</v>
       </c>
       <c r="KG2" s="2">
-        <v>-3.4123838307061</v>
+        <v>-0.635496005113653</v>
       </c>
       <c r="KH2" s="2">
-        <v>-3.41201392929671</v>
+        <v>-0.634560770005157</v>
       </c>
       <c r="KI2" s="2">
-        <v>-3.43092580749975</v>
+        <v>-0.626141365922793</v>
       </c>
       <c r="KJ2" s="2">
-        <v>-3.45422879499449</v>
+        <v>-0.625098055704815</v>
       </c>
       <c r="KK2" s="2">
-        <v>-3.40749892194336</v>
+        <v>-0.625717553428232</v>
       </c>
       <c r="KL2" s="2">
-        <v>-3.435313191961</v>
+        <v>-0.631462653213725</v>
       </c>
       <c r="KM2" s="2">
-        <v>-3.43860878202611</v>
+        <v>-0.627198653848156</v>
       </c>
       <c r="KN2" s="2">
-        <v>-3.41125131775243</v>
+        <v>-0.636507903671767</v>
       </c>
       <c r="KO2" s="2">
-        <v>-3.40262475132014</v>
+        <v>-0.625587388715333</v>
       </c>
       <c r="KP2" s="2">
-        <v>-3.42673247616253</v>
+        <v>-0.616806008675609</v>
       </c>
       <c r="KQ2" s="2">
-        <v>-3.40613010119697</v>
+        <v>-0.61286384711185</v>
       </c>
       <c r="KR2" s="2">
-        <v>-3.42086924176366</v>
+        <v>-0.6125555809420981</v>
       </c>
       <c r="KS2" s="2">
-        <v>-3.43639394630311</v>
+        <v>-0.606492666475192</v>
       </c>
       <c r="KT2" s="2">
-        <v>-3.40177719088493</v>
+        <v>-0.616368098098228</v>
       </c>
       <c r="KU2" s="2">
-        <v>-3.42594891641149</v>
+        <v>-0.613957925654238</v>
       </c>
       <c r="KV2" s="2">
-        <v>-3.41939655938902</v>
+        <v>-0.602781597277785</v>
       </c>
       <c r="KW2" s="2">
-        <v>-3.40118067579792</v>
+        <v>-0.596404931980424</v>
       </c>
       <c r="KX2" s="2">
-        <v>-3.40518552331655</v>
+        <v>-0.593892922877986</v>
       </c>
       <c r="KY2" s="2">
-        <v>-3.42971286462147</v>
+        <v>-0.5889234817647701</v>
       </c>
       <c r="KZ2" s="2">
-        <v>-3.4378811392987</v>
+        <v>-0.5807561214524199</v>
       </c>
       <c r="LA2" s="2">
-        <v>-3.42707021038897</v>
+        <v>-0.582755707346898</v>
       </c>
       <c r="LB2" s="2">
-        <v>-3.43740359007552</v>
+        <v>-0.572179979227176</v>
       </c>
       <c r="LC2" s="2">
-        <v>-3.45639672315902</v>
+        <v>-0.581851899799719</v>
       </c>
       <c r="LD2" s="2">
-        <v>-3.45722857159794</v>
+        <v>-0.572789057730212</v>
       </c>
       <c r="LE2" s="2">
-        <v>-3.47319038219361</v>
+        <v>-0.551762643337488</v>
       </c>
       <c r="LF2" s="2">
-        <v>-3.46103181681424</v>
+        <v>-0.578758898329058</v>
       </c>
       <c r="LG2" s="2">
-        <v>-3.46582749703056</v>
+        <v>-0.565195639846464</v>
       </c>
       <c r="LH2" s="2">
-        <v>-3.47566308981224</v>
+        <v>-0.561466352062539</v>
       </c>
       <c r="LI2" s="2">
-        <v>-3.4568654251812</v>
+        <v>-0.558663619944203</v>
       </c>
       <c r="LJ2" s="2">
-        <v>-3.48817265042579</v>
+        <v>-0.555052343266988</v>
       </c>
       <c r="LK2" s="2">
-        <v>-3.49792090492554</v>
+        <v>-0.550995856416771</v>
       </c>
       <c r="LL2" s="2">
-        <v>-3.49366196092008</v>
+        <v>-0.541965452980134</v>
       </c>
       <c r="LM2" s="2">
-        <v>-3.50040787958708</v>
+        <v>-0.535501527799359</v>
       </c>
       <c r="LN2" s="2">
-        <v>-3.4911399380981</v>
+        <v>-0.55039266476337</v>
       </c>
       <c r="LO2" s="2">
-        <v>-3.51115055163461</v>
+        <v>-0.535771361113567</v>
       </c>
       <c r="LP2" s="2">
-        <v>-3.55308949380163</v>
+        <v>-0.534867944838213</v>
       </c>
       <c r="LQ2" s="2">
-        <v>-3.52484567201098</v>
+        <v>-0.532155859992407</v>
       </c>
       <c r="LR2" s="2">
-        <v>-3.55549408631548</v>
+        <v>-0.530114015505661</v>
       </c>
       <c r="LS2" s="2">
-        <v>-3.5679588306396</v>
+        <v>-0.525665759053548</v>
       </c>
       <c r="LT2" s="2">
-        <v>-3.58479678519951</v>
+        <v>-0.519499398955641</v>
       </c>
       <c r="LU2" s="2">
-        <v>-3.60336334422729</v>
+        <v>-0.514835257647533</v>
       </c>
       <c r="LV2" s="2">
-        <v>-3.58298494200888</v>
+        <v>-0.514603717704668</v>
       </c>
       <c r="LW2" s="2">
-        <v>-3.58780335844752</v>
+        <v>-0.504046179119634</v>
       </c>
       <c r="LX2" s="2">
-        <v>-3.60704517439824</v>
+        <v>-0.511883462861188</v>
       </c>
       <c r="LY2" s="2">
-        <v>-3.62935020744163</v>
+        <v>-0.503569192604402</v>
       </c>
       <c r="LZ2" s="2">
-        <v>-3.65287322725157</v>
+        <v>-0.511604996855205</v>
       </c>
       <c r="MA2" s="2">
-        <v>-3.66534798803812</v>
+        <v>-0.513260912204339</v>
       </c>
       <c r="MB2" s="2">
-        <v>-3.66452230303375</v>
+        <v>-0.510612468389483</v>
       </c>
       <c r="MC2" s="2">
-        <v>-3.64191848386225</v>
+        <v>-0.499088534840272</v>
       </c>
       <c r="MD2" s="2">
-        <v>-3.67099887234035</v>
+        <v>-0.495908569057319</v>
       </c>
       <c r="ME2" s="2">
-        <v>-3.68721729217166</v>
+        <v>-0.5023650131781811</v>
       </c>
       <c r="MF2" s="2">
-        <v>-3.67948906525148</v>
+        <v>-0.508635697603268</v>
       </c>
       <c r="MG2" s="2">
-        <v>-3.69696268794142</v>
+        <v>-0.501152142092219</v>
       </c>
       <c r="MH2" s="2">
-        <v>-3.69765707301702</v>
+        <v>-0.509505610057626</v>
       </c>
       <c r="MI2" s="2">
-        <v>-3.69042959234746</v>
+        <v>-0.51266123383403</v>
       </c>
       <c r="MJ2" s="2">
-        <v>-3.71726117849416</v>
+        <v>-0.513846143966425</v>
       </c>
       <c r="MK2" s="2">
-        <v>-3.74528878777047</v>
+        <v>-0.508812065524912</v>
       </c>
       <c r="ML2" s="2">
-        <v>-3.73352834411961</v>
+        <v>-0.512216757889264</v>
       </c>
       <c r="MM2" s="2">
-        <v>-3.75149706318893</v>
+        <v>-0.51353094565271</v>
       </c>
       <c r="MN2" s="2">
-        <v>-3.73886146608305</v>
+        <v>-0.524613604436141</v>
       </c>
       <c r="MO2" s="2">
-        <v>-3.76182581795172</v>
+        <v>-0.533416811083032</v>
       </c>
       <c r="MP2" s="2">
-        <v>-3.77399515287409</v>
+        <v>-0.5192926176082741</v>
       </c>
       <c r="MQ2" s="2">
-        <v>-3.75339438974239</v>
+        <v>-0.547879377038085</v>
       </c>
       <c r="MR2" s="2">
-        <v>-3.77869909661134</v>
+        <v>-0.534401379401465</v>
       </c>
       <c r="MS2" s="2">
-        <v>-3.76291908614956</v>
+        <v>-0.526319337112055</v>
       </c>
       <c r="MT2" s="2">
-        <v>-3.78293773679495</v>
+        <v>-0.543869732362755</v>
       </c>
       <c r="MU2" s="2">
-        <v>-3.76371292928904</v>
+        <v>-0.549073029839071</v>
       </c>
       <c r="MV2" s="2">
-        <v>-3.76226190773666</v>
+        <v>-0.557162485875351</v>
       </c>
       <c r="MW2" s="2">
-        <v>-3.76316506249909</v>
+        <v>-0.553816111288989</v>
       </c>
       <c r="MX2" s="2">
-        <v>-3.78420606470765</v>
+        <v>-0.563246232623523</v>
       </c>
       <c r="MY2" s="2">
-        <v>-3.77385132990864</v>
+        <v>-0.569978485926901</v>
       </c>
       <c r="MZ2" s="2">
-        <v>-3.78014986212237</v>
+        <v>-0.56562944545658</v>
       </c>
       <c r="NA2" s="2">
-        <v>-3.77594455124168</v>
+        <v>-0.5810175079300059</v>
       </c>
       <c r="NB2" s="2">
-        <v>-3.78011591928506</v>
+        <v>-0.575742454393291</v>
       </c>
       <c r="NC2" s="2">
-        <v>-3.78769365238475</v>
+        <v>-0.595666288599251</v>
       </c>
       <c r="ND2" s="2">
-        <v>-3.79489548082784</v>
+        <v>-0.5868779230180901</v>
       </c>
       <c r="NE2" s="2">
-        <v>-3.74422303165731</v>
+        <v>-0.605475850945199</v>
       </c>
       <c r="NF2" s="2">
-        <v>-3.75360738700273</v>
+        <v>-0.619067918656844</v>
       </c>
       <c r="NG2" s="2">
-        <v>-3.75090859232256</v>
+        <v>-0.627985528769628</v>
       </c>
       <c r="NH2" s="2">
-        <v>-3.75001020196365</v>
+        <v>-0.613684446727764</v>
       </c>
       <c r="NI2" s="2">
-        <v>-3.75096649627336</v>
+        <v>-0.624248633559731</v>
       </c>
       <c r="NJ2" s="2">
-        <v>-3.73907340471787</v>
+        <v>-0.643460024260715</v>
       </c>
       <c r="NK2" s="2">
-        <v>-3.74716625953872</v>
+        <v>-0.636767979166215</v>
       </c>
       <c r="NL2" s="2">
-        <v>-3.73000223575979</v>
+        <v>-0.645847090099255</v>
       </c>
       <c r="NM2" s="2">
-        <v>-3.72494756849659</v>
+        <v>-0.662001416280155</v>
       </c>
       <c r="NN2" s="2">
-        <v>-3.70237050029334</v>
+        <v>-0.67554119609996</v>
       </c>
       <c r="NO2" s="2">
-        <v>-3.6987762106031</v>
+        <v>-0.669125674801057</v>
       </c>
       <c r="NP2" s="2">
-        <v>-3.67040311852574</v>
+        <v>-0.6744350872393849</v>
       </c>
       <c r="NQ2" s="2">
-        <v>-3.68241846329165</v>
+        <v>-0.694818642574659</v>
       </c>
       <c r="NR2" s="2">
-        <v>-3.67106751174413</v>
+        <v>-0.703994401656804</v>
       </c>
       <c r="NS2" s="2">
-        <v>-3.66064258275296</v>
+        <v>-0.690092978249868</v>
       </c>
       <c r="NT2" s="2">
-        <v>-3.62826474569087</v>
+        <v>-0.715484449683547</v>
       </c>
       <c r="NU2" s="2">
-        <v>-3.65646342355761</v>
+        <v>-0.721228023947048</v>
       </c>
       <c r="NV2" s="2">
-        <v>-3.65793457200932</v>
+        <v>-0.726187172913773</v>
       </c>
       <c r="NW2" s="2">
-        <v>-3.63418296818615</v>
+        <v>-0.72681410574451</v>
       </c>
       <c r="NX2" s="2">
-        <v>-3.61788552568133</v>
+        <v>-0.7356225642470759</v>
       </c>
       <c r="NY2" s="2">
-        <v>-3.60498110481167</v>
+        <v>-0.728621847901989</v>
       </c>
       <c r="NZ2" s="2">
-        <v>-3.58908774928099</v>
+        <v>-0.737323398751033</v>
       </c>
       <c r="OA2" s="2">
-        <v>-3.60764543692476</v>
+        <v>-0.733816162257477</v>
       </c>
       <c r="OB2" s="2">
-        <v>-3.57962950872642</v>
+        <v>-0.745776075274438</v>
       </c>
       <c r="OC2" s="2">
-        <v>-3.58513674982191</v>
+        <v>-0.7493878280097021</v>
       </c>
       <c r="OD2" s="2">
-        <v>-3.56031739450955</v>
+        <v>-0.74783108030548</v>
       </c>
       <c r="OE2" s="2">
-        <v>-3.56648761263439</v>
+        <v>-0.761550365837944</v>
       </c>
       <c r="OF2" s="2">
-        <v>-3.55277259407584</v>
+        <v>-0.768740833396085</v>
       </c>
       <c r="OG2" s="2">
-        <v>-3.54904541531132</v>
+        <v>-0.743795254553127</v>
       </c>
       <c r="OH2" s="2">
-        <v>-3.53529817534106</v>
+        <v>-0.771490927317018</v>
       </c>
       <c r="OI2" s="2">
-        <v>-3.52119231628837</v>
+        <v>-0.771267352545392</v>
       </c>
       <c r="OJ2" s="2">
-        <v>-3.54543402378444</v>
+        <v>-0.765346430571659</v>
       </c>
       <c r="OK2" s="2">
-        <v>-3.4938301651396</v>
+        <v>-0.774034367213326</v>
       </c>
       <c r="OL2" s="2">
-        <v>-3.47028616490522</v>
+        <v>-0.764396205071563</v>
       </c>
       <c r="OM2" s="2">
-        <v>-3.49508394187169</v>
+        <v>-0.784688261258407</v>
       </c>
       <c r="ON2" s="2">
-        <v>-3.46338040888777</v>
+        <v>-0.778065400311432</v>
       </c>
       <c r="OO2" s="2">
-        <v>-3.45831903705585</v>
+        <v>-0.77703505661915</v>
       </c>
       <c r="OP2" s="2">
-        <v>-3.45406347013395</v>
+        <v>-0.773991430661677</v>
       </c>
       <c r="OQ2" s="2">
-        <v>-3.46447912181403</v>
+        <v>-0.792303651838217</v>
       </c>
       <c r="OR2" s="2">
-        <v>-3.44440780464968</v>
+        <v>-0.7745359194296429</v>
       </c>
       <c r="OS2" s="2">
-        <v>-3.42017826045437</v>
+        <v>-0.781005214560933</v>
       </c>
       <c r="OT2" s="2">
-        <v>-3.45257867174731</v>
+        <v>-0.772648198682821</v>
       </c>
       <c r="OU2" s="2">
-        <v>-3.42812904431597</v>
+        <v>-0.774387156838044</v>
       </c>
       <c r="OV2" s="2">
-        <v>-3.40855386638638</v>
+        <v>-0.778521902491598</v>
       </c>
       <c r="OW2" s="2">
-        <v>-3.38593736036164</v>
+        <v>-0.751370880692512</v>
       </c>
       <c r="OX2" s="2">
-        <v>-3.40738930532733</v>
+        <v>-0.76241729920743</v>
       </c>
       <c r="OY2" s="2">
-        <v>-3.36103655771388</v>
+        <v>-0.745271886553361</v>
       </c>
       <c r="OZ2" s="2">
-        <v>-3.35622097532839</v>
+        <v>-0.7452683367017821</v>
       </c>
       <c r="PA2" s="2">
-        <v>-3.3500496949217</v>
+        <v>-0.74620759904133</v>
       </c>
       <c r="PB2" s="2">
-        <v>-3.32760528964824</v>
+        <v>-0.733309091368296</v>
       </c>
       <c r="PC2" s="2">
-        <v>-3.32218809617654</v>
+        <v>-0.744046056962145</v>
       </c>
       <c r="PD2" s="2">
-        <v>-3.31316157576492</v>
+        <v>-0.755451205950143</v>
       </c>
       <c r="PE2" s="2">
-        <v>-3.31770126174695</v>
+        <v>-0.747235473328167</v>
       </c>
       <c r="PF2" s="2">
-        <v>-3.30734143387074</v>
+        <v>-0.72758275992708</v>
       </c>
       <c r="PG2" s="2">
-        <v>-3.30179514705875</v>
+        <v>-0.737822522357705</v>
       </c>
       <c r="PH2" s="2">
-        <v>-3.26740147975136</v>
+        <v>-0.720668093947883</v>
       </c>
       <c r="PI2" s="2">
-        <v>-3.24843772591017</v>
+        <v>-0.733164600439133</v>
       </c>
       <c r="PJ2" s="2">
-        <v>-3.25218382571305</v>
+        <v>-0.714254638889071</v>
       </c>
       <c r="PK2" s="2">
-        <v>-3.22266805010189</v>
+        <v>-0.707835296881671</v>
       </c>
       <c r="PL2" s="2">
-        <v>-3.22799951405141</v>
+        <v>-0.712704828228117</v>
       </c>
       <c r="PM2" s="2">
-        <v>-3.20970908699817</v>
+        <v>-0.709045762608455</v>
       </c>
       <c r="PN2" s="2">
-        <v>-3.20456551131845</v>
+        <v>-0.707384541659937</v>
       </c>
       <c r="PO2" s="2">
-        <v>-3.17946988091394</v>
+        <v>-0.705136409263974</v>
       </c>
       <c r="PP2" s="2">
-        <v>-3.19238002078583</v>
+        <v>-0.703016925076714</v>
       </c>
       <c r="PQ2" s="2">
-        <v>-3.17495992785801</v>
+        <v>-0.70232095794423</v>
       </c>
       <c r="PR2" s="2">
-        <v>-3.16495895095116</v>
+        <v>-0.687652868995441</v>
       </c>
       <c r="PS2" s="2">
-        <v>-3.15040492806268</v>
+        <v>-0.689235421434427</v>
       </c>
       <c r="PT2" s="2">
-        <v>-3.15116983639905</v>
+        <v>-0.677181917283982</v>
       </c>
       <c r="PU2" s="2">
-        <v>-3.1302012803992</v>
+        <v>-0.693972979418083</v>
       </c>
       <c r="PV2" s="2">
-        <v>-3.12966459992315</v>
+        <v>-0.6701693850346619</v>
       </c>
       <c r="PW2" s="2">
-        <v>-3.12758724131101</v>
+        <v>-0.673329239051261</v>
       </c>
       <c r="PX2" s="2">
-        <v>-3.07617371298771</v>
+        <v>-0.669407151614031</v>
       </c>
       <c r="PY2" s="2">
-        <v>-3.10468911121223</v>
+        <v>-0.675794337049014</v>
       </c>
       <c r="PZ2" s="2">
-        <v>-3.08397970573642</v>
+        <v>-0.671185725115194</v>
       </c>
       <c r="QA2" s="2">
-        <v>-3.08617486633668</v>
+        <v>-0.6605498835642351</v>
       </c>
       <c r="QB2" s="2">
-        <v>-3.05234593669046</v>
+        <v>-0.660445187876384</v>
       </c>
       <c r="QC2" s="2">
-        <v>-3.06290444184754</v>
+        <v>-0.6650632719087231</v>
       </c>
       <c r="QD2" s="2">
-        <v>-3.04542669548383</v>
+        <v>-0.654992775936117</v>
       </c>
       <c r="QE2" s="2">
-        <v>-3.04819975946817</v>
+        <v>-0.660707890355944</v>
       </c>
       <c r="QF2" s="2">
-        <v>-3.02092721536133</v>
+        <v>-0.657000336287427</v>
       </c>
       <c r="QG2" s="2">
-        <v>-3.04981149570615</v>
+        <v>-0.64521746422818</v>
       </c>
       <c r="QH2" s="2">
-        <v>-3.02194943369766</v>
+        <v>-0.643765254922164</v>
       </c>
       <c r="QI2" s="2">
-        <v>-3.02162118887303</v>
+        <v>-0.665810787525948</v>
       </c>
       <c r="QJ2" s="2">
-        <v>-3.00239094535891</v>
+        <v>-0.651512733475512</v>
       </c>
       <c r="QK2" s="2">
-        <v>-2.99106927555342</v>
+        <v>-0.6618538056332059</v>
       </c>
       <c r="QL2" s="2">
-        <v>-3.02031058410235</v>
+        <v>-0.652593997650235</v>
       </c>
       <c r="QM2" s="2">
-        <v>-2.9881810866173</v>
+        <v>-0.643395579887402</v>
       </c>
       <c r="QN2" s="2">
-        <v>-2.97461215275048</v>
+        <v>-0.645425562260394</v>
       </c>
       <c r="QO2" s="2">
-        <v>-2.99467179999343</v>
+        <v>-0.653620220381702</v>
       </c>
       <c r="QP2" s="2">
-        <v>-2.98948879227563</v>
+        <v>-0.652153965624405</v>
       </c>
       <c r="QQ2" s="2">
-        <v>-2.96381928786799</v>
+        <v>-0.647863812428377</v>
       </c>
       <c r="QR2" s="2">
-        <v>-2.98521517979744</v>
+        <v>-0.65014161244705</v>
       </c>
       <c r="QS2" s="2">
-        <v>-2.97602981801201</v>
+        <v>-0.6570314714964079</v>
       </c>
       <c r="QT2" s="2">
-        <v>-2.99265634592254</v>
+        <v>-0.661491305546826</v>
       </c>
       <c r="QU2" s="2">
-        <v>-2.97791138139719</v>
+        <v>-0.672947639589573</v>
       </c>
       <c r="QV2" s="2">
-        <v>-2.99822270443862</v>
+        <v>-0.6708324405764819</v>
       </c>
       <c r="QW2" s="2">
-        <v>-2.96673233654888</v>
+        <v>-0.659818086071876</v>
       </c>
       <c r="QX2" s="2">
-        <v>-2.97923384209908</v>
+        <v>-0.660783719002881</v>
       </c>
       <c r="QY2" s="2">
-        <v>-2.9741277666939</v>
+        <v>-0.662667996639748</v>
       </c>
       <c r="QZ2" s="2">
-        <v>-2.99452130958658</v>
+        <v>-0.672353017554347</v>
       </c>
       <c r="RA2" s="2">
-        <v>-2.99735258272408</v>
+        <v>-0.666197930544162</v>
       </c>
       <c r="RB2" s="2">
-        <v>-2.99180098918307</v>
+        <v>-0.689411929290662</v>
       </c>
       <c r="RC2" s="2">
-        <v>-2.98526367726027</v>
+        <v>-0.674066890363375</v>
       </c>
       <c r="RD2" s="2">
-        <v>-3.00284282003081</v>
+        <v>-0.68070027888375</v>
       </c>
       <c r="RE2" s="2">
-        <v>-3.00431646793487</v>
+        <v>-0.676512853374986</v>
       </c>
       <c r="RF2" s="2">
-        <v>-3.01013118582301</v>
+        <v>-0.706795528372811</v>
       </c>
       <c r="RG2" s="2">
-        <v>-2.98236029397513</v>
+        <v>-0.703356608374501</v>
       </c>
       <c r="RH2" s="2">
-        <v>-3.03206180338174</v>
+        <v>-0.7003385363586619</v>
       </c>
       <c r="RI2" s="2">
-        <v>-3.02181824339297</v>
+        <v>-0.702588066732572</v>
       </c>
       <c r="RJ2" s="2">
-        <v>-3.03924401655396</v>
+        <v>-0.715404995488203</v>
       </c>
       <c r="RK2" s="2">
-        <v>-3.05691085563156</v>
+        <v>-0.719817614411156</v>
       </c>
       <c r="RL2" s="2">
-        <v>-3.02933735818263</v>
+        <v>-0.716177962799491</v>
       </c>
       <c r="RM2" s="2">
-        <v>-3.04434091980878</v>
+        <v>-0.726942326072895</v>
       </c>
       <c r="RN2" s="2">
-        <v>-3.05713746371868</v>
+        <v>-0.7286552191372579</v>
       </c>
       <c r="RO2" s="2">
-        <v>-3.0643798581816</v>
+        <v>-0.743113654304444</v>
       </c>
       <c r="RP2" s="2">
-        <v>-3.05534570623354</v>
+        <v>-0.741759405140165</v>
       </c>
       <c r="RQ2" s="2">
-        <v>-3.08745290211093</v>
+        <v>-0.7467529910212169</v>
       </c>
       <c r="RR2" s="2">
-        <v>-3.0624096593241</v>
+        <v>-0.774000218448343</v>
       </c>
       <c r="RS2" s="2">
-        <v>-3.09077706151444</v>
+        <v>-0.761935295086689</v>
       </c>
       <c r="RT2" s="2">
-        <v>-3.06816591178583</v>
+        <v>-0.750414006977566</v>
       </c>
       <c r="RU2" s="2">
-        <v>-3.09914377847491</v>
+        <v>-0.766753459442081</v>
       </c>
       <c r="RV2" s="2">
-        <v>-3.11584483230629</v>
+        <v>-0.770282420710946</v>
       </c>
       <c r="RW2" s="2">
-        <v>-3.11483170449054</v>
+        <v>-0.779451225319853</v>
       </c>
       <c r="RX2" s="2">
-        <v>-3.11046327845343</v>
+        <v>-0.7953934883642521</v>
       </c>
       <c r="RY2" s="2">
-        <v>-3.12051076227291</v>
+        <v>-0.78971464979252</v>
       </c>
       <c r="RZ2" s="2">
-        <v>-3.1133094232384</v>
+        <v>-0.801666810505694</v>
       </c>
       <c r="SA2" s="2">
-        <v>-3.10958341081129</v>
+        <v>-0.783696686696578</v>
       </c>
       <c r="SB2" s="2">
-        <v>-3.09206393433865</v>
+        <v>-0.803635403090708</v>
       </c>
       <c r="SC2" s="2">
-        <v>-3.10142749241291</v>
+        <v>-0.809354328504298</v>
       </c>
       <c r="SD2" s="2">
-        <v>-3.10139674393267</v>
+        <v>-0.819266438936504</v>
       </c>
       <c r="SE2" s="2">
-        <v>-3.08727199262854</v>
+        <v>-0.8131680732445939</v>
       </c>
       <c r="SF2" s="2">
-        <v>-3.07151250706694</v>
+        <v>-0.822428214155117</v>
       </c>
       <c r="SG2" s="2">
-        <v>-3.09549706711564</v>
+        <v>-0.82191314209253</v>
       </c>
       <c r="SH2" s="2">
-        <v>-3.05566505984514</v>
+        <v>-0.827429176993271</v>
       </c>
       <c r="SI2" s="2">
-        <v>-3.04777411879127</v>
+        <v>-0.824471169661361</v>
       </c>
       <c r="SJ2" s="2">
-        <v>-3.06145945444692</v>
+        <v>-0.818966667758346</v>
       </c>
       <c r="SK2" s="2">
-        <v>-3.02931504129401</v>
+        <v>-0.823949579196016</v>
       </c>
       <c r="SL2" s="2">
-        <v>-3.03228301589984</v>
+        <v>-0.829260012749004</v>
       </c>
       <c r="SM2" s="2">
-        <v>-3.00977666579575</v>
+        <v>-0.83382909735134</v>
       </c>
       <c r="SN2" s="2">
-        <v>-3.01433445094536</v>
+        <v>-0.84284214063172</v>
       </c>
       <c r="SO2" s="2">
-        <v>-2.97474173020394</v>
+        <v>-0.849181639690383</v>
       </c>
       <c r="SP2" s="2">
-        <v>-2.99193218061374</v>
+        <v>-0.831913241621092</v>
       </c>
       <c r="SQ2" s="2">
-        <v>-2.95488376054052</v>
+        <v>-0.856248707617675</v>
       </c>
       <c r="SR2" s="2">
-        <v>-2.95775065757701</v>
+        <v>-0.849558766475455</v>
       </c>
       <c r="SS2" s="2">
-        <v>-2.93117242828009</v>
+        <v>-0.848847425225824</v>
       </c>
       <c r="ST2" s="2">
-        <v>-2.92046651687301</v>
+        <v>-0.851388972641133</v>
       </c>
       <c r="SU2" s="2">
-        <v>-2.89406630003285</v>
+        <v>-0.847482022439887</v>
       </c>
       <c r="SV2" s="2">
-        <v>-2.88272227083141</v>
+        <v>-0.847648622142808</v>
       </c>
       <c r="SW2" s="2">
-        <v>-2.84996370899527</v>
+        <v>-0.842902314998325</v>
       </c>
       <c r="SX2" s="2">
-        <v>-2.85806274196814</v>
+        <v>-0.835450534648826</v>
       </c>
       <c r="SY2" s="2">
-        <v>-2.82160179238192</v>
+        <v>-0.859269253991261</v>
       </c>
       <c r="SZ2" s="2">
-        <v>-2.80637813361501</v>
+        <v>-0.826392670258552</v>
       </c>
       <c r="TA2" s="2">
-        <v>-2.76853763157351</v>
+        <v>-0.83646163118411</v>
       </c>
       <c r="TB2" s="2">
-        <v>-2.76390658460862</v>
+        <v>-0.847922467929652</v>
       </c>
       <c r="TC2" s="2">
-        <v>-2.77043525951841</v>
+        <v>-0.858592392315952</v>
       </c>
       <c r="TD2" s="2">
-        <v>-2.76502942568859</v>
+        <v>-0.834556978005252</v>
       </c>
       <c r="TE2" s="2">
-        <v>-2.71825568247937</v>
+        <v>-0.842002711781654</v>
       </c>
       <c r="TF2" s="2">
-        <v>-2.68564612349212</v>
+        <v>-0.856628580457946</v>
       </c>
       <c r="TG2" s="2">
-        <v>-2.70094214223722</v>
+        <v>-0.833471016164109</v>
       </c>
       <c r="TH2" s="2">
-        <v>-2.69660732201157</v>
+        <v>-0.851734434964745</v>
       </c>
       <c r="TI2" s="2">
-        <v>-2.64999657878352</v>
+        <v>-0.836233366441649</v>
       </c>
       <c r="TJ2" s="2">
-        <v>-2.65078740036355</v>
+        <v>-0.835823488701701</v>
       </c>
       <c r="TK2" s="2">
-        <v>-2.65058282921136</v>
+        <v>-0.824009245968679</v>
       </c>
       <c r="TL2" s="2">
-        <v>-2.61456679007497</v>
+        <v>-0.820058369580592</v>
       </c>
       <c r="TM2" s="2">
-        <v>-2.60675346824996</v>
+        <v>-0.81890593925033</v>
       </c>
       <c r="TN2" s="2">
-        <v>-2.6036481687538</v>
+        <v>-0.839259419187327</v>
       </c>
       <c r="TO2" s="2">
-        <v>-2.59083484389524</v>
+        <v>-0.8163491162833511</v>
       </c>
       <c r="TP2" s="2">
-        <v>-2.54935002644867</v>
+        <v>-0.822839092597368</v>
       </c>
       <c r="TQ2" s="2">
-        <v>-2.54983697747414</v>
+        <v>-0.81564836317551</v>
       </c>
       <c r="TR2" s="2">
-        <v>-2.54255927971128</v>
+        <v>-0.812066340425992</v>
       </c>
       <c r="TS2" s="2">
-        <v>-2.53439860561444</v>
+        <v>-0.810651213792651</v>
       </c>
       <c r="TT2" s="2">
-        <v>-2.54926541049505</v>
+        <v>-0.807498017998298</v>
       </c>
       <c r="TU2" s="2">
-        <v>-2.51594337654168</v>
+        <v>-0.815297170602079</v>
       </c>
       <c r="TV2" s="2">
-        <v>-2.49422026309356</v>
+        <v>-0.807458612683308</v>
       </c>
       <c r="TW2" s="2">
-        <v>-2.50374688889256</v>
+        <v>-0.796073296246141</v>
       </c>
       <c r="TX2" s="2">
-        <v>-2.51598034086342</v>
+        <v>-0.800720991269297</v>
       </c>
       <c r="TY2" s="2">
-        <v>-2.50193064911841</v>
+        <v>-0.795658310219132</v>
       </c>
       <c r="TZ2" s="2">
-        <v>-2.49992656047116</v>
+        <v>-0.788629494445335</v>
       </c>
       <c r="UA2" s="2">
-        <v>-2.48169378510394</v>
+        <v>-0.793223466231206</v>
       </c>
       <c r="UB2" s="2">
-        <v>-2.4760541791584</v>
+        <v>-0.777402192378437</v>
       </c>
       <c r="UC2" s="2">
-        <v>-2.46105677036339</v>
+        <v>-0.778483354955169</v>
       </c>
       <c r="UD2" s="2">
-        <v>-2.45896762632261</v>
+        <v>-0.783293921780322</v>
       </c>
       <c r="UE2" s="2">
-        <v>-2.45941911758216</v>
+        <v>-0.788054809107596</v>
       </c>
       <c r="UF2" s="2">
-        <v>-2.46499203152223</v>
+        <v>-0.777293163244311</v>
       </c>
       <c r="UG2" s="2">
-        <v>-2.46161403481017</v>
+        <v>-0.780266414696912</v>
       </c>
       <c r="UH2" s="2">
-        <v>-2.43868377826947</v>
+        <v>-0.789568666847366</v>
       </c>
       <c r="UI2" s="2">
-        <v>-2.43908417325751</v>
+        <v>-0.7836223395044259</v>
       </c>
       <c r="UJ2" s="2">
-        <v>-2.43342000795004</v>
+        <v>-0.78448319426359</v>
       </c>
       <c r="UK2" s="2">
-        <v>-2.44698440560691</v>
+        <v>-0.786435084059725</v>
       </c>
       <c r="UL2" s="2">
-        <v>-2.44543633405676</v>
+        <v>-0.769344369294542</v>
       </c>
       <c r="UM2" s="2">
-        <v>-2.43406247511989</v>
+        <v>-0.768202139414044</v>
       </c>
       <c r="UN2" s="2">
-        <v>-2.42462428274575</v>
+        <v>-0.777318935812462</v>
       </c>
       <c r="UO2" s="2">
-        <v>-2.43786403191114</v>
+        <v>-0.771996565572906</v>
       </c>
       <c r="UP2" s="2">
-        <v>-2.45536144905738</v>
+        <v>-0.773637962387516</v>
       </c>
       <c r="UQ2" s="2">
-        <v>-2.43210595545544</v>
+        <v>-0.769488193136398</v>
       </c>
       <c r="UR2" s="2">
-        <v>-2.40800307966299</v>
+        <v>-0.773651369546734</v>
       </c>
       <c r="US2" s="2">
-        <v>-2.40804195919708</v>
+        <v>-0.772332928926809</v>
       </c>
       <c r="UT2" s="2">
-        <v>-2.42970973369756</v>
+        <v>-0.778354208492911</v>
       </c>
       <c r="UU2" s="2">
-        <v>-2.44636578894723</v>
+        <v>-0.758385618309697</v>
       </c>
       <c r="UV2" s="2">
-        <v>-2.43474402279267</v>
+        <v>-0.784933640262934</v>
       </c>
       <c r="UW2" s="2">
-        <v>-2.45238116178142</v>
+        <v>-0.774804993913164</v>
       </c>
       <c r="UX2" s="2">
-        <v>-2.44234272258591</v>
+        <v>-0.758729253664679</v>
       </c>
       <c r="UY2" s="2">
-        <v>-2.44875827385525</v>
+        <v>-0.7685784260472081</v>
       </c>
       <c r="UZ2" s="2">
-        <v>-2.44569783612116</v>
+        <v>-0.760240437821306</v>
       </c>
       <c r="VA2" s="2">
-        <v>-2.44892956818406</v>
+        <v>-0.779180981273036</v>
       </c>
       <c r="VB2" s="2">
-        <v>-2.45084661569132</v>
+        <v>-0.783916767175775</v>
       </c>
       <c r="VC2" s="2">
-        <v>-2.48975514991914</v>
+        <v>-0.771212229798929</v>
       </c>
       <c r="VD2" s="2">
-        <v>-2.45392473484571</v>
+        <v>-0.777212675259157</v>
       </c>
       <c r="VE2" s="2">
-        <v>-2.46671786991705</v>
+        <v>-0.7728683921420419</v>
       </c>
       <c r="VF2" s="2">
-        <v>-2.46975511922019</v>
+        <v>-0.782952202985076</v>
       </c>
       <c r="VG2" s="2">
-        <v>-2.48188519306271</v>
+        <v>-0.779455685842288</v>
       </c>
       <c r="VH2" s="2">
-        <v>-2.48666822667622</v>
+        <v>-0.792056298263197</v>
       </c>
       <c r="VI2" s="2">
-        <v>-2.51755521847673</v>
+        <v>-0.790943974509601</v>
       </c>
       <c r="VJ2" s="2">
-        <v>-2.50315445437131</v>
+        <v>-0.770089228040193</v>
       </c>
       <c r="VK2" s="2">
-        <v>-2.48769082134859</v>
+        <v>-0.800237451712312</v>
       </c>
       <c r="VL2" s="2">
-        <v>-2.49689727747139</v>
+        <v>-0.794032940165905</v>
       </c>
       <c r="VM2" s="2">
-        <v>-2.49434375326609</v>
+        <v>-0.781374650104225</v>
       </c>
       <c r="VN2" s="2">
-        <v>-2.53483264163429</v>
+        <v>-0.789772194192536</v>
       </c>
       <c r="VO2" s="2">
-        <v>-2.52787219268224</v>
+        <v>-0.781396902168835</v>
       </c>
       <c r="VP2" s="2">
-        <v>-2.53554962364768</v>
+        <v>-0.793844667781917</v>
       </c>
       <c r="VQ2" s="2">
-        <v>-2.5242037280624</v>
+        <v>-0.798294344275425</v>
       </c>
       <c r="VR2" s="2">
-        <v>-2.51551038805316</v>
+        <v>-0.810063514657233</v>
       </c>
       <c r="VS2" s="2">
-        <v>-2.54582631315557</v>
+        <v>-0.807310663524098</v>
       </c>
       <c r="VT2" s="2">
-        <v>-2.56349901035588</v>
+        <v>-0.797210618103829</v>
       </c>
       <c r="VU2" s="2">
-        <v>-2.59056320363519</v>
+        <v>-0.821443481236152</v>
       </c>
       <c r="VV2" s="2">
-        <v>-2.60458397450821</v>
+        <v>-0.817291780680958</v>
       </c>
       <c r="VW2" s="2">
-        <v>-2.60689956909622</v>
+        <v>-0.809099578186783</v>
       </c>
       <c r="VX2" s="2">
-        <v>-2.60896669222881</v>
+        <v>-0.820068063145253</v>
       </c>
       <c r="VY2" s="2">
-        <v>-2.6240333349815</v>
+        <v>-0.839312472151845</v>
       </c>
       <c r="VZ2" s="2">
-        <v>-2.63047465724457</v>
+        <v>-0.8180745071801681</v>
       </c>
       <c r="WA2" s="2">
-        <v>-2.64961467069881</v>
+        <v>-0.811947844819863</v>
       </c>
       <c r="WB2" s="2">
-        <v>-2.67579489414277</v>
+        <v>-0.833979969875548</v>
       </c>
       <c r="WC2" s="2">
-        <v>-2.66106298084386</v>
+        <v>-0.832434286672259</v>
       </c>
       <c r="WD2" s="2">
-        <v>-2.68249697717406</v>
+        <v>-0.8422452111118111</v>
       </c>
       <c r="WE2" s="2">
-        <v>-2.70439432144856</v>
+        <v>-0.847383502624525</v>
       </c>
       <c r="WF2" s="2">
-        <v>-2.71024198588367</v>
+        <v>-0.844301112547504</v>
       </c>
       <c r="WG2" s="2">
-        <v>-2.69670334468682</v>
+        <v>-0.849145196531919</v>
       </c>
       <c r="WH2" s="2">
-        <v>-2.72146085849942</v>
+        <v>-0.84290332334444</v>
       </c>
       <c r="WI2" s="2">
-        <v>-2.72285980053094</v>
+        <v>-0.834477104518045</v>
       </c>
       <c r="WJ2" s="2">
-        <v>-2.75814819825744</v>
+        <v>-0.847899848975782</v>
       </c>
       <c r="WK2" s="2">
-        <v>-2.7766780871117</v>
+        <v>-0.844208886849683</v>
       </c>
       <c r="WL2" s="2">
-        <v>-2.76789679013459</v>
+        <v>-0.8555960654909019</v>
       </c>
       <c r="WM2" s="2">
-        <v>-2.77792728684386</v>
+        <v>-0.8560991849456649</v>
       </c>
       <c r="WN2" s="2">
-        <v>-2.81494831808556</v>
+        <v>-0.857936973420665</v>
       </c>
       <c r="WO2" s="2">
-        <v>-2.79948058664202</v>
+        <v>-0.856747266591978</v>
       </c>
       <c r="WP2" s="2">
-        <v>-2.82116276573855</v>
+        <v>-0.864565027363956</v>
       </c>
       <c r="WQ2" s="2">
-        <v>-2.82240872655517</v>
+        <v>-0.86647709279383</v>
       </c>
       <c r="WR2" s="2">
-        <v>-2.8793951166571</v>
+        <v>-0.86379458569431</v>
       </c>
       <c r="WS2" s="2">
-        <v>-2.8691494972277</v>
+        <v>-0.865811604169123</v>
       </c>
       <c r="WT2" s="2">
-        <v>-2.89239487851693</v>
+        <v>-0.866069880333135</v>
       </c>
       <c r="WU2" s="2">
-        <v>-2.90800194930253</v>
+        <v>-0.8728345571923189</v>
       </c>
       <c r="WV2" s="2">
-        <v>-2.92077802439317</v>
+        <v>-0.8659706686584721</v>
       </c>
       <c r="WW2" s="2">
-        <v>-2.93499858629697</v>
+        <v>-0.867398599101617</v>
       </c>
       <c r="WX2" s="2">
-        <v>-2.94048624719021</v>
+        <v>-0.860261692460292</v>
       </c>
       <c r="WY2" s="2">
-        <v>-2.96761229737904</v>
+        <v>-0.867527632774152</v>
       </c>
       <c r="WZ2" s="2">
-        <v>-2.96519987320234</v>
+        <v>-0.877072985281998</v>
       </c>
       <c r="XA2" s="2">
-        <v>-2.98215135749726</v>
+        <v>-0.87496197002552</v>
       </c>
       <c r="XB2" s="2">
-        <v>-3.00149788539065</v>
+        <v>-0.880784967593689</v>
       </c>
       <c r="XC2" s="2">
-        <v>-2.9916762639154</v>
+        <v>-0.874667216158991</v>
       </c>
       <c r="XD2" s="2">
-        <v>-3.01925963183598</v>
+        <v>-0.871959922303607</v>
       </c>
       <c r="XE2" s="2">
-        <v>-3.00357998906064</v>
+        <v>-0.873585795873503</v>
       </c>
       <c r="XF2" s="2">
-        <v>-3.01708998255368</v>
+        <v>-0.877517316893806</v>
       </c>
       <c r="XG2" s="2">
-        <v>-3.04835808543291</v>
+        <v>-0.864772742030626</v>
       </c>
       <c r="XH2" s="2">
-        <v>-3.06960829569607</v>
+        <v>-0.882435292013163</v>
       </c>
       <c r="XI2" s="2">
-        <v>-3.07637231225429</v>
+        <v>-0.86662111846534</v>
       </c>
       <c r="XJ2" s="2">
-        <v>-3.0590962144259</v>
+        <v>-0.86338367310177</v>
       </c>
       <c r="XK2" s="2">
-        <v>-3.05939674501704</v>
+        <v>-0.868077601804825</v>
       </c>
       <c r="XL2" s="2">
-        <v>-3.07892863591205</v>
+        <v>-0.875738200868891</v>
       </c>
       <c r="XM2" s="2">
-        <v>-3.06723661092746</v>
+        <v>-0.863658185430806</v>
       </c>
       <c r="XN2" s="2">
-        <v>-3.06366381395328</v>
+        <v>-0.878601612018547</v>
       </c>
       <c r="XO2" s="2">
-        <v>-3.07715608904783</v>
+        <v>-0.861910303142493</v>
       </c>
       <c r="XP2" s="2">
-        <v>-3.06244172244172</v>
+        <v>-0.8732709614709</v>
       </c>
       <c r="XQ2" s="2">
-        <v>-3.07473148202397</v>
+        <v>-0.876756557378</v>
       </c>
       <c r="XR2" s="2">
-        <v>-3.05788390616651</v>
+        <v>-0.8627023060295</v>
       </c>
       <c r="XS2" s="2">
-        <v>-3.0560105852891</v>
+        <v>-0.884301462628702</v>
       </c>
       <c r="XT2" s="2">
-        <v>-3.08206960575492</v>
+        <v>-0.857944003557618</v>
       </c>
       <c r="XU2" s="2">
-        <v>-3.05347505110964</v>
+        <v>-0.870592972665536</v>
       </c>
       <c r="XV2" s="2">
-        <v>-3.06687291326717</v>
+        <v>-0.869296768621762</v>
       </c>
       <c r="XW2" s="2">
-        <v>-3.02055987837271</v>
+        <v>-0.862130804513728</v>
       </c>
       <c r="XX2" s="2">
-        <v>-3.02450248302202</v>
+        <v>-0.861263804612358</v>
       </c>
       <c r="XY2" s="2">
-        <v>-3.01165167071694</v>
+        <v>-0.873440531612156</v>
       </c>
       <c r="XZ2" s="2">
-        <v>-3.02997590390114</v>
+        <v>-0.861963955878162</v>
       </c>
       <c r="YA2" s="2">
-        <v>-3.01386962499766</v>
+        <v>-0.862190004481421</v>
       </c>
       <c r="YB2" s="2">
-        <v>-2.98028984684859</v>
+        <v>-0.852255974490024</v>
       </c>
       <c r="YC2" s="2">
-        <v>-2.98084014398148</v>
+        <v>-0.856969507889413</v>
       </c>
       <c r="YD2" s="2">
-        <v>-2.9962975610711</v>
+        <v>-0.862122035188396</v>
       </c>
       <c r="YE2" s="2">
-        <v>-2.96777844922746</v>
+        <v>-0.8693259666191701</v>
       </c>
       <c r="YF2" s="2">
-        <v>-2.96218928330267</v>
+        <v>-0.868236567035131</v>
       </c>
       <c r="YG2" s="2">
-        <v>-2.95810756816197</v>
+        <v>-0.858694344109479</v>
       </c>
       <c r="YH2" s="2">
-        <v>-2.92273931682</v>
+        <v>-0.857707798919828</v>
       </c>
       <c r="YI2" s="2">
-        <v>-2.92843077670522</v>
+        <v>-0.859934241670661</v>
       </c>
       <c r="YJ2" s="2">
-        <v>-2.91140906902375</v>
+        <v>-0.867679308122588</v>
       </c>
       <c r="YK2" s="2">
-        <v>-2.88902997327458</v>
+        <v>-0.8616416054562041</v>
       </c>
       <c r="YL2" s="2">
-        <v>-2.8882846313981</v>
+        <v>-0.864964364310749</v>
       </c>
       <c r="YM2" s="2">
-        <v>-2.86675755095041</v>
+        <v>-0.867553100429322</v>
       </c>
       <c r="YN2" s="2">
-        <v>-2.84469679478211</v>
+        <v>-0.8605424188615181</v>
       </c>
       <c r="YO2" s="2">
-        <v>-2.86839995969117</v>
+        <v>-0.866268213483841</v>
       </c>
       <c r="YP2" s="2">
-        <v>-2.84041652690474</v>
+        <v>-0.880988640678447</v>
       </c>
       <c r="YQ2" s="2">
-        <v>-2.80356558024485</v>
+        <v>-0.871504075480112</v>
       </c>
       <c r="YR2" s="2">
-        <v>-2.81194214866516</v>
+        <v>-0.867115115252665</v>
       </c>
       <c r="YS2" s="2">
-        <v>-2.83451259390544</v>
+        <v>-0.864789790381581</v>
       </c>
       <c r="YT2" s="2">
-        <v>-2.78879138155771</v>
+        <v>-0.866035553442978</v>
       </c>
       <c r="YU2" s="2">
-        <v>-2.78746551129775</v>
+        <v>-0.8778842322379919</v>
       </c>
       <c r="YV2" s="2">
-        <v>-2.78134677616661</v>
+        <v>-0.869374871331386</v>
       </c>
       <c r="YW2" s="2">
-        <v>-2.75289927050742</v>
+        <v>-0.871309874371525</v>
       </c>
       <c r="YX2" s="2">
-        <v>-2.77937239395484</v>
+        <v>-0.872183331809231</v>
       </c>
       <c r="YY2" s="2">
-        <v>-2.71258495607275</v>
+        <v>-0.871158045307792</v>
       </c>
       <c r="YZ2" s="2">
-        <v>-2.74063828336588</v>
+        <v>-0.874144631026509</v>
       </c>
       <c r="ZA2" s="2">
-        <v>-2.72963285221059</v>
+        <v>-0.883019479290993</v>
       </c>
       <c r="ZB2" s="2">
-        <v>-2.74123046220316</v>
+        <v>-0.8794135495048599</v>
       </c>
       <c r="ZC2" s="2">
-        <v>-2.72578228829545</v>
+        <v>-0.882710790877583</v>
       </c>
       <c r="ZD2" s="2">
-        <v>-2.69888851236871</v>
+        <v>-0.8875392597705269</v>
       </c>
       <c r="ZE2" s="2">
-        <v>-2.70217713160725</v>
+        <v>-0.884385332695227</v>
       </c>
       <c r="ZF2" s="2">
-        <v>-2.71363313300854</v>
+        <v>-0.894511353022831</v>
       </c>
       <c r="ZG2" s="2">
-        <v>-2.68231979493525</v>
+        <v>-0.894626315526779</v>
       </c>
       <c r="ZH2" s="2">
-        <v>-2.70377375648074</v>
+        <v>-0.893737188867754</v>
       </c>
       <c r="ZI2" s="2">
-        <v>-2.67993375712001</v>
+        <v>-0.895595559124885</v>
       </c>
       <c r="ZJ2" s="2">
-        <v>-2.69673995522755</v>
+        <v>-0.898874754230009</v>
       </c>
       <c r="ZK2" s="2">
-        <v>-2.67649872427049</v>
+        <v>-0.887707195197166</v>
       </c>
       <c r="ZL2" s="2">
-        <v>-2.66017384850215</v>
+        <v>-0.8991699385726309</v>
       </c>
       <c r="ZM2" s="2">
-        <v>-2.67236720009969</v>
+        <v>-0.902379427385511</v>
       </c>
       <c r="ZN2" s="2">
-        <v>-2.65407831479526</v>
+        <v>-0.90886124307446</v>
       </c>
       <c r="ZO2" s="2">
-        <v>-2.64398665541094</v>
+        <v>-0.915563769139312</v>
       </c>
       <c r="ZP2" s="2">
-        <v>-2.63965899902794</v>
+        <v>-0.905792951765225</v>
       </c>
       <c r="ZQ2" s="2">
-        <v>-2.63566918593209</v>
+        <v>-0.919066466757282</v>
       </c>
       <c r="ZR2" s="2">
-        <v>-2.6370545285505</v>
+        <v>-0.915240289168701</v>
       </c>
       <c r="ZS2" s="2">
-        <v>-2.62708388923895</v>
+        <v>-0.914530391196964</v>
       </c>
       <c r="ZT2" s="2">
-        <v>-2.6195711764065</v>
+        <v>-0.922840375854576</v>
       </c>
       <c r="ZU2" s="2">
-        <v>-2.65041929777415</v>
+        <v>-0.923281147642335</v>
       </c>
       <c r="ZV2" s="2">
-        <v>-2.63351480577025</v>
+        <v>-0.913377174538738</v>
       </c>
       <c r="ZW2" s="2">
-        <v>-2.63861126107674</v>
+        <v>-0.900987546785449</v>
       </c>
       <c r="ZX2" s="2">
-        <v>-2.64283710225574</v>
+        <v>-0.925469662325873</v>
       </c>
       <c r="ZY2" s="2">
-        <v>-2.6218464683183</v>
+        <v>-0.943998974256992</v>
       </c>
       <c r="ZZ2" s="2">
-        <v>-2.61604765687121</v>
+        <v>-0.939000998709578</v>
       </c>
       <c r="AAA2" s="2">
-        <v>-2.6076823378279</v>
+        <v>-0.9363601928967979</v>
       </c>
       <c r="AAB2" s="2">
-        <v>-2.60772377272338</v>
+        <v>-0.919517874353497</v>
       </c>
       <c r="AAC2" s="2">
-        <v>-2.60106147130617</v>
+        <v>-0.9397455828757439</v>
       </c>
       <c r="AAD2" s="2">
-        <v>-2.58451999502472</v>
+        <v>-0.928443774593437</v>
       </c>
       <c r="AAE2" s="2">
-        <v>-2.57986417142018</v>
+        <v>-0.920960549221009</v>
       </c>
       <c r="AAF2" s="2">
-        <v>-2.58566390017</v>
+        <v>-0.9330858081580869</v>
       </c>
       <c r="AAG2" s="2">
-        <v>-2.58237588382427</v>
+        <v>-0.941043244937975</v>
       </c>
       <c r="AAH2" s="2">
-        <v>-2.56265116946009</v>
+        <v>-0.94201635564936</v>
       </c>
       <c r="AAI2" s="2">
-        <v>-2.55625271951042</v>
+        <v>-0.933197282623938</v>
       </c>
       <c r="AAJ2" s="2">
-        <v>-2.57671732292292</v>
+        <v>-0.928823882118511</v>
       </c>
       <c r="AAK2" s="2">
-        <v>-2.55696785336729</v>
+        <v>-0.932822936127658</v>
       </c>
       <c r="AAL2" s="2">
-        <v>-2.55901708508734</v>
+        <v>-0.9346190981008859</v>
       </c>
       <c r="AAM2" s="2">
-        <v>-2.57376888450084</v>
+        <v>-0.941190279647027</v>
       </c>
       <c r="AAN2" s="2">
-        <v>-2.55044370683903</v>
+        <v>-0.941535697745525</v>
       </c>
       <c r="AAO2" s="2">
-        <v>-2.5466575372824</v>
+        <v>-0.932530488454415</v>
       </c>
       <c r="AAP2" s="2">
-        <v>-2.55866083170728</v>
+        <v>-0.92978473300463</v>
       </c>
       <c r="AAQ2" s="2">
-        <v>-2.54039743115856</v>
+        <v>-0.919399065652646</v>
       </c>
       <c r="AAR2" s="2">
-        <v>-2.54283521192114</v>
+        <v>-0.934523853845145</v>
       </c>
       <c r="AAS2" s="2">
-        <v>-2.53930330637576</v>
+        <v>-0.940557337862465</v>
       </c>
       <c r="AAT2" s="2">
-        <v>-2.5386280115899</v>
+        <v>-0.9200130469678101</v>
       </c>
       <c r="AAU2" s="2">
-        <v>-2.55151808850573</v>
+        <v>-0.921464724247929</v>
       </c>
       <c r="AAV2" s="2">
-        <v>-2.52016024102691</v>
+        <v>-0.904295193192713</v>
       </c>
       <c r="AAW2" s="2">
-        <v>-2.51227494282588</v>
+        <v>-0.941025170431796</v>
       </c>
       <c r="AAX2" s="2">
-        <v>-2.54343678869257</v>
+        <v>-0.923212283463882</v>
       </c>
       <c r="AAY2" s="2">
-        <v>-2.50579200163902</v>
+        <v>-0.926824942094331</v>
       </c>
       <c r="AAZ2" s="2">
-        <v>-2.50333237676009</v>
+        <v>-0.897138023869501</v>
       </c>
       <c r="ABA2" s="2">
-        <v>-2.50597402728205</v>
+        <v>-0.907793298235214</v>
       </c>
       <c r="ABB2" s="2">
-        <v>-2.51168694550626</v>
+        <v>-0.916270539217062</v>
       </c>
       <c r="ABC2" s="2">
-        <v>-2.5031507612253</v>
+        <v>-0.922910062143931</v>
       </c>
       <c r="ABD2" s="2">
-        <v>-2.49823255841343</v>
+        <v>-0.914704374272396</v>
       </c>
       <c r="ABE2" s="2">
-        <v>-2.49890599123443</v>
+        <v>-0.9211839843606771</v>
       </c>
       <c r="ABF2" s="2">
-        <v>-2.49273608066106</v>
+        <v>-0.910843381333088</v>
       </c>
       <c r="ABG2" s="2">
-        <v>-2.49547665628099</v>
+        <v>-0.921846035366976</v>
       </c>
       <c r="ABH2" s="2">
-        <v>-2.47654745864934</v>
+        <v>-0.904898547049243</v>
       </c>
       <c r="ABI2" s="2">
-        <v>-2.4923366792253</v>
+        <v>-0.920924058118231</v>
       </c>
       <c r="ABJ2" s="2">
-        <v>-2.48733248982798</v>
+        <v>-0.911634145384284</v>
       </c>
       <c r="ABK2" s="2">
-        <v>-2.4745472524196</v>
+        <v>-0.9156068061677</v>
       </c>
       <c r="ABL2" s="2">
-        <v>-2.46482364756226</v>
+        <v>-0.919734289041773</v>
       </c>
       <c r="ABM2" s="2">
-        <v>-2.47956271051101</v>
+        <v>-0.899848442565725</v>
       </c>
       <c r="ABN2" s="2">
-        <v>-2.4552638662278</v>
+        <v>-0.917605730586788</v>
       </c>
       <c r="ABO2" s="2">
-        <v>-2.44827556170393</v>
+        <v>-0.907328408681633</v>
       </c>
       <c r="ABP2" s="2">
-        <v>-2.46306342393584</v>
+        <v>-0.91803214627187</v>
       </c>
       <c r="ABQ2" s="2">
-        <v>-2.44077442852384</v>
+        <v>-0.901956683539459</v>
       </c>
       <c r="ABR2" s="2">
-        <v>-2.43907030218842</v>
+        <v>-0.908696608197506</v>
       </c>
       <c r="ABS2" s="2">
-        <v>-2.44864742539976</v>
+        <v>-0.893723940352154</v>
       </c>
       <c r="ABT2" s="2">
-        <v>-2.42744017621709</v>
+        <v>-0.906284725435585</v>
       </c>
       <c r="ABU2" s="2">
-        <v>-2.44481090850566</v>
+        <v>-0.9019023369645049</v>
       </c>
       <c r="ABV2" s="2">
-        <v>-2.42840151644358</v>
+        <v>-0.91204268185683</v>
       </c>
       <c r="ABW2" s="2">
-        <v>-2.42899906352022</v>
+        <v>-0.902012676075797</v>
       </c>
       <c r="ABX2" s="2">
-        <v>-2.45310071925113</v>
+        <v>-0.907037083126397</v>
       </c>
       <c r="ABY2" s="2">
-        <v>-2.4360831264103</v>
+        <v>-0.900702535166451</v>
       </c>
       <c r="ABZ2" s="2">
-        <v>-2.44895832937752</v>
+        <v>-0.909246579168934</v>
       </c>
       <c r="ACA2" s="2">
-        <v>-2.42968699660259</v>
+        <v>-0.8993260407514601</v>
       </c>
       <c r="ACB2" s="2">
-        <v>-2.44832449986606</v>
+        <v>-0.907445355461494</v>
       </c>
       <c r="ACC2" s="2">
-        <v>-2.44282042823185</v>
+        <v>-0.898861794468795</v>
       </c>
       <c r="ACD2" s="2">
-        <v>-2.43398681612506</v>
+        <v>-0.897927322554144</v>
       </c>
       <c r="ACE2" s="2">
-        <v>-2.45416126350687</v>
+        <v>-0.902533160188701</v>
       </c>
       <c r="ACF2" s="2">
-        <v>-2.44343430101184</v>
+        <v>-0.916104844691911</v>
       </c>
       <c r="ACG2" s="2">
-        <v>-2.44743985258599</v>
+        <v>-0.910490122651744</v>
       </c>
       <c r="ACH2" s="2">
-        <v>-2.44589218563213</v>
+        <v>-0.912896399991561</v>
       </c>
       <c r="ACI2" s="2">
-        <v>-2.42906052212859</v>
+        <v>-0.920581780253236</v>
       </c>
       <c r="ACJ2" s="2">
-        <v>-2.43726266707277</v>
+        <v>-0.910011047770282</v>
       </c>
       <c r="ACK2" s="2">
-        <v>-2.41951816858827</v>
+        <v>-0.91812687961252</v>
       </c>
       <c r="ACL2" s="2">
-        <v>-2.4453837845605</v>
+        <v>-0.929418686510819</v>
       </c>
       <c r="ACM2" s="2">
-        <v>-2.4527349355564</v>
+        <v>-0.920712363953638</v>
       </c>
       <c r="ACN2" s="2">
-        <v>-2.44661622385708</v>
+        <v>-0.936023010549373</v>
       </c>
       <c r="ACO2" s="2">
-        <v>-2.43108107686481</v>
+        <v>-0.932670928889999</v>
       </c>
       <c r="ACP2" s="2">
-        <v>-2.41872727189387</v>
+        <v>-0.930775175395864</v>
       </c>
       <c r="ACQ2" s="2">
-        <v>-2.43077292613732</v>
+        <v>-0.939723631651438</v>
       </c>
       <c r="ACR2" s="2">
-        <v>-2.43218367875592</v>
+        <v>-0.936641473768011</v>
       </c>
       <c r="ACS2" s="2">
-        <v>-2.43762468746784</v>
+        <v>-0.939304273950441</v>
       </c>
       <c r="ACT2" s="2">
-        <v>-2.44957499791018</v>
+        <v>-0.93521349827219</v>
       </c>
       <c r="ACU2" s="2">
-        <v>-2.4592315552452</v>
+        <v>-0.9492228014727661</v>
       </c>
       <c r="ACV2" s="2">
-        <v>-2.40705365457857</v>
+        <v>-0.959788614027612</v>
       </c>
       <c r="ACW2" s="2">
-        <v>-2.41697971230351</v>
+        <v>-0.965136460958623</v>
       </c>
       <c r="ACX2" s="2">
-        <v>-2.44936221552493</v>
+        <v>-0.972235012746717</v>
       </c>
       <c r="ACY2" s="2">
-        <v>-2.42567618842431</v>
+        <v>-0.96718329323985</v>
       </c>
       <c r="ACZ2" s="2">
-        <v>-2.41508381249226</v>
+        <v>-0.977279237764959</v>
       </c>
       <c r="ADA2" s="2">
-        <v>-2.4400209220411</v>
+        <v>-0.982718124593701</v>
       </c>
       <c r="ADB2" s="2">
-        <v>-2.45136510454647</v>
+        <v>-0.988143124110513</v>
       </c>
       <c r="ADC2" s="2">
-        <v>-2.46894385747387</v>
+        <v>-0.99967642025526</v>
       </c>
       <c r="ADD2" s="2">
-        <v>-2.43362678291311</v>
+        <v>-0.995524224481272</v>
       </c>
       <c r="ADE2" s="2">
-        <v>-2.44564176584425</v>
+        <v>-0.994328830012802</v>
       </c>
       <c r="ADF2" s="2">
-        <v>-2.43791274244441</v>
+        <v>-1.00122342310291</v>
       </c>
       <c r="ADG2" s="2">
-        <v>-2.43810703996133</v>
+        <v>-1.00906517357094</v>
       </c>
       <c r="ADH2" s="2">
-        <v>-2.45210556465579</v>
+        <v>-1.01318700929494</v>
       </c>
       <c r="ADI2" s="2">
-        <v>-2.44002611498145</v>
+        <v>-1.02183702489949</v>
       </c>
       <c r="ADJ2" s="2">
-        <v>-2.44268627463931</v>
+        <v>-1.03216319048692</v>
       </c>
       <c r="ADK2" s="2">
-        <v>-2.45963492048096</v>
+        <v>-1.03046006540243</v>
       </c>
       <c r="ADL2" s="2">
-        <v>-2.41748688403295</v>
+        <v>-1.03126503659456</v>
       </c>
       <c r="ADM2" s="2">
-        <v>-2.45203484415652</v>
+        <v>-1.03953161110497</v>
       </c>
       <c r="ADN2" s="2">
-        <v>-2.46985072050329</v>
+        <v>-1.05295418651413</v>
       </c>
       <c r="ADO2" s="2">
-        <v>-2.43309261901586</v>
+        <v>-1.04409924273897</v>
       </c>
       <c r="ADP2" s="2">
-        <v>-2.44044869101754</v>
+        <v>-1.0638667814711</v>
       </c>
       <c r="ADQ2" s="2">
-        <v>-2.43324789896665</v>
+        <v>-1.04538329966678</v>
       </c>
       <c r="ADR2" s="2">
-        <v>-2.43514363999394</v>
+        <v>-1.07354111924114</v>
       </c>
       <c r="ADS2" s="2">
-        <v>-2.44958180659559</v>
+        <v>-1.08542198536389</v>
       </c>
       <c r="ADT2" s="2">
-        <v>-2.44141770081115</v>
+        <v>-1.07916963141425</v>
       </c>
       <c r="ADU2" s="2">
-        <v>-2.43512296567998</v>
+        <v>-1.0946857771892</v>
       </c>
       <c r="ADV2" s="2">
-        <v>-2.44865138782785</v>
+        <v>-1.07431122131017</v>
       </c>
       <c r="ADW2" s="2">
-        <v>-2.4408680390933</v>
+        <v>-1.09137090082477</v>
       </c>
       <c r="ADX2" s="2">
-        <v>-2.43688438677075</v>
+        <v>-1.07243155587574</v>
       </c>
       <c r="ADY2" s="2">
-        <v>-2.42142585232401</v>
+        <v>-1.08869968642208</v>
       </c>
       <c r="ADZ2" s="2">
-        <v>-2.44274971640769</v>
+        <v>-1.08561429217965</v>
       </c>
       <c r="AEA2" s="2">
-        <v>-2.42853118409506</v>
+        <v>-1.09790376230763</v>
       </c>
       <c r="AEB2" s="2">
-        <v>-2.42506395421612</v>
+        <v>-1.10313610992073</v>
       </c>
       <c r="AEC2" s="2">
-        <v>-2.4008867589142</v>
+        <v>-1.11173268921876</v>
       </c>
       <c r="AED2" s="2">
-        <v>-2.41979161891284</v>
+        <v>-1.11853736601176</v>
       </c>
       <c r="AEE2" s="2">
-        <v>-2.39674196617754</v>
+        <v>-1.10670011142666</v>
       </c>
       <c r="AEF2" s="2">
-        <v>-2.40569794458775</v>
+        <v>-1.10623627070639</v>
       </c>
       <c r="AEG2" s="2">
-        <v>-2.42067338471095</v>
+        <v>-1.12215496694664</v>
       </c>
       <c r="AEH2" s="2">
-        <v>-2.40751824380122</v>
+        <v>-1.13219328853836</v>
       </c>
       <c r="AEI2" s="2">
-        <v>-2.38653664699232</v>
+        <v>-1.12393635603938</v>
       </c>
       <c r="AEJ2" s="2">
-        <v>-2.39778473485656</v>
+        <v>-1.11908794718731</v>
       </c>
       <c r="AEK2" s="2">
-        <v>-2.38306810277818</v>
+        <v>-1.11921444839374</v>
       </c>
       <c r="AEL2" s="2">
-        <v>-2.37495827963943</v>
+        <v>-1.11379869209245</v>
       </c>
       <c r="AEM2" s="2">
-        <v>-2.36809781857955</v>
+        <v>-1.11560799613488</v>
       </c>
       <c r="AEN2" s="2">
-        <v>-2.35373217836259</v>
+        <v>-1.11570918474085</v>
       </c>
       <c r="AEO2" s="2">
-        <v>-2.36638157821801</v>
+        <v>-1.12788957043988</v>
       </c>
       <c r="AEP2" s="2">
-        <v>-2.34309932249012</v>
+        <v>-1.10911209211888</v>
       </c>
       <c r="AEQ2" s="2">
-        <v>-2.33150627433259</v>
+        <v>-1.12177791652904</v>
       </c>
       <c r="AER2" s="2">
-        <v>-2.36316279258569</v>
+        <v>-1.11247759015584</v>
       </c>
       <c r="AES2" s="2">
-        <v>-2.36133571242262</v>
+        <v>-1.09316296419</v>
       </c>
       <c r="AET2" s="2">
-        <v>-2.34906877625858</v>
+        <v>-1.10419966014611</v>
       </c>
       <c r="AEU2" s="2">
-        <v>-2.34533488308214</v>
+        <v>-1.11577596083652</v>
       </c>
       <c r="AEV2" s="2">
-        <v>-2.32949833381403</v>
+        <v>-1.09538503122517</v>
       </c>
       <c r="AEW2" s="2">
-        <v>-2.32523183524086</v>
+        <v>-1.10532040451049</v>
       </c>
       <c r="AEX2" s="2">
-        <v>-2.31041716770099</v>
+        <v>-1.09078622142579</v>
       </c>
       <c r="AEY2" s="2">
-        <v>-2.33233514921126</v>
+        <v>-1.08905972126475</v>
       </c>
       <c r="AEZ2" s="2">
-        <v>-2.32194546876924</v>
+        <v>-1.09296064775204</v>
       </c>
       <c r="AFA2" s="2">
-        <v>-2.31205937946153</v>
+        <v>-1.08134972124872</v>
       </c>
       <c r="AFB2" s="2">
-        <v>-2.32254866815497</v>
+        <v>-1.09430137456182</v>
       </c>
       <c r="AFC2" s="2">
-        <v>-2.29509640717733</v>
+        <v>-1.0810945676166</v>
       </c>
       <c r="AFD2" s="2">
-        <v>-2.28600182219584</v>
+        <v>-1.07560427185421</v>
       </c>
       <c r="AFE2" s="2">
-        <v>-2.2724804993302</v>
+        <v>-1.07192865620482</v>
       </c>
       <c r="AFF2" s="2">
-        <v>-2.26406041600745</v>
+        <v>-1.07319844275889</v>
       </c>
       <c r="AFG2" s="2">
-        <v>-2.26535030366546</v>
+        <v>-1.07877116608806</v>
       </c>
       <c r="AFH2" s="2">
-        <v>-2.26886817317512</v>
+        <v>-1.06086828941978</v>
       </c>
       <c r="AFI2" s="2">
-        <v>-2.25394428885397</v>
+        <v>-1.06864980889769</v>
       </c>
       <c r="AFJ2" s="2">
-        <v>-2.27888183930438</v>
+        <v>-1.05075072269529</v>
       </c>
       <c r="AFK2" s="2">
-        <v>-2.25453862066361</v>
+        <v>-1.040071571854</v>
       </c>
       <c r="AFL2" s="2">
-        <v>-2.23513669474069</v>
+        <v>-1.04334866457879</v>
       </c>
       <c r="AFM2" s="2">
-        <v>-2.24312025577801</v>
+        <v>-1.04436343277091</v>
       </c>
       <c r="AFN2" s="2">
-        <v>-2.23383627881315</v>
+        <v>-1.04593093498095</v>
       </c>
       <c r="AFO2" s="2">
-        <v>-2.23016683865519</v>
+        <v>-1.04259326730876</v>
       </c>
       <c r="AFP2" s="2">
-        <v>-2.23569958478006</v>
+        <v>-1.04116629518516</v>
       </c>
       <c r="AFQ2" s="2">
-        <v>-2.22190860045407</v>
+        <v>-1.02482382015694</v>
       </c>
       <c r="AFR2" s="2">
-        <v>-2.22648128081974</v>
+        <v>-1.02442048231183</v>
       </c>
       <c r="AFS2" s="2">
-        <v>-2.2023394415289</v>
+        <v>-1.02793570866517</v>
       </c>
       <c r="AFT2" s="2">
-        <v>-2.21866072791381</v>
+        <v>-1.01782577763842</v>
       </c>
       <c r="AFU2" s="2">
-        <v>-2.21477941081241</v>
+        <v>-1.01492022167186</v>
       </c>
       <c r="AFV2" s="2">
-        <v>-2.20875828822215</v>
+        <v>-1.01390189923854</v>
       </c>
       <c r="AFW2" s="2">
-        <v>-2.20776396945479</v>
+        <v>-0.99729197872181</v>
       </c>
       <c r="AFX2" s="2">
-        <v>-2.21288675022432</v>
+        <v>-1.00208333150535</v>
       </c>
       <c r="AFY2" s="2">
-        <v>-2.19314360516019</v>
+        <v>-1.00425628401267</v>
       </c>
       <c r="AFZ2" s="2">
-        <v>-2.19179882645009</v>
+        <v>-0.995035476518192</v>
       </c>
       <c r="AGA2" s="2">
-        <v>-2.21144650878343</v>
+        <v>-1.01462455106716</v>
       </c>
       <c r="AGB2" s="2">
-        <v>-2.19181038185353</v>
+        <v>-1.00331396388897</v>
       </c>
       <c r="AGC2" s="2">
-        <v>-2.18427710480412</v>
+        <v>-0.991347141861656</v>
       </c>
       <c r="AGD2" s="2">
-        <v>-2.19126546681283</v>
+        <v>-1.0045662995926</v>
       </c>
       <c r="AGE2" s="2">
-        <v>-2.16235327461832</v>
+        <v>-0.999568234927819</v>
       </c>
       <c r="AGF2" s="2">
-        <v>-2.17465791322891</v>
+        <v>-1.00680122785547</v>
       </c>
       <c r="AGG2" s="2">
-        <v>-2.17769559950427</v>
+        <v>-1.00522259478202</v>
       </c>
       <c r="AGH2" s="2">
-        <v>-2.17480887723966</v>
+        <v>-0.99202526960947</v>
       </c>
       <c r="AGI2" s="2">
-        <v>-2.1560483481603</v>
+        <v>-1.00057482047691</v>
       </c>
       <c r="AGJ2" s="2">
-        <v>-2.15260774508074</v>
+        <v>-0.9837638463848219</v>
       </c>
       <c r="AGK2" s="2">
-        <v>-2.14318339744327</v>
+        <v>-1.00747129593388</v>
       </c>
       <c r="AGL2" s="2">
-        <v>-2.14670672991447</v>
+        <v>-1.00339727148212</v>
       </c>
       <c r="AGM2" s="2">
-        <v>-2.13741465239094</v>
+        <v>-1.00898683803379</v>
       </c>
       <c r="AGN2" s="2">
-        <v>-2.13538198425319</v>
+        <v>-1.01603051344124</v>
       </c>
       <c r="AGO2" s="2">
-        <v>-2.12553456497996</v>
+        <v>-1.00284764279275</v>
       </c>
       <c r="AGP2" s="2">
-        <v>-2.16475949538991</v>
+        <v>-1.01910985510315</v>
       </c>
       <c r="AGQ2" s="2">
-        <v>-2.1389602795233</v>
+        <v>-1.0170348295199</v>
       </c>
       <c r="AGR2" s="2">
-        <v>-2.14727437489917</v>
+        <v>-1.02191772098264</v>
       </c>
       <c r="AGS2" s="2">
-        <v>-2.12830295959673</v>
+        <v>-1.02828396413912</v>
       </c>
       <c r="AGT2" s="2">
-        <v>-2.11911432534574</v>
+        <v>-1.02927110045904</v>
       </c>
       <c r="AGU2" s="2">
-        <v>-2.1350206774674</v>
+        <v>-1.03031783868892</v>
       </c>
       <c r="AGV2" s="2">
-        <v>-2.15070031504984</v>
+        <v>-1.04332126569804</v>
       </c>
       <c r="AGW2" s="2">
-        <v>-2.1485946852417</v>
+        <v>-1.03863670933801</v>
       </c>
       <c r="AGX2" s="2">
-        <v>-2.14131829777989</v>
+        <v>-1.05583324090252</v>
       </c>
       <c r="AGY2" s="2">
-        <v>-2.13840243049731</v>
+        <v>-1.06282631823144</v>
       </c>
       <c r="AGZ2" s="2">
-        <v>-2.14815799819976</v>
+        <v>-1.0606365345087</v>
       </c>
       <c r="AHA2" s="2">
-        <v>-2.13709608969616</v>
+        <v>-1.06888381455762</v>
       </c>
       <c r="AHB2" s="2">
-        <v>-2.14816186157512</v>
+        <v>-1.08713149796987</v>
       </c>
       <c r="AHC2" s="2">
-        <v>-2.10224374367916</v>
+        <v>-1.08074990730574</v>
       </c>
       <c r="AHD2" s="2">
-        <v>-2.12791597144928</v>
+        <v>-1.09525594521016</v>
       </c>
       <c r="AHE2" s="2">
-        <v>-2.12961956492779</v>
+        <v>-1.09873290584325</v>
       </c>
       <c r="AHF2" s="2">
-        <v>-2.14124896813015</v>
+        <v>-1.10799882556644</v>
       </c>
       <c r="AHG2" s="2">
-        <v>-2.12192589236045</v>
+        <v>-1.11987486469509</v>
       </c>
       <c r="AHH2" s="2">
-        <v>-2.15167897688022</v>
+        <v>-1.12589602726394</v>
       </c>
       <c r="AHI2" s="2">
-        <v>-2.15284369091583</v>
+        <v>-1.1470210701594</v>
       </c>
       <c r="AHJ2" s="2">
-        <v>-2.14053715805245</v>
+        <v>-1.14268899331375</v>
       </c>
       <c r="AHK2" s="2">
-        <v>-2.14384393147142</v>
+        <v>-1.16026017269101</v>
       </c>
       <c r="AHL2" s="2">
-        <v>-2.16152275397008</v>
+        <v>-1.16706399689478</v>
       </c>
       <c r="AHM2" s="2">
-        <v>-2.17849178959659</v>
+        <v>-1.19700100488284</v>
       </c>
       <c r="AHN2" s="2">
-        <v>-2.14964681963033</v>
+        <v>-1.18149284116447</v>
       </c>
       <c r="AHO2" s="2">
-        <v>-2.15499073968542</v>
+        <v>-1.1940422386645</v>
       </c>
       <c r="AHP2" s="2">
-        <v>-2.15289360541708</v>
+        <v>-1.21016441981408</v>
       </c>
       <c r="AHQ2" s="2">
-        <v>-2.16638355297674</v>
+        <v>-1.2159556303786</v>
       </c>
       <c r="AHR2" s="2">
-        <v>-2.1612228632565</v>
+        <v>-1.2185405965597</v>
       </c>
       <c r="AHS2" s="2">
-        <v>-2.17422078779959</v>
+        <v>-1.24372837033173</v>
       </c>
       <c r="AHT2" s="2">
-        <v>-2.17125235702635</v>
+        <v>-1.24787395907085</v>
       </c>
       <c r="AHU2" s="2">
-        <v>-2.16729191173438</v>
+        <v>-1.23718640584102</v>
       </c>
       <c r="AHV2" s="2">
-        <v>-2.17701607937973</v>
+        <v>-1.26521187094416</v>
       </c>
       <c r="AHW2" s="2">
-        <v>-2.1788603597557</v>
+        <v>-1.27322421114963</v>
       </c>
       <c r="AHX2" s="2">
-        <v>-2.20346061795894</v>
+        <v>-1.2833073094012</v>
       </c>
       <c r="AHY2" s="2">
-        <v>-2.1971412258533</v>
+        <v>-1.29110476280864</v>
       </c>
       <c r="AHZ2" s="2">
-        <v>-2.2068171835755</v>
+        <v>-1.29988929490148</v>
       </c>
       <c r="AIA2" s="2">
-        <v>-2.20447176962795</v>
+        <v>-1.31688303541124</v>
       </c>
       <c r="AIB2" s="2">
-        <v>-2.24860578156256</v>
+        <v>-1.3130768471314</v>
       </c>
       <c r="AIC2" s="2">
-        <v>-2.22273748614317</v>
+        <v>-1.3224291277304</v>
       </c>
       <c r="AID2" s="2">
-        <v>-2.24654795513799</v>
+        <v>-1.34592807113414</v>
       </c>
       <c r="AIE2" s="2">
-        <v>-2.24967006563881</v>
+        <v>-1.33895267006974</v>
       </c>
       <c r="AIF2" s="2">
-        <v>-2.24501158814589</v>
+        <v>-1.34699718073789</v>
       </c>
       <c r="AIG2" s="2">
-        <v>-2.28028798668984</v>
+        <v>-1.35787331033394</v>
       </c>
       <c r="AIH2" s="2">
-        <v>-2.25540551609004</v>
+        <v>-1.36986925647294</v>
       </c>
       <c r="AII2" s="2">
-        <v>-2.27423060781079</v>
+        <v>-1.36560867459992</v>
       </c>
       <c r="AIJ2" s="2">
-        <v>-2.29876572146082</v>
+        <v>-1.371091943681</v>
       </c>
       <c r="AIK2" s="2">
-        <v>-2.29912782812566</v>
+        <v>-1.37522928668398</v>
       </c>
       <c r="AIL2" s="2">
-        <v>-2.2945062530366</v>
+        <v>-1.3801239922348</v>
       </c>
       <c r="AIM2" s="2">
-        <v>-2.31190515152234</v>
+        <v>-1.38696486798745</v>
       </c>
       <c r="AIN2" s="2">
-        <v>-2.31927298081342</v>
+        <v>-1.38753278230436</v>
       </c>
       <c r="AIO2" s="2">
-        <v>-2.31094591418692</v>
+        <v>-1.39153168682275</v>
       </c>
       <c r="AIP2" s="2">
-        <v>-2.34118481636946</v>
+        <v>-1.38032376233005</v>
       </c>
       <c r="AIQ2" s="2">
-        <v>-2.33283539323494</v>
+        <v>-1.38639504474743</v>
       </c>
       <c r="AIR2" s="2">
-        <v>-2.34839841895862</v>
+        <v>-1.39928652729342</v>
       </c>
       <c r="AIS2" s="2">
-        <v>-2.35452423601968</v>
+        <v>-1.36399587210093</v>
       </c>
       <c r="AIT2" s="2">
-        <v>-2.34589430350103</v>
+        <v>-1.38756113219629</v>
       </c>
       <c r="AIU2" s="2">
-        <v>-2.36718847437983</v>
+        <v>-1.38552098176043</v>
       </c>
       <c r="AIV2" s="2">
-        <v>-2.38072373655529</v>
+        <v>-1.39171098094938</v>
       </c>
       <c r="AIW2" s="2">
-        <v>-2.399330657063</v>
+        <v>-1.38717092874979</v>
       </c>
       <c r="AIX2" s="2">
-        <v>-2.41363396371997</v>
+        <v>-1.38411265178822</v>
       </c>
       <c r="AIY2" s="2">
-        <v>-2.37547747257115</v>
+        <v>-1.39586245626335</v>
       </c>
       <c r="AIZ2" s="2">
-        <v>-2.40131475658032</v>
+        <v>-1.3794700676844</v>
       </c>
       <c r="AJA2" s="2">
-        <v>-2.43201913730121</v>
+        <v>-1.38986940476905</v>
       </c>
       <c r="AJB2" s="2">
-        <v>-2.42240211955809</v>
+        <v>-1.3721396381258</v>
       </c>
       <c r="AJC2" s="2">
-        <v>-2.43063334329704</v>
+        <v>-1.36633717673918</v>
       </c>
       <c r="AJD2" s="2">
-        <v>-2.44834918882582</v>
+        <v>-1.36120846678435</v>
       </c>
       <c r="AJE2" s="2">
-        <v>-2.4560521816289</v>
+        <v>-1.3546963228789</v>
       </c>
       <c r="AJF2" s="2">
-        <v>-2.44200332522457</v>
+        <v>-1.36964749959422</v>
       </c>
       <c r="AJG2" s="2">
-        <v>-2.46549374838384</v>
+        <v>-1.34782003910168</v>
       </c>
       <c r="AJH2" s="2">
-        <v>-2.46230592173878</v>
+        <v>-1.35663174693036</v>
       </c>
       <c r="AJI2" s="2">
-        <v>-2.48993839503444</v>
+        <v>-1.34885794026326</v>
       </c>
       <c r="AJJ2" s="2">
-        <v>-2.50265952858285</v>
+        <v>-1.33403764804989</v>
       </c>
       <c r="AJK2" s="2">
-        <v>-2.46636081485208</v>
+        <v>-1.32341184448018</v>
       </c>
       <c r="AJL2" s="2">
-        <v>-2.50280195958315</v>
+        <v>-1.33655616991179</v>
       </c>
       <c r="AJM2" s="2">
-        <v>-2.53232398235932</v>
+        <v>-1.32179939792227</v>
       </c>
       <c r="AJN2" s="2">
-        <v>-2.49873997104052</v>
+        <v>-1.31700981107056</v>
       </c>
       <c r="AJO2" s="2">
-        <v>-2.51387172037384</v>
+        <v>-1.30509544666562</v>
       </c>
       <c r="AJP2" s="2">
-        <v>-2.51585860982552</v>
+        <v>-1.2976175337815</v>
       </c>
       <c r="AJQ2" s="2">
-        <v>-2.50731767717866</v>
+        <v>-1.28270569113433</v>
       </c>
       <c r="AJR2" s="2">
-        <v>-2.53341102266352</v>
+        <v>-1.28471433355913</v>
       </c>
       <c r="AJS2" s="2">
-        <v>-2.51732722457735</v>
+        <v>-1.29297830766002</v>
       </c>
       <c r="AJT2" s="2">
-        <v>-2.52412136834434</v>
+        <v>-1.26938435675394</v>
       </c>
       <c r="AJU2" s="2">
-        <v>-2.52994634259042</v>
+        <v>-1.25848434841432</v>
       </c>
       <c r="AJV2" s="2">
-        <v>-2.51430266221217</v>
+        <v>-1.25699474902474</v>
       </c>
       <c r="AJW2" s="2">
-        <v>-2.51261537211405</v>
+        <v>-1.25025920537545</v>
       </c>
       <c r="AJX2" s="2">
-        <v>-2.5390703305478</v>
+        <v>-1.25241563624478</v>
       </c>
       <c r="AJY2" s="2">
-        <v>-2.51560531742421</v>
+        <v>-1.23581985426634</v>
       </c>
       <c r="AJZ2" s="2">
-        <v>-2.51574950457268</v>
+        <v>-1.23827818415468</v>
       </c>
       <c r="AKA2" s="2">
-        <v>-2.54819200304279</v>
+        <v>-1.22994780125783</v>
       </c>
       <c r="AKB2" s="2">
-        <v>-2.50084030542056</v>
+        <v>-1.22118781679917</v>
       </c>
       <c r="AKC2" s="2">
-        <v>-2.54473841880871</v>
+        <v>-1.22231239767559</v>
       </c>
       <c r="AKD2" s="2">
-        <v>-2.50794575170639</v>
+        <v>-1.20943494810323</v>
       </c>
       <c r="AKE2" s="2">
-        <v>-2.52765861012069</v>
+        <v>-1.20262493909059</v>
       </c>
       <c r="AKF2" s="2">
-        <v>-2.52618442535711</v>
+        <v>-1.19511584455439</v>
       </c>
       <c r="AKG2" s="2">
-        <v>-2.53115557354785</v>
+        <v>-1.20041547161654</v>
       </c>
       <c r="AKH2" s="2">
-        <v>-2.51999686009999</v>
+        <v>-1.19526047140523</v>
       </c>
       <c r="AKI2" s="2">
-        <v>-2.53011088683607</v>
+        <v>-1.19237980576946</v>
       </c>
       <c r="AKJ2" s="2">
-        <v>-2.50380586141917</v>
+        <v>-1.19027976460454</v>
       </c>
       <c r="AKK2" s="2">
-        <v>-2.52417904802103</v>
+        <v>-1.18789863496387</v>
       </c>
       <c r="AKL2" s="2">
-        <v>-2.5193963900085</v>
+        <v>-1.1970851414394</v>
       </c>
       <c r="AKM2" s="2">
-        <v>-2.50264521348632</v>
+        <v>-1.18582303356526</v>
       </c>
       <c r="AKN2" s="2">
-        <v>-2.48820884589096</v>
+        <v>-1.19544251769421</v>
       </c>
       <c r="AKO2" s="2">
-        <v>-2.4660216797139</v>
+        <v>-1.18335426690963</v>
       </c>
       <c r="AKP2" s="2">
-        <v>-2.48676927441043</v>
+        <v>-1.1866898389044</v>
       </c>
       <c r="AKQ2" s="2">
-        <v>-2.47793982545577</v>
+        <v>-1.17684178113839</v>
       </c>
       <c r="AKR2" s="2">
-        <v>-2.46647686194127</v>
+        <v>-1.17888742485125</v>
       </c>
       <c r="AKS2" s="2">
-        <v>-2.47104206305277</v>
+        <v>-1.18103012020251</v>
       </c>
       <c r="AKT2" s="2">
-        <v>-2.47290278113119</v>
+        <v>-1.18849213819174</v>
       </c>
       <c r="AKU2" s="2">
-        <v>-2.49051735181757</v>
+        <v>-1.19238237433646</v>
       </c>
       <c r="AKV2" s="2">
-        <v>-2.46768004724044</v>
+        <v>-1.18401835843581</v>
       </c>
       <c r="AKW2" s="2">
-        <v>-2.45432715778593</v>
+        <v>-1.1833596494264</v>
       </c>
       <c r="AKX2" s="2">
-        <v>-2.43946232517135</v>
+        <v>-1.21261365881863</v>
       </c>
       <c r="AKY2" s="2">
-        <v>-2.45337684077155</v>
+        <v>-1.19532358489384</v>
       </c>
       <c r="AKZ2" s="2">
-        <v>-2.44433108146957</v>
+        <v>-1.20526982619248</v>
       </c>
       <c r="ALA2" s="2">
-        <v>-2.42233003816566</v>
+        <v>-1.20678375655231</v>
       </c>
       <c r="ALB2" s="2">
-        <v>-2.42041627309395</v>
+        <v>-1.22226978440306</v>
       </c>
       <c r="ALC2" s="2">
-        <v>-2.41841138549596</v>
+        <v>-1.22563802583713</v>
       </c>
       <c r="ALD2" s="2">
-        <v>-2.40672284192178</v>
+        <v>-1.23244067928888</v>
       </c>
       <c r="ALE2" s="2">
-        <v>-2.38376121604851</v>
+        <v>-1.23240791380157</v>
       </c>
       <c r="ALF2" s="2">
-        <v>-2.39602228625381</v>
+        <v>-1.24561148343887</v>
       </c>
       <c r="ALG2" s="2">
-        <v>-2.38300236371489</v>
+        <v>-1.26649037922251</v>
       </c>
       <c r="ALH2" s="2">
-        <v>-2.37498395376592</v>
+        <v>-1.25901758785365</v>
       </c>
       <c r="ALI2" s="2">
-        <v>-2.35530521481395</v>
+        <v>-1.27188544479453</v>
       </c>
       <c r="ALJ2" s="2">
-        <v>-2.34788293061803</v>
+        <v>-1.27223453485456</v>
       </c>
       <c r="ALK2" s="2">
-        <v>-2.36403471387264</v>
+        <v>-1.29023618639828</v>
       </c>
       <c r="ALL2" s="2">
-        <v>-2.34739593026172</v>
+        <v>-1.30805384631627</v>
       </c>
       <c r="ALM2" s="2">
-        <v>-2.33227118775917</v>
+        <v>-1.32520646371853</v>
       </c>
     </row>
   </sheetData>

--- a/python/Pi3.xlsx
+++ b/python/Pi3.xlsx
@@ -3367,3007 +3367,3007 @@
     </row>
     <row r="2" spans="1:1001">
       <c r="A2" s="2">
-        <v>0.144621418148883</v>
+        <v>-16.381069818558</v>
       </c>
       <c r="B2" s="2">
-        <v>0.0237456409036631</v>
+        <v>-4.59608636870492</v>
       </c>
       <c r="C2" s="2">
-        <v>0.0273939121130273</v>
+        <v>-2.57244949097709</v>
       </c>
       <c r="D2" s="2">
-        <v>0.00720560501370612</v>
+        <v>-2.78043849985307</v>
       </c>
       <c r="E2" s="2">
-        <v>0.0202322537269126</v>
+        <v>6.85504575547423</v>
       </c>
       <c r="F2" s="2">
-        <v>0.0141445193974288</v>
+        <v>0.388468323253279</v>
       </c>
       <c r="G2" s="2">
-        <v>0.009635137027188351</v>
+        <v>7.74177106823504</v>
       </c>
       <c r="H2" s="2">
-        <v>0.0184194708601831</v>
+        <v>-3.05734561193878</v>
       </c>
       <c r="I2" s="2">
-        <v>-0.00279249408101821</v>
+        <v>-4.96120194605937</v>
       </c>
       <c r="J2" s="2">
-        <v>0.0187642990661126</v>
+        <v>-6.67035347349027</v>
       </c>
       <c r="K2" s="2">
-        <v>0.0180195116887053</v>
+        <v>-11.3055715534159</v>
       </c>
       <c r="L2" s="2">
-        <v>0.0197539087284023</v>
+        <v>5.71172789417847</v>
       </c>
       <c r="M2" s="2">
-        <v>0.00689041891309065</v>
+        <v>-8.12147072953668</v>
       </c>
       <c r="N2" s="2">
-        <v>0.0036213237906126</v>
+        <v>-12.6986904229145</v>
       </c>
       <c r="O2" s="2">
-        <v>0.00498761638845485</v>
+        <v>-6.67292713815164</v>
       </c>
       <c r="P2" s="2">
-        <v>-0.00212894027274381</v>
+        <v>-1.41860314249289</v>
       </c>
       <c r="Q2" s="2">
-        <v>-0.009832539176124561</v>
+        <v>0.79089989359118</v>
       </c>
       <c r="R2" s="2">
-        <v>-0.00469113931755826</v>
+        <v>-4.5288664500609</v>
       </c>
       <c r="S2" s="2">
-        <v>-0.00366338512742842</v>
+        <v>0.614421433167146</v>
       </c>
       <c r="T2" s="2">
-        <v>-0.0156840101515934</v>
+        <v>-7.19492600513717</v>
       </c>
       <c r="U2" s="2">
-        <v>-0.0073647616744321</v>
+        <v>10.7314885655817</v>
       </c>
       <c r="V2" s="2">
-        <v>-0.00698095069352759</v>
+        <v>-1.74504426857827</v>
       </c>
       <c r="W2" s="2">
-        <v>-0.020194568856213</v>
+        <v>-8.741778707834341</v>
       </c>
       <c r="X2" s="2">
-        <v>-0.0238497231282359</v>
+        <v>-21.6895654470027</v>
       </c>
       <c r="Y2" s="2">
-        <v>-0.0429062331843937</v>
+        <v>3.92697373880082</v>
       </c>
       <c r="Z2" s="2">
-        <v>-0.0524677887684383</v>
+        <v>-6.0661952058634</v>
       </c>
       <c r="AA2" s="2">
-        <v>-0.0626797205710751</v>
+        <v>2.86374909744652</v>
       </c>
       <c r="AB2" s="2">
-        <v>-0.0543760027978186</v>
+        <v>-4.39082562742954</v>
       </c>
       <c r="AC2" s="2">
-        <v>-0.0501919202314506</v>
+        <v>-7.59010980606812</v>
       </c>
       <c r="AD2" s="2">
-        <v>-0.0615412481732304</v>
+        <v>-5.75706330429557</v>
       </c>
       <c r="AE2" s="2">
-        <v>-0.058150342211395</v>
+        <v>3.60729898326693</v>
       </c>
       <c r="AF2" s="2">
-        <v>-0.0887951491375665</v>
+        <v>-1.15884729265723</v>
       </c>
       <c r="AG2" s="2">
-        <v>-0.0964051705017511</v>
+        <v>-16.5825329311688</v>
       </c>
       <c r="AH2" s="2">
-        <v>-0.0857847120209263</v>
+        <v>-5.6700339358346</v>
       </c>
       <c r="AI2" s="2">
-        <v>-0.0954784306177523</v>
+        <v>1.92492132351092</v>
       </c>
       <c r="AJ2" s="2">
-        <v>-0.109253804476457</v>
+        <v>-2.96862449120409</v>
       </c>
       <c r="AK2" s="2">
-        <v>-0.116581030307543</v>
+        <v>2.55634851569449</v>
       </c>
       <c r="AL2" s="2">
-        <v>-0.118743225026547</v>
+        <v>-0.831757915590195</v>
       </c>
       <c r="AM2" s="2">
-        <v>-0.1385666337628</v>
+        <v>-10.3559123745071</v>
       </c>
       <c r="AN2" s="2">
-        <v>-0.133018789138609</v>
+        <v>0.754756623712759</v>
       </c>
       <c r="AO2" s="2">
-        <v>-0.156364631703057</v>
+        <v>12.962248948031</v>
       </c>
       <c r="AP2" s="2">
-        <v>-0.152156200823975</v>
+        <v>-17.2736430965304</v>
       </c>
       <c r="AQ2" s="2">
-        <v>-0.159266835461804</v>
+        <v>1.08328933571982</v>
       </c>
       <c r="AR2" s="2">
-        <v>-0.167094535864488</v>
+        <v>9.07524130820115</v>
       </c>
       <c r="AS2" s="2">
-        <v>-0.171262833893581</v>
+        <v>-4.00659378632294</v>
       </c>
       <c r="AT2" s="2">
-        <v>-0.176773524854699</v>
+        <v>-13.7090555675208</v>
       </c>
       <c r="AU2" s="2">
-        <v>-0.183665796999744</v>
+        <v>-5.73250820245899</v>
       </c>
       <c r="AV2" s="2">
-        <v>-0.194774910660088</v>
+        <v>-2.69681548593346</v>
       </c>
       <c r="AW2" s="2">
-        <v>-0.187230241918026</v>
+        <v>-4.36131482097937</v>
       </c>
       <c r="AX2" s="2">
-        <v>-0.211882796189779</v>
+        <v>-12.3544381034819</v>
       </c>
       <c r="AY2" s="2">
-        <v>-0.21089765137603</v>
+        <v>-0.341065539954201</v>
       </c>
       <c r="AZ2" s="2">
-        <v>-0.22348668509744</v>
+        <v>-5.88979201634021</v>
       </c>
       <c r="BA2" s="2">
-        <v>-0.22517536621066</v>
+        <v>-7.80629981103519</v>
       </c>
       <c r="BB2" s="2">
-        <v>-0.238410663096467</v>
+        <v>8.449114112419389</v>
       </c>
       <c r="BC2" s="2">
-        <v>-0.241168549178381</v>
+        <v>-4.82042165820116</v>
       </c>
       <c r="BD2" s="2">
-        <v>-0.246377515613104</v>
+        <v>-4.50071735196854</v>
       </c>
       <c r="BE2" s="2">
-        <v>-0.260245817983047</v>
+        <v>-0.797900568516026</v>
       </c>
       <c r="BF2" s="2">
-        <v>-0.259895957014572</v>
+        <v>-5.77350410848864</v>
       </c>
       <c r="BG2" s="2">
-        <v>-0.262040197088596</v>
+        <v>-2.84151230515258</v>
       </c>
       <c r="BH2" s="2">
-        <v>-0.271379300382173</v>
+        <v>-13.3722416241108</v>
       </c>
       <c r="BI2" s="2">
-        <v>-0.275086426204327</v>
+        <v>-6.254809955589</v>
       </c>
       <c r="BJ2" s="2">
-        <v>-0.263622163372944</v>
+        <v>24.5312804079707</v>
       </c>
       <c r="BK2" s="2">
-        <v>-0.258915470581386</v>
+        <v>-4.69517514770525</v>
       </c>
       <c r="BL2" s="2">
-        <v>-0.272738535062119</v>
+        <v>0.581788886278141</v>
       </c>
       <c r="BM2" s="2">
-        <v>-0.276803331913677</v>
+        <v>5.02357671053876</v>
       </c>
       <c r="BN2" s="2">
-        <v>-0.285954250640708</v>
+        <v>-0.97276834688353</v>
       </c>
       <c r="BO2" s="2">
-        <v>-0.292261951580233</v>
+        <v>5.05497969149197</v>
       </c>
       <c r="BP2" s="2">
-        <v>-0.286911176424767</v>
+        <v>-22.5311657440554</v>
       </c>
       <c r="BQ2" s="2">
-        <v>-0.296643786024544</v>
+        <v>-8.557675014282481</v>
       </c>
       <c r="BR2" s="2">
-        <v>-0.279915287678614</v>
+        <v>-3.51872423418914</v>
       </c>
       <c r="BS2" s="2">
-        <v>-0.29213559752894</v>
+        <v>-5.1392905456083</v>
       </c>
       <c r="BT2" s="2">
-        <v>-0.281145674870214</v>
+        <v>10.8949826636845</v>
       </c>
       <c r="BU2" s="2">
-        <v>-0.288664697602724</v>
+        <v>-13.5899251719406</v>
       </c>
       <c r="BV2" s="2">
-        <v>-0.292179848515031</v>
+        <v>4.75284893554845</v>
       </c>
       <c r="BW2" s="2">
-        <v>-0.294408005277241</v>
+        <v>-4.12945387724116</v>
       </c>
       <c r="BX2" s="2">
-        <v>-0.280483826966522</v>
+        <v>-11.1192221718996</v>
       </c>
       <c r="BY2" s="2">
-        <v>-0.296589088897108</v>
+        <v>-4.89577654390519</v>
       </c>
       <c r="BZ2" s="2">
-        <v>-0.296233879174958</v>
+        <v>-7.26048743587302</v>
       </c>
       <c r="CA2" s="2">
-        <v>-0.290306045170514</v>
+        <v>-2.64638561356346</v>
       </c>
       <c r="CB2" s="2">
-        <v>-0.292251722931251</v>
+        <v>-2.90426646903917</v>
       </c>
       <c r="CC2" s="2">
-        <v>-0.292258116534338</v>
+        <v>4.36902647028184</v>
       </c>
       <c r="CD2" s="2">
-        <v>-0.287541160194297</v>
+        <v>-3.70199142729618</v>
       </c>
       <c r="CE2" s="2">
-        <v>-0.265845766282809</v>
+        <v>-5.19077635516556</v>
       </c>
       <c r="CF2" s="2">
-        <v>-0.280995225658601</v>
+        <v>-1.07005917472975</v>
       </c>
       <c r="CG2" s="2">
-        <v>-0.290206146169243</v>
+        <v>-14.3032375738591</v>
       </c>
       <c r="CH2" s="2">
-        <v>-0.284567161095953</v>
+        <v>-2.01844605457211</v>
       </c>
       <c r="CI2" s="2">
-        <v>-0.271255356029069</v>
+        <v>14.7013086839923</v>
       </c>
       <c r="CJ2" s="2">
-        <v>-0.264089236527305</v>
+        <v>1.93260330615777</v>
       </c>
       <c r="CK2" s="2">
-        <v>-0.283037141506964</v>
+        <v>-10.5093829643728</v>
       </c>
       <c r="CL2" s="2">
-        <v>-0.266919250502618</v>
+        <v>-1.55643498343312</v>
       </c>
       <c r="CM2" s="2">
-        <v>-0.254525171709393</v>
+        <v>-10.3867210603989</v>
       </c>
       <c r="CN2" s="2">
-        <v>-0.256763458303035</v>
+        <v>-0.558292327944974</v>
       </c>
       <c r="CO2" s="2">
-        <v>-0.257992151186931</v>
+        <v>-11.119724360949</v>
       </c>
       <c r="CP2" s="2">
-        <v>-0.253847860186904</v>
+        <v>-4.46100470041082</v>
       </c>
       <c r="CQ2" s="2">
-        <v>-0.262263421167569</v>
+        <v>5.46531822670968</v>
       </c>
       <c r="CR2" s="2">
-        <v>-0.256648843273363</v>
+        <v>-0.9130764755492859</v>
       </c>
       <c r="CS2" s="2">
-        <v>-0.248392183218496</v>
+        <v>7.38295227059072</v>
       </c>
       <c r="CT2" s="2">
-        <v>-0.253978927813843</v>
+        <v>-5.65900259697167</v>
       </c>
       <c r="CU2" s="2">
-        <v>-0.225710768701974</v>
+        <v>1.70433426144253</v>
       </c>
       <c r="CV2" s="2">
-        <v>-0.248069988250794</v>
+        <v>-5.18229382505592</v>
       </c>
       <c r="CW2" s="2">
-        <v>-0.228947418451859</v>
+        <v>0.81416501594641</v>
       </c>
       <c r="CX2" s="2">
-        <v>-0.227877468951426</v>
+        <v>-13.1442197964377</v>
       </c>
       <c r="CY2" s="2">
-        <v>-0.219125241545873</v>
+        <v>11.8310470961852</v>
       </c>
       <c r="CZ2" s="2">
-        <v>-0.235997785903815</v>
+        <v>0.996670629812091</v>
       </c>
       <c r="DA2" s="2">
-        <v>-0.223417855768096</v>
+        <v>-1.644723891653</v>
       </c>
       <c r="DB2" s="2">
-        <v>-0.219255660656086</v>
+        <v>-8.85816761651725</v>
       </c>
       <c r="DC2" s="2">
-        <v>-0.217799207960333</v>
+        <v>0.370748788690958</v>
       </c>
       <c r="DD2" s="2">
-        <v>-0.219785764851235</v>
+        <v>-4.85159344091995</v>
       </c>
       <c r="DE2" s="2">
-        <v>-0.228463562888154</v>
+        <v>-4.90081924444463</v>
       </c>
       <c r="DF2" s="2">
-        <v>-0.211164147845922</v>
+        <v>-14.865346300293</v>
       </c>
       <c r="DG2" s="2">
-        <v>-0.211794537715398</v>
+        <v>10.5917116704964</v>
       </c>
       <c r="DH2" s="2">
-        <v>-0.225850828018577</v>
+        <v>-2.18043563743654</v>
       </c>
       <c r="DI2" s="2">
-        <v>-0.207792958994429</v>
+        <v>2.87893399689543</v>
       </c>
       <c r="DJ2" s="2">
-        <v>-0.20747949922456</v>
+        <v>-7.34460176432412</v>
       </c>
       <c r="DK2" s="2">
-        <v>-0.206602443275405</v>
+        <v>-8.963610676550401</v>
       </c>
       <c r="DL2" s="2">
-        <v>-0.22179172471098</v>
+        <v>-0.258775944135208</v>
       </c>
       <c r="DM2" s="2">
-        <v>-0.198541770841903</v>
+        <v>-6.72052120270885</v>
       </c>
       <c r="DN2" s="2">
-        <v>-0.204551983538567</v>
+        <v>5.69700410827599</v>
       </c>
       <c r="DO2" s="2">
-        <v>-0.222941030270514</v>
+        <v>-40.1879874306948</v>
       </c>
       <c r="DP2" s="2">
-        <v>-0.219407845762511</v>
+        <v>-6.37986911172262</v>
       </c>
       <c r="DQ2" s="2">
-        <v>-0.198094069255437</v>
+        <v>-21.4597579116166</v>
       </c>
       <c r="DR2" s="2">
-        <v>-0.221364960301068</v>
+        <v>-4.08043360571532</v>
       </c>
       <c r="DS2" s="2">
-        <v>-0.217270460672678</v>
+        <v>3.09495333118766</v>
       </c>
       <c r="DT2" s="2">
-        <v>-0.213579072046925</v>
+        <v>-10.7992640377788</v>
       </c>
       <c r="DU2" s="2">
-        <v>-0.219036165720448</v>
+        <v>-15.99155017384</v>
       </c>
       <c r="DV2" s="2">
-        <v>-0.218021557803913</v>
+        <v>0.380064598870542</v>
       </c>
       <c r="DW2" s="2">
-        <v>-0.226988607713908</v>
+        <v>-12.8515047431303</v>
       </c>
       <c r="DX2" s="2">
-        <v>-0.226481325963172</v>
+        <v>-18.6090773246294</v>
       </c>
       <c r="DY2" s="2">
-        <v>-0.227008347934022</v>
+        <v>4.80724349807374</v>
       </c>
       <c r="DZ2" s="2">
-        <v>-0.230138428058072</v>
+        <v>2.73404045240769</v>
       </c>
       <c r="EA2" s="2">
-        <v>-0.240445565645797</v>
+        <v>-8.685049575685101</v>
       </c>
       <c r="EB2" s="2">
-        <v>-0.234854932129184</v>
+        <v>-1.46569200058166</v>
       </c>
       <c r="EC2" s="2">
-        <v>-0.256884457263026</v>
+        <v>-1.74782220556037</v>
       </c>
       <c r="ED2" s="2">
-        <v>-0.26016360609477</v>
+        <v>-4.4955011268685</v>
       </c>
       <c r="EE2" s="2">
-        <v>-0.238831261781197</v>
+        <v>-0.0451345865176179</v>
       </c>
       <c r="EF2" s="2">
-        <v>-0.248100159469831</v>
+        <v>-20.4811489853577</v>
       </c>
       <c r="EG2" s="2">
-        <v>-0.258396370605281</v>
+        <v>-1.40068241583995</v>
       </c>
       <c r="EH2" s="2">
-        <v>-0.267132538625511</v>
+        <v>-4.44330796704314</v>
       </c>
       <c r="EI2" s="2">
-        <v>-0.276140057467708</v>
+        <v>-3.74725835713675</v>
       </c>
       <c r="EJ2" s="2">
-        <v>-0.277839481981447</v>
+        <v>-0.40873613920293</v>
       </c>
       <c r="EK2" s="2">
-        <v>-0.283946322484168</v>
+        <v>13.0938400942474</v>
       </c>
       <c r="EL2" s="2">
-        <v>-0.289395867875498</v>
+        <v>-18.0224898762415</v>
       </c>
       <c r="EM2" s="2">
-        <v>-0.298241583665402</v>
+        <v>-9.03135640942955</v>
       </c>
       <c r="EN2" s="2">
-        <v>-0.294587524493587</v>
+        <v>-7.0190686976261</v>
       </c>
       <c r="EO2" s="2">
-        <v>-0.311046181314983</v>
+        <v>-0.669174835404476</v>
       </c>
       <c r="EP2" s="2">
-        <v>-0.321267615869709</v>
+        <v>0.379147102426819</v>
       </c>
       <c r="EQ2" s="2">
-        <v>-0.315569773920197</v>
+        <v>8.62905564767782</v>
       </c>
       <c r="ER2" s="2">
-        <v>-0.341896759337643</v>
+        <v>5.11053677414406</v>
       </c>
       <c r="ES2" s="2">
-        <v>-0.334941172546743</v>
+        <v>-22.651720622763</v>
       </c>
       <c r="ET2" s="2">
-        <v>-0.346752926732839</v>
+        <v>-7.28487167828289</v>
       </c>
       <c r="EU2" s="2">
-        <v>-0.337485171704834</v>
+        <v>-4.381732464252</v>
       </c>
       <c r="EV2" s="2">
-        <v>-0.359342060585201</v>
+        <v>0.27863695954563</v>
       </c>
       <c r="EW2" s="2">
-        <v>-0.373933715318734</v>
+        <v>2.50239362412325</v>
       </c>
       <c r="EX2" s="2">
-        <v>-0.364892657856736</v>
+        <v>-11.6640708192466</v>
       </c>
       <c r="EY2" s="2">
-        <v>-0.383386321151941</v>
+        <v>3.03840180556123</v>
       </c>
       <c r="EZ2" s="2">
-        <v>-0.368132544062053</v>
+        <v>-8.113080475820629</v>
       </c>
       <c r="FA2" s="2">
-        <v>-0.38616704394769</v>
+        <v>-26.8854765674616</v>
       </c>
       <c r="FB2" s="2">
-        <v>-0.386169484015159</v>
+        <v>-7.8365550730429</v>
       </c>
       <c r="FC2" s="2">
-        <v>-0.406114539897656</v>
+        <v>14.6404867020611</v>
       </c>
       <c r="FD2" s="2">
-        <v>-0.403178182711292</v>
+        <v>-9.544288763834359</v>
       </c>
       <c r="FE2" s="2">
-        <v>-0.400469708906099</v>
+        <v>0.274989672939212</v>
       </c>
       <c r="FF2" s="2">
-        <v>-0.411831250428528</v>
+        <v>-0.807687698795744</v>
       </c>
       <c r="FG2" s="2">
-        <v>-0.421747179561071</v>
+        <v>-2.55215221796557</v>
       </c>
       <c r="FH2" s="2">
-        <v>-0.416979042007833</v>
+        <v>-17.6163428636616</v>
       </c>
       <c r="FI2" s="2">
-        <v>-0.446694928903876</v>
+        <v>2.45692432862821</v>
       </c>
       <c r="FJ2" s="2">
-        <v>-0.436749416563921</v>
+        <v>-14.0260220694152</v>
       </c>
       <c r="FK2" s="2">
-        <v>-0.428269071231483</v>
+        <v>-0.331116656544015</v>
       </c>
       <c r="FL2" s="2">
-        <v>-0.439012975543622</v>
+        <v>-27.7085177632368</v>
       </c>
       <c r="FM2" s="2">
-        <v>-0.433655261358561</v>
+        <v>-23.6656068393697</v>
       </c>
       <c r="FN2" s="2">
-        <v>-0.443145110498479</v>
+        <v>-10.8856565277227</v>
       </c>
       <c r="FO2" s="2">
-        <v>-0.450753363117321</v>
+        <v>-21.2026751561155</v>
       </c>
       <c r="FP2" s="2">
-        <v>-0.459593505158476</v>
+        <v>-12.3139137270847</v>
       </c>
       <c r="FQ2" s="2">
-        <v>-0.456565901976532</v>
+        <v>-4.97369674178516</v>
       </c>
       <c r="FR2" s="2">
-        <v>-0.453767227483261</v>
+        <v>-22.5883672705141</v>
       </c>
       <c r="FS2" s="2">
-        <v>-0.460468184400665</v>
+        <v>-2.53955561064464</v>
       </c>
       <c r="FT2" s="2">
-        <v>-0.458487662801889</v>
+        <v>-3.08143577271774</v>
       </c>
       <c r="FU2" s="2">
-        <v>-0.456047794012523</v>
+        <v>2.80230726549141</v>
       </c>
       <c r="FV2" s="2">
-        <v>-0.476733141572022</v>
+        <v>4.36836225246019</v>
       </c>
       <c r="FW2" s="2">
-        <v>-0.45370450289056</v>
+        <v>-17.6720332191069</v>
       </c>
       <c r="FX2" s="2">
-        <v>-0.462610293423219</v>
+        <v>-5.76557528285828</v>
       </c>
       <c r="FY2" s="2">
-        <v>-0.479454705528852</v>
+        <v>-15.1524510263111</v>
       </c>
       <c r="FZ2" s="2">
-        <v>-0.479270414649653</v>
+        <v>-38.4581619589924</v>
       </c>
       <c r="GA2" s="2">
-        <v>-0.437495780843422</v>
+        <v>-9.04587552772465</v>
       </c>
       <c r="GB2" s="2">
-        <v>-0.472485705643521</v>
+        <v>-8.038343022671089</v>
       </c>
       <c r="GC2" s="2">
-        <v>-0.464527915981179</v>
+        <v>-0.788135131777478</v>
       </c>
       <c r="GD2" s="2">
-        <v>-0.472074768728905</v>
+        <v>-0.665671198110555</v>
       </c>
       <c r="GE2" s="2">
-        <v>-0.471565962842758</v>
+        <v>1.40802003972706</v>
       </c>
       <c r="GF2" s="2">
-        <v>-0.456583536992718</v>
+        <v>-2.07644554916551</v>
       </c>
       <c r="GG2" s="2">
-        <v>-0.463967430497854</v>
+        <v>-10.5595709569493</v>
       </c>
       <c r="GH2" s="2">
-        <v>-0.467799018145504</v>
+        <v>0.0798542871402373</v>
       </c>
       <c r="GI2" s="2">
-        <v>-0.454271350177446</v>
+        <v>-24.1262335297833</v>
       </c>
       <c r="GJ2" s="2">
-        <v>-0.465359424737065</v>
+        <v>-8.72765594409657</v>
       </c>
       <c r="GK2" s="2">
-        <v>-0.455459399890726</v>
+        <v>-9.51140780510946</v>
       </c>
       <c r="GL2" s="2">
-        <v>-0.454271408930197</v>
+        <v>-2.11147192048999</v>
       </c>
       <c r="GM2" s="2">
-        <v>-0.462507562940436</v>
+        <v>-14.9795539710333</v>
       </c>
       <c r="GN2" s="2">
-        <v>-0.44283642657564</v>
+        <v>-9.75902082186453</v>
       </c>
       <c r="GO2" s="2">
-        <v>-0.442770738459066</v>
+        <v>-7.76733795399982</v>
       </c>
       <c r="GP2" s="2">
-        <v>-0.441388761096757</v>
+        <v>-7.46288014668418</v>
       </c>
       <c r="GQ2" s="2">
-        <v>-0.435413789299222</v>
+        <v>-9.277400732483651</v>
       </c>
       <c r="GR2" s="2">
-        <v>-0.436485876464279</v>
+        <v>-39.9551096789073</v>
       </c>
       <c r="GS2" s="2">
-        <v>-0.42842406856038</v>
+        <v>-12.0050019738263</v>
       </c>
       <c r="GT2" s="2">
-        <v>-0.43081614290203</v>
+        <v>-10.4946609145815</v>
       </c>
       <c r="GU2" s="2">
-        <v>-0.408564898855366</v>
+        <v>-0.116653116845046</v>
       </c>
       <c r="GV2" s="2">
-        <v>-0.41008280526015</v>
+        <v>-4.58493433280207</v>
       </c>
       <c r="GW2" s="2">
-        <v>-0.394434418308348</v>
+        <v>0.173657766793567</v>
       </c>
       <c r="GX2" s="2">
-        <v>-0.406125972528447</v>
+        <v>-0.0574920732284628</v>
       </c>
       <c r="GY2" s="2">
-        <v>-0.409394201578633</v>
+        <v>16.4879282650883</v>
       </c>
       <c r="GZ2" s="2">
-        <v>-0.408252839285313</v>
+        <v>-9.5486619147912</v>
       </c>
       <c r="HA2" s="2">
-        <v>-0.398151075684799</v>
+        <v>-8.390406176498949</v>
       </c>
       <c r="HB2" s="2">
-        <v>-0.39076315980864</v>
+        <v>-2.31857802610489</v>
       </c>
       <c r="HC2" s="2">
-        <v>-0.376837329204111</v>
+        <v>-15.9676402004409</v>
       </c>
       <c r="HD2" s="2">
-        <v>-0.387322582982674</v>
+        <v>5.81707621675245</v>
       </c>
       <c r="HE2" s="2">
-        <v>-0.400076043150291</v>
+        <v>-1.18262181585529</v>
       </c>
       <c r="HF2" s="2">
-        <v>-0.375210841983888</v>
+        <v>5.14499743286453</v>
       </c>
       <c r="HG2" s="2">
-        <v>-0.37396563630319</v>
+        <v>6.77718294973029</v>
       </c>
       <c r="HH2" s="2">
-        <v>-0.376390389822713</v>
+        <v>-16.247608834965</v>
       </c>
       <c r="HI2" s="2">
-        <v>-0.361416818735663</v>
+        <v>-15.9218880637836</v>
       </c>
       <c r="HJ2" s="2">
-        <v>-0.37126561629911</v>
+        <v>-2.01365464420391</v>
       </c>
       <c r="HK2" s="2">
-        <v>-0.364191251750466</v>
+        <v>-1.32930471770123</v>
       </c>
       <c r="HL2" s="2">
-        <v>-0.358686741649095</v>
+        <v>0.663844722208305</v>
       </c>
       <c r="HM2" s="2">
-        <v>-0.369262316872101</v>
+        <v>-23.5645241420559</v>
       </c>
       <c r="HN2" s="2">
-        <v>-0.365633293747655</v>
+        <v>-12.8102942639597</v>
       </c>
       <c r="HO2" s="2">
-        <v>-0.361302413892686</v>
+        <v>1.90681668117818</v>
       </c>
       <c r="HP2" s="2">
-        <v>-0.359244848492157</v>
+        <v>0.424970120303213</v>
       </c>
       <c r="HQ2" s="2">
-        <v>-0.356404956098231</v>
+        <v>-3.69987139272793</v>
       </c>
       <c r="HR2" s="2">
-        <v>-0.35193187973482</v>
+        <v>-3.66688665929119</v>
       </c>
       <c r="HS2" s="2">
-        <v>-0.35009218607914</v>
+        <v>2.41226441336553</v>
       </c>
       <c r="HT2" s="2">
-        <v>-0.35414287052284</v>
+        <v>-4.06751644930725</v>
       </c>
       <c r="HU2" s="2">
-        <v>-0.353212449479696</v>
+        <v>5.86292826118242</v>
       </c>
       <c r="HV2" s="2">
-        <v>-0.354436900030611</v>
+        <v>-17.5846770169734</v>
       </c>
       <c r="HW2" s="2">
-        <v>-0.365749871123911</v>
+        <v>1.19711584701064</v>
       </c>
       <c r="HX2" s="2">
-        <v>-0.359789709367661</v>
+        <v>-2.05263890180768</v>
       </c>
       <c r="HY2" s="2">
-        <v>-0.358835855096759</v>
+        <v>2.12368544105703</v>
       </c>
       <c r="HZ2" s="2">
-        <v>-0.364579269082457</v>
+        <v>-3.92817462386161</v>
       </c>
       <c r="IA2" s="2">
-        <v>-0.348695512644617</v>
+        <v>2.66359778201527</v>
       </c>
       <c r="IB2" s="2">
-        <v>-0.355816001529702</v>
+        <v>-4.12541156533197</v>
       </c>
       <c r="IC2" s="2">
-        <v>-0.352313025593549</v>
+        <v>5.19897932076134</v>
       </c>
       <c r="ID2" s="2">
-        <v>-0.356043935509361</v>
+        <v>5.23030598849088</v>
       </c>
       <c r="IE2" s="2">
-        <v>-0.384251447489117</v>
+        <v>-4.59682644603153</v>
       </c>
       <c r="IF2" s="2">
-        <v>-0.374723886969811</v>
+        <v>0.428270416999238</v>
       </c>
       <c r="IG2" s="2">
-        <v>-0.380499418573727</v>
+        <v>-2.39892281970624</v>
       </c>
       <c r="IH2" s="2">
-        <v>-0.371081963215396</v>
+        <v>-0.638849655443174</v>
       </c>
       <c r="II2" s="2">
-        <v>-0.385953493383628</v>
+        <v>2.22327390930534</v>
       </c>
       <c r="IJ2" s="2">
-        <v>-0.379845867477406</v>
+        <v>-2.7655589769615</v>
       </c>
       <c r="IK2" s="2">
-        <v>-0.372175714398231</v>
+        <v>-0.0439618766626498</v>
       </c>
       <c r="IL2" s="2">
-        <v>-0.398349742829136</v>
+        <v>-3.18079652813473</v>
       </c>
       <c r="IM2" s="2">
-        <v>-0.408402140178292</v>
+        <v>-6.15693168960197</v>
       </c>
       <c r="IN2" s="2">
-        <v>-0.39661282182912</v>
+        <v>-8.76645489958953</v>
       </c>
       <c r="IO2" s="2">
-        <v>-0.420547530294522</v>
+        <v>-16.1336607565795</v>
       </c>
       <c r="IP2" s="2">
-        <v>-0.413803189172053</v>
+        <v>19.7796113726917</v>
       </c>
       <c r="IQ2" s="2">
-        <v>-0.419245460005205</v>
+        <v>2.93513957761321</v>
       </c>
       <c r="IR2" s="2">
-        <v>-0.430042774836526</v>
+        <v>-6.26090557429801</v>
       </c>
       <c r="IS2" s="2">
-        <v>-0.426953203743818</v>
+        <v>-22.1741031791492</v>
       </c>
       <c r="IT2" s="2">
-        <v>-0.447870859430497</v>
+        <v>0.149883053406205</v>
       </c>
       <c r="IU2" s="2">
-        <v>-0.443404242608966</v>
+        <v>-1.43404346871437</v>
       </c>
       <c r="IV2" s="2">
-        <v>-0.458372452223565</v>
+        <v>-6.55519490680693</v>
       </c>
       <c r="IW2" s="2">
-        <v>-0.479724300150424</v>
+        <v>-3.8359811936899</v>
       </c>
       <c r="IX2" s="2">
-        <v>-0.47418859098789</v>
+        <v>-12.6998298571739</v>
       </c>
       <c r="IY2" s="2">
-        <v>-0.48364363114648</v>
+        <v>-27.7367690919731</v>
       </c>
       <c r="IZ2" s="2">
-        <v>-0.492966943480279</v>
+        <v>-3.1585742503108</v>
       </c>
       <c r="JA2" s="2">
-        <v>-0.493174065455225</v>
+        <v>-8.05225854007162</v>
       </c>
       <c r="JB2" s="2">
-        <v>-0.489273564774872</v>
+        <v>-37.1177830296949</v>
       </c>
       <c r="JC2" s="2">
-        <v>-0.5059547549775359</v>
+        <v>-3.6946475142837</v>
       </c>
       <c r="JD2" s="2">
-        <v>-0.519871604046021</v>
+        <v>0.533364265055476</v>
       </c>
       <c r="JE2" s="2">
-        <v>-0.510464077121243</v>
+        <v>-1.74414532339898</v>
       </c>
       <c r="JF2" s="2">
-        <v>-0.53029553289396</v>
+        <v>-12.6795825210969</v>
       </c>
       <c r="JG2" s="2">
-        <v>-0.542309202230065</v>
+        <v>-3.13946057783109</v>
       </c>
       <c r="JH2" s="2">
-        <v>-0.548554603248585</v>
+        <v>-7.69482432809237</v>
       </c>
       <c r="JI2" s="2">
-        <v>-0.558791181223352</v>
+        <v>-0.548075841602814</v>
       </c>
       <c r="JJ2" s="2">
-        <v>-0.547718784081208</v>
+        <v>2.47882641645548</v>
       </c>
       <c r="JK2" s="2">
-        <v>-0.561080131437148</v>
+        <v>2.07507226043658</v>
       </c>
       <c r="JL2" s="2">
-        <v>-0.558692636007769</v>
+        <v>0.8856230295065149</v>
       </c>
       <c r="JM2" s="2">
-        <v>-0.578836199374981</v>
+        <v>3.93645329394041</v>
       </c>
       <c r="JN2" s="2">
-        <v>-0.577495429506769</v>
+        <v>-1.29767159936925</v>
       </c>
       <c r="JO2" s="2">
-        <v>-0.585973975995341</v>
+        <v>8.22027759866746</v>
       </c>
       <c r="JP2" s="2">
-        <v>-0.595682695548779</v>
+        <v>-9.82958820461034</v>
       </c>
       <c r="JQ2" s="2">
-        <v>-0.597654629202141</v>
+        <v>-38.2032215242422</v>
       </c>
       <c r="JR2" s="2">
-        <v>-0.602657365311538</v>
+        <v>3.1149909218703</v>
       </c>
       <c r="JS2" s="2">
-        <v>-0.605032493183321</v>
+        <v>-13.9283820338968</v>
       </c>
       <c r="JT2" s="2">
-        <v>-0.613919962229063</v>
+        <v>-14.3148365891808</v>
       </c>
       <c r="JU2" s="2">
-        <v>-0.622220232394647</v>
+        <v>-0.958596292623167</v>
       </c>
       <c r="JV2" s="2">
-        <v>-0.62138516657273</v>
+        <v>-5.90644187114932</v>
       </c>
       <c r="JW2" s="2">
-        <v>-0.62018559953481</v>
+        <v>0.249837341054645</v>
       </c>
       <c r="JX2" s="2">
-        <v>-0.63011852195727</v>
+        <v>6.57839217220014</v>
       </c>
       <c r="JY2" s="2">
-        <v>-0.622385096866256</v>
+        <v>-7.24714393166426</v>
       </c>
       <c r="JZ2" s="2">
-        <v>-0.617774360566832</v>
+        <v>0.0653048939224827</v>
       </c>
       <c r="KA2" s="2">
-        <v>-0.62277521877177</v>
+        <v>-4.86709420290852</v>
       </c>
       <c r="KB2" s="2">
-        <v>-0.63626427862132</v>
+        <v>-0.941012172647695</v>
       </c>
       <c r="KC2" s="2">
-        <v>-0.627409057749056</v>
+        <v>3.642908200507</v>
       </c>
       <c r="KD2" s="2">
-        <v>-0.624708299022823</v>
+        <v>-6.97678014989128</v>
       </c>
       <c r="KE2" s="2">
-        <v>-0.6217102453964229</v>
+        <v>1.74177274733022</v>
       </c>
       <c r="KF2" s="2">
-        <v>-0.6527865488436591</v>
+        <v>-2.02587996573317</v>
       </c>
       <c r="KG2" s="2">
-        <v>-0.635496005113653</v>
+        <v>-23.3392922159843</v>
       </c>
       <c r="KH2" s="2">
-        <v>-0.634560770005157</v>
+        <v>12.7581963894886</v>
       </c>
       <c r="KI2" s="2">
-        <v>-0.626141365922793</v>
+        <v>-0.210625987430552</v>
       </c>
       <c r="KJ2" s="2">
-        <v>-0.625098055704815</v>
+        <v>-5.79898203798771</v>
       </c>
       <c r="KK2" s="2">
-        <v>-0.625717553428232</v>
+        <v>-1.6228601967111</v>
       </c>
       <c r="KL2" s="2">
-        <v>-0.631462653213725</v>
+        <v>1.34828788082903</v>
       </c>
       <c r="KM2" s="2">
-        <v>-0.627198653848156</v>
+        <v>-0.586968311905769</v>
       </c>
       <c r="KN2" s="2">
-        <v>-0.636507903671767</v>
+        <v>9.84223641360138</v>
       </c>
       <c r="KO2" s="2">
-        <v>-0.625587388715333</v>
+        <v>-13.0024853695365</v>
       </c>
       <c r="KP2" s="2">
-        <v>-0.616806008675609</v>
+        <v>1.2519896473365</v>
       </c>
       <c r="KQ2" s="2">
-        <v>-0.61286384711185</v>
+        <v>-25.6846524233331</v>
       </c>
       <c r="KR2" s="2">
-        <v>-0.6125555809420981</v>
+        <v>-17.650925880431</v>
       </c>
       <c r="KS2" s="2">
-        <v>-0.606492666475192</v>
+        <v>-6.73451447667973</v>
       </c>
       <c r="KT2" s="2">
-        <v>-0.616368098098228</v>
+        <v>0.8067587312858771</v>
       </c>
       <c r="KU2" s="2">
-        <v>-0.613957925654238</v>
+        <v>-15.3318607820802</v>
       </c>
       <c r="KV2" s="2">
-        <v>-0.602781597277785</v>
+        <v>-4.91001158579724</v>
       </c>
       <c r="KW2" s="2">
-        <v>-0.596404931980424</v>
+        <v>-4.51941596944684</v>
       </c>
       <c r="KX2" s="2">
-        <v>-0.593892922877986</v>
+        <v>-10.1687979302394</v>
       </c>
       <c r="KY2" s="2">
-        <v>-0.5889234817647701</v>
+        <v>-5.5551810333737</v>
       </c>
       <c r="KZ2" s="2">
-        <v>-0.5807561214524199</v>
+        <v>-4.00631843258401</v>
       </c>
       <c r="LA2" s="2">
-        <v>-0.582755707346898</v>
+        <v>-11.1117395468251</v>
       </c>
       <c r="LB2" s="2">
-        <v>-0.572179979227176</v>
+        <v>-6.20878813784416</v>
       </c>
       <c r="LC2" s="2">
-        <v>-0.581851899799719</v>
+        <v>-4.86371388613103</v>
       </c>
       <c r="LD2" s="2">
-        <v>-0.572789057730212</v>
+        <v>-6.08908292123968</v>
       </c>
       <c r="LE2" s="2">
-        <v>-0.551762643337488</v>
+        <v>2.2400963345303</v>
       </c>
       <c r="LF2" s="2">
-        <v>-0.578758898329058</v>
+        <v>-4.86667197007399</v>
       </c>
       <c r="LG2" s="2">
-        <v>-0.565195639846464</v>
+        <v>-3.38553654018353</v>
       </c>
       <c r="LH2" s="2">
-        <v>-0.561466352062539</v>
+        <v>-3.96062981571392</v>
       </c>
       <c r="LI2" s="2">
-        <v>-0.558663619944203</v>
+        <v>-5.39464873246849</v>
       </c>
       <c r="LJ2" s="2">
-        <v>-0.555052343266988</v>
+        <v>-0.499632682468287</v>
       </c>
       <c r="LK2" s="2">
-        <v>-0.550995856416771</v>
+        <v>-11.1348532507853</v>
       </c>
       <c r="LL2" s="2">
-        <v>-0.541965452980134</v>
+        <v>6.43047130876812</v>
       </c>
       <c r="LM2" s="2">
-        <v>-0.535501527799359</v>
+        <v>-10.1051538084674</v>
       </c>
       <c r="LN2" s="2">
-        <v>-0.55039266476337</v>
+        <v>-5.66859507524056</v>
       </c>
       <c r="LO2" s="2">
-        <v>-0.535771361113567</v>
+        <v>-4.00251614016611</v>
       </c>
       <c r="LP2" s="2">
-        <v>-0.534867944838213</v>
+        <v>-2.12225851745095</v>
       </c>
       <c r="LQ2" s="2">
-        <v>-0.532155859992407</v>
+        <v>-5.90017756353363</v>
       </c>
       <c r="LR2" s="2">
-        <v>-0.530114015505661</v>
+        <v>-8.073527641535289</v>
       </c>
       <c r="LS2" s="2">
-        <v>-0.525665759053548</v>
+        <v>1.30271052480744</v>
       </c>
       <c r="LT2" s="2">
-        <v>-0.519499398955641</v>
+        <v>6.47713493058373</v>
       </c>
       <c r="LU2" s="2">
-        <v>-0.514835257647533</v>
+        <v>-4.67755966517118</v>
       </c>
       <c r="LV2" s="2">
-        <v>-0.514603717704668</v>
+        <v>-9.234886410918611</v>
       </c>
       <c r="LW2" s="2">
-        <v>-0.504046179119634</v>
+        <v>-14.0302632181124</v>
       </c>
       <c r="LX2" s="2">
-        <v>-0.511883462861188</v>
+        <v>-8.50664839888117</v>
       </c>
       <c r="LY2" s="2">
-        <v>-0.503569192604402</v>
+        <v>-5.97929753766241</v>
       </c>
       <c r="LZ2" s="2">
-        <v>-0.511604996855205</v>
+        <v>-9.070553406493421</v>
       </c>
       <c r="MA2" s="2">
-        <v>-0.513260912204339</v>
+        <v>0.674604937098491</v>
       </c>
       <c r="MB2" s="2">
-        <v>-0.510612468389483</v>
+        <v>-1.84654465408231</v>
       </c>
       <c r="MC2" s="2">
-        <v>-0.499088534840272</v>
+        <v>-8.702175628183189</v>
       </c>
       <c r="MD2" s="2">
-        <v>-0.495908569057319</v>
+        <v>0.173596231171781</v>
       </c>
       <c r="ME2" s="2">
-        <v>-0.5023650131781811</v>
+        <v>-11.1940121101793</v>
       </c>
       <c r="MF2" s="2">
-        <v>-0.508635697603268</v>
+        <v>-5.48297538520908</v>
       </c>
       <c r="MG2" s="2">
-        <v>-0.501152142092219</v>
+        <v>-27.2133121311483</v>
       </c>
       <c r="MH2" s="2">
-        <v>-0.509505610057626</v>
+        <v>3.24444190485914</v>
       </c>
       <c r="MI2" s="2">
-        <v>-0.51266123383403</v>
+        <v>-23.3275948283719</v>
       </c>
       <c r="MJ2" s="2">
-        <v>-0.513846143966425</v>
+        <v>2.1800507113811</v>
       </c>
       <c r="MK2" s="2">
-        <v>-0.508812065524912</v>
+        <v>-6.62218683747287</v>
       </c>
       <c r="ML2" s="2">
-        <v>-0.512216757889264</v>
+        <v>-3.75807749310584</v>
       </c>
       <c r="MM2" s="2">
-        <v>-0.51353094565271</v>
+        <v>-5.275886496036</v>
       </c>
       <c r="MN2" s="2">
-        <v>-0.524613604436141</v>
+        <v>9.394076252253219</v>
       </c>
       <c r="MO2" s="2">
-        <v>-0.533416811083032</v>
+        <v>-10.8797403194033</v>
       </c>
       <c r="MP2" s="2">
-        <v>-0.5192926176082741</v>
+        <v>-9.510443725695261</v>
       </c>
       <c r="MQ2" s="2">
-        <v>-0.547879377038085</v>
+        <v>-11.2695769525031</v>
       </c>
       <c r="MR2" s="2">
-        <v>-0.534401379401465</v>
+        <v>-4.76707462171904</v>
       </c>
       <c r="MS2" s="2">
-        <v>-0.526319337112055</v>
+        <v>-20.0847731201677</v>
       </c>
       <c r="MT2" s="2">
-        <v>-0.543869732362755</v>
+        <v>-20.1780000917725</v>
       </c>
       <c r="MU2" s="2">
-        <v>-0.549073029839071</v>
+        <v>-9.844703517319591</v>
       </c>
       <c r="MV2" s="2">
-        <v>-0.557162485875351</v>
+        <v>-1.36589848298504</v>
       </c>
       <c r="MW2" s="2">
-        <v>-0.553816111288989</v>
+        <v>-9.279661659429729</v>
       </c>
       <c r="MX2" s="2">
-        <v>-0.563246232623523</v>
+        <v>-8.97890537264316</v>
       </c>
       <c r="MY2" s="2">
-        <v>-0.569978485926901</v>
+        <v>-4.27466701243871</v>
       </c>
       <c r="MZ2" s="2">
-        <v>-0.56562944545658</v>
+        <v>-0.430639338329396</v>
       </c>
       <c r="NA2" s="2">
-        <v>-0.5810175079300059</v>
+        <v>7.78415951072889</v>
       </c>
       <c r="NB2" s="2">
-        <v>-0.575742454393291</v>
+        <v>-9.148782286345099</v>
       </c>
       <c r="NC2" s="2">
-        <v>-0.595666288599251</v>
+        <v>-10.2363025543775</v>
       </c>
       <c r="ND2" s="2">
-        <v>-0.5868779230180901</v>
+        <v>-6.00910036549129</v>
       </c>
       <c r="NE2" s="2">
-        <v>-0.605475850945199</v>
+        <v>2.97425530112594</v>
       </c>
       <c r="NF2" s="2">
-        <v>-0.619067918656844</v>
+        <v>-8.23767437584188</v>
       </c>
       <c r="NG2" s="2">
-        <v>-0.627985528769628</v>
+        <v>-10.0121917735664</v>
       </c>
       <c r="NH2" s="2">
-        <v>-0.613684446727764</v>
+        <v>-6.86058467784002</v>
       </c>
       <c r="NI2" s="2">
-        <v>-0.624248633559731</v>
+        <v>-4.47079216190136</v>
       </c>
       <c r="NJ2" s="2">
-        <v>-0.643460024260715</v>
+        <v>-3.90899973536163</v>
       </c>
       <c r="NK2" s="2">
-        <v>-0.636767979166215</v>
+        <v>-1.50098344524574</v>
       </c>
       <c r="NL2" s="2">
-        <v>-0.645847090099255</v>
+        <v>-0.5365338905488281</v>
       </c>
       <c r="NM2" s="2">
-        <v>-0.662001416280155</v>
+        <v>-6.17094373969622</v>
       </c>
       <c r="NN2" s="2">
-        <v>-0.67554119609996</v>
+        <v>-14.0828824713821</v>
       </c>
       <c r="NO2" s="2">
-        <v>-0.669125674801057</v>
+        <v>-1.05161596954491</v>
       </c>
       <c r="NP2" s="2">
-        <v>-0.6744350872393849</v>
+        <v>-4.60851390777972</v>
       </c>
       <c r="NQ2" s="2">
-        <v>-0.694818642574659</v>
+        <v>3.69910941010074</v>
       </c>
       <c r="NR2" s="2">
-        <v>-0.703994401656804</v>
+        <v>-4.92034589156281</v>
       </c>
       <c r="NS2" s="2">
-        <v>-0.690092978249868</v>
+        <v>-3.5460701073818</v>
       </c>
       <c r="NT2" s="2">
-        <v>-0.715484449683547</v>
+        <v>-16.7171871890496</v>
       </c>
       <c r="NU2" s="2">
-        <v>-0.721228023947048</v>
+        <v>-15.9079494565925</v>
       </c>
       <c r="NV2" s="2">
-        <v>-0.726187172913773</v>
+        <v>-11.6014727180733</v>
       </c>
       <c r="NW2" s="2">
-        <v>-0.72681410574451</v>
+        <v>-8.342872945774999</v>
       </c>
       <c r="NX2" s="2">
-        <v>-0.7356225642470759</v>
+        <v>-2.79103716137918</v>
       </c>
       <c r="NY2" s="2">
-        <v>-0.728621847901989</v>
+        <v>1.32830369203822</v>
       </c>
       <c r="NZ2" s="2">
-        <v>-0.737323398751033</v>
+        <v>-0.430694176952272</v>
       </c>
       <c r="OA2" s="2">
-        <v>-0.733816162257477</v>
+        <v>-10.996699709935</v>
       </c>
       <c r="OB2" s="2">
-        <v>-0.745776075274438</v>
+        <v>-24.5406287186575</v>
       </c>
       <c r="OC2" s="2">
-        <v>-0.7493878280097021</v>
+        <v>5.55394929951893</v>
       </c>
       <c r="OD2" s="2">
-        <v>-0.74783108030548</v>
+        <v>3.44504502790033</v>
       </c>
       <c r="OE2" s="2">
-        <v>-0.761550365837944</v>
+        <v>-12.0791205841462</v>
       </c>
       <c r="OF2" s="2">
-        <v>-0.768740833396085</v>
+        <v>1.99430841803706</v>
       </c>
       <c r="OG2" s="2">
-        <v>-0.743795254553127</v>
+        <v>-7.36723757166131</v>
       </c>
       <c r="OH2" s="2">
-        <v>-0.771490927317018</v>
+        <v>-29.8059969282436</v>
       </c>
       <c r="OI2" s="2">
-        <v>-0.771267352545392</v>
+        <v>-0.209904547499049</v>
       </c>
       <c r="OJ2" s="2">
-        <v>-0.765346430571659</v>
+        <v>-2.30326659154437</v>
       </c>
       <c r="OK2" s="2">
-        <v>-0.774034367213326</v>
+        <v>-7.90627602853827</v>
       </c>
       <c r="OL2" s="2">
-        <v>-0.764396205071563</v>
+        <v>4.04666765305939</v>
       </c>
       <c r="OM2" s="2">
-        <v>-0.784688261258407</v>
+        <v>-33.9797574795389</v>
       </c>
       <c r="ON2" s="2">
-        <v>-0.778065400311432</v>
+        <v>-1.91806912782366</v>
       </c>
       <c r="OO2" s="2">
-        <v>-0.77703505661915</v>
+        <v>-4.46649770383547</v>
       </c>
       <c r="OP2" s="2">
-        <v>-0.773991430661677</v>
+        <v>-10.322621565163</v>
       </c>
       <c r="OQ2" s="2">
-        <v>-0.792303651838217</v>
+        <v>5.05962385691804</v>
       </c>
       <c r="OR2" s="2">
-        <v>-0.7745359194296429</v>
+        <v>-6.19296724848602</v>
       </c>
       <c r="OS2" s="2">
-        <v>-0.781005214560933</v>
+        <v>-4.12038214769783</v>
       </c>
       <c r="OT2" s="2">
-        <v>-0.772648198682821</v>
+        <v>-7.33093552189433</v>
       </c>
       <c r="OU2" s="2">
-        <v>-0.774387156838044</v>
+        <v>-7.57124128602175</v>
       </c>
       <c r="OV2" s="2">
-        <v>-0.778521902491598</v>
+        <v>-3.5361747561283</v>
       </c>
       <c r="OW2" s="2">
-        <v>-0.751370880692512</v>
+        <v>0.314885456650463</v>
       </c>
       <c r="OX2" s="2">
-        <v>-0.76241729920743</v>
+        <v>-16.4751189848854</v>
       </c>
       <c r="OY2" s="2">
-        <v>-0.745271886553361</v>
+        <v>-26.5944670161039</v>
       </c>
       <c r="OZ2" s="2">
-        <v>-0.7452683367017821</v>
+        <v>-1.13888626386273</v>
       </c>
       <c r="PA2" s="2">
-        <v>-0.74620759904133</v>
+        <v>-25.7905948503539</v>
       </c>
       <c r="PB2" s="2">
-        <v>-0.733309091368296</v>
+        <v>4.08844372013806</v>
       </c>
       <c r="PC2" s="2">
-        <v>-0.744046056962145</v>
+        <v>-16.8221066844235</v>
       </c>
       <c r="PD2" s="2">
-        <v>-0.755451205950143</v>
+        <v>-9.894985397544991</v>
       </c>
       <c r="PE2" s="2">
-        <v>-0.747235473328167</v>
+        <v>7.43936526529787</v>
       </c>
       <c r="PF2" s="2">
-        <v>-0.72758275992708</v>
+        <v>-10.4243510358102</v>
       </c>
       <c r="PG2" s="2">
-        <v>-0.737822522357705</v>
+        <v>3.61446343452555</v>
       </c>
       <c r="PH2" s="2">
-        <v>-0.720668093947883</v>
+        <v>-0.5800752709825731</v>
       </c>
       <c r="PI2" s="2">
-        <v>-0.733164600439133</v>
+        <v>3.49514212989253</v>
       </c>
       <c r="PJ2" s="2">
-        <v>-0.714254638889071</v>
+        <v>2.11777790442292</v>
       </c>
       <c r="PK2" s="2">
-        <v>-0.707835296881671</v>
+        <v>-0.376244152447782</v>
       </c>
       <c r="PL2" s="2">
-        <v>-0.712704828228117</v>
+        <v>0.926511602148842</v>
       </c>
       <c r="PM2" s="2">
-        <v>-0.709045762608455</v>
+        <v>-15.9698508190888</v>
       </c>
       <c r="PN2" s="2">
-        <v>-0.707384541659937</v>
+        <v>3.47832951789173</v>
       </c>
       <c r="PO2" s="2">
-        <v>-0.705136409263974</v>
+        <v>-9.350962819451111</v>
       </c>
       <c r="PP2" s="2">
-        <v>-0.703016925076714</v>
+        <v>-4.51288656565667</v>
       </c>
       <c r="PQ2" s="2">
-        <v>-0.70232095794423</v>
+        <v>-5.57140113869806</v>
       </c>
       <c r="PR2" s="2">
-        <v>-0.687652868995441</v>
+        <v>0.066636606385253</v>
       </c>
       <c r="PS2" s="2">
-        <v>-0.689235421434427</v>
+        <v>-7.29450168461033</v>
       </c>
       <c r="PT2" s="2">
-        <v>-0.677181917283982</v>
+        <v>-9.870037137620329</v>
       </c>
       <c r="PU2" s="2">
-        <v>-0.693972979418083</v>
+        <v>-18.5541229860197</v>
       </c>
       <c r="PV2" s="2">
-        <v>-0.6701693850346619</v>
+        <v>1.08193474054591</v>
       </c>
       <c r="PW2" s="2">
-        <v>-0.673329239051261</v>
+        <v>-10.0054393719894</v>
       </c>
       <c r="PX2" s="2">
-        <v>-0.669407151614031</v>
+        <v>1.33681263335468</v>
       </c>
       <c r="PY2" s="2">
-        <v>-0.675794337049014</v>
+        <v>1.06167571098239</v>
       </c>
       <c r="PZ2" s="2">
-        <v>-0.671185725115194</v>
+        <v>1.6714778029248</v>
       </c>
       <c r="QA2" s="2">
-        <v>-0.6605498835642351</v>
+        <v>-3.30448816720132</v>
       </c>
       <c r="QB2" s="2">
-        <v>-0.660445187876384</v>
+        <v>-10.9053050376456</v>
       </c>
       <c r="QC2" s="2">
-        <v>-0.6650632719087231</v>
+        <v>7.62549169234746</v>
       </c>
       <c r="QD2" s="2">
-        <v>-0.654992775936117</v>
+        <v>4.48879709565924</v>
       </c>
       <c r="QE2" s="2">
-        <v>-0.660707890355944</v>
+        <v>-2.13852167158799</v>
       </c>
       <c r="QF2" s="2">
-        <v>-0.657000336287427</v>
+        <v>0.781219759254918</v>
       </c>
       <c r="QG2" s="2">
-        <v>-0.64521746422818</v>
+        <v>3.09531631204536</v>
       </c>
       <c r="QH2" s="2">
-        <v>-0.643765254922164</v>
+        <v>-0.22700258354934</v>
       </c>
       <c r="QI2" s="2">
-        <v>-0.665810787525948</v>
+        <v>0.990959666101324</v>
       </c>
       <c r="QJ2" s="2">
-        <v>-0.651512733475512</v>
+        <v>-1.56640637508288</v>
       </c>
       <c r="QK2" s="2">
-        <v>-0.6618538056332059</v>
+        <v>-0.07254259656693959</v>
       </c>
       <c r="QL2" s="2">
-        <v>-0.652593997650235</v>
+        <v>-6.2875400826897</v>
       </c>
       <c r="QM2" s="2">
-        <v>-0.643395579887402</v>
+        <v>6.11272876425412</v>
       </c>
       <c r="QN2" s="2">
-        <v>-0.645425562260394</v>
+        <v>-17.3852269070636</v>
       </c>
       <c r="QO2" s="2">
-        <v>-0.653620220381702</v>
+        <v>-15.4620464013728</v>
       </c>
       <c r="QP2" s="2">
-        <v>-0.652153965624405</v>
+        <v>6.37783987996152</v>
       </c>
       <c r="QQ2" s="2">
-        <v>-0.647863812428377</v>
+        <v>0.331381389491812</v>
       </c>
       <c r="QR2" s="2">
-        <v>-0.65014161244705</v>
+        <v>7.14832624029309</v>
       </c>
       <c r="QS2" s="2">
-        <v>-0.6570314714964079</v>
+        <v>-22.3474984497326</v>
       </c>
       <c r="QT2" s="2">
-        <v>-0.661491305546826</v>
+        <v>10.0504782409409</v>
       </c>
       <c r="QU2" s="2">
-        <v>-0.672947639589573</v>
+        <v>-0.173058700678751</v>
       </c>
       <c r="QV2" s="2">
-        <v>-0.6708324405764819</v>
+        <v>-3.15820788909299</v>
       </c>
       <c r="QW2" s="2">
-        <v>-0.659818086071876</v>
+        <v>-0.607737336338108</v>
       </c>
       <c r="QX2" s="2">
-        <v>-0.660783719002881</v>
+        <v>0.0419342369047337</v>
       </c>
       <c r="QY2" s="2">
-        <v>-0.662667996639748</v>
+        <v>-0.983831548842638</v>
       </c>
       <c r="QZ2" s="2">
-        <v>-0.672353017554347</v>
+        <v>-4.77464012768538</v>
       </c>
       <c r="RA2" s="2">
-        <v>-0.666197930544162</v>
+        <v>-5.1511705680814</v>
       </c>
       <c r="RB2" s="2">
-        <v>-0.689411929290662</v>
+        <v>11.0804439231946</v>
       </c>
       <c r="RC2" s="2">
-        <v>-0.674066890363375</v>
+        <v>-8.363907289811999</v>
       </c>
       <c r="RD2" s="2">
-        <v>-0.68070027888375</v>
+        <v>-0.302823054667418</v>
       </c>
       <c r="RE2" s="2">
-        <v>-0.676512853374986</v>
+        <v>-10.1921835639689</v>
       </c>
       <c r="RF2" s="2">
-        <v>-0.706795528372811</v>
+        <v>7.89137907257942</v>
       </c>
       <c r="RG2" s="2">
-        <v>-0.703356608374501</v>
+        <v>-3.14331618527936</v>
       </c>
       <c r="RH2" s="2">
-        <v>-0.7003385363586619</v>
+        <v>0.793302170249911</v>
       </c>
       <c r="RI2" s="2">
-        <v>-0.702588066732572</v>
+        <v>-6.23042665343682</v>
       </c>
       <c r="RJ2" s="2">
-        <v>-0.715404995488203</v>
+        <v>3.98035916620824</v>
       </c>
       <c r="RK2" s="2">
-        <v>-0.719817614411156</v>
+        <v>-4.36855664707993</v>
       </c>
       <c r="RL2" s="2">
-        <v>-0.716177962799491</v>
+        <v>-2.68221203667945</v>
       </c>
       <c r="RM2" s="2">
-        <v>-0.726942326072895</v>
+        <v>-15.0794067901158</v>
       </c>
       <c r="RN2" s="2">
-        <v>-0.7286552191372579</v>
+        <v>-1.21642451494324</v>
       </c>
       <c r="RO2" s="2">
-        <v>-0.743113654304444</v>
+        <v>1.21700937556525</v>
       </c>
       <c r="RP2" s="2">
-        <v>-0.741759405140165</v>
+        <v>-7.29367170470668</v>
       </c>
       <c r="RQ2" s="2">
-        <v>-0.7467529910212169</v>
+        <v>-6.27653502859933</v>
       </c>
       <c r="RR2" s="2">
-        <v>-0.774000218448343</v>
+        <v>0.404255358284756</v>
       </c>
       <c r="RS2" s="2">
-        <v>-0.761935295086689</v>
+        <v>-10.0656400163449</v>
       </c>
       <c r="RT2" s="2">
-        <v>-0.750414006977566</v>
+        <v>-14.90545345327</v>
       </c>
       <c r="RU2" s="2">
-        <v>-0.766753459442081</v>
+        <v>-0.903931281074949</v>
       </c>
       <c r="RV2" s="2">
-        <v>-0.770282420710946</v>
+        <v>-17.2377095422461</v>
       </c>
       <c r="RW2" s="2">
-        <v>-0.779451225319853</v>
+        <v>10.0529047664493</v>
       </c>
       <c r="RX2" s="2">
-        <v>-0.7953934883642521</v>
+        <v>-2.22845973132444</v>
       </c>
       <c r="RY2" s="2">
-        <v>-0.78971464979252</v>
+        <v>-12.664923920649</v>
       </c>
       <c r="RZ2" s="2">
-        <v>-0.801666810505694</v>
+        <v>-6.60586650536229</v>
       </c>
       <c r="SA2" s="2">
-        <v>-0.783696686696578</v>
+        <v>-22.9083271983893</v>
       </c>
       <c r="SB2" s="2">
-        <v>-0.803635403090708</v>
+        <v>-9.328261125770551</v>
       </c>
       <c r="SC2" s="2">
-        <v>-0.809354328504298</v>
+        <v>-7.49001556854032</v>
       </c>
       <c r="SD2" s="2">
-        <v>-0.819266438936504</v>
+        <v>-15.5527073243617</v>
       </c>
       <c r="SE2" s="2">
-        <v>-0.8131680732445939</v>
+        <v>-1.23027832125914</v>
       </c>
       <c r="SF2" s="2">
-        <v>-0.822428214155117</v>
+        <v>-17.5747440169109</v>
       </c>
       <c r="SG2" s="2">
-        <v>-0.82191314209253</v>
+        <v>3.34385037084559</v>
       </c>
       <c r="SH2" s="2">
-        <v>-0.827429176993271</v>
+        <v>4.38821514262714</v>
       </c>
       <c r="SI2" s="2">
-        <v>-0.824471169661361</v>
+        <v>-19.5029366644841</v>
       </c>
       <c r="SJ2" s="2">
-        <v>-0.818966667758346</v>
+        <v>-2.44909157879453</v>
       </c>
       <c r="SK2" s="2">
-        <v>-0.823949579196016</v>
+        <v>-1.77949768219522</v>
       </c>
       <c r="SL2" s="2">
-        <v>-0.829260012749004</v>
+        <v>-6.54547951595379</v>
       </c>
       <c r="SM2" s="2">
-        <v>-0.83382909735134</v>
+        <v>-27.4815396195297</v>
       </c>
       <c r="SN2" s="2">
-        <v>-0.84284214063172</v>
+        <v>-1.84642034280021</v>
       </c>
       <c r="SO2" s="2">
-        <v>-0.849181639690383</v>
+        <v>4.74853171184275</v>
       </c>
       <c r="SP2" s="2">
-        <v>-0.831913241621092</v>
+        <v>-6.30651337240466</v>
       </c>
       <c r="SQ2" s="2">
-        <v>-0.856248707617675</v>
+        <v>-7.63032202060884</v>
       </c>
       <c r="SR2" s="2">
-        <v>-0.849558766475455</v>
+        <v>-9.62250032526004</v>
       </c>
       <c r="SS2" s="2">
-        <v>-0.848847425225824</v>
+        <v>-9.6272643680466</v>
       </c>
       <c r="ST2" s="2">
-        <v>-0.851388972641133</v>
+        <v>-9.11329550076092</v>
       </c>
       <c r="SU2" s="2">
-        <v>-0.847482022439887</v>
+        <v>2.56110733356832</v>
       </c>
       <c r="SV2" s="2">
-        <v>-0.847648622142808</v>
+        <v>-14.0766682091008</v>
       </c>
       <c r="SW2" s="2">
-        <v>-0.842902314998325</v>
+        <v>-1.76343548004244</v>
       </c>
       <c r="SX2" s="2">
-        <v>-0.835450534648826</v>
+        <v>-12.9265045424931</v>
       </c>
       <c r="SY2" s="2">
-        <v>-0.859269253991261</v>
+        <v>-11.0563976280611</v>
       </c>
       <c r="SZ2" s="2">
-        <v>-0.826392670258552</v>
+        <v>-6.3288002715995</v>
       </c>
       <c r="TA2" s="2">
-        <v>-0.83646163118411</v>
+        <v>-10.8362610870071</v>
       </c>
       <c r="TB2" s="2">
-        <v>-0.847922467929652</v>
+        <v>-7.63649384935623</v>
       </c>
       <c r="TC2" s="2">
-        <v>-0.858592392315952</v>
+        <v>-25.5618227944439</v>
       </c>
       <c r="TD2" s="2">
-        <v>-0.834556978005252</v>
+        <v>-6.12442174744569</v>
       </c>
       <c r="TE2" s="2">
-        <v>-0.842002711781654</v>
+        <v>-3.90559281315785</v>
       </c>
       <c r="TF2" s="2">
-        <v>-0.856628580457946</v>
+        <v>-6.96026103297614</v>
       </c>
       <c r="TG2" s="2">
-        <v>-0.833471016164109</v>
+        <v>5.79619222449199</v>
       </c>
       <c r="TH2" s="2">
-        <v>-0.851734434964745</v>
+        <v>-4.92271911887079</v>
       </c>
       <c r="TI2" s="2">
-        <v>-0.836233366441649</v>
+        <v>-14.4391295299347</v>
       </c>
       <c r="TJ2" s="2">
-        <v>-0.835823488701701</v>
+        <v>-14.9620491739662</v>
       </c>
       <c r="TK2" s="2">
-        <v>-0.824009245968679</v>
+        <v>-2.31886484909416</v>
       </c>
       <c r="TL2" s="2">
-        <v>-0.820058369580592</v>
+        <v>5.80764802791792</v>
       </c>
       <c r="TM2" s="2">
-        <v>-0.81890593925033</v>
+        <v>10.4537788494965</v>
       </c>
       <c r="TN2" s="2">
-        <v>-0.839259419187327</v>
+        <v>-14.6009527738091</v>
       </c>
       <c r="TO2" s="2">
-        <v>-0.8163491162833511</v>
+        <v>-17.8264877425782</v>
       </c>
       <c r="TP2" s="2">
-        <v>-0.822839092597368</v>
+        <v>-5.93641313728028</v>
       </c>
       <c r="TQ2" s="2">
-        <v>-0.81564836317551</v>
+        <v>-3.57530874430128</v>
       </c>
       <c r="TR2" s="2">
-        <v>-0.812066340425992</v>
+        <v>-11.5950058564381</v>
       </c>
       <c r="TS2" s="2">
-        <v>-0.810651213792651</v>
+        <v>-6.12204686154854</v>
       </c>
       <c r="TT2" s="2">
-        <v>-0.807498017998298</v>
+        <v>-3.28889386810622</v>
       </c>
       <c r="TU2" s="2">
-        <v>-0.815297170602079</v>
+        <v>12.6359894899798</v>
       </c>
       <c r="TV2" s="2">
-        <v>-0.807458612683308</v>
+        <v>-5.69068459599181</v>
       </c>
       <c r="TW2" s="2">
-        <v>-0.796073296246141</v>
+        <v>-7.89973558974519</v>
       </c>
       <c r="TX2" s="2">
-        <v>-0.800720991269297</v>
+        <v>-7.26019307321255</v>
       </c>
       <c r="TY2" s="2">
-        <v>-0.795658310219132</v>
+        <v>0.620578114250247</v>
       </c>
       <c r="TZ2" s="2">
-        <v>-0.788629494445335</v>
+        <v>-3.05702035215872</v>
       </c>
       <c r="UA2" s="2">
-        <v>-0.793223466231206</v>
+        <v>-3.59462672293133</v>
       </c>
       <c r="UB2" s="2">
-        <v>-0.777402192378437</v>
+        <v>-2.32454691018855</v>
       </c>
       <c r="UC2" s="2">
-        <v>-0.778483354955169</v>
+        <v>-10.9181418162073</v>
       </c>
       <c r="UD2" s="2">
-        <v>-0.783293921780322</v>
+        <v>5.17217078550048</v>
       </c>
       <c r="UE2" s="2">
-        <v>-0.788054809107596</v>
+        <v>-2.24783226204331</v>
       </c>
       <c r="UF2" s="2">
-        <v>-0.777293163244311</v>
+        <v>7.45412970840285</v>
       </c>
       <c r="UG2" s="2">
-        <v>-0.780266414696912</v>
+        <v>-0.362853540081766</v>
       </c>
       <c r="UH2" s="2">
-        <v>-0.789568666847366</v>
+        <v>-7.88533115056348</v>
       </c>
       <c r="UI2" s="2">
-        <v>-0.7836223395044259</v>
+        <v>-2.68471575771639</v>
       </c>
       <c r="UJ2" s="2">
-        <v>-0.78448319426359</v>
+        <v>-16.1261612526395</v>
       </c>
       <c r="UK2" s="2">
-        <v>-0.786435084059725</v>
+        <v>-1.24092781277026</v>
       </c>
       <c r="UL2" s="2">
-        <v>-0.769344369294542</v>
+        <v>1.18454528202301</v>
       </c>
       <c r="UM2" s="2">
-        <v>-0.768202139414044</v>
+        <v>-3.07344764630355</v>
       </c>
       <c r="UN2" s="2">
-        <v>-0.777318935812462</v>
+        <v>-18.9127719486954</v>
       </c>
       <c r="UO2" s="2">
-        <v>-0.771996565572906</v>
+        <v>-1.17731872553714</v>
       </c>
       <c r="UP2" s="2">
-        <v>-0.773637962387516</v>
+        <v>-18.4570422637416</v>
       </c>
       <c r="UQ2" s="2">
-        <v>-0.769488193136398</v>
+        <v>15.9314100696579</v>
       </c>
       <c r="UR2" s="2">
-        <v>-0.773651369546734</v>
+        <v>-7.16873712040356</v>
       </c>
       <c r="US2" s="2">
-        <v>-0.772332928926809</v>
+        <v>-16.3756454199877</v>
       </c>
       <c r="UT2" s="2">
-        <v>-0.778354208492911</v>
+        <v>-25.3919420227838</v>
       </c>
       <c r="UU2" s="2">
-        <v>-0.758385618309697</v>
+        <v>6.1857177797297</v>
       </c>
       <c r="UV2" s="2">
-        <v>-0.784933640262934</v>
+        <v>6.09604363424397</v>
       </c>
       <c r="UW2" s="2">
-        <v>-0.774804993913164</v>
+        <v>-4.08374082042811</v>
       </c>
       <c r="UX2" s="2">
-        <v>-0.758729253664679</v>
+        <v>-7.59797834062557</v>
       </c>
       <c r="UY2" s="2">
-        <v>-0.7685784260472081</v>
+        <v>-5.61749799829449</v>
       </c>
       <c r="UZ2" s="2">
-        <v>-0.760240437821306</v>
+        <v>-1.47340048057034</v>
       </c>
       <c r="VA2" s="2">
-        <v>-0.779180981273036</v>
+        <v>-3.2902524770763</v>
       </c>
       <c r="VB2" s="2">
-        <v>-0.783916767175775</v>
+        <v>-2.007162863583</v>
       </c>
       <c r="VC2" s="2">
-        <v>-0.771212229798929</v>
+        <v>-10.0126124109184</v>
       </c>
       <c r="VD2" s="2">
-        <v>-0.777212675259157</v>
+        <v>-0.547769343352517</v>
       </c>
       <c r="VE2" s="2">
-        <v>-0.7728683921420419</v>
+        <v>-1.05897866332193</v>
       </c>
       <c r="VF2" s="2">
-        <v>-0.782952202985076</v>
+        <v>-6.15468711264122</v>
       </c>
       <c r="VG2" s="2">
-        <v>-0.779455685842288</v>
+        <v>-9.161296960755401</v>
       </c>
       <c r="VH2" s="2">
-        <v>-0.792056298263197</v>
+        <v>-6.34424332740784</v>
       </c>
       <c r="VI2" s="2">
-        <v>-0.790943974509601</v>
+        <v>-14.8472435886091</v>
       </c>
       <c r="VJ2" s="2">
-        <v>-0.770089228040193</v>
+        <v>-1.58978293667367</v>
       </c>
       <c r="VK2" s="2">
-        <v>-0.800237451712312</v>
+        <v>4.74592973615278</v>
       </c>
       <c r="VL2" s="2">
-        <v>-0.794032940165905</v>
+        <v>-2.91961985324769</v>
       </c>
       <c r="VM2" s="2">
-        <v>-0.781374650104225</v>
+        <v>-0.264201919119407</v>
       </c>
       <c r="VN2" s="2">
-        <v>-0.789772194192536</v>
+        <v>-5.04634614695196</v>
       </c>
       <c r="VO2" s="2">
-        <v>-0.781396902168835</v>
+        <v>-8.135792854059799</v>
       </c>
       <c r="VP2" s="2">
-        <v>-0.793844667781917</v>
+        <v>-5.42309763516707</v>
       </c>
       <c r="VQ2" s="2">
-        <v>-0.798294344275425</v>
+        <v>-0.881637271921764</v>
       </c>
       <c r="VR2" s="2">
-        <v>-0.810063514657233</v>
+        <v>-9.987355536734359</v>
       </c>
       <c r="VS2" s="2">
-        <v>-0.807310663524098</v>
+        <v>-3.12594936741416</v>
       </c>
       <c r="VT2" s="2">
-        <v>-0.797210618103829</v>
+        <v>-20.1980024720187</v>
       </c>
       <c r="VU2" s="2">
-        <v>-0.821443481236152</v>
+        <v>-0.0738972476873961</v>
       </c>
       <c r="VV2" s="2">
-        <v>-0.817291780680958</v>
+        <v>-15.3915899605932</v>
       </c>
       <c r="VW2" s="2">
-        <v>-0.809099578186783</v>
+        <v>-0.898927818733475</v>
       </c>
       <c r="VX2" s="2">
-        <v>-0.820068063145253</v>
+        <v>-4.88606163607079</v>
       </c>
       <c r="VY2" s="2">
-        <v>-0.839312472151845</v>
+        <v>-4.63475943513546</v>
       </c>
       <c r="VZ2" s="2">
-        <v>-0.8180745071801681</v>
+        <v>-3.4860005304804</v>
       </c>
       <c r="WA2" s="2">
-        <v>-0.811947844819863</v>
+        <v>-5.39742130736131</v>
       </c>
       <c r="WB2" s="2">
-        <v>-0.833979969875548</v>
+        <v>1.35848838099598</v>
       </c>
       <c r="WC2" s="2">
-        <v>-0.832434286672259</v>
+        <v>-2.71785577508087</v>
       </c>
       <c r="WD2" s="2">
-        <v>-0.8422452111118111</v>
+        <v>-7.74091599330949</v>
       </c>
       <c r="WE2" s="2">
-        <v>-0.847383502624525</v>
+        <v>-9.559846711177491</v>
       </c>
       <c r="WF2" s="2">
-        <v>-0.844301112547504</v>
+        <v>-15.7379721326896</v>
       </c>
       <c r="WG2" s="2">
-        <v>-0.849145196531919</v>
+        <v>-8.20744968913084</v>
       </c>
       <c r="WH2" s="2">
-        <v>-0.84290332334444</v>
+        <v>-6.12856435042205</v>
       </c>
       <c r="WI2" s="2">
-        <v>-0.834477104518045</v>
+        <v>2.29188302550392</v>
       </c>
       <c r="WJ2" s="2">
-        <v>-0.847899848975782</v>
+        <v>-32.2267019892599</v>
       </c>
       <c r="WK2" s="2">
-        <v>-0.844208886849683</v>
+        <v>-8.181308671143929</v>
       </c>
       <c r="WL2" s="2">
-        <v>-0.8555960654909019</v>
+        <v>-2.90735027976091</v>
       </c>
       <c r="WM2" s="2">
-        <v>-0.8560991849456649</v>
+        <v>-1.63584762987761</v>
       </c>
       <c r="WN2" s="2">
-        <v>-0.857936973420665</v>
+        <v>0.8250736882754151</v>
       </c>
       <c r="WO2" s="2">
-        <v>-0.856747266591978</v>
+        <v>-0.672037560129394</v>
       </c>
       <c r="WP2" s="2">
-        <v>-0.864565027363956</v>
+        <v>-1.23223342017871</v>
       </c>
       <c r="WQ2" s="2">
-        <v>-0.86647709279383</v>
+        <v>-12.86346356694</v>
       </c>
       <c r="WR2" s="2">
-        <v>-0.86379458569431</v>
+        <v>-3.7713382569899</v>
       </c>
       <c r="WS2" s="2">
-        <v>-0.865811604169123</v>
+        <v>4.94253557100726</v>
       </c>
       <c r="WT2" s="2">
-        <v>-0.866069880333135</v>
+        <v>-1.78356966688495</v>
       </c>
       <c r="WU2" s="2">
-        <v>-0.8728345571923189</v>
+        <v>1.69844272287755</v>
       </c>
       <c r="WV2" s="2">
-        <v>-0.8659706686584721</v>
+        <v>-3.54858753220595</v>
       </c>
       <c r="WW2" s="2">
-        <v>-0.867398599101617</v>
+        <v>-19.5237302598852</v>
       </c>
       <c r="WX2" s="2">
-        <v>-0.860261692460292</v>
+        <v>0.693675079748582</v>
       </c>
       <c r="WY2" s="2">
-        <v>-0.867527632774152</v>
+        <v>17.6224562493566</v>
       </c>
       <c r="WZ2" s="2">
-        <v>-0.877072985281998</v>
+        <v>-10.3318877080105</v>
       </c>
       <c r="XA2" s="2">
-        <v>-0.87496197002552</v>
+        <v>6.57981846409936</v>
       </c>
       <c r="XB2" s="2">
-        <v>-0.880784967593689</v>
+        <v>-8.15673190763161</v>
       </c>
       <c r="XC2" s="2">
-        <v>-0.874667216158991</v>
+        <v>-10.5622962935182</v>
       </c>
       <c r="XD2" s="2">
-        <v>-0.871959922303607</v>
+        <v>-1.92064059605949</v>
       </c>
       <c r="XE2" s="2">
-        <v>-0.873585795873503</v>
+        <v>-4.68854680111301</v>
       </c>
       <c r="XF2" s="2">
-        <v>-0.877517316893806</v>
+        <v>-4.13816031105634</v>
       </c>
       <c r="XG2" s="2">
-        <v>-0.864772742030626</v>
+        <v>-7.38523756540351</v>
       </c>
       <c r="XH2" s="2">
-        <v>-0.882435292013163</v>
+        <v>-14.4274283168275</v>
       </c>
       <c r="XI2" s="2">
-        <v>-0.86662111846534</v>
+        <v>-6.19677937176675</v>
       </c>
       <c r="XJ2" s="2">
-        <v>-0.86338367310177</v>
+        <v>0.485215463654346</v>
       </c>
       <c r="XK2" s="2">
-        <v>-0.868077601804825</v>
+        <v>-17.7119498494697</v>
       </c>
       <c r="XL2" s="2">
-        <v>-0.875738200868891</v>
+        <v>8.6609590397806</v>
       </c>
       <c r="XM2" s="2">
-        <v>-0.863658185430806</v>
+        <v>-17.4783094947706</v>
       </c>
       <c r="XN2" s="2">
-        <v>-0.878601612018547</v>
+        <v>8.3335838116666</v>
       </c>
       <c r="XO2" s="2">
-        <v>-0.861910303142493</v>
+        <v>-7.1537995388031</v>
       </c>
       <c r="XP2" s="2">
-        <v>-0.8732709614709</v>
+        <v>-15.6730935203529</v>
       </c>
       <c r="XQ2" s="2">
-        <v>-0.876756557378</v>
+        <v>-7.23848154760815</v>
       </c>
       <c r="XR2" s="2">
-        <v>-0.8627023060295</v>
+        <v>-5.12409610330208</v>
       </c>
       <c r="XS2" s="2">
-        <v>-0.884301462628702</v>
+        <v>1.40760432089511</v>
       </c>
       <c r="XT2" s="2">
-        <v>-0.857944003557618</v>
+        <v>-9.10750750670563</v>
       </c>
       <c r="XU2" s="2">
-        <v>-0.870592972665536</v>
+        <v>-5.60220065389485</v>
       </c>
       <c r="XV2" s="2">
-        <v>-0.869296768621762</v>
+        <v>-0.134426882330111</v>
       </c>
       <c r="XW2" s="2">
-        <v>-0.862130804513728</v>
+        <v>-4.70204975066582</v>
       </c>
       <c r="XX2" s="2">
-        <v>-0.861263804612358</v>
+        <v>-16.3738307747261</v>
       </c>
       <c r="XY2" s="2">
-        <v>-0.873440531612156</v>
+        <v>1.1269112451962</v>
       </c>
       <c r="XZ2" s="2">
-        <v>-0.861963955878162</v>
+        <v>-6.88089038900394</v>
       </c>
       <c r="YA2" s="2">
-        <v>-0.862190004481421</v>
+        <v>-12.0273412501319</v>
       </c>
       <c r="YB2" s="2">
-        <v>-0.852255974490024</v>
+        <v>-4.25491019081604</v>
       </c>
       <c r="YC2" s="2">
-        <v>-0.856969507889413</v>
+        <v>3.52811238864242</v>
       </c>
       <c r="YD2" s="2">
-        <v>-0.862122035188396</v>
+        <v>-13.5920124571933</v>
       </c>
       <c r="YE2" s="2">
-        <v>-0.8693259666191701</v>
+        <v>-0.00619431774310668</v>
       </c>
       <c r="YF2" s="2">
-        <v>-0.868236567035131</v>
+        <v>-0.652951612024015</v>
       </c>
       <c r="YG2" s="2">
-        <v>-0.858694344109479</v>
+        <v>1.60838216034572</v>
       </c>
       <c r="YH2" s="2">
-        <v>-0.857707798919828</v>
+        <v>1.39295956093275</v>
       </c>
       <c r="YI2" s="2">
-        <v>-0.859934241670661</v>
+        <v>-3.93431179899148</v>
       </c>
       <c r="YJ2" s="2">
-        <v>-0.867679308122588</v>
+        <v>-3.96782826405634</v>
       </c>
       <c r="YK2" s="2">
-        <v>-0.8616416054562041</v>
+        <v>-5.83076778417767</v>
       </c>
       <c r="YL2" s="2">
-        <v>-0.864964364310749</v>
+        <v>-16.7032766837027</v>
       </c>
       <c r="YM2" s="2">
-        <v>-0.867553100429322</v>
+        <v>4.61279429060449</v>
       </c>
       <c r="YN2" s="2">
-        <v>-0.8605424188615181</v>
+        <v>-0.337184986075861</v>
       </c>
       <c r="YO2" s="2">
-        <v>-0.866268213483841</v>
+        <v>4.56604017931098</v>
       </c>
       <c r="YP2" s="2">
-        <v>-0.880988640678447</v>
+        <v>-13.3294136585835</v>
       </c>
       <c r="YQ2" s="2">
-        <v>-0.871504075480112</v>
+        <v>-24.4518937433396</v>
       </c>
       <c r="YR2" s="2">
-        <v>-0.867115115252665</v>
+        <v>-0.220402651940686</v>
       </c>
       <c r="YS2" s="2">
-        <v>-0.864789790381581</v>
+        <v>-16.7893665557406</v>
       </c>
       <c r="YT2" s="2">
-        <v>-0.866035553442978</v>
+        <v>-13.9896682085934</v>
       </c>
       <c r="YU2" s="2">
-        <v>-0.8778842322379919</v>
+        <v>-5.4696049949392</v>
       </c>
       <c r="YV2" s="2">
-        <v>-0.869374871331386</v>
+        <v>1.47867962355723</v>
       </c>
       <c r="YW2" s="2">
-        <v>-0.871309874371525</v>
+        <v>0.281842104026125</v>
       </c>
       <c r="YX2" s="2">
-        <v>-0.872183331809231</v>
+        <v>6.4136127062283</v>
       </c>
       <c r="YY2" s="2">
-        <v>-0.871158045307792</v>
+        <v>5.24370315981654</v>
       </c>
       <c r="YZ2" s="2">
-        <v>-0.874144631026509</v>
+        <v>-2.15309600722046</v>
       </c>
       <c r="ZA2" s="2">
-        <v>-0.883019479290993</v>
+        <v>7.49444081302391</v>
       </c>
       <c r="ZB2" s="2">
-        <v>-0.8794135495048599</v>
+        <v>-3.12396431611459</v>
       </c>
       <c r="ZC2" s="2">
-        <v>-0.882710790877583</v>
+        <v>-1.9420473922929</v>
       </c>
       <c r="ZD2" s="2">
-        <v>-0.8875392597705269</v>
+        <v>-3.0198089566516</v>
       </c>
       <c r="ZE2" s="2">
-        <v>-0.884385332695227</v>
+        <v>-7.35420622996039</v>
       </c>
       <c r="ZF2" s="2">
-        <v>-0.894511353022831</v>
+        <v>-2.21107721175242</v>
       </c>
       <c r="ZG2" s="2">
-        <v>-0.894626315526779</v>
+        <v>-3.91747187293748</v>
       </c>
       <c r="ZH2" s="2">
-        <v>-0.893737188867754</v>
+        <v>1.16329104394739</v>
       </c>
       <c r="ZI2" s="2">
-        <v>-0.895595559124885</v>
+        <v>13.1402012819961</v>
       </c>
       <c r="ZJ2" s="2">
-        <v>-0.898874754230009</v>
+        <v>-5.11543393417365</v>
       </c>
       <c r="ZK2" s="2">
-        <v>-0.887707195197166</v>
+        <v>-0.0980881951889573</v>
       </c>
       <c r="ZL2" s="2">
-        <v>-0.8991699385726309</v>
+        <v>-2.87738030990762</v>
       </c>
       <c r="ZM2" s="2">
-        <v>-0.902379427385511</v>
+        <v>-14.1914785167118</v>
       </c>
       <c r="ZN2" s="2">
-        <v>-0.90886124307446</v>
+        <v>-4.35443597297882</v>
       </c>
       <c r="ZO2" s="2">
-        <v>-0.915563769139312</v>
+        <v>0.544194911224903</v>
       </c>
       <c r="ZP2" s="2">
-        <v>-0.905792951765225</v>
+        <v>-0.552504236755868</v>
       </c>
       <c r="ZQ2" s="2">
-        <v>-0.919066466757282</v>
+        <v>-4.81818848770248</v>
       </c>
       <c r="ZR2" s="2">
-        <v>-0.915240289168701</v>
+        <v>1.62792807540286</v>
       </c>
       <c r="ZS2" s="2">
-        <v>-0.914530391196964</v>
+        <v>11.6007046370239</v>
       </c>
       <c r="ZT2" s="2">
-        <v>-0.922840375854576</v>
+        <v>2.74738610575771</v>
       </c>
       <c r="ZU2" s="2">
-        <v>-0.923281147642335</v>
+        <v>1.55624796832106</v>
       </c>
       <c r="ZV2" s="2">
-        <v>-0.913377174538738</v>
+        <v>-6.26388763075796</v>
       </c>
       <c r="ZW2" s="2">
-        <v>-0.900987546785449</v>
+        <v>-9.14147733530627</v>
       </c>
       <c r="ZX2" s="2">
-        <v>-0.925469662325873</v>
+        <v>-5.6174040285542</v>
       </c>
       <c r="ZY2" s="2">
-        <v>-0.943998974256992</v>
+        <v>-10.132239935752</v>
       </c>
       <c r="ZZ2" s="2">
-        <v>-0.939000998709578</v>
+        <v>4.53500206197723</v>
       </c>
       <c r="AAA2" s="2">
-        <v>-0.9363601928967979</v>
+        <v>-9.523740029521781</v>
       </c>
       <c r="AAB2" s="2">
-        <v>-0.919517874353497</v>
+        <v>-12.92873134575</v>
       </c>
       <c r="AAC2" s="2">
-        <v>-0.9397455828757439</v>
+        <v>2.41542512176134</v>
       </c>
       <c r="AAD2" s="2">
-        <v>-0.928443774593437</v>
+        <v>0.688447395324853</v>
       </c>
       <c r="AAE2" s="2">
-        <v>-0.920960549221009</v>
+        <v>-3.03448760095668</v>
       </c>
       <c r="AAF2" s="2">
-        <v>-0.9330858081580869</v>
+        <v>-5.08211594130851</v>
       </c>
       <c r="AAG2" s="2">
-        <v>-0.941043244937975</v>
+        <v>-13.9655179331086</v>
       </c>
       <c r="AAH2" s="2">
-        <v>-0.94201635564936</v>
+        <v>0.70547650286047</v>
       </c>
       <c r="AAI2" s="2">
-        <v>-0.933197282623938</v>
+        <v>6.76991505913859</v>
       </c>
       <c r="AAJ2" s="2">
-        <v>-0.928823882118511</v>
+        <v>1.16037878416469</v>
       </c>
       <c r="AAK2" s="2">
-        <v>-0.932822936127658</v>
+        <v>6.31865056315859</v>
       </c>
       <c r="AAL2" s="2">
-        <v>-0.9346190981008859</v>
+        <v>4.37099911984327</v>
       </c>
       <c r="AAM2" s="2">
-        <v>-0.941190279647027</v>
+        <v>-0.627738032033651</v>
       </c>
       <c r="AAN2" s="2">
-        <v>-0.941535697745525</v>
+        <v>-0.590712248083625</v>
       </c>
       <c r="AAO2" s="2">
-        <v>-0.932530488454415</v>
+        <v>-2.66137868266216</v>
       </c>
       <c r="AAP2" s="2">
-        <v>-0.92978473300463</v>
+        <v>-22.1806497041473</v>
       </c>
       <c r="AAQ2" s="2">
-        <v>-0.919399065652646</v>
+        <v>-8.82365125322074</v>
       </c>
       <c r="AAR2" s="2">
-        <v>-0.934523853845145</v>
+        <v>-0.08604236126836851</v>
       </c>
       <c r="AAS2" s="2">
-        <v>-0.940557337862465</v>
+        <v>-4.66416095129477</v>
       </c>
       <c r="AAT2" s="2">
-        <v>-0.9200130469678101</v>
+        <v>1.38330641153587</v>
       </c>
       <c r="AAU2" s="2">
-        <v>-0.921464724247929</v>
+        <v>1.86169422437436</v>
       </c>
       <c r="AAV2" s="2">
-        <v>-0.904295193192713</v>
+        <v>-6.91024546516914</v>
       </c>
       <c r="AAW2" s="2">
-        <v>-0.941025170431796</v>
+        <v>-8.387525913328609</v>
       </c>
       <c r="AAX2" s="2">
-        <v>-0.923212283463882</v>
+        <v>-14.9376062244866</v>
       </c>
       <c r="AAY2" s="2">
-        <v>-0.926824942094331</v>
+        <v>-4.26935139060701</v>
       </c>
       <c r="AAZ2" s="2">
-        <v>-0.897138023869501</v>
+        <v>-6.49566530662077</v>
       </c>
       <c r="ABA2" s="2">
-        <v>-0.907793298235214</v>
+        <v>-4.7415899291555</v>
       </c>
       <c r="ABB2" s="2">
-        <v>-0.916270539217062</v>
+        <v>-8.11171204845331</v>
       </c>
       <c r="ABC2" s="2">
-        <v>-0.922910062143931</v>
+        <v>-8.588713903404161</v>
       </c>
       <c r="ABD2" s="2">
-        <v>-0.914704374272396</v>
+        <v>-24.2217539261559</v>
       </c>
       <c r="ABE2" s="2">
-        <v>-0.9211839843606771</v>
+        <v>-1.71512089940373</v>
       </c>
       <c r="ABF2" s="2">
-        <v>-0.910843381333088</v>
+        <v>0.233798710691965</v>
       </c>
       <c r="ABG2" s="2">
-        <v>-0.921846035366976</v>
+        <v>-19.5689277875111</v>
       </c>
       <c r="ABH2" s="2">
-        <v>-0.904898547049243</v>
+        <v>-11.9628821740634</v>
       </c>
       <c r="ABI2" s="2">
-        <v>-0.920924058118231</v>
+        <v>-10.6718570704452</v>
       </c>
       <c r="ABJ2" s="2">
-        <v>-0.911634145384284</v>
+        <v>-21.1511967914809</v>
       </c>
       <c r="ABK2" s="2">
-        <v>-0.9156068061677</v>
+        <v>-6.86763751396888</v>
       </c>
       <c r="ABL2" s="2">
-        <v>-0.919734289041773</v>
+        <v>-11.6341107406307</v>
       </c>
       <c r="ABM2" s="2">
-        <v>-0.899848442565725</v>
+        <v>3.5948707203053</v>
       </c>
       <c r="ABN2" s="2">
-        <v>-0.917605730586788</v>
+        <v>-12.2217754777625</v>
       </c>
       <c r="ABO2" s="2">
-        <v>-0.907328408681633</v>
+        <v>-2.08020478661044</v>
       </c>
       <c r="ABP2" s="2">
-        <v>-0.91803214627187</v>
+        <v>1.26743214389423</v>
       </c>
       <c r="ABQ2" s="2">
-        <v>-0.901956683539459</v>
+        <v>-9.059967568656459</v>
       </c>
       <c r="ABR2" s="2">
-        <v>-0.908696608197506</v>
+        <v>-1.24269380406898</v>
       </c>
       <c r="ABS2" s="2">
-        <v>-0.893723940352154</v>
+        <v>-0.310700945921524</v>
       </c>
       <c r="ABT2" s="2">
-        <v>-0.906284725435585</v>
+        <v>3.08446116191245</v>
       </c>
       <c r="ABU2" s="2">
-        <v>-0.9019023369645049</v>
+        <v>-8.12835738009238</v>
       </c>
       <c r="ABV2" s="2">
-        <v>-0.91204268185683</v>
+        <v>6.94509590873643</v>
       </c>
       <c r="ABW2" s="2">
-        <v>-0.902012676075797</v>
+        <v>1.38821163394102</v>
       </c>
       <c r="ABX2" s="2">
-        <v>-0.907037083126397</v>
+        <v>2.70122921331502</v>
       </c>
       <c r="ABY2" s="2">
-        <v>-0.900702535166451</v>
+        <v>-10.7357510276176</v>
       </c>
       <c r="ABZ2" s="2">
-        <v>-0.909246579168934</v>
+        <v>-17.3616287701886</v>
       </c>
       <c r="ACA2" s="2">
-        <v>-0.8993260407514601</v>
+        <v>5.31218141771452</v>
       </c>
       <c r="ACB2" s="2">
-        <v>-0.907445355461494</v>
+        <v>7.30926673915052</v>
       </c>
       <c r="ACC2" s="2">
-        <v>-0.898861794468795</v>
+        <v>8.795474449074129</v>
       </c>
       <c r="ACD2" s="2">
-        <v>-0.897927322554144</v>
+        <v>0.0387594091862378</v>
       </c>
       <c r="ACE2" s="2">
-        <v>-0.902533160188701</v>
+        <v>3.46470256261762</v>
       </c>
       <c r="ACF2" s="2">
-        <v>-0.916104844691911</v>
+        <v>-6.10787242858887</v>
       </c>
       <c r="ACG2" s="2">
-        <v>-0.910490122651744</v>
+        <v>-4.51122567857977</v>
       </c>
       <c r="ACH2" s="2">
-        <v>-0.912896399991561</v>
+        <v>-8.99391298817887</v>
       </c>
       <c r="ACI2" s="2">
-        <v>-0.920581780253236</v>
+        <v>5.77649338137327</v>
       </c>
       <c r="ACJ2" s="2">
-        <v>-0.910011047770282</v>
+        <v>-4.52476154834802</v>
       </c>
       <c r="ACK2" s="2">
-        <v>-0.91812687961252</v>
+        <v>-30.4102454582523</v>
       </c>
       <c r="ACL2" s="2">
-        <v>-0.929418686510819</v>
+        <v>-16.7876648710291</v>
       </c>
       <c r="ACM2" s="2">
-        <v>-0.920712363953638</v>
+        <v>-3.67952878346689</v>
       </c>
       <c r="ACN2" s="2">
-        <v>-0.936023010549373</v>
+        <v>-1.50123321658329</v>
       </c>
       <c r="ACO2" s="2">
-        <v>-0.932670928889999</v>
+        <v>12.3271220005154</v>
       </c>
       <c r="ACP2" s="2">
-        <v>-0.930775175395864</v>
+        <v>-15.900508048755</v>
       </c>
       <c r="ACQ2" s="2">
-        <v>-0.939723631651438</v>
+        <v>-3.13170791539841</v>
       </c>
       <c r="ACR2" s="2">
-        <v>-0.936641473768011</v>
+        <v>-22.3144298475331</v>
       </c>
       <c r="ACS2" s="2">
-        <v>-0.939304273950441</v>
+        <v>-12.0678881227404</v>
       </c>
       <c r="ACT2" s="2">
-        <v>-0.93521349827219</v>
+        <v>-9.78923484160207</v>
       </c>
       <c r="ACU2" s="2">
-        <v>-0.9492228014727661</v>
+        <v>-15.6736139160899</v>
       </c>
       <c r="ACV2" s="2">
-        <v>-0.959788614027612</v>
+        <v>-7.60284919714816</v>
       </c>
       <c r="ACW2" s="2">
-        <v>-0.965136460958623</v>
+        <v>11.4815169978678</v>
       </c>
       <c r="ACX2" s="2">
-        <v>-0.972235012746717</v>
+        <v>4.96274865434593</v>
       </c>
       <c r="ACY2" s="2">
-        <v>-0.96718329323985</v>
+        <v>-1.68938229364041</v>
       </c>
       <c r="ACZ2" s="2">
-        <v>-0.977279237764959</v>
+        <v>-5.19699913363853</v>
       </c>
       <c r="ADA2" s="2">
-        <v>-0.982718124593701</v>
+        <v>-8.86353836974607</v>
       </c>
       <c r="ADB2" s="2">
-        <v>-0.988143124110513</v>
+        <v>-18.5374863626517</v>
       </c>
       <c r="ADC2" s="2">
-        <v>-0.99967642025526</v>
+        <v>-5.64579623146413</v>
       </c>
       <c r="ADD2" s="2">
-        <v>-0.995524224481272</v>
+        <v>-1.73201790973244</v>
       </c>
       <c r="ADE2" s="2">
-        <v>-0.994328830012802</v>
+        <v>-9.150364832835811</v>
       </c>
       <c r="ADF2" s="2">
-        <v>-1.00122342310291</v>
+        <v>6.62527066962095</v>
       </c>
       <c r="ADG2" s="2">
-        <v>-1.00906517357094</v>
+        <v>-13.4385262687796</v>
       </c>
       <c r="ADH2" s="2">
-        <v>-1.01318700929494</v>
+        <v>-9.009744159100229</v>
       </c>
       <c r="ADI2" s="2">
-        <v>-1.02183702489949</v>
+        <v>4.29159403188495</v>
       </c>
       <c r="ADJ2" s="2">
-        <v>-1.03216319048692</v>
+        <v>-16.6765983667813</v>
       </c>
       <c r="ADK2" s="2">
-        <v>-1.03046006540243</v>
+        <v>-0.659271247653355</v>
       </c>
       <c r="ADL2" s="2">
-        <v>-1.03126503659456</v>
+        <v>-10.391906498916</v>
       </c>
       <c r="ADM2" s="2">
-        <v>-1.03953161110497</v>
+        <v>-21.4038009222998</v>
       </c>
       <c r="ADN2" s="2">
-        <v>-1.05295418651413</v>
+        <v>-7.06429499845437</v>
       </c>
       <c r="ADO2" s="2">
-        <v>-1.04409924273897</v>
+        <v>-0.150336405560873</v>
       </c>
       <c r="ADP2" s="2">
-        <v>-1.0638667814711</v>
+        <v>-9.37146461239529</v>
       </c>
       <c r="ADQ2" s="2">
-        <v>-1.04538329966678</v>
+        <v>-1.75661424889711</v>
       </c>
       <c r="ADR2" s="2">
-        <v>-1.07354111924114</v>
+        <v>-13.0874398071222</v>
       </c>
       <c r="ADS2" s="2">
-        <v>-1.08542198536389</v>
+        <v>3.59106424867017</v>
       </c>
       <c r="ADT2" s="2">
-        <v>-1.07916963141425</v>
+        <v>-1.0170570668595</v>
       </c>
       <c r="ADU2" s="2">
-        <v>-1.0946857771892</v>
+        <v>-8.1250461457822</v>
       </c>
       <c r="ADV2" s="2">
-        <v>-1.07431122131017</v>
+        <v>-11.9425906044591</v>
       </c>
       <c r="ADW2" s="2">
-        <v>-1.09137090082477</v>
+        <v>-1.86228900988581</v>
       </c>
       <c r="ADX2" s="2">
-        <v>-1.07243155587574</v>
+        <v>-5.58488233820486</v>
       </c>
       <c r="ADY2" s="2">
-        <v>-1.08869968642208</v>
+        <v>0.0292411092792586</v>
       </c>
       <c r="ADZ2" s="2">
-        <v>-1.08561429217965</v>
+        <v>-10.65090551049</v>
       </c>
       <c r="AEA2" s="2">
-        <v>-1.09790376230763</v>
+        <v>-6.82077887083876</v>
       </c>
       <c r="AEB2" s="2">
-        <v>-1.10313610992073</v>
+        <v>-2.38305586281519</v>
       </c>
       <c r="AEC2" s="2">
-        <v>-1.11173268921876</v>
+        <v>-1.91559716965211</v>
       </c>
       <c r="AED2" s="2">
-        <v>-1.11853736601176</v>
+        <v>2.08010645578656</v>
       </c>
       <c r="AEE2" s="2">
-        <v>-1.10670011142666</v>
+        <v>-25.4431579647927</v>
       </c>
       <c r="AEF2" s="2">
-        <v>-1.10623627070639</v>
+        <v>-4.00338836649384</v>
       </c>
       <c r="AEG2" s="2">
-        <v>-1.12215496694664</v>
+        <v>11.939238195147</v>
       </c>
       <c r="AEH2" s="2">
-        <v>-1.13219328853836</v>
+        <v>-0.988733523961003</v>
       </c>
       <c r="AEI2" s="2">
-        <v>-1.12393635603938</v>
+        <v>-20.34093334843</v>
       </c>
       <c r="AEJ2" s="2">
-        <v>-1.11908794718731</v>
+        <v>-16.8261175178205</v>
       </c>
       <c r="AEK2" s="2">
-        <v>-1.11921444839374</v>
+        <v>2.83975343402308</v>
       </c>
       <c r="AEL2" s="2">
-        <v>-1.11379869209245</v>
+        <v>-3.94047770325846</v>
       </c>
       <c r="AEM2" s="2">
-        <v>-1.11560799613488</v>
+        <v>-7.8268944252434</v>
       </c>
       <c r="AEN2" s="2">
-        <v>-1.11570918474085</v>
+        <v>-0.332126608940598</v>
       </c>
       <c r="AEO2" s="2">
-        <v>-1.12788957043988</v>
+        <v>-1.93790352885704</v>
       </c>
       <c r="AEP2" s="2">
-        <v>-1.10911209211888</v>
+        <v>-3.26226083969104</v>
       </c>
       <c r="AEQ2" s="2">
-        <v>-1.12177791652904</v>
+        <v>1.18277628329784</v>
       </c>
       <c r="AER2" s="2">
-        <v>-1.11247759015584</v>
+        <v>4.91474111830787</v>
       </c>
       <c r="AES2" s="2">
-        <v>-1.09316296419</v>
+        <v>1.4855763553246</v>
       </c>
       <c r="AET2" s="2">
-        <v>-1.10419966014611</v>
+        <v>-13.9428041066423</v>
       </c>
       <c r="AEU2" s="2">
-        <v>-1.11577596083652</v>
+        <v>15.1876455123854</v>
       </c>
       <c r="AEV2" s="2">
-        <v>-1.09538503122517</v>
+        <v>-0.857474850353696</v>
       </c>
       <c r="AEW2" s="2">
-        <v>-1.10532040451049</v>
+        <v>3.86911977465574</v>
       </c>
       <c r="AEX2" s="2">
-        <v>-1.09078622142579</v>
+        <v>-3.61528015736602</v>
       </c>
       <c r="AEY2" s="2">
-        <v>-1.08905972126475</v>
+        <v>-10.6775357665873</v>
       </c>
       <c r="AEZ2" s="2">
-        <v>-1.09296064775204</v>
+        <v>-4.3238953256011</v>
       </c>
       <c r="AFA2" s="2">
-        <v>-1.08134972124872</v>
+        <v>-1.09824148071494</v>
       </c>
       <c r="AFB2" s="2">
-        <v>-1.09430137456182</v>
+        <v>-28.8468144842442</v>
       </c>
       <c r="AFC2" s="2">
-        <v>-1.0810945676166</v>
+        <v>-13.6909057105505</v>
       </c>
       <c r="AFD2" s="2">
-        <v>-1.07560427185421</v>
+        <v>-13.1072454220642</v>
       </c>
       <c r="AFE2" s="2">
-        <v>-1.07192865620482</v>
+        <v>-16.79924060805</v>
       </c>
       <c r="AFF2" s="2">
-        <v>-1.07319844275889</v>
+        <v>2.84526467146783</v>
       </c>
       <c r="AFG2" s="2">
-        <v>-1.07877116608806</v>
+        <v>6.47079985682959</v>
       </c>
       <c r="AFH2" s="2">
-        <v>-1.06086828941978</v>
+        <v>-16.0438143903099</v>
       </c>
       <c r="AFI2" s="2">
-        <v>-1.06864980889769</v>
+        <v>-1.59023247285778</v>
       </c>
       <c r="AFJ2" s="2">
-        <v>-1.05075072269529</v>
+        <v>9.93019177152707</v>
       </c>
       <c r="AFK2" s="2">
-        <v>-1.040071571854</v>
+        <v>-4.64500483208779</v>
       </c>
       <c r="AFL2" s="2">
-        <v>-1.04334866457879</v>
+        <v>-2.7777185142587</v>
       </c>
       <c r="AFM2" s="2">
-        <v>-1.04436343277091</v>
+        <v>-10.455347614929</v>
       </c>
       <c r="AFN2" s="2">
-        <v>-1.04593093498095</v>
+        <v>-9.09972410238186</v>
       </c>
       <c r="AFO2" s="2">
-        <v>-1.04259326730876</v>
+        <v>-8.20916884577067</v>
       </c>
       <c r="AFP2" s="2">
-        <v>-1.04116629518516</v>
+        <v>-1.10626325073434</v>
       </c>
       <c r="AFQ2" s="2">
-        <v>-1.02482382015694</v>
+        <v>-23.9077019135607</v>
       </c>
       <c r="AFR2" s="2">
-        <v>-1.02442048231183</v>
+        <v>-6.94770156217315</v>
       </c>
       <c r="AFS2" s="2">
-        <v>-1.02793570866517</v>
+        <v>-22.3228001791484</v>
       </c>
       <c r="AFT2" s="2">
-        <v>-1.01782577763842</v>
+        <v>-9.936946675662311</v>
       </c>
       <c r="AFU2" s="2">
-        <v>-1.01492022167186</v>
+        <v>-27.6284528335186</v>
       </c>
       <c r="AFV2" s="2">
-        <v>-1.01390189923854</v>
+        <v>6.2711968400103</v>
       </c>
       <c r="AFW2" s="2">
-        <v>-0.99729197872181</v>
+        <v>-7.17173031986517</v>
       </c>
       <c r="AFX2" s="2">
-        <v>-1.00208333150535</v>
+        <v>-11.9418635299025</v>
       </c>
       <c r="AFY2" s="2">
-        <v>-1.00425628401267</v>
+        <v>-2.2216999707416</v>
       </c>
       <c r="AFZ2" s="2">
-        <v>-0.995035476518192</v>
+        <v>8.15653406002782</v>
       </c>
       <c r="AGA2" s="2">
-        <v>-1.01462455106716</v>
+        <v>-5.97478708230436</v>
       </c>
       <c r="AGB2" s="2">
-        <v>-1.00331396388897</v>
+        <v>-18.7143526980749</v>
       </c>
       <c r="AGC2" s="2">
-        <v>-0.991347141861656</v>
+        <v>4.97259991602135</v>
       </c>
       <c r="AGD2" s="2">
-        <v>-1.0045662995926</v>
+        <v>-1.21236813889544</v>
       </c>
       <c r="AGE2" s="2">
-        <v>-0.999568234927819</v>
+        <v>1.257753114487</v>
       </c>
       <c r="AGF2" s="2">
-        <v>-1.00680122785547</v>
+        <v>1.53504538013315</v>
       </c>
       <c r="AGG2" s="2">
-        <v>-1.00522259478202</v>
+        <v>-14.8669693727823</v>
       </c>
       <c r="AGH2" s="2">
-        <v>-0.99202526960947</v>
+        <v>0.111519560475743</v>
       </c>
       <c r="AGI2" s="2">
-        <v>-1.00057482047691</v>
+        <v>0.786955879162435</v>
       </c>
       <c r="AGJ2" s="2">
-        <v>-0.9837638463848219</v>
+        <v>-10.132825840336</v>
       </c>
       <c r="AGK2" s="2">
-        <v>-1.00747129593388</v>
+        <v>5.45056763957845</v>
       </c>
       <c r="AGL2" s="2">
-        <v>-1.00339727148212</v>
+        <v>9.425859280781641</v>
       </c>
       <c r="AGM2" s="2">
-        <v>-1.00898683803379</v>
+        <v>2.07420593349632</v>
       </c>
       <c r="AGN2" s="2">
-        <v>-1.01603051344124</v>
+        <v>-2.81682830385017</v>
       </c>
       <c r="AGO2" s="2">
-        <v>-1.00284764279275</v>
+        <v>-3.96238513421488</v>
       </c>
       <c r="AGP2" s="2">
-        <v>-1.01910985510315</v>
+        <v>-7.61214655329559</v>
       </c>
       <c r="AGQ2" s="2">
-        <v>-1.0170348295199</v>
+        <v>-5.58556861361488</v>
       </c>
       <c r="AGR2" s="2">
-        <v>-1.02191772098264</v>
+        <v>4.71152916975683</v>
       </c>
       <c r="AGS2" s="2">
-        <v>-1.02828396413912</v>
+        <v>-10.129263317306</v>
       </c>
       <c r="AGT2" s="2">
-        <v>-1.02927110045904</v>
+        <v>-14.882867467089</v>
       </c>
       <c r="AGU2" s="2">
-        <v>-1.03031783868892</v>
+        <v>0.252015877801197</v>
       </c>
       <c r="AGV2" s="2">
-        <v>-1.04332126569804</v>
+        <v>-16.9546505394019</v>
       </c>
       <c r="AGW2" s="2">
-        <v>-1.03863670933801</v>
+        <v>-2.00204887929725</v>
       </c>
       <c r="AGX2" s="2">
-        <v>-1.05583324090252</v>
+        <v>-15.1349199867251</v>
       </c>
       <c r="AGY2" s="2">
-        <v>-1.06282631823144</v>
+        <v>-6.11216680014246</v>
       </c>
       <c r="AGZ2" s="2">
-        <v>-1.0606365345087</v>
+        <v>-4.15320501995841</v>
       </c>
       <c r="AHA2" s="2">
-        <v>-1.06888381455762</v>
+        <v>11.0094241960941</v>
       </c>
       <c r="AHB2" s="2">
-        <v>-1.08713149796987</v>
+        <v>-22.8527655808743</v>
       </c>
       <c r="AHC2" s="2">
-        <v>-1.08074990730574</v>
+        <v>-6.25307017126178</v>
       </c>
       <c r="AHD2" s="2">
-        <v>-1.09525594521016</v>
+        <v>-1.65997631276751</v>
       </c>
       <c r="AHE2" s="2">
-        <v>-1.09873290584325</v>
+        <v>-7.39320545516666</v>
       </c>
       <c r="AHF2" s="2">
-        <v>-1.10799882556644</v>
+        <v>-11.9531271298524</v>
       </c>
       <c r="AHG2" s="2">
-        <v>-1.11987486469509</v>
+        <v>-12.2494288520887</v>
       </c>
       <c r="AHH2" s="2">
-        <v>-1.12589602726394</v>
+        <v>-12.2428864128901</v>
       </c>
       <c r="AHI2" s="2">
-        <v>-1.1470210701594</v>
+        <v>-6.9572423608529</v>
       </c>
       <c r="AHJ2" s="2">
-        <v>-1.14268899331375</v>
+        <v>-4.30826329009739</v>
       </c>
       <c r="AHK2" s="2">
-        <v>-1.16026017269101</v>
+        <v>-3.12200416123937</v>
       </c>
       <c r="AHL2" s="2">
-        <v>-1.16706399689478</v>
+        <v>-17.4490635472805</v>
       </c>
       <c r="AHM2" s="2">
-        <v>-1.19700100488284</v>
+        <v>19.5506735019199</v>
       </c>
       <c r="AHN2" s="2">
-        <v>-1.18149284116447</v>
+        <v>-3.37361287800205</v>
       </c>
       <c r="AHO2" s="2">
-        <v>-1.1940422386645</v>
+        <v>-1.90434829546998</v>
       </c>
       <c r="AHP2" s="2">
-        <v>-1.21016441981408</v>
+        <v>-5.32507420573788</v>
       </c>
       <c r="AHQ2" s="2">
-        <v>-1.2159556303786</v>
+        <v>-0.8067450226942789</v>
       </c>
       <c r="AHR2" s="2">
-        <v>-1.2185405965597</v>
+        <v>8.716621324575369</v>
       </c>
       <c r="AHS2" s="2">
-        <v>-1.24372837033173</v>
+        <v>-4.69202993073791</v>
       </c>
       <c r="AHT2" s="2">
-        <v>-1.24787395907085</v>
+        <v>-19.638886820143</v>
       </c>
       <c r="AHU2" s="2">
-        <v>-1.23718640584102</v>
+        <v>-2.69301338225188</v>
       </c>
       <c r="AHV2" s="2">
-        <v>-1.26521187094416</v>
+        <v>-7.957719606831</v>
       </c>
       <c r="AHW2" s="2">
-        <v>-1.27322421114963</v>
+        <v>-6.50210063931803</v>
       </c>
       <c r="AHX2" s="2">
-        <v>-1.2833073094012</v>
+        <v>-18.7313175458099</v>
       </c>
       <c r="AHY2" s="2">
-        <v>-1.29110476280864</v>
+        <v>6.62532995197651</v>
       </c>
       <c r="AHZ2" s="2">
-        <v>-1.29988929490148</v>
+        <v>-7.28026071703762</v>
       </c>
       <c r="AIA2" s="2">
-        <v>-1.31688303541124</v>
+        <v>-14.8931319819516</v>
       </c>
       <c r="AIB2" s="2">
-        <v>-1.3130768471314</v>
+        <v>0.574051606067616</v>
       </c>
       <c r="AIC2" s="2">
-        <v>-1.3224291277304</v>
+        <v>-8.838441544262571</v>
       </c>
       <c r="AID2" s="2">
-        <v>-1.34592807113414</v>
+        <v>1.67220573113983</v>
       </c>
       <c r="AIE2" s="2">
-        <v>-1.33895267006974</v>
+        <v>-14.9297373788917</v>
       </c>
       <c r="AIF2" s="2">
-        <v>-1.34699718073789</v>
+        <v>-5.94758176419268</v>
       </c>
       <c r="AIG2" s="2">
-        <v>-1.35787331033394</v>
+        <v>-11.181303477468</v>
       </c>
       <c r="AIH2" s="2">
-        <v>-1.36986925647294</v>
+        <v>-9.75134504725972</v>
       </c>
       <c r="AII2" s="2">
-        <v>-1.36560867459992</v>
+        <v>-22.9964044907255</v>
       </c>
       <c r="AIJ2" s="2">
-        <v>-1.371091943681</v>
+        <v>9.528296813321839</v>
       </c>
       <c r="AIK2" s="2">
-        <v>-1.37522928668398</v>
+        <v>-9.96250530515074</v>
       </c>
       <c r="AIL2" s="2">
-        <v>-1.3801239922348</v>
+        <v>-17.4208663659739</v>
       </c>
       <c r="AIM2" s="2">
-        <v>-1.38696486798745</v>
+        <v>-10.0243928955157</v>
       </c>
       <c r="AIN2" s="2">
-        <v>-1.38753278230436</v>
+        <v>-4.09187916630026</v>
       </c>
       <c r="AIO2" s="2">
-        <v>-1.39153168682275</v>
+        <v>-5.41497926087226</v>
       </c>
       <c r="AIP2" s="2">
-        <v>-1.38032376233005</v>
+        <v>-5.27023012803478</v>
       </c>
       <c r="AIQ2" s="2">
-        <v>-1.38639504474743</v>
+        <v>4.69528471367611</v>
       </c>
       <c r="AIR2" s="2">
-        <v>-1.39928652729342</v>
+        <v>-3.7083770344951</v>
       </c>
       <c r="AIS2" s="2">
-        <v>-1.36399587210093</v>
+        <v>-10.8875021431137</v>
       </c>
       <c r="AIT2" s="2">
-        <v>-1.38756113219629</v>
+        <v>5.14304943016168</v>
       </c>
       <c r="AIU2" s="2">
-        <v>-1.38552098176043</v>
+        <v>-1.47607405591365</v>
       </c>
       <c r="AIV2" s="2">
-        <v>-1.39171098094938</v>
+        <v>0.203598568038174</v>
       </c>
       <c r="AIW2" s="2">
-        <v>-1.38717092874979</v>
+        <v>3.38879029736041</v>
       </c>
       <c r="AIX2" s="2">
-        <v>-1.38411265178822</v>
+        <v>-6.59239011365532</v>
       </c>
       <c r="AIY2" s="2">
-        <v>-1.39586245626335</v>
+        <v>4.45668601877749</v>
       </c>
       <c r="AIZ2" s="2">
-        <v>-1.3794700676844</v>
+        <v>11.3216358709175</v>
       </c>
       <c r="AJA2" s="2">
-        <v>-1.38986940476905</v>
+        <v>-0.502530583249175</v>
       </c>
       <c r="AJB2" s="2">
-        <v>-1.3721396381258</v>
+        <v>-10.1282349729841</v>
       </c>
       <c r="AJC2" s="2">
-        <v>-1.36633717673918</v>
+        <v>-1.40727919435124</v>
       </c>
       <c r="AJD2" s="2">
-        <v>-1.36120846678435</v>
+        <v>-9.971750811098961</v>
       </c>
       <c r="AJE2" s="2">
-        <v>-1.3546963228789</v>
+        <v>-1.0149096741847</v>
       </c>
       <c r="AJF2" s="2">
-        <v>-1.36964749959422</v>
+        <v>5.13781267841716</v>
       </c>
       <c r="AJG2" s="2">
-        <v>-1.34782003910168</v>
+        <v>-24.5477471358757</v>
       </c>
       <c r="AJH2" s="2">
-        <v>-1.35663174693036</v>
+        <v>-2.27539688353226</v>
       </c>
       <c r="AJI2" s="2">
-        <v>-1.34885794026326</v>
+        <v>-7.94703025635357</v>
       </c>
       <c r="AJJ2" s="2">
-        <v>-1.33403764804989</v>
+        <v>-0.331290610999073</v>
       </c>
       <c r="AJK2" s="2">
-        <v>-1.32341184448018</v>
+        <v>-0.550453999098102</v>
       </c>
       <c r="AJL2" s="2">
-        <v>-1.33655616991179</v>
+        <v>2.59750709551475</v>
       </c>
       <c r="AJM2" s="2">
-        <v>-1.32179939792227</v>
+        <v>-4.23278523145691</v>
       </c>
       <c r="AJN2" s="2">
-        <v>-1.31700981107056</v>
+        <v>-0.921747960785317</v>
       </c>
       <c r="AJO2" s="2">
-        <v>-1.30509544666562</v>
+        <v>-8.06064046802887</v>
       </c>
       <c r="AJP2" s="2">
-        <v>-1.2976175337815</v>
+        <v>-0.63802506978314</v>
       </c>
       <c r="AJQ2" s="2">
-        <v>-1.28270569113433</v>
+        <v>2.71602190277295</v>
       </c>
       <c r="AJR2" s="2">
-        <v>-1.28471433355913</v>
+        <v>4.34229663266886</v>
       </c>
       <c r="AJS2" s="2">
-        <v>-1.29297830766002</v>
+        <v>2.17954668433217</v>
       </c>
       <c r="AJT2" s="2">
-        <v>-1.26938435675394</v>
+        <v>-1.3095089477172</v>
       </c>
       <c r="AJU2" s="2">
-        <v>-1.25848434841432</v>
+        <v>-8.103206563294471</v>
       </c>
       <c r="AJV2" s="2">
-        <v>-1.25699474902474</v>
+        <v>-8.21592434479936</v>
       </c>
       <c r="AJW2" s="2">
-        <v>-1.25025920537545</v>
+        <v>-18.7637036344451</v>
       </c>
       <c r="AJX2" s="2">
-        <v>-1.25241563624478</v>
+        <v>1.77158300337202</v>
       </c>
       <c r="AJY2" s="2">
-        <v>-1.23581985426634</v>
+        <v>-0.267817428540892</v>
       </c>
       <c r="AJZ2" s="2">
-        <v>-1.23827818415468</v>
+        <v>-30.4728198742035</v>
       </c>
       <c r="AKA2" s="2">
-        <v>-1.22994780125783</v>
+        <v>-20.4726484866438</v>
       </c>
       <c r="AKB2" s="2">
-        <v>-1.22118781679917</v>
+        <v>7.33955907474033</v>
       </c>
       <c r="AKC2" s="2">
-        <v>-1.22231239767559</v>
+        <v>-3.72209219791766</v>
       </c>
       <c r="AKD2" s="2">
-        <v>-1.20943494810323</v>
+        <v>-2.15490621711784</v>
       </c>
       <c r="AKE2" s="2">
-        <v>-1.20262493909059</v>
+        <v>0.345457186776546</v>
       </c>
       <c r="AKF2" s="2">
-        <v>-1.19511584455439</v>
+        <v>-3.80692882733982</v>
       </c>
       <c r="AKG2" s="2">
-        <v>-1.20041547161654</v>
+        <v>-8.302659540198629</v>
       </c>
       <c r="AKH2" s="2">
-        <v>-1.19526047140523</v>
+        <v>-5.26490601064691</v>
       </c>
       <c r="AKI2" s="2">
-        <v>-1.19237980576946</v>
+        <v>3.39253928731059</v>
       </c>
       <c r="AKJ2" s="2">
-        <v>-1.19027976460454</v>
+        <v>-0.304987896138196</v>
       </c>
       <c r="AKK2" s="2">
-        <v>-1.18789863496387</v>
+        <v>6.02405608901732</v>
       </c>
       <c r="AKL2" s="2">
-        <v>-1.1970851414394</v>
+        <v>-2.30120911267394</v>
       </c>
       <c r="AKM2" s="2">
-        <v>-1.18582303356526</v>
+        <v>0.56981399828688</v>
       </c>
       <c r="AKN2" s="2">
-        <v>-1.19544251769421</v>
+        <v>0.453679892604702</v>
       </c>
       <c r="AKO2" s="2">
-        <v>-1.18335426690963</v>
+        <v>-22.378637211713</v>
       </c>
       <c r="AKP2" s="2">
-        <v>-1.1866898389044</v>
+        <v>-2.12408738341683</v>
       </c>
       <c r="AKQ2" s="2">
-        <v>-1.17684178113839</v>
+        <v>-6.93597126834512</v>
       </c>
       <c r="AKR2" s="2">
-        <v>-1.17888742485125</v>
+        <v>1.71421245101405</v>
       </c>
       <c r="AKS2" s="2">
-        <v>-1.18103012020251</v>
+        <v>7.06844543775179</v>
       </c>
       <c r="AKT2" s="2">
-        <v>-1.18849213819174</v>
+        <v>-17.7666904021552</v>
       </c>
       <c r="AKU2" s="2">
-        <v>-1.19238237433646</v>
+        <v>-4.38789467274406</v>
       </c>
       <c r="AKV2" s="2">
-        <v>-1.18401835843581</v>
+        <v>-23.5854650423101</v>
       </c>
       <c r="AKW2" s="2">
-        <v>-1.1833596494264</v>
+        <v>-1.89821547739568</v>
       </c>
       <c r="AKX2" s="2">
-        <v>-1.21261365881863</v>
+        <v>-2.20177734294084</v>
       </c>
       <c r="AKY2" s="2">
-        <v>-1.19532358489384</v>
+        <v>-9.49212585774587</v>
       </c>
       <c r="AKZ2" s="2">
-        <v>-1.20526982619248</v>
+        <v>-8.26733647538998</v>
       </c>
       <c r="ALA2" s="2">
-        <v>-1.20678375655231</v>
+        <v>19.6025722507802</v>
       </c>
       <c r="ALB2" s="2">
-        <v>-1.22226978440306</v>
+        <v>-6.05680023205889</v>
       </c>
       <c r="ALC2" s="2">
-        <v>-1.22563802583713</v>
+        <v>14.3742844813053</v>
       </c>
       <c r="ALD2" s="2">
-        <v>-1.23244067928888</v>
+        <v>8.624761955353369</v>
       </c>
       <c r="ALE2" s="2">
-        <v>-1.23240791380157</v>
+        <v>-2.48296312690907</v>
       </c>
       <c r="ALF2" s="2">
-        <v>-1.24561148343887</v>
+        <v>0.0692152670008998</v>
       </c>
       <c r="ALG2" s="2">
-        <v>-1.26649037922251</v>
+        <v>-5.11750288440198</v>
       </c>
       <c r="ALH2" s="2">
-        <v>-1.25901758785365</v>
+        <v>1.87583165712644</v>
       </c>
       <c r="ALI2" s="2">
-        <v>-1.27188544479453</v>
+        <v>-11.564992533778</v>
       </c>
       <c r="ALJ2" s="2">
-        <v>-1.27223453485456</v>
+        <v>-11.7825280179322</v>
       </c>
       <c r="ALK2" s="2">
-        <v>-1.29023618639828</v>
+        <v>-9.810538896495689</v>
       </c>
       <c r="ALL2" s="2">
-        <v>-1.30805384631627</v>
+        <v>-31.413055482425</v>
       </c>
       <c r="ALM2" s="2">
-        <v>-1.32520646371853</v>
+        <v>-1.37914464532764</v>
       </c>
     </row>
   </sheetData>
